--- a/analysis/output/overview.xlsx
+++ b/analysis/output/overview.xlsx
@@ -440,7 +440,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,13 +450,16 @@
   <cols>
     <col width="14" customWidth="1" min="1" max="1"/>
     <col width="14" customWidth="1" min="2" max="2"/>
-    <col width="20" customWidth="1" min="3" max="3"/>
+    <col width="19" customWidth="1" min="3" max="3"/>
     <col width="14" customWidth="1" min="4" max="4"/>
     <col width="17" customWidth="1" min="5" max="5"/>
     <col width="15" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="21" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="16" customWidth="1" min="11" max="11"/>
+    <col width="22" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -505,34 +508,58 @@
           <t>Total Views</t>
         </is>
       </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Total Plays</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Total Follows</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Average Follows</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
         <v>635</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>422704</v>
+        <v>422303</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>665.6755905511811</v>
+        <v>665.044094488189</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>21668</v>
+        <v>21664</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>1302</v>
+        <v>1300</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>23244</v>
+        <v>23235</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>667070</v>
+        <v>670605</v>
+      </c>
+      <c r="J2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="L2" s="2" t="n">
+        <v>0.1401574803149606</v>
       </c>
     </row>
   </sheetData>
@@ -763,23 +790,23 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>733</v>
+        <v>1039</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>383</v>
+        <v>454</v>
       </c>
       <c r="P2" t="inlineStr"/>
       <c r="Q2" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T2" t="n">
         <v>1</v>
@@ -788,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="W2" t="inlineStr"/>
       <c r="X2" t="inlineStr"/>
@@ -797,7 +824,7 @@
       <c r="AA2" t="inlineStr"/>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-3.cdninstagram.com/v/t51.82787-15/568657707_18538968823017986_7518985644849776478_n.heic?stp=dst-jpg_e35_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiRkVFRC5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=ndawUiLze3kQ7kNvwFHqPCt&amp;_nc_oc=Adm7_ZFdRBwjKUctu2DkQedbrM_4y9riAB24NeU92ML6lQ3vFM_lU7gCK3q6jgbUGzBHBx4trxsNWGfz-pe--Q2D&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-3.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=UX7N9kGiqNNdGFe8DDb9yQ&amp;oh=00_AfeeMatmaAHB13GGfrQr5KyguD6nL37JFO1edYW-42Bl7Q&amp;oe=68FF1658</t>
+          <t>https://scontent-lga3-3.cdninstagram.com/v/t51.82787-15/568657707_18538968823017986_7518985644849776478_n.heic?stp=dst-jpg_e35_tt6&amp;_nc_cat=110&amp;ccb=7-5&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiRkVFRC5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=TZS989yAqCUQ7kNvwHTJ3Gy&amp;_nc_oc=Admn0GeWH3NY0P0-5NLLcpA-pIA0SpgkoFecnrJ9od8sxubNFJqlNIjRTJXOSGmRWDwlzw_A0AB5pk77_XcWUXoq&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-3.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=kxIeYQe8v096bVlfjnK6og&amp;oh=00_AfhMqSEm-bfdu5xy9Y32GuafS6CtU_3WFdd35siEkRqItA&amp;oe=69294658</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr"/>
@@ -858,13 +885,13 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>1409</v>
+        <v>1677</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>542</v>
+        <v>559</v>
       </c>
       <c r="P3" t="inlineStr"/>
       <c r="Q3" t="n">
@@ -892,7 +919,7 @@
       <c r="AA3" t="inlineStr"/>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-1.cdninstagram.com/v/t51.75761-15/512351074_18514178959017986_5306546236641631107_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0FST1VTRUxfSVRFTS5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=AXPb9Df5o3AQ7kNvwH50K5J&amp;_nc_oc=AdlMIq9TVR6OFf-2JPTL-83vmJmVw8PS5G6iCQmwKICoWVGxDd_yyYdO9DCxYglgjQ4IfcA2NSc268PfSYvgB1A5&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-1.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=UX7N9kGiqNNdGFe8DDb9yQ&amp;oh=00_Afe2KOo0hNQNMoPAJRbgfBw9sqtLJLntmQo6Pj1oLWCFTw&amp;oe=68FEEB28</t>
+          <t>https://scontent-lga3-1.cdninstagram.com/v/t51.75761-15/512351074_18514178959017986_5306546236641631107_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=102&amp;ccb=7-5&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0FST1VTRUxfSVRFTS5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=jI2keGfJs8oQ7kNvwEMvH4Q&amp;_nc_oc=AdkpmYlOXV_9u2eD1KSBpYy6V3nk_HqJ7gZg2HnNWKmSPJLqBgXkakHLIRjLSFIe7X-m_TZHr-8A3Ss2GZe1x9WI&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-1.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=kxIeYQe8v096bVlfjnK6og&amp;oh=00_AfichyW4VQjDFL-4bz_wmjbCID7zJ8WsLfQVJ7zZVOD98g&amp;oe=69291B28</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr"/>
@@ -955,13 +982,13 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>1279</v>
+        <v>1579</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>522</v>
+        <v>539</v>
       </c>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="n">
@@ -989,7 +1016,7 @@
       <c r="AA4" t="inlineStr"/>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-2.cdninstagram.com/v/t51.29350-15/503029011_684002667821654_741440317829599931_n.heic?stp=dst-jpg_e35_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiRkVFRC5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=FnWlkyne8ugQ7kNvwGLr3Bt&amp;_nc_oc=AdnUyGGoCK6JeN_CteL4InHugF_EoVKMinzykUYRbCqDY5b8jc_ro04tPUai9EtXdiZgjFmnjYyUxNl8kie0JUIU&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-2.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=UX7N9kGiqNNdGFe8DDb9yQ&amp;oh=00_Afflw38ZihKpi-OcpFzgY3LcInjgS3jdnFFkj8mZMwAdeg&amp;oe=68FEFCBF</t>
+          <t>https://scontent-lga3-2.cdninstagram.com/v/t51.29350-15/503029011_684002667821654_741440317829599931_n.heic?stp=dst-jpg_e35_tt6&amp;_nc_cat=100&amp;ccb=7-5&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiRkVFRC5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=-BpF9otM7okQ7kNvwFRCN6X&amp;_nc_oc=AdmmnQOwcKTEGUlAu35BIizAfG-LK333shxEWzxtqUwht7q8RFV3TZv3KEKC16UFCT1SVJteBsnXUA12lEw5Bt4V&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-2.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=kxIeYQe8v096bVlfjnK6og&amp;oh=00_Afid5GVReBXVXnzP3OSsCOYYxqcfDEhtC6LCsURGIMgNdw&amp;oe=69292CBF</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr"/>
@@ -1050,13 +1077,13 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>939</v>
+        <v>1213</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>309</v>
+        <v>327</v>
       </c>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="n">
@@ -1084,7 +1111,7 @@
       <c r="AA5" t="inlineStr"/>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-1.cdninstagram.com/v/t51.29350-15/502944752_1796413250924033_5760283920086576475_n.heic?stp=dst-jpg_e35_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0FST1VTRUxfSVRFTS5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=vHbz9GPLtBYQ7kNvwEvdP6R&amp;_nc_oc=Adld4_XkeyeLISupNUcRgvI6l_TJtrFDN6rPbvlbboIYuu7srFQjBTqDiapn0b87WOHNx6E6uIQMEbOgpScJGXSN&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-1.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=UX7N9kGiqNNdGFe8DDb9yQ&amp;oh=00_AfdYtGiWvxWvmTIX_fvj9JPX-yTDMUSeDOaqEwdc3AYkaQ&amp;oe=68FEFA62</t>
+          <t>https://scontent-lga3-1.cdninstagram.com/v/t51.29350-15/502944752_1796413250924033_5760283920086576475_n.heic?stp=dst-jpg_e35_tt6&amp;_nc_cat=103&amp;ccb=7-5&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0FST1VTRUxfSVRFTS5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=NLGZ1kLCddgQ7kNvwFvef1h&amp;_nc_oc=AdljjrFoymPMeLV4KQfehzMZ2i55LqxjlyN8EjSMemJFiFrbgQBGz4sCok-QtCJu5tgHkJvKH4CY1JNxrIR6riUP&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-1.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=kxIeYQe8v096bVlfjnK6og&amp;oh=00_AfilfXVpmReslCxXhDLuTXoIWe-eui_LM3XavG5Hr97XWA&amp;oe=69292A62</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr"/>
@@ -1146,13 +1173,13 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>979</v>
+        <v>985</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>617</v>
+        <v>620</v>
       </c>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="n">
@@ -1180,12 +1207,12 @@
       <c r="AA6" t="inlineStr"/>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-2.cdninstagram.com/o1/v/t2/f2/m86/AQMX3KvyHlo-BZ3hIAs_hh_TfeHgsVCexwX_ECluEo64zlD7Fj6ORJoJer9irjOVVc9MHRhtjyv_LSP4KFXYrb2h_2so5zOBJCY2KcY.mp4?_nc_cat=109&amp;_nc_sid=5e9851&amp;_nc_ht=scontent-lga3-2.cdninstagram.com&amp;_nc_ohc=jEXmamSIUxYQ7kNvwFrXXak&amp;efg=eyJ2ZW5jb2RlX3RhZyI6Inhwdl9wcm9ncmVzc2l2ZS5JTlNUQUdSQU0uQ0xJUFMuQzMuMzYwLmRhc2hfYmFzZWxpbmVfM192MSIsInhwdl9hc3NldF9pZCI6MzI2NTU4MDc0NjkxNjA1NiwidmlfdXNlY2FzZV9pZCI6MTAwOTksImR1cmF0aW9uX3MiOjcsInVybGdlbl9zb3VyY2UiOiJ3d3cifQ%3D%3D&amp;ccb=17-1&amp;vs=478efb5da6252753&amp;_nc_vs=HBksFQIYUmlnX3hwdl9yZWVsc19wZXJtYW5lbnRfc3JfcHJvZC9EMjQwNDg1Rjk5QjVDNzU5QUZBMDAyQUNFNEZCMTY4M192aWRlb19kYXNoaW5pdC5tcDQVAALIARIAFQIYOnBhc3N0aHJvdWdoX2V2ZXJzdG9yZS9HTDFkN2gyVldOS2k4bW9HQUpmVlhMS0FMSDVkYnFfRUFBQUYVAgLIARIAKAAYABsCiAd1c2Vfb2lsATEScHJvZ3Jlc3NpdmVfcmVjaXBlATEVAAAmsIO-xuiBzQsVAigCQzMsF0AcAAAAAAAAGBJkYXNoX2Jhc2VsaW5lXzNfdjERAHX-B2XmnQEA&amp;_nc_gid=UX7N9kGiqNNdGFe8DDb9yQ&amp;edm=AM6HXa8EAAAA&amp;_nc_zt=28&amp;oh=00_AfdLTfp-Hp_Q_zp-Tb8rrXs4PwSQlkPSZnvyVjk7HmGNDQ&amp;oe=68FAF10E</t>
+          <t>https://scontent-lga3-2.cdninstagram.com/o1/v/t2/f2/m86/AQMX3KvyHlo-BZ3hIAs_hh_TfeHgsVCexwX_ECluEo64zlD7Fj6ORJoJer9irjOVVc9MHRhtjyv_LSP4KFXYrb2h_2so5zOBJCY2KcY.mp4?_nc_cat=109&amp;_nc_sid=5e9851&amp;_nc_ht=scontent-lga3-2.cdninstagram.com&amp;_nc_ohc=iCPG3XICy-sQ7kNvwF4BtOX&amp;efg=eyJ2ZW5jb2RlX3RhZyI6Inhwdl9wcm9ncmVzc2l2ZS5JTlNUQUdSQU0uQ0xJUFMuQzMuMzYwLmRhc2hfYmFzZWxpbmVfM192MSIsInhwdl9hc3NldF9pZCI6MzI2NTU4MDc0NjkxNjA1NiwiYXNzZXRfYWdlX2RheXMiOjE3NywidmlfdXNlY2FzZV9pZCI6MTAwOTksImR1cmF0aW9uX3MiOjcsInVybGdlbl9zb3VyY2UiOiJ3d3cifQ%3D%3D&amp;ccb=17-1&amp;vs=478efb5da6252753&amp;_nc_vs=HBksFQIYUmlnX3hwdl9yZWVsc19wZXJtYW5lbnRfc3JfcHJvZC9EMjQwNDg1Rjk5QjVDNzU5QUZBMDAyQUNFNEZCMTY4M192aWRlb19kYXNoaW5pdC5tcDQVAALIARIAFQIYOnBhc3N0aHJvdWdoX2V2ZXJzdG9yZS9HTDFkN2gyVldOS2k4bW9HQUpmVlhMS0FMSDVkYnFfRUFBQUYVAgLIARIAKAAYABsCiAd1c2Vfb2lsATEScHJvZ3Jlc3NpdmVfcmVjaXBlATEVAAAmsIO-xuiBzQsVAigCQzMsF0AcAAAAAAAAGBJkYXNoX2Jhc2VsaW5lXzNfdjERAHX-B2XmnQEA&amp;_nc_gid=kxIeYQe8v096bVlfjnK6og&amp;edm=AM6HXa8EAAAA&amp;_nc_zt=28&amp;oh=00_Afh4GvBWAIOPriWIpuwDnDOCe8v0x-D7-DUM8d8Okh9NGQ&amp;oe=6925210E</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-2.cdninstagram.com/v/t51.75761-15/501609068_18509444266017986_3287760354262891020_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0xJUFMuYmVzdF9pbWFnZV91cmxnZW4uQzMifQ%3D%3D&amp;_nc_ohc=N8asX8rP2OAQ7kNvwE6gz6e&amp;_nc_oc=AdnHIjnGukilNNEwtPI_h0fxVTC-qc6oot0REZ94XdKhkCeDp2IrOEkDt9EIAjuZnMxmGx22Kb4Z2KxIGD40bZ5C&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-2.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=UX7N9kGiqNNdGFe8DDb9yQ&amp;oh=00_Afc1ypAWqaQnM7Q-k_JfHsI7A7rpHix_5iMjs-UemrVdnA&amp;oe=68FEF502</t>
+          <t>https://scontent-lga3-2.cdninstagram.com/v/t51.75761-15/501609068_18509444266017986_3287760354262891020_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=100&amp;ccb=7-5&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0xJUFMuYmVzdF9pbWFnZV91cmxnZW4uQzMifQ%3D%3D&amp;_nc_ohc=BxIJpM1R9x0Q7kNvwG3n43v&amp;_nc_oc=AdlryCRkFFN2F-vZeuE9dfP5KOi-yv9kU66XCwRAfiXqdI33dg62RyOnvwXcLm8_XdtEXz7_zktQSEeAg1iG0ok3&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-2.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=kxIeYQe8v096bVlfjnK6og&amp;oh=00_Afjtosss2Hhwta_9tU3cXg_UjpXJjz03mBqStmUb0Bj84Q&amp;oe=69292502</t>
         </is>
       </c>
     </row>
@@ -1246,13 +1273,13 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>2218</v>
+        <v>2413</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>1048</v>
+        <v>1059</v>
       </c>
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="n">
@@ -1280,7 +1307,7 @@
       <c r="AA7" t="inlineStr"/>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-1.cdninstagram.com/v/t51.29350-15/500617332_671691182301923_3587049637446549406_n.heic?stp=dst-jpg_e35_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0FST1VTRUxfSVRFTS5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=ve1aaLYsBkMQ7kNvwHXZSmv&amp;_nc_oc=AdnIc_yIZptTaCQbhfEhg4h_kKdOvke405yL7i9QQL8N4flLt02sAPA2cAqJBwQnXgJQP4oaXpP7iejfEkYNii5E&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-1.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=UX7N9kGiqNNdGFe8DDb9yQ&amp;oh=00_AfeyDEhpgjoq_ORZA_vWynGM-_CxUMLDrxfcVBqsLPFM8A&amp;oe=68FF0B0D</t>
+          <t>https://scontent-lga3-3.cdninstagram.com/v/t51.29350-15/500617332_671691182301923_3587049637446549406_n.heic?stp=dst-jpg_e35_tt6&amp;_nc_cat=108&amp;ccb=7-5&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0FST1VTRUxfSVRFTS5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=0s4BpNC5Xr0Q7kNvwHf8sB2&amp;_nc_oc=AdkCzCMfWdkSfMc_fVFMtrRunhIL37GhaVjApsl7dUoQI-RGjMa0HYxXKY_v37OAwCbdBC7Een0rfsQnOawhzQ-A&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-3.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=kxIeYQe8v096bVlfjnK6og&amp;oh=00_Afi5KYc99YrfDQXtPFNnNgpFHH9Fiw3TRr3OSXcIE7Dupg&amp;oe=69293B0D</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr"/>
@@ -1340,13 +1367,13 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>992</v>
+        <v>1000</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>669</v>
+        <v>681</v>
       </c>
       <c r="P8" t="inlineStr"/>
       <c r="Q8" t="n">
@@ -1374,12 +1401,12 @@
       <c r="AA8" t="inlineStr"/>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-2.cdninstagram.com/o1/v/t2/f2/m367/AQODEFO-_GSr2pWlt-9LAw33Nhu4EaBq3n-MNKlaX4UEp3coLtIohPxsLwPX0hcUG-abtpQSf94Y4c329RweemYn9oxIBCtUNa6IOoc.mp4?_nc_cat=100&amp;_nc_sid=5e9851&amp;_nc_ht=scontent-lga3-2.cdninstagram.com&amp;_nc_ohc=ScS7vzs2cOIQ7kNvwEBguMa&amp;efg=eyJ2ZW5jb2RlX3RhZyI6Inhwdl9wcm9ncmVzc2l2ZS5JTlNUQUdSQU0uQ0xJUFMuQzMuNzIwLmRhc2hfYmFzZWxpbmVfMV92MSIsInhwdl9hc3NldF9pZCI6NzIyNDU1NTA3MTIzODA2LCJ2aV91c2VjYXNlX2lkIjoxMDA5OSwiZHVyYXRpb25fcyI6NTQsInVybGdlbl9zb3VyY2UiOiJ3d3cifQ%3D%3D&amp;ccb=17-1&amp;vs=9970ffad754a0ceb&amp;_nc_vs=HBksFQIYQGlnX2VwaGVtZXJhbC9FQTQ5MTdFQUY2MUNERkFFQjQ0MjAyNzJGMzlBRURCMl92aWRlb19kYXNoaW5pdC5tcDQVAALIARIAFQIYOnBhc3N0aHJvdWdoX2V2ZXJzdG9yZS9HUElnN0IyZ0MyZlByWThEQUJCSlVRTURSSmRzYnFfRUFBQUYVAgLIARIAKAAYABsCiAd1c2Vfb2lsATEScHJvZ3Jlc3NpdmVfcmVjaXBlATEVAAAmvPnx_bjEyAIVAigCQzMsF0BLWZmZmZmaGBJkYXNoX2Jhc2VsaW5lXzFfdjERAHX-B2XmnQEA&amp;_nc_gid=UX7N9kGiqNNdGFe8DDb9yQ&amp;edm=AM6HXa8EAAAA&amp;_nc_zt=28&amp;oh=00_AfchQUMwGoWwy-6nT0t7hfZTE4DsL0V2LR1QAe19kSSZ-Q&amp;oe=68FEF4A1</t>
+          <t>https://scontent-lga3-2.cdninstagram.com/o1/v/t2/f2/m367/AQODEFO-_GSr2pWlt-9LAw33Nhu4EaBq3n-MNKlaX4UEp3coLtIohPxsLwPX0hcUG-abtpQSf94Y4c329RweemYn9oxIBCtUNa6IOoc.mp4?_nc_cat=100&amp;_nc_sid=5e9851&amp;_nc_ht=scontent-lga3-2.cdninstagram.com&amp;_nc_ohc=Z0Y3zl0D8fEQ7kNvwEV2WSy&amp;efg=eyJ2ZW5jb2RlX3RhZyI6Inhwdl9wcm9ncmVzc2l2ZS5JTlNUQUdSQU0uQ0xJUFMuQzMuNzIwLmRhc2hfYmFzZWxpbmVfMV92MSIsInhwdl9hc3NldF9pZCI6NzIyNDU1NTA3MTIzODA2LCJhc3NldF9hZ2VfZGF5cyI6MTc5LCJ2aV91c2VjYXNlX2lkIjoxMDA5OSwiZHVyYXRpb25fcyI6NTQsInVybGdlbl9zb3VyY2UiOiJ3d3cifQ%3D%3D&amp;ccb=17-1&amp;vs=9970ffad754a0ceb&amp;_nc_vs=HBksFQIYQGlnX2VwaGVtZXJhbC9FQTQ5MTdFQUY2MUNERkFFQjQ0MjAyNzJGMzlBRURCMl92aWRlb19kYXNoaW5pdC5tcDQVAALIARIAFQIYOnBhc3N0aHJvdWdoX2V2ZXJzdG9yZS9HUElnN0IyZ0MyZlByWThEQUJCSlVRTURSSmRzYnFfRUFBQUYVAgLIARIAKAAYABsCiAd1c2Vfb2lsATEScHJvZ3Jlc3NpdmVfcmVjaXBlATEVAAAmvPnx_bjEyAIVAigCQzMsF0BLWZmZmZmaGBJkYXNoX2Jhc2VsaW5lXzFfdjERAHX-B2XmnQEA&amp;_nc_gid=kxIeYQe8v096bVlfjnK6og&amp;edm=AM6HXa8EAAAA&amp;_nc_zt=28&amp;oh=00_Afisk3pyerFod9z-ufwRXscuU9_uT5G-dFf1Bwetgrbdvw&amp;oe=692924A1</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-2.cdninstagram.com/v/t51.75761-15/501966165_18509071426017986_7380127864095069413_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0xJUFMuYmVzdF9pbWFnZV91cmxnZW4uQzMifQ%3D%3D&amp;_nc_ohc=C2RAe28ntqEQ7kNvwG4xFsK&amp;_nc_oc=Adn-mflLuOc57A-L4guCYeyt3BsamuApp98E3EmIt7FshqfYM7sWn4xUvfkiW9VuwGLx822bIf6H0vuwmE1S2QbX&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-2.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=UX7N9kGiqNNdGFe8DDb9yQ&amp;oh=00_AfcJMA2NNjL6uJo8D2uYBFbI8_rTpU8JRN_mQtLZfEU0Ew&amp;oe=68FEE65C</t>
+          <t>https://scontent-lga3-2.cdninstagram.com/v/t51.75761-15/501966165_18509071426017986_7380127864095069413_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=107&amp;ccb=7-5&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0xJUFMuYmVzdF9pbWFnZV91cmxnZW4uQzMifQ%3D%3D&amp;_nc_ohc=zt-uRCU3P1oQ7kNvwGnNmsX&amp;_nc_oc=Adn3IoTvuhckiQy7_LZZ41uL6YiyLMOWPNOOFSjyZTdj4SsubOIm0kWB8_ySrTZGk8WT3egT0DwFLySg6Z17qzI1&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-2.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=kxIeYQe8v096bVlfjnK6og&amp;oh=00_AfgAaJd9UW4p6jq-yXALBIVYC5kPyiKh4I6rj7CFrKW-2A&amp;oe=6929165C</t>
         </is>
       </c>
     </row>
@@ -1440,13 +1467,13 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>1269</v>
+        <v>1271</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>817</v>
+        <v>822</v>
       </c>
       <c r="P9" t="inlineStr"/>
       <c r="Q9" t="n">
@@ -1474,12 +1501,12 @@
       <c r="AA9" t="inlineStr"/>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-3.cdninstagram.com/o1/v/t2/f2/m367/AQOkd5YZ_nF7kfVyO9ofmkFXYfNxFm5GbFs77iUqp9wTaUKN3CutOylAtqMaTnLDfSxdOrSLSFcpdHaTdoUq9sug48UPxkn3R2RF9Gc.mp4?_nc_cat=110&amp;_nc_sid=5e9851&amp;_nc_ht=scontent-lga3-3.cdninstagram.com&amp;_nc_ohc=52L9txo_EpIQ7kNvwGY8LHt&amp;efg=eyJ2ZW5jb2RlX3RhZyI6Inhwdl9wcm9ncmVzc2l2ZS5JTlNUQUdSQU0uQ0xJUFMuQzMuNzIwLmRhc2hfYmFzZWxpbmVfMV92MSIsInhwdl9hc3NldF9pZCI6MzYwOTYzMDk2MjY3MzIwOSwidmlfdXNlY2FzZV9pZCI6MTAwOTksImR1cmF0aW9uX3MiOjU5LCJ1cmxnZW5fc291cmNlIjoid3d3In0%3D&amp;ccb=17-1&amp;vs=938451f28220293e&amp;_nc_vs=HBksFQIYQGlnX2VwaGVtZXJhbC8xQTRCRjUxMzVDMEU5QjNFQThCRTg1MkMyRTcxNTk4Q192aWRlb19kYXNoaW5pdC5tcDQVAALIARIAFQIYOnBhc3N0aHJvdWdoX2V2ZXJzdG9yZS9HSV81M1IzdzV5RHlYbVlDQU5zNXlZaUdlbW9iYnFfRUFBQUYVAgLIARIAKAAYABsCiAd1c2Vfb2lsATEScHJvZ3Jlc3NpdmVfcmVjaXBlATEVAAAm8pjntJa86QwVAigCQzMsF0BNu6XjU_fPGBJkYXNoX2Jhc2VsaW5lXzFfdjERAHX-B2XmnQEA&amp;_nc_gid=UX7N9kGiqNNdGFe8DDb9yQ&amp;edm=AM6HXa8EAAAA&amp;_nc_zt=28&amp;oh=00_AffD115bvAM42mQDsQ9TYyHYlif3oR0BbZqNHhQXpLZlKg&amp;oe=68FEEDC7</t>
+          <t>https://scontent-lga3-3.cdninstagram.com/o1/v/t2/f2/m367/AQOkd5YZ_nF7kfVyO9ofmkFXYfNxFm5GbFs77iUqp9wTaUKN3CutOylAtqMaTnLDfSxdOrSLSFcpdHaTdoUq9sug48UPxkn3R2RF9Gc.mp4?_nc_cat=110&amp;_nc_sid=5e9851&amp;_nc_ht=scontent-lga3-3.cdninstagram.com&amp;_nc_ohc=MWt_8LXjyOcQ7kNvwEIEKIg&amp;efg=eyJ2ZW5jb2RlX3RhZyI6Inhwdl9wcm9ncmVzc2l2ZS5JTlNUQUdSQU0uQ0xJUFMuQzMuNzIwLmRhc2hfYmFzZWxpbmVfMV92MSIsInhwdl9hc3NldF9pZCI6MzYwOTYzMDk2MjY3MzIwOSwiYXNzZXRfYWdlX2RheXMiOjE4MCwidmlfdXNlY2FzZV9pZCI6MTAwOTksImR1cmF0aW9uX3MiOjU5LCJ1cmxnZW5fc291cmNlIjoid3d3In0%3D&amp;ccb=17-1&amp;vs=938451f28220293e&amp;_nc_vs=HBksFQIYQGlnX2VwaGVtZXJhbC8xQTRCRjUxMzVDMEU5QjNFQThCRTg1MkMyRTcxNTk4Q192aWRlb19kYXNoaW5pdC5tcDQVAALIARIAFQIYOnBhc3N0aHJvdWdoX2V2ZXJzdG9yZS9HSV81M1IzdzV5RHlYbVlDQU5zNXlZaUdlbW9iYnFfRUFBQUYVAgLIARIAKAAYABsCiAd1c2Vfb2lsATEScHJvZ3Jlc3NpdmVfcmVjaXBlATEVAAAm8pjntJa86QwVAigCQzMsF0BNu6XjU_fPGBJkYXNoX2Jhc2VsaW5lXzFfdjERAHX-B2XmnQEA&amp;_nc_gid=kxIeYQe8v096bVlfjnK6og&amp;edm=AM6HXa8EAAAA&amp;_nc_zt=28&amp;oh=00_AfgMO10jgoT1DVdF1Y9APbAHs2rOp2sEBLCNMYJaKn6P5g&amp;oe=69291DC7</t>
         </is>
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-3.cdninstagram.com/v/t51.75761-15/501578031_18508688632017986_2872941376557664473_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0xJUFMuYmVzdF9pbWFnZV91cmxnZW4uQzMifQ%3D%3D&amp;_nc_ohc=90EEKQ1TFiIQ7kNvwGQULUb&amp;_nc_oc=AdlSh42zvpdSzNpw-RoEth4JcF4Tg22dUsRB83b9VlGq8OS17XrXcM5d64xYScKOQ3M7JMAB-O2WmE6zWetSWVPE&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-3.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=UX7N9kGiqNNdGFe8DDb9yQ&amp;oh=00_AfceEsM26V3iYprU5WkojjvTsbTvssOPe_AH6ukTqat-9w&amp;oe=68FEF41A</t>
+          <t>https://scontent-lga3-3.cdninstagram.com/v/t51.75761-15/501578031_18508688632017986_2872941376557664473_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=106&amp;ccb=7-5&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0xJUFMuYmVzdF9pbWFnZV91cmxnZW4uQzMifQ%3D%3D&amp;_nc_ohc=fb_ppJ7qOg0Q7kNvwGKkwJw&amp;_nc_oc=Adkej4twaz5Xl4dr6kfFyfDIIp85xCbZyoVPIXpWcsV9iZ47rJCPa2h5HxgPNKxVUvN4rKpWy7Q27dFVJsbpow9m&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-3.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=kxIeYQe8v096bVlfjnK6og&amp;oh=00_Afis9FW4KsRVsqsosQh_CDbf8epMTiCllxN9r6qwMNxmZw&amp;oe=6929241A</t>
         </is>
       </c>
     </row>
@@ -1541,13 +1568,13 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>1447</v>
+        <v>1457</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>934</v>
+        <v>942</v>
       </c>
       <c r="P10" t="inlineStr"/>
       <c r="Q10" t="n">
@@ -1575,12 +1602,12 @@
       <c r="AA10" t="inlineStr"/>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-3.cdninstagram.com/o1/v/t2/f2/m86/AQP7M-IGx8Dq86EZ5xkWGB75871QfrvnpC5H2d3R_95KYFeUBj_DwfWPbgOUm0D4qR6GFeUlaYtWofBBX8cNTAPO5BYvOTkgexDK1zE.mp4?_nc_cat=104&amp;_nc_sid=5e9851&amp;_nc_ht=scontent-lga3-3.cdninstagram.com&amp;_nc_ohc=KdXnGM_HFlsQ7kNvwEM6t6E&amp;efg=eyJ2ZW5jb2RlX3RhZyI6Inhwdl9wcm9ncmVzc2l2ZS5JTlNUQUdSQU0uQ0xJUFMuQzMuMzYwLmRhc2hfYmFzZWxpbmVfM192MSIsInhwdl9hc3NldF9pZCI6MTM5NDM3MzUyMTcxNTE4MiwidmlfdXNlY2FzZV9pZCI6MTAwOTksImR1cmF0aW9uX3MiOjI4LCJ1cmxnZW5fc291cmNlIjoid3d3In0%3D&amp;ccb=17-1&amp;vs=6f8946693b7f7726&amp;_nc_vs=HBksFQIYUmlnX3hwdl9yZWVsc19wZXJtYW5lbnRfc3JfcHJvZC8zRjREMzU3MzI1MzhBM0Y4MkRFMDQzQUE3MjE5MjRCRF92aWRlb19kYXNoaW5pdC5tcDQVAALIARIAFQIYOnBhc3N0aHJvdWdoX2V2ZXJzdG9yZS9HQ2hfMXgxYmhlQ1pqWllDQVBZRk9GQnlueVpoYnFfRUFBQUYVAgLIARIAKAAYABsCiAd1c2Vfb2lsATEScHJvZ3Jlc3NpdmVfcmVjaXBlATEVAAAm3L-Rp5yL-gQVAigCQzMsF0A8mZmZmZmaGBJkYXNoX2Jhc2VsaW5lXzNfdjERAHX-B2XmnQEA&amp;_nc_gid=UX7N9kGiqNNdGFe8DDb9yQ&amp;edm=AM6HXa8EAAAA&amp;_nc_zt=28&amp;oh=00_Afdsl1-xgczq2-3b4U55EaSmI1yQlLXRC3ppgKU320E3Ng&amp;oe=68FB1E3D</t>
+          <t>https://scontent-lga3-3.cdninstagram.com/o1/v/t2/f2/m86/AQP7M-IGx8Dq86EZ5xkWGB75871QfrvnpC5H2d3R_95KYFeUBj_DwfWPbgOUm0D4qR6GFeUlaYtWofBBX8cNTAPO5BYvOTkgexDK1zE.mp4?_nc_cat=104&amp;_nc_sid=5e9851&amp;_nc_ht=scontent-lga3-3.cdninstagram.com&amp;_nc_ohc=0aN95HYYJg0Q7kNvwFh4nev&amp;efg=eyJ2ZW5jb2RlX3RhZyI6Inhwdl9wcm9ncmVzc2l2ZS5JTlNUQUdSQU0uQ0xJUFMuQzMuMzYwLmRhc2hfYmFzZWxpbmVfM192MSIsInhwdl9hc3NldF9pZCI6MTM5NDM3MzUyMTcxNTE4MiwiYXNzZXRfYWdlX2RheXMiOjE4MSwidmlfdXNlY2FzZV9pZCI6MTAwOTksImR1cmF0aW9uX3MiOjI4LCJ1cmxnZW5fc291cmNlIjoid3d3In0%3D&amp;ccb=17-1&amp;vs=6f8946693b7f7726&amp;_nc_vs=HBksFQIYUmlnX3hwdl9yZWVsc19wZXJtYW5lbnRfc3JfcHJvZC8zRjREMzU3MzI1MzhBM0Y4MkRFMDQzQUE3MjE5MjRCRF92aWRlb19kYXNoaW5pdC5tcDQVAALIARIAFQIYOnBhc3N0aHJvdWdoX2V2ZXJzdG9yZS9HQ2hfMXgxYmhlQ1pqWllDQVBZRk9GQnlueVpoYnFfRUFBQUYVAgLIARIAKAAYABsCiAd1c2Vfb2lsATEScHJvZ3Jlc3NpdmVfcmVjaXBlATEVAAAm3L-Rp5yL-gQVAigCQzMsF0A8mZmZmZmaGBJkYXNoX2Jhc2VsaW5lXzNfdjERAHX-B2XmnQEA&amp;_nc_gid=kxIeYQe8v096bVlfjnK6og&amp;edm=AM6HXa8EAAAA&amp;_nc_zt=28&amp;oh=00_AfjsjK6fI2mg92LF8VC6PIQn7VLcStOihe1NDW8uLGl5Dw&amp;oe=69254E3D</t>
         </is>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-3.cdninstagram.com/v/t51.75761-15/501290421_18508511470017986_7554142252297462820_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0xJUFMuYmVzdF9pbWFnZV91cmxnZW4uQzMifQ%3D%3D&amp;_nc_ohc=0UuG9_kwBfcQ7kNvwGmST5v&amp;_nc_oc=AdmahIqsskJakRQ0pOyQByoW4cbTGl8VYjAuFX-L196NSLGApN7xTgw1IWbALZWYbgNN_-ADBb-vzwSfTPkRzL2x&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-3.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=UX7N9kGiqNNdGFe8DDb9yQ&amp;oh=00_AfdjAk2L8JIGGzxKHtoQGTXIo2UYW0n16LxlZaQhVqsxww&amp;oe=68FF17AA</t>
+          <t>https://scontent-lga3-3.cdninstagram.com/v/t51.75761-15/501290421_18508511470017986_7554142252297462820_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=104&amp;ccb=7-5&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0xJUFMuYmVzdF9pbWFnZV91cmxnZW4uQzMifQ%3D%3D&amp;_nc_ohc=2844TY36h9sQ7kNvwF589no&amp;_nc_oc=AdkqcB-Pr43uU3Vn5evA_zx-i1t95JGHtL4m6NWqN1oBcFK06CO0mj40ZLx7-LjnmluPG86J_z-MqthuD54E7BVX&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-3.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=kxIeYQe8v096bVlfjnK6og&amp;oh=00_AfiU1XUUY0f5rvM0zyLIH2cS4SEfpInttRW3n8hOuLXCkg&amp;oe=692947AA</t>
         </is>
       </c>
     </row>
@@ -1642,13 +1669,13 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>2081</v>
+        <v>2089</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>1071</v>
+        <v>1078</v>
       </c>
       <c r="P11" t="inlineStr"/>
       <c r="Q11" t="n">
@@ -1676,12 +1703,12 @@
       <c r="AA11" t="inlineStr"/>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-2.cdninstagram.com/o1/v/t2/f2/m86/AQMy2bn1Sgc61lPhMcJKizAmL__L468Ah4Dd4sOz68jLcOlRA5nENH7lFy_t9qnSTZMqUlpX45SE04iMpGCu3NfPQhrS7E-fETvyhcs.mp4?_nc_cat=100&amp;_nc_sid=5e9851&amp;_nc_ht=scontent-lga3-2.cdninstagram.com&amp;_nc_ohc=JwNY6rssu9gQ7kNvwE4ByZI&amp;efg=eyJ2ZW5jb2RlX3RhZyI6Inhwdl9wcm9ncmVzc2l2ZS5JTlNUQUdSQU0uQ0xJUFMuQzMuMzYwLmRhc2hfYmFzZWxpbmVfM192MSIsInhwdl9hc3NldF9pZCI6MTE4NDM5MTI2MzQzNDMwNywidmlfdXNlY2FzZV9pZCI6MTAwOTksImR1cmF0aW9uX3MiOjI4LCJ1cmxnZW5fc291cmNlIjoid3d3In0%3D&amp;ccb=17-1&amp;vs=73d981a7a7972758&amp;_nc_vs=HBksFQIYUmlnX3hwdl9yZWVsc19wZXJtYW5lbnRfc3JfcHJvZC84RTQzN0ZFNjFENkQ2RUFCRjFFMzgwN0IyRjJCQ0ZBNV92aWRlb19kYXNoaW5pdC5tcDQVAALIARIAFQIYOnBhc3N0aHJvdWdoX2V2ZXJzdG9yZS9HTnliMGgwbW5LZmJaazBFQUI3N2VWbXBUS1pFYnFfRUFBQUYVAgLIARIAKAAYABsCiAd1c2Vfb2lsATEScHJvZ3Jlc3NpdmVfcmVjaXBlATEVAAAmhtnByNLMmgQVAigCQzMsF0A8RBiTdLxqGBJkYXNoX2Jhc2VsaW5lXzNfdjERAHX-B2XmnQEA&amp;_nc_gid=UX7N9kGiqNNdGFe8DDb9yQ&amp;edm=AM6HXa8EAAAA&amp;_nc_zt=28&amp;oh=00_AfciADpIcbxbZAg3hBDfcpS_Nx4J8hfWpaxpoYBXbDqXQQ&amp;oe=68FAF591</t>
+          <t>https://scontent-lga3-2.cdninstagram.com/o1/v/t2/f2/m86/AQMy2bn1Sgc61lPhMcJKizAmL__L468Ah4Dd4sOz68jLcOlRA5nENH7lFy_t9qnSTZMqUlpX45SE04iMpGCu3NfPQhrS7E-fETvyhcs.mp4?_nc_cat=100&amp;_nc_sid=5e9851&amp;_nc_ht=scontent-lga3-2.cdninstagram.com&amp;_nc_ohc=mHILGgegmPEQ7kNvwGUSa0z&amp;efg=eyJ2ZW5jb2RlX3RhZyI6Inhwdl9wcm9ncmVzc2l2ZS5JTlNUQUdSQU0uQ0xJUFMuQzMuMzYwLmRhc2hfYmFzZWxpbmVfM192MSIsInhwdl9hc3NldF9pZCI6MTE4NDM5MTI2MzQzNDMwNywiYXNzZXRfYWdlX2RheXMiOjE4MywidmlfdXNlY2FzZV9pZCI6MTAwOTksImR1cmF0aW9uX3MiOjI4LCJ1cmxnZW5fc291cmNlIjoid3d3In0%3D&amp;ccb=17-1&amp;vs=73d981a7a7972758&amp;_nc_vs=HBksFQIYUmlnX3hwdl9yZWVsc19wZXJtYW5lbnRfc3JfcHJvZC84RTQzN0ZFNjFENkQ2RUFCRjFFMzgwN0IyRjJCQ0ZBNV92aWRlb19kYXNoaW5pdC5tcDQVAALIARIAFQIYOnBhc3N0aHJvdWdoX2V2ZXJzdG9yZS9HTnliMGgwbW5LZmJaazBFQUI3N2VWbXBUS1pFYnFfRUFBQUYVAgLIARIAKAAYABsCiAd1c2Vfb2lsATEScHJvZ3Jlc3NpdmVfcmVjaXBlATEVAAAmhtnByNLMmgQVAigCQzMsF0A8RBiTdLxqGBJkYXNoX2Jhc2VsaW5lXzNfdjERAHX-B2XmnQEA&amp;_nc_gid=kxIeYQe8v096bVlfjnK6og&amp;edm=AM6HXa8EAAAA&amp;_nc_zt=28&amp;oh=00_AfiYODMniDeC6p-bqj1mtoze9oaoGfHioEXU6L4jalW31A&amp;oe=69252591</t>
         </is>
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-1.cdninstagram.com/v/t51.75761-15/500538935_18508125580017986_8273550311297275788_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0xJUFMuYmVzdF9pbWFnZV91cmxnZW4uQzMifQ%3D%3D&amp;_nc_ohc=wrUKVh_IYrwQ7kNvwGnmOXK&amp;_nc_oc=AdluwEf3-YrvMHS_urJUXc1nDbh59R1MFHqpzUxmuQTEkNi4Qz-y6ehItLWBhVhN0WrpktWtNNUK9_myLrpB4beS&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-1.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=UX7N9kGiqNNdGFe8DDb9yQ&amp;oh=00_AffWpT3XzmSgCEt31AK67Yn3k41xTcvpMTdSMMl-W9mZbQ&amp;oe=68FF01BD</t>
+          <t>https://scontent-lga3-1.cdninstagram.com/v/t51.75761-15/500538935_18508125580017986_8273550311297275788_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=102&amp;ccb=7-5&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0xJUFMuYmVzdF9pbWFnZV91cmxnZW4uQzMifQ%3D%3D&amp;_nc_ohc=64Y31uWWbosQ7kNvwEKv6wh&amp;_nc_oc=Adm-cotMZvVbF_r-fcJ6p6zj0oJjfzpoQDjNYWnBd10771HQf9IBgRioWnvzWBACJSYNm4fr556EWBUPQkZpm1QL&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-1.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=kxIeYQe8v096bVlfjnK6og&amp;oh=00_AfjGr6pv-tQaQPG60iDg2ZSWsyEY24bJOMbG55CM66Fd6g&amp;oe=692931BD</t>
         </is>
       </c>
     </row>
@@ -1741,13 +1768,13 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>2823</v>
+        <v>2998</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>1497</v>
+        <v>1499</v>
       </c>
       <c r="P12" t="inlineStr"/>
       <c r="Q12" t="n">
@@ -1775,7 +1802,7 @@
       <c r="AA12" t="inlineStr"/>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-3.cdninstagram.com/v/t51.29350-15/500931313_1080430413898976_4331323524191392615_n.heic?stp=dst-jpg_e35_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0FST1VTRUxfSVRFTS5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=jNYezjZaygcQ7kNvwH8e821&amp;_nc_oc=AdmHfKCTOzH1keLm31nXzK98zsqPSozMuSwhll2agsnAw8NQjihQy-o303gKSTziNASI_1qN_dXZMUKUdfcVCLvD&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-3.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=UX7N9kGiqNNdGFe8DDb9yQ&amp;oh=00_Aff38XiXY4NtpLGR3Qt46lvurr-ZkDOs2eIKHcQ7nLWupw&amp;oe=68FF1355</t>
+          <t>https://scontent-lga3-3.cdninstagram.com/v/t51.29350-15/500931313_1080430413898976_4331323524191392615_n.heic?stp=dst-jpg_e35_tt6&amp;_nc_cat=110&amp;ccb=7-5&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0FST1VTRUxfSVRFTS5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=53GRG_3MOxgQ7kNvwEy0Vp7&amp;_nc_oc=Adlp4F0Wf7xM8p5_WvXjgTilVJwjHOHVRaApVv9U9bzTUVQGhj10sbCHShwKmhDM3KH3KNjWZ_-4Xbp5rIHWdMiB&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-3.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=kxIeYQe8v096bVlfjnK6og&amp;oh=00_AfiElvv3WRVhTejY8kqW5VW1KXf98UNM09e28EGEberPVw&amp;oe=69294355</t>
         </is>
       </c>
       <c r="AC12" t="inlineStr"/>
@@ -1837,13 +1864,13 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>1318</v>
+        <v>1408</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>782</v>
+        <v>786</v>
       </c>
       <c r="P13" t="inlineStr"/>
       <c r="Q13" t="n">
@@ -1871,7 +1898,7 @@
       <c r="AA13" t="inlineStr"/>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-2.cdninstagram.com/v/t51.75761-15/499610144_18507339841017986_2826411800202103993_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiRkVFRC5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=OoQ5geRHPhQQ7kNvwFJSM7A&amp;_nc_oc=AdnJg_j9fgH_CLSpHhacfHkT-nmyC-u-TFd9rTR23d-eWnZMSgigpfd_I8coBDBy3xRXCXDVs2fEjTu3rbgWWNzC&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-2.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=UX7N9kGiqNNdGFe8DDb9yQ&amp;oh=00_AfdFyujh2QGUnxiQ5Nymjqxn4ms6LOr7yLl8GQOPyTSEyw&amp;oe=68FF03F4</t>
+          <t>https://scontent-lga3-2.cdninstagram.com/v/t51.75761-15/499610144_18507339841017986_2826411800202103993_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=105&amp;ccb=7-5&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiRkVFRC5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=5ELIUi05c5wQ7kNvwGA_Dd8&amp;_nc_oc=Adm468CPVysj9eThHDxIORTZKaoe5S5L92_gHD1w7KBCp8_xW_DNn0-2EkSFboAb1Ip0xl8lQ6geHP8WU8AMFYAY&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-2.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=kxIeYQe8v096bVlfjnK6og&amp;oh=00_AfhSp_PflICGkwIJ82UMJL-62s2uXDvSc30I1XsVo6b15g&amp;oe=692933F4</t>
         </is>
       </c>
       <c r="AC13" t="inlineStr"/>
@@ -1968,12 +1995,12 @@
       <c r="AA14" t="inlineStr"/>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-1.cdninstagram.com/o1/v/t2/f2/m367/AQNz8uPhZNvY039HVW6ZpexzUiq02Ztk0X1ZEBD0zRwLcKiCx0--gBMKl9od4pmfQ5_7IAg64VN2evm2VcFZXJ0yXXgJLfwW3K-ovIU.mp4?_nc_cat=103&amp;_nc_sid=5e9851&amp;_nc_ht=scontent-lga3-1.cdninstagram.com&amp;_nc_ohc=rU6qSzKqNecQ7kNvwEgYmJu&amp;efg=eyJ2ZW5jb2RlX3RhZyI6Inhwdl9wcm9ncmVzc2l2ZS5JTlNUQUdSQU0uQ0xJUFMuQzMuNTc2LmRhc2hfYmFzZWxpbmVfMV92MSIsInhwdl9hc3NldF9pZCI6MTA3NDMyOTEzNzg4MDM0MiwidmlfdXNlY2FzZV9pZCI6MTAwOTksImR1cmF0aW9uX3MiOjM4LCJ1cmxnZW5fc291cmNlIjoid3d3In0%3D&amp;ccb=17-1&amp;vs=68250179ab9ade80&amp;_nc_vs=HBksFQIYQGlnX2VwaGVtZXJhbC9CQzRDMjRDQjM0NDdEMkNENUZCOEE3NDI2M0Q0QTk5NV92aWRlb19kYXNoaW5pdC5tcDQVAALIARIAFQIYOnBhc3N0aHJvdWdoX2V2ZXJzdG9yZS9HUHZRdkIxQ3NXQ2JHZllFQUwwTUZUby14cmdjYnFfRUFBQUYVAgLIARIAKAAYABsCiAd1c2Vfb2lsATEScHJvZ3Jlc3NpdmVfcmVjaXBlATEVAAAmrPSU6pfG6AMVAigCQzMsF0BDXdLxqfvnGBJkYXNoX2Jhc2VsaW5lXzFfdjERAHX-B2XmnQEA&amp;_nc_gid=UX7N9kGiqNNdGFe8DDb9yQ&amp;edm=AM6HXa8EAAAA&amp;_nc_zt=28&amp;oh=00_AfcRYJwakmvPYhqPjLTpcqxjHCNTcR1MTeoceMxRh9RDvA&amp;oe=68FEFFC4</t>
+          <t>https://scontent-lga3-1.cdninstagram.com/o1/v/t2/f2/m367/AQNz8uPhZNvY039HVW6ZpexzUiq02Ztk0X1ZEBD0zRwLcKiCx0--gBMKl9od4pmfQ5_7IAg64VN2evm2VcFZXJ0yXXgJLfwW3K-ovIU.mp4?_nc_cat=103&amp;_nc_sid=5e9851&amp;_nc_ht=scontent-lga3-1.cdninstagram.com&amp;_nc_ohc=1qzOE_Eoa0gQ7kNvwE6g--E&amp;efg=eyJ2ZW5jb2RlX3RhZyI6Inhwdl9wcm9ncmVzc2l2ZS5JTlNUQUdSQU0uQ0xJUFMuQzMuNTc2LmRhc2hfYmFzZWxpbmVfMV92MSIsInhwdl9hc3NldF9pZCI6MTA3NDMyOTEzNzg4MDM0MiwiYXNzZXRfYWdlX2RheXMiOjE4OCwidmlfdXNlY2FzZV9pZCI6MTAwOTksImR1cmF0aW9uX3MiOjM4LCJ1cmxnZW5fc291cmNlIjoid3d3In0%3D&amp;ccb=17-1&amp;vs=68250179ab9ade80&amp;_nc_vs=HBksFQIYQGlnX2VwaGVtZXJhbC9CQzRDMjRDQjM0NDdEMkNENUZCOEE3NDI2M0Q0QTk5NV92aWRlb19kYXNoaW5pdC5tcDQVAALIARIAFQIYOnBhc3N0aHJvdWdoX2V2ZXJzdG9yZS9HUHZRdkIxQ3NXQ2JHZllFQUwwTUZUby14cmdjYnFfRUFBQUYVAgLIARIAKAAYABsCiAd1c2Vfb2lsATEScHJvZ3Jlc3NpdmVfcmVjaXBlATEVAAAmrPSU6pfG6AMVAigCQzMsF0BDXdLxqfvnGBJkYXNoX2Jhc2VsaW5lXzFfdjERAHX-B2XmnQEA&amp;_nc_gid=kxIeYQe8v096bVlfjnK6og&amp;edm=AM6HXa8EAAAA&amp;_nc_zt=28&amp;oh=00_AfgI0keeMZ-s316VyJHH89LIzuFZS_3_SWPKoLxKvjZCng&amp;oe=69292FC4</t>
         </is>
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-1.cdninstagram.com/v/t51.75761-15/499408395_18507179758017986_6016879293552400836_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0xJUFMuYmVzdF9pbWFnZV91cmxnZW4uQzMifQ%3D%3D&amp;_nc_ohc=Rvf0JQz6B24Q7kNvwESSmFs&amp;_nc_oc=AdmmEaPciirODW78KOCTgEGkSV-NAkKGKJbZ7EVDwa-D19eWQzLOVNKpLqIXjoI-b98USQxHaZlBYitY3kCQ69AS&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-1.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=UX7N9kGiqNNdGFe8DDb9yQ&amp;oh=00_AfcuRFc1LXjsMtBBPVyZ8ebZpHTTI6gb2AuKwyLwPdOM9w&amp;oe=68FEF836</t>
+          <t>https://scontent-lga3-1.cdninstagram.com/v/t51.75761-15/499408395_18507179758017986_6016879293552400836_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=102&amp;ccb=7-5&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0xJUFMuYmVzdF9pbWFnZV91cmxnZW4uQzMifQ%3D%3D&amp;_nc_ohc=IQ2tX40ptRQQ7kNvwGfKUEC&amp;_nc_oc=AdmdKLQqKBXK9Jsn76kTj7qmaNZI62Oho3APK8ENpZOKUiVbmSh7_iEeJjAdDOIrx7G9ZF9OZIkc50Olp1Yowcsl&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-1.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=kxIeYQe8v096bVlfjnK6og&amp;oh=00_Afgi9F_nDzmrPy4fXCQ2Qx86ytFytP2lzB5glIu4tOHC4Q&amp;oe=69292836</t>
         </is>
       </c>
     </row>
@@ -2033,13 +2060,13 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>1698</v>
+        <v>1815</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>770</v>
+        <v>779</v>
       </c>
       <c r="P15" t="inlineStr"/>
       <c r="Q15" t="n">
@@ -2067,7 +2094,7 @@
       <c r="AA15" t="inlineStr"/>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-2.cdninstagram.com/v/t51.75761-15/498441328_18506501221017986_3681206442082095154_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0FST1VTRUxfSVRFTS5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=gRQwbIXGwvwQ7kNvwGyTxlB&amp;_nc_oc=Adn_poCCwWo_Rjy1hM2mgJBtIXxHQqWfe0CNr9WuM9FGX2iamRyZ-I30mnfW7d73EJdaQISJH9lDDV9VD9KQ4Ov_&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-2.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=UX7N9kGiqNNdGFe8DDb9yQ&amp;oh=00_AfcfNKI6l1ic1ydxKOuObqpJPHw-1SR9d-cmo8iImxaiAQ&amp;oe=68FF06AF</t>
+          <t>https://scontent-lga3-2.cdninstagram.com/v/t51.75761-15/498441328_18506501221017986_3681206442082095154_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=107&amp;ccb=7-5&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0FST1VTRUxfSVRFTS5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=vvxWldo6fCsQ7kNvwEKtgZT&amp;_nc_oc=Adl-zfi1ns8vcos9ZLbQe3zxz8t6tLAZVkir2kF6OnnrGCl67tll3NkSRfwGkKbiOYBp9g9WumKKUScsnVwGOnBV&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-2.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=kxIeYQe8v096bVlfjnK6og&amp;oh=00_AfjSgOHk23jYyBEtisE3PhbeUfKcnGnr5KeJ-cCvHo9U6g&amp;oe=692936AF</t>
         </is>
       </c>
       <c r="AC15" t="inlineStr"/>
@@ -2130,13 +2157,13 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>899</v>
+        <v>996</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="P16" t="inlineStr"/>
       <c r="Q16" t="n">
@@ -2164,7 +2191,7 @@
       <c r="AA16" t="inlineStr"/>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-1.cdninstagram.com/v/t51.29350-15/497797665_682461374628069_7505336001790233159_n.heic?stp=dst-jpg_e35_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0FST1VTRUxfSVRFTS5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=k7sfI6nCW18Q7kNvwH3DD6D&amp;_nc_oc=AdnvAdp2zDfKryt7oxz70FkiRJrQGUOm2GUY3TYRLR3ZCKQbFzAJLIT-SbtVSLaYoAea4_o9lZjwUPahrof2IRZb&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-1.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=UX7N9kGiqNNdGFe8DDb9yQ&amp;oh=00_Affks9OGGMwrBSnXka8VJmgLF-925HnQEtMTJl93S1ZTdA&amp;oe=68FEEAC3</t>
+          <t>https://scontent-lga3-3.cdninstagram.com/v/t51.29350-15/497797665_682461374628069_7505336001790233159_n.heic?stp=dst-jpg_e35_tt6&amp;_nc_cat=108&amp;ccb=7-5&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0FST1VTRUxfSVRFTS5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=7cwJvjO3R7UQ7kNvwGVhYhO&amp;_nc_oc=Adk2yV38XbBP1aP7_XUE3ogzrY_5ocp2V-Ku0PfOKGLWLsCO4FblAkGO_qNFS_Gwa5bnepmILqAE-_e3mfuwUNhP&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-3.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=kxIeYQe8v096bVlfjnK6og&amp;oh=00_Afi6IR7SqUsg3E94r7pMitZ7o-tPmk-6mi1sw68mavdJ0A&amp;oe=69291AC3</t>
         </is>
       </c>
       <c r="AC16" t="inlineStr"/>
@@ -2225,13 +2252,13 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>1461</v>
+        <v>1464</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>901</v>
+        <v>904</v>
       </c>
       <c r="P17" t="inlineStr"/>
       <c r="Q17" t="n">
@@ -2259,12 +2286,12 @@
       <c r="AA17" t="inlineStr"/>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-3.cdninstagram.com/o1/v/t2/f2/m367/AQOuFeyAUQiuzItVsd1CrXGjzMjylKvTJ_Dk_bUBpkt9i4r3J21qzCZtCJiEZV247p9yrjmfZpiDf1gvrtpj0Nap_MGNtBNGtVL-WpA.mp4?_nc_cat=106&amp;_nc_sid=5e9851&amp;_nc_ht=scontent-lga3-3.cdninstagram.com&amp;_nc_ohc=uOn-jK5zd8cQ7kNvwHiI_ut&amp;efg=eyJ2ZW5jb2RlX3RhZyI6Inhwdl9wcm9ncmVzc2l2ZS5JTlNUQUdSQU0uQ0xJUFMuQzMuNzIwLmRhc2hfYmFzZWxpbmVfMV92MSIsInhwdl9hc3NldF9pZCI6MTY4OTk4NDk4ODMxMjg5NywidmlfdXNlY2FzZV9pZCI6MTAwOTksImR1cmF0aW9uX3MiOjQ1LCJ1cmxnZW5fc291cmNlIjoid3d3In0%3D&amp;ccb=17-1&amp;vs=20a81fe61155b34e&amp;_nc_vs=HBksFQIYQGlnX2VwaGVtZXJhbC9FQzQyNDM3NTIxOUY3RjgxMzNFNDI3NUE0NDgwMjJBOF92aWRlb19kYXNoaW5pdC5tcDQVAALIARIAFQIYOnBhc3N0aHJvdWdoX2V2ZXJzdG9yZS9HRS1KblIyb3VDVnhzOUVEQUNoRUNRY3RHbWtOYnFfRUFBQUYVAgLIARIAKAAYABsCiAd1c2Vfb2lsATEScHJvZ3Jlc3NpdmVfcmVjaXBlATEVAAAmgtW7ronCgAYVAigCQzMsF0BGlT987ZFoGBJkYXNoX2Jhc2VsaW5lXzFfdjERAHX-B2XmnQEA&amp;_nc_gid=UX7N9kGiqNNdGFe8DDb9yQ&amp;edm=AM6HXa8EAAAA&amp;_nc_zt=28&amp;oh=00_Afd6JZt89676w0syU7V7Q8UubGoyewrsQVJ6IQY6sS9bsg&amp;oe=68FEEDA7</t>
+          <t>https://scontent-lga3-3.cdninstagram.com/o1/v/t2/f2/m367/AQOuFeyAUQiuzItVsd1CrXGjzMjylKvTJ_Dk_bUBpkt9i4r3J21qzCZtCJiEZV247p9yrjmfZpiDf1gvrtpj0Nap_MGNtBNGtVL-WpA.mp4?_nc_cat=106&amp;_nc_sid=5e9851&amp;_nc_ht=scontent-lga3-3.cdninstagram.com&amp;_nc_ohc=3rzEZh2i2dkQ7kNvwExRv9X&amp;efg=eyJ2ZW5jb2RlX3RhZyI6Inhwdl9wcm9ncmVzc2l2ZS5JTlNUQUdSQU0uQ0xJUFMuQzMuNzIwLmRhc2hfYmFzZWxpbmVfMV92MSIsInhwdl9hc3NldF9pZCI6MTY4OTk4NDk4ODMxMjg5NywiYXNzZXRfYWdlX2RheXMiOjE5NCwidmlfdXNlY2FzZV9pZCI6MTAwOTksImR1cmF0aW9uX3MiOjQ1LCJ1cmxnZW5fc291cmNlIjoid3d3In0%3D&amp;ccb=17-1&amp;vs=20a81fe61155b34e&amp;_nc_vs=HBksFQIYQGlnX2VwaGVtZXJhbC9FQzQyNDM3NTIxOUY3RjgxMzNFNDI3NUE0NDgwMjJBOF92aWRlb19kYXNoaW5pdC5tcDQVAALIARIAFQIYOnBhc3N0aHJvdWdoX2V2ZXJzdG9yZS9HRS1KblIyb3VDVnhzOUVEQUNoRUNRY3RHbWtOYnFfRUFBQUYVAgLIARIAKAAYABsCiAd1c2Vfb2lsATEScHJvZ3Jlc3NpdmVfcmVjaXBlATEVAAAmgtW7ronCgAYVAigCQzMsF0BGlT987ZFoGBJkYXNoX2Jhc2VsaW5lXzFfdjERAHX-B2XmnQEA&amp;_nc_gid=kxIeYQe8v096bVlfjnK6og&amp;edm=AM6HXa8EAAAA&amp;_nc_zt=28&amp;oh=00_AfhnUXtaD6vADoYkTiyIcIcZz2t9zw1fdXKQsNmPJZcRvg&amp;oe=69291DA7</t>
         </is>
       </c>
       <c r="AC17" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-2.cdninstagram.com/v/t51.71878-15/497527783_652866797567856_8422483264156437716_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0xJUFMuYmVzdF9pbWFnZV91cmxnZW4uQzMifQ%3D%3D&amp;_nc_ohc=BKdclcMhvloQ7kNvwEqBd1u&amp;_nc_oc=AdkTdHLIkjuW9z4X5Box2b1qQzHmObtzk2BxmarIklrOEIufc0wxNB2Qi9x5gYt8QTV5K4GKumkrOxboF_KI54ED&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-2.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=UX7N9kGiqNNdGFe8DDb9yQ&amp;oh=00_AfdICX4FuM_aBlSooNUKzAe9mpS4v0BZZ-FM8phd6zr_4Q&amp;oe=68FF0AEA</t>
+          <t>https://scontent-lga3-2.cdninstagram.com/v/t51.71878-15/497527783_652866797567856_8422483264156437716_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=105&amp;ccb=7-5&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0xJUFMuYmVzdF9pbWFnZV91cmxnZW4uQzMifQ%3D%3D&amp;_nc_ohc=DKKYGe5ZXrAQ7kNvwGMyVuM&amp;_nc_oc=AdnAE0w6jvyIr7HvKTcpNQZfp2_NxDz6vXFzdv0t9Z-BlWstvyzXFFtSwAMJNveQOgQIKE3VA-08BtCVh-ANcgGR&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-2.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=kxIeYQe8v096bVlfjnK6og&amp;oh=00_AfhGIGmkKaAcSUl13h93mJ637Z-_8RyMXnNbNcp7C1jg7A&amp;oe=69293AEA</t>
         </is>
       </c>
     </row>
@@ -2324,13 +2351,13 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>1194</v>
+        <v>1196</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>785</v>
+        <v>791</v>
       </c>
       <c r="P18" t="inlineStr"/>
       <c r="Q18" t="n">
@@ -2358,12 +2385,12 @@
       <c r="AA18" t="inlineStr"/>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-2.cdninstagram.com/o1/v/t2/f2/m367/AQM6v7SveqpQJ1Q0nJVIOimVGMQQqh8QKzW_m1dy8p7Gi_vlT6igb-gp2SjXWklk6tjS2ZyE-I45r3Ye8e0aR371gbX1NlpgQcKOZ0g.mp4?_nc_cat=100&amp;_nc_sid=5e9851&amp;_nc_ht=scontent-lga3-2.cdninstagram.com&amp;_nc_ohc=aiQiolySAt0Q7kNvwEhUm05&amp;efg=eyJ2ZW5jb2RlX3RhZyI6Inhwdl9wcm9ncmVzc2l2ZS5JTlNUQUdSQU0uQ0xJUFMuQzMuNzIwLmRhc2hfYmFzZWxpbmVfMV92MSIsInhwdl9hc3NldF9pZCI6MTA1NzA3NTExOTYxMTE2NywidmlfdXNlY2FzZV9pZCI6MTAwOTksImR1cmF0aW9uX3MiOjIwLCJ1cmxnZW5fc291cmNlIjoid3d3In0%3D&amp;ccb=17-1&amp;vs=c72eac27c3d68&amp;_nc_vs=HBksFQIYQGlnX2VwaGVtZXJhbC81QzQ2MUE4MkNFRTMwNDgyRjYyM0MzNkE4NzkzNTBCRV92aWRlb19kYXNoaW5pdC5tcDQVAALIARIAFQIYOnBhc3N0aHJvdWdoX2V2ZXJzdG9yZS9HTURYa2gzTU1oRzM2QzRGQUJSTnd3c3FEWWhqYnFfRUFBQUYVAgLIARIAKAAYABsCiAd1c2Vfb2lsATEScHJvZ3Jlc3NpdmVfcmVjaXBlATEVAAAmvvSKsO_Z4AMVAigCQzMsF0A03bItDlYEGBJkYXNoX2Jhc2VsaW5lXzFfdjERAHX-B2XmnQEA&amp;_nc_gid=UX7N9kGiqNNdGFe8DDb9yQ&amp;edm=AM6HXa8EAAAA&amp;_nc_zt=28&amp;oh=00_Aff2JFlnwOc8YSoeynFcHLxVioZMBe4P3dPM9UlFtZB-Dg&amp;oe=68FEFDA5</t>
+          <t>https://scontent-lga3-2.cdninstagram.com/o1/v/t2/f2/m367/AQM6v7SveqpQJ1Q0nJVIOimVGMQQqh8QKzW_m1dy8p7Gi_vlT6igb-gp2SjXWklk6tjS2ZyE-I45r3Ye8e0aR371gbX1NlpgQcKOZ0g.mp4?_nc_cat=100&amp;_nc_sid=5e9851&amp;_nc_ht=scontent-lga3-2.cdninstagram.com&amp;_nc_ohc=KvzP_j_u_IsQ7kNvwEgdb2W&amp;efg=eyJ2ZW5jb2RlX3RhZyI6Inhwdl9wcm9ncmVzc2l2ZS5JTlNUQUdSQU0uQ0xJUFMuQzMuNzIwLmRhc2hfYmFzZWxpbmVfMV92MSIsInhwdl9hc3NldF9pZCI6MTA1NzA3NTExOTYxMTE2NywiYXNzZXRfYWdlX2RheXMiOjE5OSwidmlfdXNlY2FzZV9pZCI6MTAwOTksImR1cmF0aW9uX3MiOjIwLCJ1cmxnZW5fc291cmNlIjoid3d3In0%3D&amp;ccb=17-1&amp;vs=c72eac27c3d68&amp;_nc_vs=HBksFQIYQGlnX2VwaGVtZXJhbC81QzQ2MUE4MkNFRTMwNDgyRjYyM0MzNkE4NzkzNTBCRV92aWRlb19kYXNoaW5pdC5tcDQVAALIARIAFQIYOnBhc3N0aHJvdWdoX2V2ZXJzdG9yZS9HTURYa2gzTU1oRzM2QzRGQUJSTnd3c3FEWWhqYnFfRUFBQUYVAgLIARIAKAAYABsCiAd1c2Vfb2lsATEScHJvZ3Jlc3NpdmVfcmVjaXBlATEVAAAmvvSKsO_Z4AMVAigCQzMsF0A03bItDlYEGBJkYXNoX2Jhc2VsaW5lXzFfdjERAHX-B2XmnQEA&amp;_nc_gid=kxIeYQe8v096bVlfjnK6og&amp;edm=AM6HXa8EAAAA&amp;_nc_zt=28&amp;oh=00_AfiS-va-Mg7d0X4wKgFpkfupSPvYPJFKVg5YGslFAtzO4g&amp;oe=69292DA5</t>
         </is>
       </c>
       <c r="AC18" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-3.cdninstagram.com/v/t51.71878-15/495646580_713090931378795_2276382545722713099_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0xJUFMuYmVzdF9pbWFnZV91cmxnZW4uQzMifQ%3D%3D&amp;_nc_ohc=Ahd3kItNQA4Q7kNvwFJL0FG&amp;_nc_oc=AdlOO-TC6Z6zsK7B7qeaPKlGUt8dG-NeUOhlgmNN4rvcq0SOGKe5yNoyEEIPgQ4Cw143Jh7dx_g707eDFbwEm5z6&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-3.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=UX7N9kGiqNNdGFe8DDb9yQ&amp;oh=00_AfczAvNoFN5vuSROQGXl14Gh7J0yQmoQZQom06rKVO5Aow&amp;oe=68FEF08E</t>
+          <t>https://scontent-lga3-3.cdninstagram.com/v/t51.71878-15/495646580_713090931378795_2276382545722713099_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=106&amp;ccb=7-5&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0xJUFMuYmVzdF9pbWFnZV91cmxnZW4uQzMifQ%3D%3D&amp;_nc_ohc=rAW05CAMlncQ7kNvwExHdRP&amp;_nc_oc=AdlmFFngooJIMuKuzvnaBU1cL7eisaO14WrDwa6FRNSQIcudDhlSs41utMMNiSSrOWFylY3Arf2RyWgVOc_Xady4&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-3.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=kxIeYQe8v096bVlfjnK6og&amp;oh=00_AfiUGMV5XnrcG9paO55fyb3wHjD7gkm5q4FHGIaQfWUTsA&amp;oe=6929208E</t>
         </is>
       </c>
     </row>
@@ -2423,13 +2450,13 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>769</v>
+        <v>819</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="P19" t="inlineStr"/>
       <c r="Q19" t="n">
@@ -2457,7 +2484,7 @@
       <c r="AA19" t="inlineStr"/>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-1.cdninstagram.com/v/t51.29350-15/495490759_1617529542296798_1522228744256797440_n.heic?stp=dst-jpg_e35_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiRkVFRC5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=X_MpGQWSIzIQ7kNvwGhrDgg&amp;_nc_oc=Adk0MqNtRB0hK_44zeMAh1pjEfLbEughAAZm3PL9XLvCZPTKZHxucmrSYbXzmxLamStcDN11lDjQnGOU9AMZxzIO&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-1.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=UX7N9kGiqNNdGFe8DDb9yQ&amp;oh=00_Afd2YsqDHTPr1eC99QRVCFtZtHNQ37nUViYhfw6WJ0e9og&amp;oe=68FF09BC</t>
+          <t>https://scontent-lga3-1.cdninstagram.com/v/t51.29350-15/495490759_1617529542296798_1522228744256797440_n.heic?stp=dst-jpg_e35_tt6&amp;_nc_cat=102&amp;ccb=7-5&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiRkVFRC5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=wv9OnmfjL4EQ7kNvwEp6rPk&amp;_nc_oc=Adm1jd0xsHiIGZu4cMCZJXca0u_cUZkZ10yBEXfUynHU6LZH2O_xbn8aGwwcEEdAUUHbSuuARNr77EIG6PUMCT-y&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-1.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=kxIeYQe8v096bVlfjnK6og&amp;oh=00_Afj8TFf92RXQFHNp9Fwr53zZOJBC6t9QFqM5njV4SPW0TQ&amp;oe=692939BC</t>
         </is>
       </c>
       <c r="AC19" t="inlineStr"/>
@@ -2520,13 +2547,13 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>1444</v>
+        <v>1525</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>959</v>
+        <v>961</v>
       </c>
       <c r="P20" t="inlineStr"/>
       <c r="Q20" t="n">
@@ -2554,7 +2581,7 @@
       <c r="AA20" t="inlineStr"/>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-2.cdninstagram.com/v/t51.29350-15/494531061_29428702360108343_2757153440026945298_n.heic?stp=dst-jpg_e35_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiRkVFRC5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=hqNILk9BzTkQ7kNvwFRMMhl&amp;_nc_oc=AdkFQZG3UL732ugcojBRyAHhg1IujQ_ByUymwmJNJ_fILWBzGdBimupAkNtkG0l6bFFz-8YSOv_yPoNSRKKSoAQd&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-2.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=UX7N9kGiqNNdGFe8DDb9yQ&amp;oh=00_AfcQHBx8SsUKcasDMZwNZXlmtztUX3R6-EIE4tp7Y1EoDg&amp;oe=68FEFB01</t>
+          <t>https://scontent-lga3-2.cdninstagram.com/v/t51.29350-15/494531061_29428702360108343_2757153440026945298_n.heic?stp=dst-jpg_e35_tt6&amp;_nc_cat=107&amp;ccb=7-5&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiRkVFRC5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=VaqtrnOZSXwQ7kNvwEVDSVn&amp;_nc_oc=AdkjczKQx3Rm1r0NqfjuGZjMYRRPQCBkG_zZP3okuaHFcys0H6wXqgf7szSWgKfB7i9Sz14R12l1V2FvlZdHFrIP&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-2.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=kxIeYQe8v096bVlfjnK6og&amp;oh=00_AfgKgjiUBJDWy04XsGLZ676QOKvTiPfyCASqfKmzOXnq1A&amp;oe=69292B01</t>
         </is>
       </c>
       <c r="AC20" t="inlineStr"/>
@@ -2614,13 +2641,13 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>1047</v>
+        <v>1049</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>683</v>
+        <v>686</v>
       </c>
       <c r="P21" t="inlineStr"/>
       <c r="Q21" t="n">
@@ -2648,12 +2675,12 @@
       <c r="AA21" t="inlineStr"/>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-3.cdninstagram.com/o1/v/t2/f2/m367/AQOK_fXOrt1o8cdAq-AwxkQbTbyesU9H9nkhc7Us_7frNr51lluXpRtgzdWCJ0HUv_VdIBIvBVlUOcEjdE-gRYtL2O_oGMFcABklAUk.mp4?_nc_cat=106&amp;_nc_sid=5e9851&amp;_nc_ht=scontent-lga3-3.cdninstagram.com&amp;_nc_ohc=BAwAVCb9K2wQ7kNvwENMQDL&amp;efg=eyJ2ZW5jb2RlX3RhZyI6Inhwdl9wcm9ncmVzc2l2ZS5JTlNUQUdSQU0uQ0xJUFMuQzMuNzIwLmRhc2hfYmFzZWxpbmVfMV92MSIsInhwdl9hc3NldF9pZCI6MTU3MDEyMzk5MzY1ODExOSwidmlfdXNlY2FzZV9pZCI6MTAwOTksImR1cmF0aW9uX3MiOjY1LCJ1cmxnZW5fc291cmNlIjoid3d3In0%3D&amp;ccb=17-1&amp;vs=50bf4b3792b2be4f&amp;_nc_vs=HBksFQIYQGlnX2VwaGVtZXJhbC85RDQ2RTM0RTlGNzJEOTcwMUI5MUE4MkJBNEREMzY5M192aWRlb19kYXNoaW5pdC5tcDQVAALIARIAFQIYOnBhc3N0aHJvdWdoX2V2ZXJzdG9yZS9HTlFOU1IyUk5TYV9LQ1FHQVBLakJCd3ZBTkI0YnFfRUFBQUYVAgLIARIAKAAYABsCiAd1c2Vfb2lsATEScHJvZ3Jlc3NpdmVfcmVjaXBlATEVAAAmjsyprp-BygUVAigCQzMsF0BQbul41P30GBJkYXNoX2Jhc2VsaW5lXzFfdjERAHX-B2XmnQEA&amp;_nc_gid=UX7N9kGiqNNdGFe8DDb9yQ&amp;edm=AM6HXa8EAAAA&amp;_nc_zt=28&amp;oh=00_AfcW6hWtTPm6WSnTQ3y0N51pxLa0g_fzo739jJzVROw6Qg&amp;oe=68FF078F</t>
+          <t>https://scontent-lga3-3.cdninstagram.com/o1/v/t2/f2/m367/AQOK_fXOrt1o8cdAq-AwxkQbTbyesU9H9nkhc7Us_7frNr51lluXpRtgzdWCJ0HUv_VdIBIvBVlUOcEjdE-gRYtL2O_oGMFcABklAUk.mp4?_nc_cat=106&amp;_nc_sid=5e9851&amp;_nc_ht=scontent-lga3-3.cdninstagram.com&amp;_nc_ohc=9NDj5FybasQQ7kNvwHWvhwR&amp;efg=eyJ2ZW5jb2RlX3RhZyI6Inhwdl9wcm9ncmVzc2l2ZS5JTlNUQUdSQU0uQ0xJUFMuQzMuNzIwLmRhc2hfYmFzZWxpbmVfMV92MSIsInhwdl9hc3NldF9pZCI6MTU3MDEyMzk5MzY1ODExOSwiYXNzZXRfYWdlX2RheXMiOjIxMSwidmlfdXNlY2FzZV9pZCI6MTAwOTksImR1cmF0aW9uX3MiOjY1LCJ1cmxnZW5fc291cmNlIjoid3d3In0%3D&amp;ccb=17-1&amp;vs=50bf4b3792b2be4f&amp;_nc_vs=HBksFQIYQGlnX2VwaGVtZXJhbC85RDQ2RTM0RTlGNzJEOTcwMUI5MUE4MkJBNEREMzY5M192aWRlb19kYXNoaW5pdC5tcDQVAALIARIAFQIYOnBhc3N0aHJvdWdoX2V2ZXJzdG9yZS9HTlFOU1IyUk5TYV9LQ1FHQVBLakJCd3ZBTkI0YnFfRUFBQUYVAgLIARIAKAAYABsCiAd1c2Vfb2lsATEScHJvZ3Jlc3NpdmVfcmVjaXBlATEVAAAmjsyprp-BygUVAigCQzMsF0BQbul41P30GBJkYXNoX2Jhc2VsaW5lXzFfdjERAHX-B2XmnQEA&amp;_nc_gid=kxIeYQe8v096bVlfjnK6og&amp;edm=AM6HXa8EAAAA&amp;_nc_zt=28&amp;oh=00_AfiwDMg8ZMMKGFdZOEUxH5XKLRyWRC9o1HrQC5OgCLeuhw&amp;oe=6929378F</t>
         </is>
       </c>
       <c r="AC21" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-1.cdninstagram.com/v/t51.71878-15/491516744_685128717531907_3153097686818563373_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0xJUFMuYmVzdF9pbWFnZV91cmxnZW4uQzMifQ%3D%3D&amp;_nc_ohc=ibvyQkaZ3c8Q7kNvwFaX4tg&amp;_nc_oc=Adm8S9Q4oebLE6EVNa4o2J58OrSzAcJQ4VuuhAAB7F8FXUObjYxaeLd0OncYQKDoj0mJ0He791q81G5rLsKOnQ-W&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-1.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=UX7N9kGiqNNdGFe8DDb9yQ&amp;oh=00_AfcC-KmrR62scvApj26amnrNZlQnB4QEVewgIEnp7qUjFQ&amp;oe=68FF0BDE</t>
+          <t>https://scontent-lga3-1.cdninstagram.com/v/t51.71878-15/491516744_685128717531907_3153097686818563373_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=102&amp;ccb=7-5&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0xJUFMuYmVzdF9pbWFnZV91cmxnZW4uQzMifQ%3D%3D&amp;_nc_ohc=7I-08FTIgR4Q7kNvwHpqx5B&amp;_nc_oc=AdnQN8a-XeNwKQ18NzBKL_icqUpokIBcPJnjxDtgYw3XAHasopV-EM3G3knhQlK4aOuSsxmWa1rtpYwZtFOGHFK0&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-1.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=kxIeYQe8v096bVlfjnK6og&amp;oh=00_AfidtbASsQgdVsvyZFJdgxKlMR-j2ERDavhwiSRuAadgyQ&amp;oe=69293BDE</t>
         </is>
       </c>
     </row>
@@ -2714,17 +2741,17 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>1286</v>
+        <v>1288</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="P22" t="inlineStr"/>
       <c r="Q22" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R22" t="n">
         <v>2</v>
@@ -2739,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W22" t="inlineStr"/>
       <c r="X22" t="inlineStr"/>
@@ -2748,12 +2775,12 @@
       <c r="AA22" t="inlineStr"/>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-2.cdninstagram.com/o1/v/t2/f2/m367/AQPL4Vi3f56ppKW7mLsatm9dv50feESiyb76io15KX_wrbkIcLXocljJuyQAFdgf47qEhIYH4PojzMw970akm0UDDgobQJVw5f038As.mp4?_nc_cat=107&amp;_nc_sid=5e9851&amp;_nc_ht=scontent-lga3-2.cdninstagram.com&amp;_nc_ohc=AU2ydMNlL4MQ7kNvwEvhub_&amp;efg=eyJ2ZW5jb2RlX3RhZyI6Inhwdl9wcm9ncmVzc2l2ZS5JTlNUQUdSQU0uQ0xJUFMuQzMuNzIwLmRhc2hfYmFzZWxpbmVfMV92MSIsInhwdl9hc3NldF9pZCI6MjE2NTQ2NzE4NzIzNjM3NiwidmlfdXNlY2FzZV9pZCI6MTAwOTksImR1cmF0aW9uX3MiOjIzLCJ1cmxnZW5fc291cmNlIjoid3d3In0%3D&amp;ccb=17-1&amp;vs=6d4d2e7492afbfa3&amp;_nc_vs=HBksFQIYQGlnX2VwaGVtZXJhbC80NzRERTU4NTI5QzZFOTAzQzA1RTVDRUE4MzFGMzBBNl92aWRlb19kYXNoaW5pdC5tcDQVAALIARIAFQIYOnBhc3N0aHJvdWdoX2V2ZXJzdG9yZS9HQjRKU1IyY09YT25CVUFFQUtUX2Q0TjAtNTUyYnFfRUFBQUYVAgLIARIAKAAYABsCiAd1c2Vfb2lsATEScHJvZ3Jlc3NpdmVfcmVjaXBlATEVAAAmsLi-5-Pe2AcVAigCQzMsF0A3AAAAAAAAGBJkYXNoX2Jhc2VsaW5lXzFfdjERAHX-B2XmnQEA&amp;_nc_gid=UX7N9kGiqNNdGFe8DDb9yQ&amp;edm=AM6HXa8EAAAA&amp;_nc_zt=28&amp;oh=00_AfdGpjzrEA3fe9meLBnK2K7yjef-RjdRQM_Z4U_pDziYOQ&amp;oe=68FF14FC</t>
+          <t>https://scontent-lga3-2.cdninstagram.com/o1/v/t2/f2/m367/AQPL4Vi3f56ppKW7mLsatm9dv50feESiyb76io15KX_wrbkIcLXocljJuyQAFdgf47qEhIYH4PojzMw970akm0UDDgobQJVw5f038As.mp4?_nc_cat=107&amp;_nc_sid=5e9851&amp;_nc_ht=scontent-lga3-2.cdninstagram.com&amp;_nc_ohc=6xRO9hxHv40Q7kNvwFY9U9M&amp;efg=eyJ2ZW5jb2RlX3RhZyI6Inhwdl9wcm9ncmVzc2l2ZS5JTlNUQUdSQU0uQ0xJUFMuQzMuNzIwLmRhc2hfYmFzZWxpbmVfMV92MSIsInhwdl9hc3NldF9pZCI6MjE2NTQ2NzE4NzIzNjM3NiwiYXNzZXRfYWdlX2RheXMiOjIxNSwidmlfdXNlY2FzZV9pZCI6MTAwOTksImR1cmF0aW9uX3MiOjIzLCJ1cmxnZW5fc291cmNlIjoid3d3In0%3D&amp;ccb=17-1&amp;vs=6d4d2e7492afbfa3&amp;_nc_vs=HBksFQIYQGlnX2VwaGVtZXJhbC80NzRERTU4NTI5QzZFOTAzQzA1RTVDRUE4MzFGMzBBNl92aWRlb19kYXNoaW5pdC5tcDQVAALIARIAFQIYOnBhc3N0aHJvdWdoX2V2ZXJzdG9yZS9HQjRKU1IyY09YT25CVUFFQUtUX2Q0TjAtNTUyYnFfRUFBQUYVAgLIARIAKAAYABsCiAd1c2Vfb2lsATEScHJvZ3Jlc3NpdmVfcmVjaXBlATEVAAAmsLi-5-Pe2AcVAigCQzMsF0A3AAAAAAAAGBJkYXNoX2Jhc2VsaW5lXzFfdjERAHX-B2XmnQEA&amp;_nc_gid=kxIeYQe8v096bVlfjnK6og&amp;edm=AM6HXa8EAAAA&amp;_nc_zt=28&amp;oh=00_AfjeGBTOodXHUVBUk-zfezdrqWvIeYh2XfnlgCni_RR_oQ&amp;oe=692944FC</t>
         </is>
       </c>
       <c r="AC22" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-2.cdninstagram.com/v/t51.71878-15/490809455_574112305112972_8878330380328639843_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0xJUFMuYmVzdF9pbWFnZV91cmxnZW4uQzMifQ%3D%3D&amp;_nc_ohc=fy2XSnf-8M4Q7kNvwG8ZMvY&amp;_nc_oc=Adkya7VN2SB5WEEfqNnGadQq-4pHWd3O4zFiLdmPDYUVzDwS9swap3f9E0F8M6lQREuRjKADabznIFNu3vkvWo6p&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-2.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=UX7N9kGiqNNdGFe8DDb9yQ&amp;oh=00_AfcneLk9sDOhXQOPn3ppKtbLnKtB2_X93cMC3MAvd2hqVA&amp;oe=68FEE95B</t>
+          <t>https://scontent-lga3-2.cdninstagram.com/v/t51.71878-15/490809455_574112305112972_8878330380328639843_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=105&amp;ccb=7-5&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0xJUFMuYmVzdF9pbWFnZV91cmxnZW4uQzMifQ%3D%3D&amp;_nc_ohc=ORcUuEwgudMQ7kNvwEH3dE0&amp;_nc_oc=AdlwTNL_fYEWNL5JSHZDaBlSeoKYjz2By673ByM9HtCwSmdTtM9ASCiNbv9N284C6zwd6wa6-p-pWdl0BN7BaJcD&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-2.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=kxIeYQe8v096bVlfjnK6og&amp;oh=00_AfjIgWW1q5tTUyev0mU19BKLQK2u4vioopaayvIzbn5jFg&amp;oe=6929195B</t>
         </is>
       </c>
     </row>
@@ -2815,7 +2842,7 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>3491</v>
+        <v>3532</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -2849,7 +2876,7 @@
       <c r="AA23" t="inlineStr"/>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-1.cdninstagram.com/v/t51.29350-15/490381648_1133452665218779_5665501410942978568_n.heic?stp=dst-jpg_e35_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiRkVFRC5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=-4QitkobUQkQ7kNvwFeq411&amp;_nc_oc=AdksULVbxte2WoMF_fPu16OK6Z-gT45Zus_jTB6HlrmhPopSZJFl3psBNK7T6bKz8PLGmoUhvf62Qd6JJbju0b7w&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-1.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=UX7N9kGiqNNdGFe8DDb9yQ&amp;oh=00_AffAC5uGiRontLYioHcOL1XRYBZFjn5EfPGGOOKGJgRYnA&amp;oe=68FF1628</t>
+          <t>https://scontent-lga3-3.cdninstagram.com/v/t51.29350-15/490381648_1133452665218779_5665501410942978568_n.heic?stp=dst-jpg_e35_tt6&amp;_nc_cat=108&amp;ccb=7-5&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiRkVFRC5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=rIRXdiq7DPEQ7kNvwHJW_PC&amp;_nc_oc=AdnLoY8hGIJBI1FWK8fj8G0AgEyxhdLF7sjtH3FifblJeAT6GSF6aOcL3LuARlzDqP-I9Uoe9fODrTEJa-_wze6P&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-3.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=kxIeYQe8v096bVlfjnK6og&amp;oh=00_Afgz41CdJlZ8CsiffFM61I178OlxtuwJMh_TKSMXCxpJgQ&amp;oe=69294628</t>
         </is>
       </c>
       <c r="AC23" t="inlineStr"/>
@@ -2914,13 +2941,13 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>861</v>
+        <v>907</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="P24" t="inlineStr"/>
       <c r="Q24" t="n">
@@ -2948,7 +2975,7 @@
       <c r="AA24" t="inlineStr"/>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-2.cdninstagram.com/v/t51.29350-15/491442227_700901409283627_4016816575238372329_n.heic?stp=dst-jpg_e35_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0FST1VTRUxfSVRFTS5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=36GOF5_Bg_sQ7kNvwEAKlih&amp;_nc_oc=AdkHARYNG_2VSZAte0uMzlJULPh2hpTsDvY9khTwZqB6BluX6skV--l6t7XDnAIcXfnLI01tRwLytbQaNvd9Ju5s&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-2.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=UX7N9kGiqNNdGFe8DDb9yQ&amp;oh=00_Afd8Op8Ntc65zQPhlujtpPP5EQRuZXHJDZ6wSTLYfsHgMg&amp;oe=68FEF2CF</t>
+          <t>https://scontent-lga3-2.cdninstagram.com/v/t51.29350-15/491442227_700901409283627_4016816575238372329_n.heic?stp=dst-jpg_e35_tt6&amp;_nc_cat=109&amp;ccb=7-5&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0FST1VTRUxfSVRFTS5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=Q_WONOV3dBwQ7kNvwGo1zie&amp;_nc_oc=AdlxlOERBzjPSdqANsC2h0KazybRj-NlLyGepbUnruCRkIsQqco2BiNTjOGZjj7iutOykH0rgf9upTg9GYHU3w1X&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-2.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=kxIeYQe8v096bVlfjnK6og&amp;oh=00_AfgTU_S5rwF9JsV6eKokr3pxHbT4BkI1vIW6TuibDfQ-OA&amp;oe=692922CF</t>
         </is>
       </c>
       <c r="AC24" t="inlineStr"/>
@@ -3010,13 +3037,13 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>843</v>
+        <v>890</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="P25" t="inlineStr"/>
       <c r="Q25" t="n">
@@ -3044,7 +3071,7 @@
       <c r="AA25" t="inlineStr"/>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-1.cdninstagram.com/v/t51.29350-15/488993784_1829939034523359_8666780618589623859_n.heic?stp=dst-jpg_e35_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0FST1VTRUxfSVRFTS5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=MQqwSJ7qFpYQ7kNvwEJ86Xx&amp;_nc_oc=AdmhDvKTX1n9wu8iVpJM-w98NvznLT1p-7X0NwOpsf_Eml4bJhNBGxU0T8rR9ak07gxLEgaE42KQxvZdsWc9ODXE&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-1.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=UX7N9kGiqNNdGFe8DDb9yQ&amp;oh=00_AfcZ0bTvI6vBsSOmAtAJW5B0cVPU0BKkkJav81gHMQybKA&amp;oe=68FEF702</t>
+          <t>https://scontent-lga3-1.cdninstagram.com/v/t51.29350-15/488993784_1829939034523359_8666780618589623859_n.heic?stp=dst-jpg_e35_tt6&amp;_nc_cat=103&amp;ccb=7-5&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0FST1VTRUxfSVRFTS5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=0BzNolecQSwQ7kNvwG07IdT&amp;_nc_oc=Adkac5w3c5PHIvLkTkzShcIc3RXDB5Lhs_tx6oVKLd1TUtGPQKiHvunYtcKkeJaPYqteZFajX1tLQHCgu2UZNmG6&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-1.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=kxIeYQe8v096bVlfjnK6og&amp;oh=00_AfjD4hFvR_46196Uvkt2ROf0NM6bF3ruKQ4EwYSNxi79-w&amp;oe=69292702</t>
         </is>
       </c>
       <c r="AC25" t="inlineStr"/>
@@ -3106,13 +3133,13 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>676</v>
+        <v>715</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="P26" t="inlineStr"/>
       <c r="Q26" t="n">
@@ -3140,7 +3167,7 @@
       <c r="AA26" t="inlineStr"/>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-3.cdninstagram.com/v/t51.29350-15/489413921_1475949293170674_5292846746902178029_n.heic?stp=dst-jpg_e35_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0FST1VTRUxfSVRFTS5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=6z4cSVXA4sMQ7kNvwHLNuDl&amp;_nc_oc=AdkyGJWPnYCAhAHJHhVyEucmdSAFRZWHmAj1bbyZ3F7TXtXqldqhNjtx09kIihQvsHO53orNZZ28BjbTcJvO0R2N&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-3.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=UX7N9kGiqNNdGFe8DDb9yQ&amp;oh=00_AffYTD9f-_S9zn_My1JtJeLTSkw_r_AThurX8vTP-s05OA&amp;oe=68FF10B1</t>
+          <t>https://scontent-lga3-3.cdninstagram.com/v/t51.29350-15/489413921_1475949293170674_5292846746902178029_n.heic?stp=dst-jpg_e35_tt6&amp;_nc_cat=110&amp;ccb=7-5&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0FST1VTRUxfSVRFTS5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=XTvHP_ZXQgsQ7kNvwGcQS4Y&amp;_nc_oc=AdnOtkMQWF5luCistjW9pIiv-Q1TDCv08UpIxRz482f9eZAUR3xFgTihz_kLO5eWxSrps61m2qKjtaEyMOV-zqev&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-3.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=kxIeYQe8v096bVlfjnK6og&amp;oh=00_AfjlOcSbIVMVFuvS_OY-MqBwuZKYigNlIhoh6oP1ZNh7FA&amp;oe=692940B1</t>
         </is>
       </c>
       <c r="AC26" t="inlineStr"/>
@@ -3201,13 +3228,13 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>1732</v>
+        <v>1735</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>1079</v>
+        <v>1083</v>
       </c>
       <c r="P27" t="inlineStr"/>
       <c r="Q27" t="n">
@@ -3235,12 +3262,12 @@
       <c r="AA27" t="inlineStr"/>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-1.cdninstagram.com/o1/v/t2/f2/m367/AQOpTI9DrpXk5dEUW5oBoFmCuUwPDkQVY3um6kGpmU5G2hiAwOzCsHksLTQ8Y9ImG3TprfuUbbKDXXfQPNIp_5uNYeh_JD_e9Vj8KII.mp4?_nc_cat=102&amp;_nc_sid=5e9851&amp;_nc_ht=scontent-lga3-1.cdninstagram.com&amp;_nc_ohc=Z9rSjfwHG-0Q7kNvwHykLi_&amp;efg=eyJ2ZW5jb2RlX3RhZyI6Inhwdl9wcm9ncmVzc2l2ZS5JTlNUQUdSQU0uQ0xJUFMuQzMuNzIwLmRhc2hfYmFzZWxpbmVfMV92MSIsInhwdl9hc3NldF9pZCI6MTIyMTc1NDg5NjEwOTAzOCwidmlfdXNlY2FzZV9pZCI6MTAwOTksImR1cmF0aW9uX3MiOjMyLCJ1cmxnZW5fc291cmNlIjoid3d3In0%3D&amp;ccb=17-1&amp;vs=71fea2b820cefa7d&amp;_nc_vs=HBksFQIYQGlnX2VwaGVtZXJhbC83RjRBRThFMjEyNEE0RDMyODdGMTM0RTcwODk3RTFCNV92aWRlb19kYXNoaW5pdC5tcDQVAALIARIAFQIYOnBhc3N0aHJvdWdoX2V2ZXJzdG9yZS9HSmF5RWgzVlhyb2FadEVCQU5pZVdhRER0dVVoYnFfRUFBQUYVAgLIARIAKAAYABsCiAd1c2Vfb2lsATEScHJvZ3Jlc3NpdmVfcmVjaXBlATEVAAAm3Leuqb_LqwQVAigCQzMsF0BAJkWhysCDGBJkYXNoX2Jhc2VsaW5lXzFfdjERAHX-B2XmnQEA&amp;_nc_gid=UX7N9kGiqNNdGFe8DDb9yQ&amp;edm=AM6HXa8EAAAA&amp;_nc_zt=28&amp;oh=00_Afe8tkHsjXcOFwqAwh-SCB-AMpWmmBktMDcc4Gp8DqQg-g&amp;oe=68FF0997</t>
+          <t>https://scontent-lga3-3.cdninstagram.com/o1/v/t2/f2/m367/AQOYKiLN58S-6bq_LyB9vnenBZmUjtPiBNNAef7xlKZwHaUnMBUAtHjHTnuhu_egk18-n2NsE3Ie7otxqUaVRYwFehqJofp7bPALq5E.mp4?_nc_cat=106&amp;_nc_sid=5e9851&amp;_nc_ht=scontent-lga3-3.cdninstagram.com&amp;_nc_ohc=SYQFC3atT2wQ7kNvwEXvAwD&amp;efg=eyJ2ZW5jb2RlX3RhZyI6Inhwdl9wcm9ncmVzc2l2ZS5JTlNUQUdSQU0uQ0xJUFMuQzMuNzIwLmRhc2hfYmFzZWxpbmVfMV92MSIsInhwdl9hc3NldF9pZCI6MTIyMTc1NDg5NjEwOTAzOCwiYXNzZXRfYWdlX2RheXMiOjIzNCwidmlfdXNlY2FzZV9pZCI6MTAwOTksImR1cmF0aW9uX3MiOjMyLCJ1cmxnZW5fc291cmNlIjoid3d3In0%3D&amp;ccb=17-1&amp;vs=d820c3aa515c2bec&amp;_nc_vs=HBksFQIYQGlnX2VwaGVtZXJhbC9GNDRGQTAxRkY3REM4Q0YyMDc4QkM3MTU0QTVCMTk5OF92aWRlb19kYXNoaW5pdC5tcDQVAALIARIAFQIYOnBhc3N0aHJvdWdoX2V2ZXJzdG9yZS9HSmF5RWgzVlhyb2FadEVCQU5pZVdhRER0dVVoYnFfRUFBQUYVAgLIARIAKAAYABsCiAd1c2Vfb2lsATEScHJvZ3Jlc3NpdmVfcmVjaXBlATEVAAAm3Leuqb_LqwQVAigCQzMsF0BAJkWhysCDGBJkYXNoX2Jhc2VsaW5lXzFfdjERAHX-B2XmnQEA&amp;_nc_gid=kxIeYQe8v096bVlfjnK6og&amp;edm=AM6HXa8EAAAA&amp;_nc_zt=28&amp;oh=00_AfgCHMTltIjfsGkMDNqGjRbrRAeg4N4ioUfc7KfD4OZUdg&amp;oe=69292B6B</t>
         </is>
       </c>
       <c r="AC27" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-3.cdninstagram.com/v/t51.75761-15/487674808_18498467230017986_6552195572269079701_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0xJUFMuYmVzdF9pbWFnZV91cmxnZW4uQzMifQ%3D%3D&amp;_nc_ohc=HeW9Hpz2Rp8Q7kNvwE5r0aP&amp;_nc_oc=AdnL6VV0HBO0fwVHzUVfEoRzlNDmiRAdr_rkggdIhTvJrEUb6NWhADgE9J_lVeTosQx79RGvfM8zLDgtSjzJrCRb&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-3.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=UX7N9kGiqNNdGFe8DDb9yQ&amp;oh=00_AffDezTcxu9ZBM4k6XH32S-4Hm44ok_EAxldfmkQEXXbNg&amp;oe=68FEE337</t>
+          <t>https://scontent-lga3-3.cdninstagram.com/v/t51.75761-15/487674808_18498467230017986_6552195572269079701_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=106&amp;ccb=7-5&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0xJUFMuYmVzdF9pbWFnZV91cmxnZW4uQzMifQ%3D%3D&amp;_nc_ohc=dH7ZjrAW4S4Q7kNvwHFwjNI&amp;_nc_oc=AdnZ_D0yqbCzXyZy3tSeV8OVB3BwLzoJwipHgWTiOWZjsl_w_hhCBpFXAatKtcj6uxalD3kN7V6wqPIFd4P3XM_P&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-3.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=kxIeYQe8v096bVlfjnK6og&amp;oh=00_AfjZ8TedS2fdNFCkmewHY6iHe8gce-FGSMv5LLPaPg9SWg&amp;oe=69294B77</t>
         </is>
       </c>
     </row>
@@ -3300,13 +3327,13 @@
         </is>
       </c>
       <c r="M28" t="n">
-        <v>2172</v>
+        <v>2213</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="P28" t="inlineStr"/>
       <c r="Q28" t="n">
@@ -3334,7 +3361,7 @@
       <c r="AA28" t="inlineStr"/>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-1.cdninstagram.com/v/t51.29350-15/487731808_1147325747189057_6241445891549488505_n.heic?stp=dst-jpg_e35_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0FST1VTRUxfSVRFTS5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=simaQ30gTMoQ7kNvwE63wNC&amp;_nc_oc=Adlt6lBFBHDhkfTZUoZx_TUw-YT-aZ2rfkjSrJltuZyNH2YQUUOtr71IqeQdrxx36-AsZfoQTTZ_4onAl2b-gGdP&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-1.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=UX7N9kGiqNNdGFe8DDb9yQ&amp;oh=00_AfdFoziDoevxkZGDLJSn3qf8u_1oF1dKaxPmFZqrhXYtBg&amp;oe=68FEFC74</t>
+          <t>https://scontent-lga3-1.cdninstagram.com/v/t51.29350-15/487731808_1147325747189057_6241445891549488505_n.heic?stp=dst-jpg_e35_tt6&amp;_nc_cat=111&amp;ccb=7-5&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0FST1VTRUxfSVRFTS5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=GvKEx7sGAakQ7kNvwGQ5Scb&amp;_nc_oc=Adm8t6hzcxJQHWM1DOTwaVm1FYEtGxEFOCiRBAZuH0nsPflnbuvwqYgrqHLb3AZKFyGz9D7Ae3i-JHBlF9M0VYlz&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-1.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=kxIeYQe8v096bVlfjnK6og&amp;oh=00_Afgr4fFovckw_ZNb1zsTr6rQ9FChW9abGKTlQ6yyjrY5Nw&amp;oe=69292C74</t>
         </is>
       </c>
       <c r="AC28" t="inlineStr"/>
@@ -3394,7 +3421,7 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>875</v>
+        <v>878</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -3428,12 +3455,12 @@
       <c r="AA29" t="inlineStr"/>
       <c r="AB29" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-3.cdninstagram.com/o1/v/t2/f2/m367/AQODrK14t7PofNGPIHADMFoGiua-_6DtygWQbZgmWcRQu8NnWAnzub3x-Tbvlqlh6K5svlUC7MdkoV18wH_9OTygPnz1c8hKcwR0ZGg.mp4?_nc_cat=106&amp;_nc_sid=5e9851&amp;_nc_ht=scontent-lga3-3.cdninstagram.com&amp;_nc_ohc=2YVFUVcSeOAQ7kNvwGyyJls&amp;efg=eyJ2ZW5jb2RlX3RhZyI6Inhwdl9wcm9ncmVzc2l2ZS5JTlNUQUdSQU0uQ0xJUFMuQzMuNzIwLmRhc2hfYmFzZWxpbmVfMV92MSIsInhwdl9hc3NldF9pZCI6MTAzNzgxNTM2ODQwNTQ5MSwidmlfdXNlY2FzZV9pZCI6MTAwOTksImR1cmF0aW9uX3MiOjMyLCJ1cmxnZW5fc291cmNlIjoid3d3In0%3D&amp;ccb=17-1&amp;vs=aef47d18a26eed2c&amp;_nc_vs=HBksFQIYQGlnX2VwaGVtZXJhbC8yMDQxMDEzQUZEQjQ3ODhGREEyMjVDMDU3Q0U1QjdBOV92aWRlb19kYXNoaW5pdC5tcDQVAALIARIAFQIYOnBhc3N0aHJvdWdoX2V2ZXJzdG9yZS9HSkJ2RVIzVXYtYzJIdW9CQURmcDljZzhrZko1YnFfRUFBQUYVAgLIARIAKAAYABsCiAd1c2Vfb2lsATEScHJvZ3Jlc3NpdmVfcmVjaXBlATEVAAAm5seChuf41wMVAigCQzMsF0BAShysCDEnGBJkYXNoX2Jhc2VsaW5lXzFfdjERAHX-B2XmnQEA&amp;_nc_gid=UX7N9kGiqNNdGFe8DDb9yQ&amp;edm=AM6HXa8EAAAA&amp;_nc_zt=28&amp;oh=00_AffSZpSfI2_70OHjHNYNOyM-v5hSAGR00YXoE9F65ZA4ZA&amp;oe=68FF155B</t>
+          <t>https://scontent-lga3-2.cdninstagram.com/o1/v/t2/f2/m86/AQMoLYMbQRNc9R6Q-Ns3jVaFAp5dOMbmdX4edua-_MGyOteMAJbNXpYlTZwc1deEptj7uI4ONe3oRHP07Mf6OFbjgA2FWG163n-qWAs.mp4?_nc_cat=109&amp;_nc_sid=5e9851&amp;_nc_ht=scontent-lga3-2.cdninstagram.com&amp;_nc_ohc=7gkiHiMw6ZYQ7kNvwFtHLEn&amp;efg=eyJ2ZW5jb2RlX3RhZyI6Inhwdl9wcm9ncmVzc2l2ZS5JTlNUQUdSQU0uQ0xJUFMuQzMuMzYwLmRhc2hfYmFzZWxpbmVfM192MSIsInhwdl9hc3NldF9pZCI6MTAzNzgxNTM2ODQwNTQ5MSwiYXNzZXRfYWdlX2RheXMiOjIzNywidmlfdXNlY2FzZV9pZCI6MTAwOTksImR1cmF0aW9uX3MiOjMyLCJ1cmxnZW5fc291cmNlIjoid3d3In0%3D&amp;ccb=17-1&amp;vs=34ebebc47adb20de&amp;_nc_vs=HBksFQIYUmlnX3hwdl9yZWVsc19wZXJtYW5lbnRfc3JfcHJvZC9FQzRCMkIwQkE4REJGQjNCMDEyQjdCODQzOUI1OTk5OV92aWRlb19kYXNoaW5pdC5tcDQVAALIARIAFQIYOnBhc3N0aHJvdWdoX2V2ZXJzdG9yZS9HSkJ2RVIzVXYtYzJIdW9CQURmcDljZzhrZko1YnFfRUFBQUYVAgLIARIAKAAYABsCiAd1c2Vfb2lsATEScHJvZ3Jlc3NpdmVfcmVjaXBlATEVAAAm5seChuf41wMVAigCQzMsF0BARaHKwIMSGBJkYXNoX2Jhc2VsaW5lXzNfdjERAHX-B2XmnQEA&amp;_nc_gid=kxIeYQe8v096bVlfjnK6og&amp;edm=AM6HXa8EAAAA&amp;_nc_zt=28&amp;oh=00_Afg3kdp6n0liMt5M68NvqLhrHO24qc8gvQW0BGRO4tZhvg&amp;oe=69253CFE</t>
         </is>
       </c>
       <c r="AC29" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-3.cdninstagram.com/v/t51.75761-15/487282419_18497681242017986_1125842969959792826_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0xJUFMuYmVzdF9pbWFnZV91cmxnZW4uQzMifQ%3D%3D&amp;_nc_ohc=jOjQ99hUMxUQ7kNvwH4XIMw&amp;_nc_oc=AdkMjVZgS4nPF2qPGfiKNVo5vqjNTsB1Zffq8cVSkhMxxwu-ltkZvIaiPC31AoJlDMpPK1quIbouXcrSWqxxjb9w&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-3.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=UX7N9kGiqNNdGFe8DDb9yQ&amp;oh=00_AfejLFmYRzMPxCPTAfw4vcISFjKehe5ccEWDj0o7jJWnnA&amp;oe=68FF0991</t>
+          <t>https://scontent-lga3-3.cdninstagram.com/v/t51.75761-15/487282419_18497681242017986_1125842969959792826_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=106&amp;ccb=7-5&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0xJUFMuYmVzdF9pbWFnZV91cmxnZW4uQzMifQ%3D%3D&amp;_nc_ohc=KWMMX3vaSLoQ7kNvwGB8RUB&amp;_nc_oc=AdkM5GmLhAZXepWelTkZlvZaPX8RYft2y-r8W7sNQIQl_QI2LBTCyfiPDeIJAfozuqPRWSzNCHMPLKC5DmnUTjZq&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-3.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=kxIeYQe8v096bVlfjnK6og&amp;oh=00_AfjWBjlXWhlvjewz5fVQFjLb6BB3v3QcuaOsnhv7f4jr2g&amp;oe=69293991</t>
         </is>
       </c>
     </row>
@@ -3492,13 +3519,13 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>838</v>
+        <v>850</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>619</v>
+        <v>624</v>
       </c>
       <c r="P30" t="inlineStr"/>
       <c r="Q30" t="n">
@@ -3526,12 +3553,12 @@
       <c r="AA30" t="inlineStr"/>
       <c r="AB30" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-1.cdninstagram.com/o1/v/t2/f2/m367/AQMU0-DmsIqnt5O4Ku9YTIGBR8ZrJUb6uZhN3AXgbzLZyEXJ13IPl9G3xITMXoc4MQYNP8mQoOUB31VqZt3qspdsEGHJODqgwg42nYE.mp4?_nc_cat=103&amp;_nc_sid=5e9851&amp;_nc_ht=scontent-lga3-1.cdninstagram.com&amp;_nc_ohc=Sufj8YRUodIQ7kNvwF0vUCG&amp;efg=eyJ2ZW5jb2RlX3RhZyI6Inhwdl9wcm9ncmVzc2l2ZS5JTlNUQUdSQU0uQ0xJUFMuQzMuNzIwLmRhc2hfYmFzZWxpbmVfMV92MSIsInhwdl9hc3NldF9pZCI6MTM3MDAwMjM1NzY0ODczNiwidmlfdXNlY2FzZV9pZCI6MTAwOTksImR1cmF0aW9uX3MiOjM2LCJ1cmxnZW5fc291cmNlIjoid3d3In0%3D&amp;ccb=17-1&amp;vs=2bf9fd4b5d03b1d4&amp;_nc_vs=HBksFQIYQGlnX2VwaGVtZXJhbC83QzQ1MzU2NjNDQzYwMkUyMzcwRUE2QjhFMzM2M0M4Ql92aWRlb19kYXNoaW5pdC5tcDQVAALIARIAFQIYOnBhc3N0aHJvdWdoX2V2ZXJzdG9yZS9HQlRMRFIyOTljWnVacFVEQUl2aG1RS0k1SVo2YnFfRUFBQUYVAgLIARIAKAAYABsCiAd1c2Vfb2lsATEScHJvZ3Jlc3NpdmVfcmVjaXBlATEVAAAmwPXz_dCA7wQVAigCQzMsF0BCIgxJul41GBJkYXNoX2Jhc2VsaW5lXzFfdjERAHX-B2XmnQEA&amp;_nc_gid=UX7N9kGiqNNdGFe8DDb9yQ&amp;edm=AM6HXa8EAAAA&amp;_nc_zt=28&amp;oh=00_Afe7AOdRgj67Xug5zKzyqY0vAF4ZdMlb5DQ7siHGeyCNMA&amp;oe=68FF099C</t>
+          <t>https://scontent-lga3-3.cdninstagram.com/o1/v/t2/f2/m367/AQNBsaDRUi0IVJt7aF-mYDAW7rlLcdVpLVybwKfVFEhLMO0ehaeRYqQxpVzm__vOR3nwMIhN-o1g1p6Hfw9d38Zi0on122T0TS1OMyo.mp4?_nc_cat=108&amp;_nc_sid=5e9851&amp;_nc_ht=scontent-lga3-3.cdninstagram.com&amp;_nc_ohc=L9ER91_j1GcQ7kNvwG6WKZH&amp;efg=eyJ2ZW5jb2RlX3RhZyI6Inhwdl9wcm9ncmVzc2l2ZS5JTlNUQUdSQU0uQ0xJUFMuQzMuNzIwLmRhc2hfYmFzZWxpbmVfMV92MSIsInhwdl9hc3NldF9pZCI6MTM3MDAwMjM1NzY0ODczNiwiYXNzZXRfYWdlX2RheXMiOjIzOSwidmlfdXNlY2FzZV9pZCI6MTAwOTksImR1cmF0aW9uX3MiOjM2LCJ1cmxnZW5fc291cmNlIjoid3d3In0%3D&amp;ccb=17-1&amp;vs=46aad79b57c34009&amp;_nc_vs=HBksFQIYQGlnX2VwaGVtZXJhbC9GQjRBMEY0NTJDNDdFNzRCQjc3NEMzQTdBMzI0NjQ4MV92aWRlb19kYXNoaW5pdC5tcDQVAALIARIAFQIYOnBhc3N0aHJvdWdoX2V2ZXJzdG9yZS9HQlRMRFIyOTljWnVacFVEQUl2aG1RS0k1SVo2YnFfRUFBQUYVAgLIARIAKAAYABsCiAd1c2Vfb2lsATEScHJvZ3Jlc3NpdmVfcmVjaXBlATEVAAAmwPXz_dCA7wQVAigCQzMsF0BCIgxJul41GBJkYXNoX2Jhc2VsaW5lXzFfdjERAHX-B2XmnQEA&amp;_nc_gid=kxIeYQe8v096bVlfjnK6og&amp;edm=AM6HXa8EAAAA&amp;_nc_zt=28&amp;oh=00_AfikZSsQXxWsHLDRrp2PWIW87Tn1TRfLVb9hvgk_ka0lYQ&amp;oe=692924F5</t>
         </is>
       </c>
       <c r="AC30" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-3.cdninstagram.com/v/t51.71878-15/486243847_543699558746208_8135012314123658784_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0xJUFMuYmVzdF9pbWFnZV91cmxnZW4uQzMifQ%3D%3D&amp;_nc_ohc=-ja_JzXj4jEQ7kNvwGZj_Sf&amp;_nc_oc=Adncuzhp6UNXaXYWV-j7TcmMOBA5bft7lyXv_JNptyqcfpms66SBNXCuwmzMoT_DH0Pc0w5059iiVosGR8MqhIXc&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-3.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=UX7N9kGiqNNdGFe8DDb9yQ&amp;oh=00_Afeui21poLLIGD-twYV0w78YwdhWH6llBUbb-yxBvXLGlA&amp;oe=68FEF1D3</t>
+          <t>https://scontent-lga3-3.cdninstagram.com/v/t51.71878-15/486243847_543699558746208_8135012314123658784_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=106&amp;ccb=7-5&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0xJUFMuYmVzdF9pbWFnZV91cmxnZW4uQzMifQ%3D%3D&amp;_nc_ohc=XB9s1QpaH_sQ7kNvwHTTFZp&amp;_nc_oc=Adk2BC4dHOSpYdjypc04oH_I3HrQXKvqeGxNASqqg_o9MonnK8nEhnc2OU_P9S61S2HdTxphkWSxkDHEZvKnjEvE&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-3.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=kxIeYQe8v096bVlfjnK6og&amp;oh=00_AfjZI6MQRsCXws2C2PO7ldQVOcqhrVSbPzb0DrifzuHNFQ&amp;oe=692921D3</t>
         </is>
       </c>
     </row>
@@ -3591,7 +3618,7 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>3082</v>
+        <v>3150</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
@@ -3625,7 +3652,7 @@
       <c r="AA31" t="inlineStr"/>
       <c r="AB31" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-1.cdninstagram.com/v/t51.29350-15/486659491_1791905891671646_404679877889777837_n.heic?stp=dst-jpg_e35_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0FST1VTRUxfSVRFTS5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=raMIqjyKwdIQ7kNvwHh7-T_&amp;_nc_oc=AdnQ3DPXKw1VuqhFCaesK88N_A7MiYLA8NysMRs3jHWS1QYqImR3_igZzlwuDdCYI0HAPmthCPCU_VZ4PK3pqjre&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-1.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=UX7N9kGiqNNdGFe8DDb9yQ&amp;oh=00_AfeImqefOGgowLasukPToRqbRzSsD-QrNs5KEx7rJ1wTZA&amp;oe=68FF05E4</t>
+          <t>https://scontent-lga3-3.cdninstagram.com/v/t51.29350-15/486659491_1791905891671646_404679877889777837_n.heic?stp=dst-jpg_e35_tt6&amp;_nc_cat=108&amp;ccb=7-5&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0FST1VTRUxfSVRFTS5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=wwNPOKt10q4Q7kNvwFtVu6d&amp;_nc_oc=Adl6aS-maBzEClu4EUxZz6Gz095CWixzCJEJ0SnWMJhf3dQQaBv1nzZMOkBPMX5bGU0PeqBF81K3xOJuGq1IIEqe&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-3.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=kxIeYQe8v096bVlfjnK6og&amp;oh=00_AfgyDksC_0-EqLzE3nWXX5BJ3Ad2tEankviBcCweXGuMUg&amp;oe=692935E4</t>
         </is>
       </c>
       <c r="AC31" t="inlineStr"/>
@@ -3686,13 +3713,13 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>1705</v>
+        <v>1780</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>900</v>
+        <v>904</v>
       </c>
       <c r="P32" t="inlineStr"/>
       <c r="Q32" t="n">
@@ -3720,7 +3747,7 @@
       <c r="AA32" t="inlineStr"/>
       <c r="AB32" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-1.cdninstagram.com/v/t51.75761-15/486708195_18496772293017986_8095583583693845945_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0FST1VTRUxfSVRFTS5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=i_Ql-BkfOD4Q7kNvwFYDNaw&amp;_nc_oc=AdmE4C8kYy-ffvW8ciyz_qz5UHmjEkzDNMi7l2tMbA2-Dhf0pw41S8I9yQxZtJrjFCJVouBDcCnshEf-Rr6wEHNz&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-1.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=UX7N9kGiqNNdGFe8DDb9yQ&amp;oh=00_Aff8R6erzc25lG7GD9qkUOaBU7XXCPP3SLWqmnJgH1ixSQ&amp;oe=68FEF2E2</t>
+          <t>https://scontent-lga3-1.cdninstagram.com/v/t51.75761-15/486708195_18496772293017986_8095583583693845945_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=103&amp;ccb=7-5&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0FST1VTRUxfSVRFTS5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=RTu9k0G2THAQ7kNvwEDrykr&amp;_nc_oc=AdmhVTj3sS3al8owW33BLwBvC3iLChSaKxzksRO9Lt-fDVtHojSSLy5dxu0MxKtp5bNy_pdpUoGBqm5lj6ENE9TQ&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-1.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=kxIeYQe8v096bVlfjnK6og&amp;oh=00_AfgnU_au8gZNRW_MEU_DZn4n9vVmCNzd6mRCGvQE1mJIaQ&amp;oe=692922E2</t>
         </is>
       </c>
       <c r="AC32" t="inlineStr"/>
@@ -3781,13 +3808,13 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>1979</v>
+        <v>1998</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="P33" t="inlineStr"/>
       <c r="Q33" t="n">
@@ -3815,7 +3842,7 @@
       <c r="AA33" t="inlineStr"/>
       <c r="AB33" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-2.cdninstagram.com/v/t51.29350-15/486541045_510426481907598_5961266972138577125_n.heic?stp=dst-jpg_e35_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0FST1VTRUxfSVRFTS5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=Px6TBNmIkXwQ7kNvwGHNuny&amp;_nc_oc=AdnwyFnyfKzmDAOwdJqG-jqJAI-kiM2X1VW5ZIMT9z5jUB7GSn59qCqhBnLIQA0vhuirTx594UdlHtFsgy9L4GtK&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-2.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=UX7N9kGiqNNdGFe8DDb9yQ&amp;oh=00_Afc1uepuzNLnKyyqadOdwLbJtnhOYFbKD3w7Z-n7LtT3oQ&amp;oe=68FF0805</t>
+          <t>https://scontent-lga3-2.cdninstagram.com/v/t51.29350-15/486541045_510426481907598_5961266972138577125_n.heic?stp=dst-jpg_e35_tt6&amp;_nc_cat=100&amp;ccb=7-5&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0FST1VTRUxfSVRFTS5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=DVdAnSOpvp8Q7kNvwHdj5HW&amp;_nc_oc=Adn4vNdjQl8xYHrowHaLXN-Ce8o4ETD7jwqIn24vV2QTtpGO7D46gHxocrsFl2uAqA4JFWGnHc1mbZBc4yv7P3E7&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-2.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=kxIeYQe8v096bVlfjnK6og&amp;oh=00_AfgzdHYXI-EVk12Iyw45fWiLh96b016I3HCDL2f01kXr7A&amp;oe=69293805</t>
         </is>
       </c>
       <c r="AC33" t="inlineStr"/>
@@ -3880,7 +3907,7 @@
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="P34" t="inlineStr"/>
       <c r="Q34" t="n">
@@ -3908,12 +3935,12 @@
       <c r="AA34" t="inlineStr"/>
       <c r="AB34" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-2.cdninstagram.com/o1/v/t2/f2/m367/AQMfZKLHjkQYK-PdT3qy0p0ySojCq9Tm2pF2pbQsPeFoEP5wSDko5HXdk0jggtyRa225UaPTouFmpnMVL3AVN0sENLuwuSQ0m44l5gI.mp4?_nc_cat=109&amp;_nc_sid=5e9851&amp;_nc_ht=scontent-lga3-2.cdninstagram.com&amp;_nc_ohc=QmFZnjwmChEQ7kNvwHnz1MN&amp;efg=eyJ2ZW5jb2RlX3RhZyI6Inhwdl9wcm9ncmVzc2l2ZS5JTlNUQUdSQU0uQ0xJUFMuQzMuNzIwLmRhc2hfYmFzZWxpbmVfMV92MSIsInhwdl9hc3NldF9pZCI6MTAwMjgxODc5ODQ0MDI0NywidmlfdXNlY2FzZV9pZCI6MTAwOTksImR1cmF0aW9uX3MiOjE3LCJ1cmxnZW5fc291cmNlIjoid3d3In0%3D&amp;ccb=17-1&amp;vs=dbc8d8695bdd2203&amp;_nc_vs=HBksFQIYQGlnX2VwaGVtZXJhbC9ENTRFRkJDNEE5RUVERkZGRkIzMEQxOTRGNjE3MURBRF92aWRlb19kYXNoaW5pdC5tcDQVAALIARIAFQIYOnBhc3N0aHJvdWdoX2V2ZXJzdG9yZS9HTWdGX0J3b3EtdllSVklFQU5lczc1c3JFWjEwYnFfRUFBQUYVAgLIARIAKAAYABsCiAd1c2Vfb2lsATEScHJvZ3Jlc3NpdmVfcmVjaXBlATEVAAAm7ryKpN6DyAMVAigCQzMsF0Axd0vGp--eGBJkYXNoX2Jhc2VsaW5lXzFfdjERAHX-B2XmnQEA&amp;_nc_gid=UX7N9kGiqNNdGFe8DDb9yQ&amp;edm=AM6HXa8EAAAA&amp;_nc_zt=28&amp;oh=00_AffQmBrG-x5LNOEMnZ9vkaK5K-kIBn3mVI-Xw82bpQbmng&amp;oe=68FF184E</t>
+          <t>https://scontent-lga3-2.cdninstagram.com/o1/v/t2/f2/m86/AQOfFOOh_ZhDFPgPPwOo-BVNqnet2zLEfuRmt9e4HqAvzc-ULLQFZ3w8MmsZR6EMyT9CadRv7tnLo33zxcp2CnXW-XGMEGlpAJSaifU.mp4?_nc_cat=109&amp;_nc_sid=5e9851&amp;_nc_ht=scontent-lga3-2.cdninstagram.com&amp;_nc_ohc=wJcahGiYehsQ7kNvwHNAZ6V&amp;efg=eyJ2ZW5jb2RlX3RhZyI6Inhwdl9wcm9ncmVzc2l2ZS5JTlNUQUdSQU0uQ0xJUFMuQzMuMzYwLmRhc2hfYmFzZWxpbmVfM192MSIsInhwdl9hc3NldF9pZCI6MTAwMjgxODc5ODQ0MDI0NywiYXNzZXRfYWdlX2RheXMiOjI0OCwidmlfdXNlY2FzZV9pZCI6MTAwOTksImR1cmF0aW9uX3MiOjE3LCJ1cmxnZW5fc291cmNlIjoid3d3In0%3D&amp;ccb=17-1&amp;vs=7f5ae3c01b12712a&amp;_nc_vs=HBksFQIYUmlnX3hwdl9yZWVsc19wZXJtYW5lbnRfc3JfcHJvZC8wMjQ2QzQ1QkE4MTRBQTAzMjk5M0YyQkRBQjBGNjQ5MV92aWRlb19kYXNoaW5pdC5tcDQVAALIARIAFQIYOnBhc3N0aHJvdWdoX2V2ZXJzdG9yZS9HTWdGX0J3b3EtdllSVklFQU5lczc1c3JFWjEwYnFfRUFBQUYVAgLIARIAKAAYABsCiAd1c2Vfb2lsATEScHJvZ3Jlc3NpdmVfcmVjaXBlATEVAAAm7ryKpN6DyAMVAigCQzMsF0AxZmZmZmZmGBJkYXNoX2Jhc2VsaW5lXzNfdjERAHX-B2XmnQEA&amp;_nc_gid=kxIeYQe8v096bVlfjnK6og&amp;edm=AM6HXa8EAAAA&amp;_nc_zt=28&amp;oh=00_AfgbMw8G7MI8014YMumWgTEx01XYYQRmwiZczCcFUqhsgw&amp;oe=69252F5E</t>
         </is>
       </c>
       <c r="AC34" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-3.cdninstagram.com/v/t51.71878-15/485543372_1374507090388740_3888700970938726220_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0xJUFMuYmVzdF9pbWFnZV91cmxnZW4uQzMifQ%3D%3D&amp;_nc_ohc=9DrTYyRVMP8Q7kNvwFnu9Pu&amp;_nc_oc=AdkABn9uIwxb7Je_k48Luyos7R3feRzksSsnwSc_QMqYI7d14EG9DRRlWwEj7gMSbU199REMs6Gj-_l2jxqG8WZj&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-3.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=UX7N9kGiqNNdGFe8DDb9yQ&amp;oh=00_Afd1Ek2suo58R_-2XHOOeTeeB7_qm4DFI3YbFHAjnAJsTg&amp;oe=68FF086F</t>
+          <t>https://scontent-lga3-3.cdninstagram.com/v/t51.71878-15/485543372_1374507090388740_3888700970938726220_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=106&amp;ccb=7-5&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0xJUFMuYmVzdF9pbWFnZV91cmxnZW4uQzMifQ%3D%3D&amp;_nc_ohc=mXqAsAoytj0Q7kNvwFD0tB5&amp;_nc_oc=AdkNg5wpLAi-WBFWzwIX7ecA_hDOsCOwWEgHXZl2Nw5lsZKEEbykrP90vYPn2HlnjFwtzyzhCUrbztIoZrZlrje3&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-3.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=kxIeYQe8v096bVlfjnK6og&amp;oh=00_AfgJ3RvG78kWAK0sSL1cuGMUfIO2dFDRLXstBqUIMaa_Eg&amp;oe=6929386F</t>
         </is>
       </c>
     </row>
@@ -3974,13 +4001,13 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="P35" t="inlineStr"/>
       <c r="Q35" t="n">
@@ -4008,12 +4035,12 @@
       <c r="AA35" t="inlineStr"/>
       <c r="AB35" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-1.cdninstagram.com/o1/v/t2/f2/m367/AQNrccaNz2z7xxgBZzJnsoK5Q7FXgGviNv1bEYFrfXkPsjNEAhMoyI5bzVFVC1WUdMuWLc3bGxfCrxzxtp6A4xCVdqGNG-xqWtBmXe0.mp4?_nc_cat=111&amp;_nc_sid=5e9851&amp;_nc_ht=scontent-lga3-1.cdninstagram.com&amp;_nc_ohc=67ZhXvA-xpkQ7kNvwHBO4sL&amp;efg=eyJ2ZW5jb2RlX3RhZyI6Inhwdl9wcm9ncmVzc2l2ZS5JTlNUQUdSQU0uQ0xJUFMuQzMuNzIwLmRhc2hfYmFzZWxpbmVfMV92MSIsInhwdl9hc3NldF9pZCI6MTY0NDUxMTc2OTQ4Njk4NCwidmlfdXNlY2FzZV9pZCI6MTAwOTksImR1cmF0aW9uX3MiOjI2LCJ1cmxnZW5fc291cmNlIjoid3d3In0%3D&amp;ccb=17-1&amp;vs=6a8ec3572e82bd22&amp;_nc_vs=HBksFQIYQGlnX2VwaGVtZXJhbC83NDQxNTNDRkJGQTA3M0ZEOTY0OUI5RDUyRUM0MzZBN192aWRlb19kYXNoaW5pdC5tcDQVAALIARIAFQIYOnBhc3N0aHJvdWdoX2V2ZXJzdG9yZS9HTkI2NlJ5VUFCSTA1NUVIQUtYQmk1d0doREo2YnFfRUFBQUYVAgLIARIAKAAYABsCiAd1c2Vfb2lsATEScHJvZ3Jlc3NpdmVfcmVjaXBlATEVAAAmkJrLvZfr6wUVAigCQzMsF0A6Kn752yLRGBJkYXNoX2Jhc2VsaW5lXzFfdjERAHX-B2XmnQEA&amp;_nc_gid=UX7N9kGiqNNdGFe8DDb9yQ&amp;edm=AM6HXa8EAAAA&amp;_nc_zt=28&amp;oh=00_AfcJmoqQM9mtOujIB8wRgkgUNjS09yIp_w3_qz0rDIy4Zg&amp;oe=68FEF12C</t>
+          <t>https://scontent-lga3-1.cdninstagram.com/o1/v/t2/f2/m367/AQNrccaNz2z7xxgBZzJnsoK5Q7FXgGviNv1bEYFrfXkPsjNEAhMoyI5bzVFVC1WUdMuWLc3bGxfCrxzxtp6A4xCVdqGNG-xqWtBmXe0.mp4?_nc_cat=111&amp;_nc_sid=5e9851&amp;_nc_ht=scontent-lga3-1.cdninstagram.com&amp;_nc_ohc=npQlo-LB8YoQ7kNvwGaa0EC&amp;efg=eyJ2ZW5jb2RlX3RhZyI6Inhwdl9wcm9ncmVzc2l2ZS5JTlNUQUdSQU0uQ0xJUFMuQzMuNzIwLmRhc2hfYmFzZWxpbmVfMV92MSIsInhwdl9hc3NldF9pZCI6MTY0NDUxMTc2OTQ4Njk4NCwiYXNzZXRfYWdlX2RheXMiOjI1MCwidmlfdXNlY2FzZV9pZCI6MTAwOTksImR1cmF0aW9uX3MiOjI2LCJ1cmxnZW5fc291cmNlIjoid3d3In0%3D&amp;ccb=17-1&amp;vs=6a8ec3572e82bd22&amp;_nc_vs=HBksFQIYQGlnX2VwaGVtZXJhbC83NDQxNTNDRkJGQTA3M0ZEOTY0OUI5RDUyRUM0MzZBN192aWRlb19kYXNoaW5pdC5tcDQVAALIARIAFQIYOnBhc3N0aHJvdWdoX2V2ZXJzdG9yZS9HTkI2NlJ5VUFCSTA1NUVIQUtYQmk1d0doREo2YnFfRUFBQUYVAgLIARIAKAAYABsCiAd1c2Vfb2lsATEScHJvZ3Jlc3NpdmVfcmVjaXBlATEVAAAmkJrLvZfr6wUVAigCQzMsF0A6Kn752yLRGBJkYXNoX2Jhc2VsaW5lXzFfdjERAHX-B2XmnQEA&amp;_nc_gid=kxIeYQe8v096bVlfjnK6og&amp;edm=AM6HXa8EAAAA&amp;_nc_zt=28&amp;oh=00_AfhrrdV2qNIhFCzI8ht3Lk1TbEXZoxK49J4wqb0LDOYD0Q&amp;oe=6929212C</t>
         </is>
       </c>
       <c r="AC35" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-1.cdninstagram.com/v/t51.75761-15/485310561_18495079525017986_3870067372263515807_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0xJUFMuYmVzdF9pbWFnZV91cmxnZW4uQzMifQ%3D%3D&amp;_nc_ohc=mfZjfjqsDA4Q7kNvwFt2N8D&amp;_nc_oc=Adn8Mp0yyo06DHisilvO29BkiAf-KOnsCuA4fzbrh5dfHx7xMdxwXGpUjtjnjG_U3z0RJXm3Fm0H1ehFHQJyiEyC&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-1.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=UX7N9kGiqNNdGFe8DDb9yQ&amp;oh=00_AffI1fvpy9DbTS_CbnEsni09AqTljAlUj0Spa-aA86ecYw&amp;oe=68FEECD8</t>
+          <t>https://scontent-lga3-3.cdninstagram.com/v/t51.75761-15/485310561_18495079525017986_3870067372263515807_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=108&amp;ccb=7-5&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0xJUFMuYmVzdF9pbWFnZV91cmxnZW4uQzMifQ%3D%3D&amp;_nc_ohc=utQOlccFxp8Q7kNvwHsVGrE&amp;_nc_oc=AdnlkGEw7DURQ_BrALP3kH3LiovfCcSjyuxqd-qX07yrpPztPpIGUeJhKXy9hJ6rlt9iuNz8lOdS70oXQa3cx-1q&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-3.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=kxIeYQe8v096bVlfjnK6og&amp;oh=00_AfiCiLIP2uB_26rgXcwMcOf2GKYyEynSD04W3JwzlMZp7g&amp;oe=69291CD8</t>
         </is>
       </c>
     </row>
@@ -4074,7 +4101,7 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>1480</v>
+        <v>1506</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -4108,7 +4135,7 @@
       <c r="AA36" t="inlineStr"/>
       <c r="AB36" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-2.cdninstagram.com/v/t51.29350-15/484840706_1010536387866878_522795830026187648_n.heic?stp=dst-jpg_e35_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiRkVFRC5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=DO1LZjbF44EQ7kNvwFN1Tvt&amp;_nc_oc=Adl9gmS-mhGxKsy9Sfru6XDaPXdFpkVqTewTPXg51x6QUS8DZDgBbK3siDBykbJtLgjqchhSiKtQRm9NuH6x4f5t&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-2.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=UX7N9kGiqNNdGFe8DDb9yQ&amp;oh=00_AffkVg7BFIPVpbjKxU2lyvQYdfPkRuJ3szk5oJHy0O1HiA&amp;oe=68FEF410</t>
+          <t>https://scontent-lga3-2.cdninstagram.com/v/t51.29350-15/484840706_1010536387866878_522795830026187648_n.heic?stp=dst-jpg_e35_tt6&amp;_nc_cat=101&amp;ccb=7-5&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiRkVFRC5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=yaCTKvWxpZsQ7kNvwE2k0kN&amp;_nc_oc=AdkLEQAdmHkT6eLM2jcTpP4PlCrnaoZRfaO8pzdRe6J17fx_8hsDraZscci48c5R-hRgwenmfq_xZ2nLAi6XwFZz&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-2.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=kxIeYQe8v096bVlfjnK6og&amp;oh=00_AfglIFN-GBR1ZAOhcLiTgQU5ZyFqmhCcRE__9q9y0INu7w&amp;oe=69292410</t>
         </is>
       </c>
       <c r="AC36" t="inlineStr"/>
@@ -4203,12 +4230,12 @@
       <c r="AA37" t="inlineStr"/>
       <c r="AB37" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-1.cdninstagram.com/o1/v/t2/f2/m86/AQMIfIUCTTUDKDe1pfG-xEjeSU1RbDNHhg3UWRatubOXcDPh_Lae7AKH5zQ7kSc0Bold3s2UsFHcxM4SBFnegX-Rj9eiLBFO8_s51B0.mp4?_nc_cat=111&amp;_nc_sid=5e9851&amp;_nc_ht=scontent-lga3-1.cdninstagram.com&amp;_nc_ohc=TOmu9QcPYI4Q7kNvwHeYsza&amp;efg=eyJ2ZW5jb2RlX3RhZyI6Inhwdl9wcm9ncmVzc2l2ZS5JTlNUQUdSQU0uQ0xJUFMuQzMuMzYwLmRhc2hfYmFzZWxpbmVfM192MSIsInhwdl9hc3NldF9pZCI6OTI1OTc5NzcyOTQ3MDE2LCJ2aV91c2VjYXNlX2lkIjoxMDA5OSwiZHVyYXRpb25fcyI6MTUsInVybGdlbl9zb3VyY2UiOiJ3d3cifQ%3D%3D&amp;ccb=17-1&amp;vs=15543410a0069ee4&amp;_nc_vs=HBksFQIYUmlnX3hwdl9yZWVsc19wZXJtYW5lbnRfc3JfcHJvZC9CNTRCQTUxQzNFODJDMEM0NTEwRjMxMTVDODUzMkE5M192aWRlb19kYXNoaW5pdC5tcDQVAALIARIAFQIYOnBhc3N0aHJvdWdoX2V2ZXJzdG9yZS9HUDlsNEJ3SlQwR3lfS1FEQU50Y213a0M4YkJRYnFfRUFBQUYVAgLIARIAKAAYABsCiAd1c2Vfb2lsATEScHJvZ3Jlc3NpdmVfcmVjaXBlATEVAAAmkKn89o6LpQMVAigCQzMsF0AvVP3ztkWiGBJkYXNoX2Jhc2VsaW5lXzNfdjERAHX-B2XmnQEA&amp;_nc_gid=UX7N9kGiqNNdGFe8DDb9yQ&amp;edm=AM6HXa8EAAAA&amp;_nc_zt=28&amp;oh=00_AffyaFRBlBx0BtnntvZ8pu3hLV94gHsSo8TzyWlioCZLtw&amp;oe=68FB07C8</t>
+          <t>https://scontent-lga3-1.cdninstagram.com/o1/v/t2/f2/m367/AQP3ljEkfv8Epjz7a7YAJkMQ1OKW0UsbR_8-Tern5UfRXpGhitZXxTi7PiLEL6VhgiI8A4j1AFhg3im_UEIsE_l8v_8t_vhJBcrHISs.mp4?_nc_cat=103&amp;_nc_sid=5e9851&amp;_nc_ht=scontent-lga3-1.cdninstagram.com&amp;_nc_ohc=iR51QXDQz9MQ7kNvwFAg4_I&amp;efg=eyJ2ZW5jb2RlX3RhZyI6Inhwdl9wcm9ncmVzc2l2ZS5JTlNUQUdSQU0uQ0xJUFMuQzMuNzIwLmRhc2hfYmFzZWxpbmVfMV92MSIsInhwdl9hc3NldF9pZCI6OTI1OTc5NzcyOTQ3MDE2LCJhc3NldF9hZ2VfZGF5cyI6MjUyLCJ2aV91c2VjYXNlX2lkIjoxMDA5OSwiZHVyYXRpb25fcyI6MTUsInVybGdlbl9zb3VyY2UiOiJ3d3cifQ%3D%3D&amp;ccb=17-1&amp;vs=57fe8069fbf23d38&amp;_nc_vs=HBksFQIYQGlnX2VwaGVtZXJhbC9DNTQwNUJDQTczREQzRTU4NTVDNDNDNENDNzU0QTk4Rl92aWRlb19kYXNoaW5pdC5tcDQVAALIARIAFQIYOnBhc3N0aHJvdWdoX2V2ZXJzdG9yZS9HUDlsNEJ3SlQwR3lfS1FEQU50Y213a0M4YkJRYnFfRUFBQUYVAgLIARIAKAAYABsCiAd1c2Vfb2lsATEScHJvZ3Jlc3NpdmVfcmVjaXBlATEVAAAmkKn89o6LpQMVAigCQzMsF0AvZmZmZmZmGBJkYXNoX2Jhc2VsaW5lXzFfdjERAHX-B2XmnQEA&amp;_nc_gid=kxIeYQe8v096bVlfjnK6og&amp;edm=AM6HXa8EAAAA&amp;_nc_zt=28&amp;oh=00_Afj7eeFv_Gae3901eicoZaC-IIpekfxtze_c8PeXhIoGSw&amp;oe=69293A98</t>
         </is>
       </c>
       <c r="AC37" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-1.cdninstagram.com/v/t51.75761-15/484629614_18494490916017986_5101846116628546529_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0xJUFMuYmVzdF9pbWFnZV91cmxnZW4uQzMifQ%3D%3D&amp;_nc_ohc=vdEX61UVbJ4Q7kNvwFVwBWo&amp;_nc_oc=Adk1tJlxyAAeVHFwy7g7wfEfk-G43W98X-dnnNMVp3gyhx7k2wqLQG2gIIFQEwBqDiKD_Et8lC9b-a5M4_a6vX2e&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-1.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=UX7N9kGiqNNdGFe8DDb9yQ&amp;oh=00_AfchV60GkKuaYdMlEHFC2Y6Qn-2A1kncS4IhfcALRiGNrg&amp;oe=68FEF30F</t>
+          <t>https://scontent-lga3-1.cdninstagram.com/v/t51.75761-15/484629614_18494490916017986_5101846116628546529_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=102&amp;ccb=7-5&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0xJUFMuYmVzdF9pbWFnZV91cmxnZW4uQzMifQ%3D%3D&amp;_nc_ohc=26CFc6O5jjgQ7kNvwFvVwZe&amp;_nc_oc=AdkIM2KIPe0f58a0sgHyh1gq3POZeAnobLIUVqZnq4vJ12GDnmhTTQH7fIUaDWLtpO3Ok1Cg6LCGzi89x-nvY1mx&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-1.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=kxIeYQe8v096bVlfjnK6og&amp;oh=00_AfgRNxoL83mQgDWEisd7Gr5N6CCq5HwIHgdOF_dRonqFzg&amp;oe=6929230F</t>
         </is>
       </c>
     </row>
@@ -4269,13 +4296,13 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>1738</v>
+        <v>1792</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>1046</v>
+        <v>1048</v>
       </c>
       <c r="P38" t="inlineStr"/>
       <c r="Q38" t="n">
@@ -4303,7 +4330,7 @@
       <c r="AA38" t="inlineStr"/>
       <c r="AB38" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-3.cdninstagram.com/v/t51.29350-15/483984608_1348846602986356_8130313666520385922_n.heic?stp=dst-jpg_e35_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0FST1VTRUxfSVRFTS5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=UBzkdy9WG8EQ7kNvwHws4LJ&amp;_nc_oc=Adm-NPp0GndqLXvU5dhaukej1lOgyyAQZG-I6RCA_tZCdzJmX1P59STmPst0DZDL3aQpVDYwWneh1K5-UqXy6Nze&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-3.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=UX7N9kGiqNNdGFe8DDb9yQ&amp;oh=00_AfcjvvWD13GiDC7cAD_lrrm0Mz3eyF116Xn6XVwGQe53_Q&amp;oe=68FF0532</t>
+          <t>https://scontent-lga3-3.cdninstagram.com/v/t51.29350-15/483984608_1348846602986356_8130313666520385922_n.heic?stp=dst-jpg_e35_tt6&amp;_nc_cat=110&amp;ccb=7-5&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0FST1VTRUxfSVRFTS5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=jWKNO_0z_j0Q7kNvwHGSSsr&amp;_nc_oc=AdlaJljQgKJjAEJLXmIL16sPEc9m8lNXCL20_loHnRWyWuqP1jkYU_KXVN2U62j3VOrzwmA9QgSOwuov1tq_0Ga5&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-3.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=kxIeYQe8v096bVlfjnK6og&amp;oh=00_AfjHFaSjzM-NL3CrpTWgHRCMYs1Ib9ev4r3CPsSck_davw&amp;oe=69293532</t>
         </is>
       </c>
       <c r="AC38" t="inlineStr"/>
@@ -4400,12 +4427,12 @@
       <c r="AA39" t="inlineStr"/>
       <c r="AB39" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-1.cdninstagram.com/o1/v/t2/f2/m367/AQOBxK0hYgY2QhH1W7ViRIHzDc5tYyOmDmvGTK_rmOuqsZFznsliOQ-EZxw_ltlvyb7KFG7Wayezr7FGkWlSryp3nlhcxbPNl7E_WoY.mp4?_nc_cat=111&amp;_nc_sid=5e9851&amp;_nc_ht=scontent-lga3-1.cdninstagram.com&amp;_nc_ohc=_k-ilPWX-RoQ7kNvwH_Vllt&amp;efg=eyJ2ZW5jb2RlX3RhZyI6Inhwdl9wcm9ncmVzc2l2ZS5JTlNUQUdSQU0uQ0xJUFMuQzMuNzIwLmRhc2hfYmFzZWxpbmVfMV92MSIsInhwdl9hc3NldF9pZCI6ODY5MTEyMzMyMDA3NDI4LCJ2aV91c2VjYXNlX2lkIjoxMDA5OSwiZHVyYXRpb25fcyI6OTYsInVybGdlbl9zb3VyY2UiOiJ3d3cifQ%3D%3D&amp;ccb=17-1&amp;vs=e301ed70bfc51e28&amp;_nc_vs=HBksFQIYQGlnX2VwaGVtZXJhbC84NzRDNjc5OEJEMTBDQ0U1QzNFODdDRUIzOTQyMzE4Q192aWRlb19kYXNoaW5pdC5tcDQVAALIARIAFQIYOnBhc3N0aHJvdWdoX2V2ZXJzdG9yZS9HRkNkMmh5UFhNcWUta2tDQURmN1BZQWlIRVpoYnFfRUFBQUYVAgLIARIAKAAYABsCiAd1c2Vfb2lsATEScHJvZ3Jlc3NpdmVfcmVjaXBlATEVAAAmiOCNvf-ciwMVAigCQzMsF0BYFlYEGJN1GBJkYXNoX2Jhc2VsaW5lXzFfdjERAHX-B2XmnQEA&amp;_nc_gid=UX7N9kGiqNNdGFe8DDb9yQ&amp;edm=AM6HXa8EAAAA&amp;_nc_zt=28&amp;oh=00_Afch8YKzI8MotZMUHhR8fprgx8OWkhiH3CUSTZwcD66ATg&amp;oe=68FF0C54</t>
+          <t>https://scontent-lga3-1.cdninstagram.com/o1/v/t2/f2/m367/AQOBxK0hYgY2QhH1W7ViRIHzDc5tYyOmDmvGTK_rmOuqsZFznsliOQ-EZxw_ltlvyb7KFG7Wayezr7FGkWlSryp3nlhcxbPNl7E_WoY.mp4?_nc_cat=111&amp;_nc_sid=5e9851&amp;_nc_ht=scontent-lga3-1.cdninstagram.com&amp;_nc_ohc=iMX0p9GQNrsQ7kNvwHF__Xg&amp;efg=eyJ2ZW5jb2RlX3RhZyI6Inhwdl9wcm9ncmVzc2l2ZS5JTlNUQUdSQU0uQ0xJUFMuQzMuNzIwLmRhc2hfYmFzZWxpbmVfMV92MSIsInhwdl9hc3NldF9pZCI6ODY5MTEyMzMyMDA3NDI4LCJhc3NldF9hZ2VfZGF5cyI6MjU2LCJ2aV91c2VjYXNlX2lkIjoxMDA5OSwiZHVyYXRpb25fcyI6OTYsInVybGdlbl9zb3VyY2UiOiJ3d3cifQ%3D%3D&amp;ccb=17-1&amp;vs=e301ed70bfc51e28&amp;_nc_vs=HBksFQIYQGlnX2VwaGVtZXJhbC84NzRDNjc5OEJEMTBDQ0U1QzNFODdDRUIzOTQyMzE4Q192aWRlb19kYXNoaW5pdC5tcDQVAALIARIAFQIYOnBhc3N0aHJvdWdoX2V2ZXJzdG9yZS9HRkNkMmh5UFhNcWUta2tDQURmN1BZQWlIRVpoYnFfRUFBQUYVAgLIARIAKAAYABsCiAd1c2Vfb2lsATEScHJvZ3Jlc3NpdmVfcmVjaXBlATEVAAAmiOCNvf-ciwMVAigCQzMsF0BYFlYEGJN1GBJkYXNoX2Jhc2VsaW5lXzFfdjERAHX-B2XmnQEA&amp;_nc_gid=kxIeYQe8v096bVlfjnK6og&amp;edm=AM6HXa8EAAAA&amp;_nc_zt=28&amp;oh=00_AfjsNiZRB1RD5_vP9qntO8_x02XABHZMABUaGnvQDa92eA&amp;oe=69293C54</t>
         </is>
       </c>
       <c r="AC39" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-3.cdninstagram.com/v/t51.75761-15/483159845_18493723792017986_1607089723700956994_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0xJUFMuYmVzdF9pbWFnZV91cmxnZW4uQzMifQ%3D%3D&amp;_nc_ohc=Bxz9J6Rjl7AQ7kNvwFbDMLu&amp;_nc_oc=AdmPD_a3ySURScsO54UcyGbGiaR4Q62ZOnPnT3sak_QKasVrYowdyX-irt7PoCr0DZ5bF9PE-ClM84vczloISPUN&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-3.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=UX7N9kGiqNNdGFe8DDb9yQ&amp;oh=00_AfdbHWJGGwZnkiCXm0LD8A9TAUaCKz6nC1rrLWUcrvIoew&amp;oe=68FEEA4D</t>
+          <t>https://scontent-lga3-3.cdninstagram.com/v/t51.75761-15/483159845_18493723792017986_1607089723700956994_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=106&amp;ccb=7-5&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0xJUFMuYmVzdF9pbWFnZV91cmxnZW4uQzMifQ%3D%3D&amp;_nc_ohc=RP8L_SYrVXkQ7kNvwELXR6s&amp;_nc_oc=Adn_192r_WkGfjjaWAJNrZWWtQ25VOeQRtMpukCxG1Qe1OFzjYCH20ux-Gvk59-r4Y1K-Unj6buudCcxJPYi_tUS&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-3.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=kxIeYQe8v096bVlfjnK6og&amp;oh=00_AfgNRh1T44PFeAAtAQgkZ-iTJFpduidfXqv89IzD-u563A&amp;oe=69291A4D</t>
         </is>
       </c>
     </row>
@@ -4498,12 +4525,12 @@
       <c r="AA40" t="inlineStr"/>
       <c r="AB40" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-3.cdninstagram.com/o1/v/t2/f2/m367/AQN7WG3kJZlH7KBXB5bCDdSE0ybGX0VYAqggItZ8OX6g_5dhSivE3-sQtQYeQelG8LJg2V0r7n_INsXie2cIsbPdtotzWaVP5C_f02Y.mp4?_nc_cat=106&amp;_nc_sid=5e9851&amp;_nc_ht=scontent-lga3-3.cdninstagram.com&amp;_nc_ohc=Wl2WhAPiTv0Q7kNvwGDEQN6&amp;efg=eyJ2ZW5jb2RlX3RhZyI6Inhwdl9wcm9ncmVzc2l2ZS5JTlNUQUdSQU0uQ0xJUFMuQzMuNzIwLmRhc2hfYmFzZWxpbmVfMV92MSIsInhwdl9hc3NldF9pZCI6MTczNTI0OTI3NzA1Mzg4MywidmlfdXNlY2FzZV9pZCI6MTAwOTksImR1cmF0aW9uX3MiOjEyLCJ1cmxnZW5fc291cmNlIjoid3d3In0%3D&amp;ccb=17-1&amp;vs=15adb98889268d1a&amp;_nc_vs=HBksFQIYQGlnX2VwaGVtZXJhbC83ODQ5N0QwOEU4MUI1NzI4ODJDNDkyQzI1MjVEQzNCMF92aWRlb19kYXNoaW5pdC5tcDQVAALIARIAFQIYOnBhc3N0aHJvdWdoX2V2ZXJzdG9yZS9HQnhfdnh4SVVvNWJ6SkFGQUFMSnhZRWg0ZVJEYnFfRUFBQUYVAgLIARIAKAAYABsCiAd1c2Vfb2lsATEScHJvZ3Jlc3NpdmVfcmVjaXBlATEVAAAm9q6LzOaMlQYVAigCQzMsF0AoIcrAgxJvGBJkYXNoX2Jhc2VsaW5lXzFfdjERAHX-B2XmnQEA&amp;_nc_gid=UX7N9kGiqNNdGFe8DDb9yQ&amp;edm=AM6HXa8EAAAA&amp;_nc_zt=28&amp;oh=00_AfdZIp_Bk7C45dzkmyFjw-e3ahuwo_zKSfPJkV_FznbYRA&amp;oe=68FEED53</t>
+          <t>https://scontent-lga3-3.cdninstagram.com/o1/v/t2/f2/m367/AQN7WG3kJZlH7KBXB5bCDdSE0ybGX0VYAqggItZ8OX6g_5dhSivE3-sQtQYeQelG8LJg2V0r7n_INsXie2cIsbPdtotzWaVP5C_f02Y.mp4?_nc_cat=106&amp;_nc_sid=5e9851&amp;_nc_ht=scontent-lga3-3.cdninstagram.com&amp;_nc_ohc=yalJmpmJmn0Q7kNvwF_EQkv&amp;efg=eyJ2ZW5jb2RlX3RhZyI6Inhwdl9wcm9ncmVzc2l2ZS5JTlNUQUdSQU0uQ0xJUFMuQzMuNzIwLmRhc2hfYmFzZWxpbmVfMV92MSIsInhwdl9hc3NldF9pZCI6MTczNTI0OTI3NzA1Mzg4MywiYXNzZXRfYWdlX2RheXMiOjI2NSwidmlfdXNlY2FzZV9pZCI6MTAwOTksImR1cmF0aW9uX3MiOjEyLCJ1cmxnZW5fc291cmNlIjoid3d3In0%3D&amp;ccb=17-1&amp;vs=15adb98889268d1a&amp;_nc_vs=HBksFQIYQGlnX2VwaGVtZXJhbC83ODQ5N0QwOEU4MUI1NzI4ODJDNDkyQzI1MjVEQzNCMF92aWRlb19kYXNoaW5pdC5tcDQVAALIARIAFQIYOnBhc3N0aHJvdWdoX2V2ZXJzdG9yZS9HQnhfdnh4SVVvNWJ6SkFGQUFMSnhZRWg0ZVJEYnFfRUFBQUYVAgLIARIAKAAYABsCiAd1c2Vfb2lsATEScHJvZ3Jlc3NpdmVfcmVjaXBlATEVAAAm9q6LzOaMlQYVAigCQzMsF0AoIcrAgxJvGBJkYXNoX2Jhc2VsaW5lXzFfdjERAHX-B2XmnQEA&amp;_nc_gid=kxIeYQe8v096bVlfjnK6og&amp;edm=AM6HXa8EAAAA&amp;_nc_zt=28&amp;oh=00_AfjjCUV859bks7bs5KIn2bTgo25cqG3Cu8BLhJLOFrpDeg&amp;oe=69291D53</t>
         </is>
       </c>
       <c r="AC40" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-1.cdninstagram.com/v/t51.75761-15/482370376_18491799853017986_3677572780242034062_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0xJUFMuYmVzdF9pbWFnZV91cmxnZW4uQzMifQ%3D%3D&amp;_nc_ohc=EBiWQmidvJAQ7kNvwHGfPrq&amp;_nc_oc=Adm1ctsgN7ZojtJvyzaumicNp0ALB8GcFI7_oAftj0x5oxUjcNDl8aj0Tz-lghrQ8tnRo0JxAd3ADPVOIdJs2KN6&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-1.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=UX7N9kGiqNNdGFe8DDb9yQ&amp;oh=00_Afe7UDcBfaGR01t8KK5O5slFNYKZN6_SBe1Syl08ou5jow&amp;oe=68FEFDA8</t>
+          <t>https://scontent-lga3-1.cdninstagram.com/v/t51.75761-15/482370376_18491799853017986_3677572780242034062_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=102&amp;ccb=7-5&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0xJUFMuYmVzdF9pbWFnZV91cmxnZW4uQzMifQ%3D%3D&amp;_nc_ohc=CvKgU3I0SggQ7kNvwEmcSfG&amp;_nc_oc=AdmRw-3EaT9YpOGEGBT2DQ4HO4bKXEmFwo7y1J_vUMHNiNotdyIYLRoIF-F-qOuHcQFtcvw-jcu_SFDHUET_j704&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-1.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=kxIeYQe8v096bVlfjnK6og&amp;oh=00_AfgUDaRJnActKs9aG69ZqXP2lEMUph4DYdXgyscQRTSCsg&amp;oe=69292DA8</t>
         </is>
       </c>
     </row>
@@ -4562,7 +4589,7 @@
         </is>
       </c>
       <c r="M41" t="n">
-        <v>1510</v>
+        <v>1515</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -4575,7 +4602,7 @@
         <v>32</v>
       </c>
       <c r="R41" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S41" t="n">
         <v>7</v>
@@ -4587,7 +4614,7 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W41" t="inlineStr"/>
       <c r="X41" t="inlineStr"/>
@@ -4596,12 +4623,12 @@
       <c r="AA41" t="inlineStr"/>
       <c r="AB41" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-1.cdninstagram.com/o1/v/t2/f2/m367/AQM2evA0QQAYObWDig1d1haqiN7U_punO37VKyWVTwkXnz4A3kCxSW64w9hA9Jf4sXMN1sZ4BEu4BrtAts7H-HS3pKvuO3kXf-gDgTo.mp4?_nc_cat=102&amp;_nc_sid=5e9851&amp;_nc_ht=scontent-lga3-1.cdninstagram.com&amp;_nc_ohc=z1qNZ-39J-cQ7kNvwEBOChj&amp;efg=eyJ2ZW5jb2RlX3RhZyI6Inhwdl9wcm9ncmVzc2l2ZS5JTlNUQUdSQU0uQ0xJUFMuQzMuNzIwLmRhc2hfYmFzZWxpbmVfMV92MSIsInhwdl9hc3NldF9pZCI6MTIzNzI1Mjc1NzgxOTEwNCwidmlfdXNlY2FzZV9pZCI6MTAwOTksImR1cmF0aW9uX3MiOjQ1LCJ1cmxnZW5fc291cmNlIjoid3d3In0%3D&amp;ccb=17-1&amp;vs=3da98fce258c0ac0&amp;_nc_vs=HBksFQIYQGlnX2VwaGVtZXJhbC81ODQ5QTFEMjM4OEFBQUYyOTY2OTU0MTAyNTlBMkZBRV92aWRlb19kYXNoaW5pdC5tcDQVAALIARIAFQIYOnBhc3N0aHJvdWdoX2V2ZXJzdG9yZS9HRVhWdVJ5ZlBwM19XcDhFQVBXNlNZbXdlTlZ5YnFfRUFBQUYVAgLIARIAKAAYABsCiAd1c2Vfb2lsATEScHJvZ3Jlc3NpdmVfcmVjaXBlATEVAAAmwLuEssvRsgQVAigCQzMsF0BG4gxJul41GBJkYXNoX2Jhc2VsaW5lXzFfdjERAHX-B2XmnQEA&amp;_nc_gid=UX7N9kGiqNNdGFe8DDb9yQ&amp;edm=AM6HXa8EAAAA&amp;_nc_zt=28&amp;oh=00_Affkcfyz-nbcQkjqvu0jBfNW8C_VVylodyU6dQXKXJsG7A&amp;oe=68FEEF9B</t>
+          <t>https://scontent-lga3-1.cdninstagram.com/o1/v/t2/f2/m367/AQM2evA0QQAYObWDig1d1haqiN7U_punO37VKyWVTwkXnz4A3kCxSW64w9hA9Jf4sXMN1sZ4BEu4BrtAts7H-HS3pKvuO3kXf-gDgTo.mp4?_nc_cat=102&amp;_nc_sid=5e9851&amp;_nc_ht=scontent-lga3-1.cdninstagram.com&amp;_nc_ohc=blsK1n09W5EQ7kNvwF5RDlv&amp;efg=eyJ2ZW5jb2RlX3RhZyI6Inhwdl9wcm9ncmVzc2l2ZS5JTlNUQUdSQU0uQ0xJUFMuQzMuNzIwLmRhc2hfYmFzZWxpbmVfMV92MSIsInhwdl9hc3NldF9pZCI6MTIzNzI1Mjc1NzgxOTEwNCwiYXNzZXRfYWdlX2RheXMiOjI2OSwidmlfdXNlY2FzZV9pZCI6MTAwOTksImR1cmF0aW9uX3MiOjQ1LCJ1cmxnZW5fc291cmNlIjoid3d3In0%3D&amp;ccb=17-1&amp;vs=3da98fce258c0ac0&amp;_nc_vs=HBksFQIYQGlnX2VwaGVtZXJhbC81ODQ5QTFEMjM4OEFBQUYyOTY2OTU0MTAyNTlBMkZBRV92aWRlb19kYXNoaW5pdC5tcDQVAALIARIAFQIYOnBhc3N0aHJvdWdoX2V2ZXJzdG9yZS9HRVhWdVJ5ZlBwM19XcDhFQVBXNlNZbXdlTlZ5YnFfRUFBQUYVAgLIARIAKAAYABsCiAd1c2Vfb2lsATEScHJvZ3Jlc3NpdmVfcmVjaXBlATEVAAAmwLuEssvRsgQVAigCQzMsF0BG4gxJul41GBJkYXNoX2Jhc2VsaW5lXzFfdjERAHX-B2XmnQEA&amp;_nc_gid=kxIeYQe8v096bVlfjnK6og&amp;edm=AM6HXa8EAAAA&amp;_nc_zt=28&amp;oh=00_AfjAJUzYFYAwWUOy-sRg60otETmOLjWfXuqxOXnnV1z78A&amp;oe=69291F9B</t>
         </is>
       </c>
       <c r="AC41" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-3.cdninstagram.com/v/t51.75761-15/482142058_18491064202017986_6966917130797097371_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0xJUFMuYmVzdF9pbWFnZV91cmxnZW4uQzMifQ%3D%3D&amp;_nc_ohc=AZkoPpMwofgQ7kNvwGUwL2q&amp;_nc_oc=AdnCqMy8lwU92HHv-H-JMhLYtTfIBEr893ooAk_YlDxL_B80aMIQXDUc4ueEEvMgPSQwxUCLEY7a7dzTWqoxfUfB&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-3.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=UX7N9kGiqNNdGFe8DDb9yQ&amp;oh=00_AfdRerAZeIhEmi8ivT5wQnGM-GicH5bvvnah3SOCF3ZLSQ&amp;oe=68FF0774</t>
+          <t>https://scontent-lga3-3.cdninstagram.com/v/t51.75761-15/482142058_18491064202017986_6966917130797097371_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=110&amp;ccb=7-5&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0xJUFMuYmVzdF9pbWFnZV91cmxnZW4uQzMifQ%3D%3D&amp;_nc_ohc=1Fs-qHZclh0Q7kNvwHcd_DQ&amp;_nc_oc=AdljJgrYCE5l0z9hGdZgaz73emi7oRJsCNLPSBweAjJz69nL-PvlISx-VzJvj9bMIb3OmYPrLnDqK9OggUL0zD-L&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-3.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=kxIeYQe8v096bVlfjnK6og&amp;oh=00_AfgJvPNJwGnZaLf4QUtf6xG1ehpQjWjD5wqJOIKtrqozgg&amp;oe=69293774</t>
         </is>
       </c>
     </row>
@@ -4664,7 +4691,7 @@
         </is>
       </c>
       <c r="M42" t="n">
-        <v>911</v>
+        <v>956</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -4698,7 +4725,7 @@
       <c r="AA42" t="inlineStr"/>
       <c r="AB42" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-2.cdninstagram.com/v/t51.29350-15/481590882_644499028320456_4864148808226999658_n.heic?stp=dst-jpg_e35_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiRkVFRC5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=6IA0i8bytosQ7kNvwEi27AG&amp;_nc_oc=Adn2C-EnsR9sO4EVlw5Qaozsw-KsmyO7SeThl0dxPaRS_MmYOuQXAG6039Euw8iW2FJtAbfbIOgbe5PyZEeezUFU&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-2.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=UX7N9kGiqNNdGFe8DDb9yQ&amp;oh=00_Afc4m-gp49_5zPkBZlQgfQbMt3MXZwg39Nw3Hy9CPAth8Q&amp;oe=68FEF440</t>
+          <t>https://scontent-lga3-2.cdninstagram.com/v/t51.29350-15/481590882_644499028320456_4864148808226999658_n.heic?stp=dst-jpg_e35_tt6&amp;_nc_cat=107&amp;ccb=7-5&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiRkVFRC5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=nXa3egwfGf0Q7kNvwE4NHDX&amp;_nc_oc=AdlxMpXQSwbT2nGQfHE-qDIlVm-vuqnHiW0G1b4Q5o6FZjqZPi8i0tn-zDCwcynC6RkxH_957DfzH1bd05waw_wp&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-2.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=kxIeYQe8v096bVlfjnK6og&amp;oh=00_AfgnQLnG8JQo8jY6fkXoT3IZFPpqPXZZkE5Zu-iDM9uG3g&amp;oe=69292440</t>
         </is>
       </c>
       <c r="AC42" t="inlineStr"/>
@@ -4758,7 +4785,7 @@
         </is>
       </c>
       <c r="M43" t="n">
-        <v>1614</v>
+        <v>1616</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
@@ -4792,12 +4819,12 @@
       <c r="AA43" t="inlineStr"/>
       <c r="AB43" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-1.cdninstagram.com/o1/v/t2/f2/m367/AQN13vhCjhq6fBv5ZXuSUwj32BI45drNCWkW_huZs16wnXwtz4Y-vgxMYeP5S6RFXezzOPXhRNQ-jAzD9W8x15D-C4PtrsG4yQt-nEU.mp4?_nc_cat=111&amp;_nc_sid=5e9851&amp;_nc_ht=scontent-lga3-1.cdninstagram.com&amp;_nc_ohc=r7HeBKd2P2wQ7kNvwFc1eB0&amp;efg=eyJ2ZW5jb2RlX3RhZyI6Inhwdl9wcm9ncmVzc2l2ZS5JTlNUQUdSQU0uQ0xJUFMuQzMuNzIwLmRhc2hfYmFzZWxpbmVfMV92MSIsInhwdl9hc3NldF9pZCI6MTI4Mzk2NTg3NjAxMTQ0OSwidmlfdXNlY2FzZV9pZCI6MTAwOTksImR1cmF0aW9uX3MiOjQ2LCJ1cmxnZW5fc291cmNlIjoid3d3In0%3D&amp;ccb=17-1&amp;vs=56061657f38302fe&amp;_nc_vs=HBksFQIYQGlnX2VwaGVtZXJhbC85RDRDRjIwREU2NTlGNzRDMTZEMzM1Mzg2MjBGNzU5OV92aWRlb19kYXNoaW5pdC5tcDQVAALIARIAFQIYOnBhc3N0aHJvdWdoX2V2ZXJzdG9yZS9HSnhxblJ3eE5GS0FKSTRFQU5uXzhLUEZiQU5iYnFfRUFBQUYVAgLIARIAKAAYABsCiAd1c2Vfb2lsATEScHJvZ3Jlc3NpdmVfcmVjaXBlATEVAAAm8oaMn9PwxwQVAigCQzMsF0BHFT987ZFoGBJkYXNoX2Jhc2VsaW5lXzFfdjERAHX-B2XmnQEA&amp;_nc_gid=UX7N9kGiqNNdGFe8DDb9yQ&amp;edm=AM6HXa8EAAAA&amp;_nc_zt=28&amp;oh=00_Aff7Fh3Ota-q2LInmaS0log9yRV0G5PPUsjJ1kKFUYavMg&amp;oe=68FEF160</t>
+          <t>https://scontent-lga3-3.cdninstagram.com/o1/v/t2/f2/m367/AQNK1I-c3lqBz55g1iwpGoSxyANFmQhb9FavFA2zBhcjbcnks3qQwUv9Fu0anwwtA_Yzaq4nkGQG7JkG2uuqwqyPFwgfufu6Gk68NXI.mp4?_nc_cat=104&amp;_nc_sid=5e9851&amp;_nc_ht=scontent-lga3-3.cdninstagram.com&amp;_nc_ohc=640jqaTHscMQ7kNvwGKkaTK&amp;efg=eyJ2ZW5jb2RlX3RhZyI6Inhwdl9wcm9ncmVzc2l2ZS5JTlNUQUdSQU0uQ0xJUFMuQzMuNzIwLmRhc2hfYmFzZWxpbmVfMV92MSIsInhwdl9hc3NldF9pZCI6MTI4Mzk2NTg3NjAxMTQ0OSwiYXNzZXRfYWdlX2RheXMiOjI3OCwidmlfdXNlY2FzZV9pZCI6MTAwOTksImR1cmF0aW9uX3MiOjQ2LCJ1cmxnZW5fc291cmNlIjoid3d3In0%3D&amp;ccb=17-1&amp;vs=3f0652c40fff57b6&amp;_nc_vs=HBksFQIYQGlnX2VwaGVtZXJhbC9DMjQwRDUxRDQwQzg4ODg4QTk2QzQ2MDUxMjZBMTBCQV92aWRlb19kYXNoaW5pdC5tcDQVAALIARIAFQIYOnBhc3N0aHJvdWdoX2V2ZXJzdG9yZS9HSnhxblJ3eE5GS0FKSTRFQU5uXzhLUEZiQU5iYnFfRUFBQUYVAgLIARIAKAAYABsCiAd1c2Vfb2lsATEScHJvZ3Jlc3NpdmVfcmVjaXBlATEVAAAm8oaMn9PwxwQVAigCQzMsF0BHFT987ZFoGBJkYXNoX2Jhc2VsaW5lXzFfdjERAHX-B2XmnQEA&amp;_nc_gid=kxIeYQe8v096bVlfjnK6og&amp;edm=AM6HXa8EAAAA&amp;_nc_zt=28&amp;oh=00_AfhHLeiDDJ-wJ3YqQNeBpEBvgHW9CAuQ_ihOHoDep8FauQ&amp;oe=6929148D</t>
         </is>
       </c>
       <c r="AC43" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-1.cdninstagram.com/v/t51.71878-15/479721416_4166213660331071_287079607256440226_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0xJUFMuYmVzdF9pbWFnZV91cmxnZW4uQzMifQ%3D%3D&amp;_nc_ohc=keseZo0aQ1wQ7kNvwFPPVuN&amp;_nc_oc=AdkhJLT2cIrsiG1YiMZJf2HRI783w0_uzFkqGl-AlvXpaByCbGLvkP3RbslXpP9uqyObKdFNf1-NUvlsJmwhSN9h&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-1.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=UX7N9kGiqNNdGFe8DDb9yQ&amp;oh=00_AfcFx5N69Z_TRB-7fqbuTs-JgKXfpc-EjXNg2221duAKGg&amp;oe=68FF0CA9</t>
+          <t>https://scontent-lga3-1.cdninstagram.com/v/t51.71878-15/479721416_4166213660331071_287079607256440226_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=103&amp;ccb=7-5&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0xJUFMuYmVzdF9pbWFnZV91cmxnZW4uQzMifQ%3D%3D&amp;_nc_ohc=XDrMGnkJTLAQ7kNvwHCA5vq&amp;_nc_oc=AdmHMqVrq1BgUjPT3pRC1DA_w_Vw3rlR69wqkklBFYXdVK9UW_0yUpIjPhlahnRHj18Qqgxz1OtsGR3yECKi60h7&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-1.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=kxIeYQe8v096bVlfjnK6og&amp;oh=00_AfjPUFiInRnOR5xdxanzTiqnPXiBuxpb9qIzjz7aoV7lxg&amp;oe=69293CA9</t>
         </is>
       </c>
     </row>
@@ -4856,7 +4883,7 @@
         </is>
       </c>
       <c r="M44" t="n">
-        <v>3669</v>
+        <v>3714</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -4890,7 +4917,7 @@
       <c r="AA44" t="inlineStr"/>
       <c r="AB44" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-1.cdninstagram.com/v/t51.29350-15/480982447_531899813248415_7789634457855346208_n.heic?stp=dst-jpg_e35_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiRkVFRC5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=kaJtATnNqXUQ7kNvwGkFXi4&amp;_nc_oc=AdkyazBBfm9iULyUpPCzaXHf4I309aJYKLEqhwzCyueHIuekXSdUdrhPAkwFVh7T4JWs-6hBcNta9bipDadAvQZC&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-1.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=UX7N9kGiqNNdGFe8DDb9yQ&amp;oh=00_AfeeUDFaRvpq1-8q49GIMA9CyyBscfhPsq_8l9PgpLoTyg&amp;oe=68FF0278</t>
+          <t>https://scontent-lga3-1.cdninstagram.com/v/t51.29350-15/480982447_531899813248415_7789634457855346208_n.heic?stp=dst-jpg_e35_tt6&amp;_nc_cat=102&amp;ccb=7-5&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiRkVFRC5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=iRWSjWtuH_sQ7kNvwF0x8wS&amp;_nc_oc=Adl6DpSo9Thbo1eZSQvhfTGI6cSoDHyOOMqs5Ne9jkXOFmrO4qmCSBEavnv-7b_dU9QmzLcj0ghQWNTVMDOfntFG&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-1.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=kxIeYQe8v096bVlfjnK6og&amp;oh=00_Aficaupky3NUfu9zPVwoyCA4bu80f_UWe3b8Syise255Ag&amp;oe=69293278</t>
         </is>
       </c>
       <c r="AC44" t="inlineStr"/>
@@ -4952,7 +4979,7 @@
         </is>
       </c>
       <c r="M45" t="n">
-        <v>2067</v>
+        <v>2089</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -4986,7 +5013,7 @@
       <c r="AA45" t="inlineStr"/>
       <c r="AB45" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-2.cdninstagram.com/v/t51.29350-15/480573618_598022823053887_8715550088153031816_n.heic?stp=dst-jpg_e35_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiRkVFRC5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=_gYBdXXYhpUQ7kNvwHdCa-D&amp;_nc_oc=AdlSju3TEE3PYmJ6p63JWxjf1oQeMfbVFdvRsi5ix5-pVl7-lOJ0-UMJFU12sIzQ0wuBzrHMeUVQ9gKtfznC-krh&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-2.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=UX7N9kGiqNNdGFe8DDb9yQ&amp;oh=00_Afdv0z3whheQvHgpomuJECeOxGogITGM37a4PqJimwQGsw&amp;oe=68FF1798</t>
+          <t>https://scontent-lga3-2.cdninstagram.com/v/t51.29350-15/480573618_598022823053887_8715550088153031816_n.heic?stp=dst-jpg_e35_tt6&amp;_nc_cat=100&amp;ccb=7-5&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiRkVFRC5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=zKfGYlIqCjQQ7kNvwEFoPG6&amp;_nc_oc=AdngWtURMQNIeMFTZ_eIZcY2kWqfVkNS__KOytt1-1GGWQ7C4jJEvnZECxkCfUDjtS0o-RM9koF3SN6sDKjLjVPA&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-2.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=kxIeYQe8v096bVlfjnK6og&amp;oh=00_AfjNOzjepSX7eZJAqADYrthqtBoRGMskWG1q_rn1VSaOYQ&amp;oe=69294798</t>
         </is>
       </c>
       <c r="AC45" t="inlineStr"/>
@@ -5049,13 +5076,13 @@
         </is>
       </c>
       <c r="M46" t="n">
-        <v>1752</v>
+        <v>1778</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>1036</v>
+        <v>1039</v>
       </c>
       <c r="P46" t="inlineStr"/>
       <c r="Q46" t="n">
@@ -5083,7 +5110,7 @@
       <c r="AA46" t="inlineStr"/>
       <c r="AB46" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-1.cdninstagram.com/v/t51.29350-15/480152693_638758038557575_8930167725630241779_n.heic?stp=dst-jpg_e35_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiRkVFRC5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=fgkT5YzifQgQ7kNvwE4Jh0J&amp;_nc_oc=AdkBsrLdWP0E5cH3V7QB3KmgNMBwxprIaHie7jnSawsP2r23joPn8HjLyjEhclYBpjHKZrys7B8jGOvAuR0rzRxK&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-1.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=UX7N9kGiqNNdGFe8DDb9yQ&amp;oh=00_Afe7AJxqVSq6be_cLwED0LGw3P70Z41zwM9w53wddIhN2g&amp;oe=68FEEA2D</t>
+          <t>https://scontent-lga3-1.cdninstagram.com/v/t51.29350-15/480152693_638758038557575_8930167725630241779_n.heic?stp=dst-jpg_e35_tt6&amp;_nc_cat=103&amp;ccb=7-5&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiRkVFRC5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=il32X5_78zUQ7kNvwFjWzYO&amp;_nc_oc=Adlo96KPcNM0kb8YsAnVtEbtW7F9NM9KogvPwITCaW1dtc3rkY2VqM2fzccSNaJSZDs7_SMV3Clz1XwMm6y8Vnd-&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-1.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=kxIeYQe8v096bVlfjnK6og&amp;oh=00_AfixKYwETIGpohEdFK5aFBITgkxygat4BfuHq6HaWuzCVA&amp;oe=69291A2D</t>
         </is>
       </c>
       <c r="AC46" t="inlineStr"/>
@@ -5143,13 +5170,13 @@
         </is>
       </c>
       <c r="M47" t="n">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="N47" t="n">
         <v>0</v>
       </c>
       <c r="O47" t="n">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="P47" t="inlineStr"/>
       <c r="Q47" t="n">
@@ -5177,12 +5204,12 @@
       <c r="AA47" t="inlineStr"/>
       <c r="AB47" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-1.cdninstagram.com/o1/v/t2/f2/m367/AQNG8ruA1dCiIaQhUjOQfn1QKCIP2e7aFZl1N2D7UNNps81xDxH2XotNJZsAniSbGzJRzCencirfVOhsWsOMAibQsars1BE8RLu1toY.mp4?_nc_cat=111&amp;_nc_sid=5e9851&amp;_nc_ht=scontent-lga3-1.cdninstagram.com&amp;_nc_ohc=anIYvkRyDuAQ7kNvwEWYC_u&amp;efg=eyJ2ZW5jb2RlX3RhZyI6Inhwdl9wcm9ncmVzc2l2ZS5JTlNUQUdSQU0uQ0xJUFMuQzMuNzIwLmRhc2hfYmFzZWxpbmVfMV92MSIsInhwdl9hc3NldF9pZCI6MTM1MjI5MDkyNjIxMTA2OSwidmlfdXNlY2FzZV9pZCI6MTAwOTksImR1cmF0aW9uX3MiOjU1LCJ1cmxnZW5fc291cmNlIjoid3d3In0%3D&amp;ccb=17-1&amp;vs=6914b2424c406a14&amp;_nc_vs=HBksFQIYQGlnX2VwaGVtZXJhbC9GQTQzNjI5NjE4MDFEOEVCRjEyQ0VEREY1RkZENEM4NV92aWRlb19kYXNoaW5pdC5tcDQVAALIARIAFQIYOnBhc3N0aHJvdWdoX2V2ZXJzdG9yZS9HTHV4Ynh3NlpaRk1GQmdFQU5PWVg3TlVlN0JFYnFfRUFBQUYVAgLIARIAKAAYABsCiAd1c2Vfb2lsATEScHJvZ3Jlc3NpdmVfcmVjaXBlATEVAAAm-r_RxNj55gQVAigCQzMsF0BLrhR64UeuGBJkYXNoX2Jhc2VsaW5lXzFfdjERAHX-B2XmnQEA&amp;_nc_gid=UX7N9kGiqNNdGFe8DDb9yQ&amp;edm=AM6HXa8EAAAA&amp;_nc_zt=28&amp;oh=00_Afe0Qig4V34CuhiV1Szl7K1Q63P0l-0kCamBjZfWL9O3YA&amp;oe=68FEF7E8</t>
+          <t>https://scontent-lga3-1.cdninstagram.com/o1/v/t2/f2/m367/AQNG8ruA1dCiIaQhUjOQfn1QKCIP2e7aFZl1N2D7UNNps81xDxH2XotNJZsAniSbGzJRzCencirfVOhsWsOMAibQsars1BE8RLu1toY.mp4?_nc_cat=111&amp;_nc_sid=5e9851&amp;_nc_ht=scontent-lga3-1.cdninstagram.com&amp;_nc_ohc=B7DFYEirl7EQ7kNvwHrb4FJ&amp;efg=eyJ2ZW5jb2RlX3RhZyI6Inhwdl9wcm9ncmVzc2l2ZS5JTlNUQUdSQU0uQ0xJUFMuQzMuNzIwLmRhc2hfYmFzZWxpbmVfMV92MSIsInhwdl9hc3NldF9pZCI6MTM1MjI5MDkyNjIxMTA2OSwiYXNzZXRfYWdlX2RheXMiOjI4MiwidmlfdXNlY2FzZV9pZCI6MTAwOTksImR1cmF0aW9uX3MiOjU1LCJ1cmxnZW5fc291cmNlIjoid3d3In0%3D&amp;ccb=17-1&amp;vs=6914b2424c406a14&amp;_nc_vs=HBksFQIYQGlnX2VwaGVtZXJhbC9GQTQzNjI5NjE4MDFEOEVCRjEyQ0VEREY1RkZENEM4NV92aWRlb19kYXNoaW5pdC5tcDQVAALIARIAFQIYOnBhc3N0aHJvdWdoX2V2ZXJzdG9yZS9HTHV4Ynh3NlpaRk1GQmdFQU5PWVg3TlVlN0JFYnFfRUFBQUYVAgLIARIAKAAYABsCiAd1c2Vfb2lsATEScHJvZ3Jlc3NpdmVfcmVjaXBlATEVAAAm-r_RxNj55gQVAigCQzMsF0BLrhR64UeuGBJkYXNoX2Jhc2VsaW5lXzFfdjERAHX-B2XmnQEA&amp;_nc_gid=kxIeYQe8v096bVlfjnK6og&amp;edm=AM6HXa8EAAAA&amp;_nc_zt=28&amp;oh=00_AfhtnWep4u6J1yZ8nXKzvkArV7nx_qsZUe8mz3o5zqrg0Q&amp;oe=692927E8</t>
         </is>
       </c>
       <c r="AC47" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-1.cdninstagram.com/v/t51.75761-15/479415959_18488523433017986_7564977644592218486_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0xJUFMuYmVzdF9pbWFnZV91cmxnZW4uQzMifQ%3D%3D&amp;_nc_ohc=ogdIyNHVVp0Q7kNvwFhk_wA&amp;_nc_oc=Admcc6mw7DOchrKT3QlfriL27d2NyO_hmWZ_F7lvUngI2YTHHoRZJwdDM1e4wB41dNxk03lL42gLb0EsWtJdGX-c&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-1.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=UX7N9kGiqNNdGFe8DDb9yQ&amp;oh=00_AfcEDNjgk4M7ztdtXBPQ6q7mIYi1ZTajCNCbAXgekYef6g&amp;oe=68FEF944</t>
+          <t>https://scontent-lga3-3.cdninstagram.com/v/t51.75761-15/479415959_18488523433017986_7564977644592218486_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=108&amp;ccb=7-5&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0xJUFMuYmVzdF9pbWFnZV91cmxnZW4uQzMifQ%3D%3D&amp;_nc_ohc=idj-t59kimwQ7kNvwGXlho5&amp;_nc_oc=Adm-z1NFUrP05qDb-ZLfrDjqkNeSNNOzR__c04k-UXFzSReJ5dRZCkwXPhZChh1qO7x84nDu8Vz0Mkb9Hz6wvjcP&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-3.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=kxIeYQe8v096bVlfjnK6og&amp;oh=00_Afgxqz9cEhqzZWfNmhitaLa85OfwXYNMK5_hBkVE-R0Zog&amp;oe=69292944</t>
         </is>
       </c>
     </row>
@@ -5243,13 +5270,13 @@
         </is>
       </c>
       <c r="M48" t="n">
-        <v>2037</v>
+        <v>2061</v>
       </c>
       <c r="N48" t="n">
         <v>0</v>
       </c>
       <c r="O48" t="n">
-        <v>1299</v>
+        <v>1301</v>
       </c>
       <c r="P48" t="inlineStr"/>
       <c r="Q48" t="n">
@@ -5277,7 +5304,7 @@
       <c r="AA48" t="inlineStr"/>
       <c r="AB48" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-3.cdninstagram.com/v/t51.29350-15/476966172_1149974716769625_1463304103866745401_n.heic?stp=dst-jpg_e35_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiRkVFRC5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=yoXLZRbZMAsQ7kNvwG8-N_7&amp;_nc_oc=AdlWkRMUJxWr-PAqvnlgFmL3SImQsFzX0q8BIl1lLSFsf7pUEfq3o6j9K4ld5JRfqo1ylw10iV7qJn4UX-23SmRk&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-3.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=UX7N9kGiqNNdGFe8DDb9yQ&amp;oh=00_AfeTBrQdfJPhvrgl7mGhV8FHOJZeuqDhUhByZ-I6M-wefA&amp;oe=68FEF3B8</t>
+          <t>https://scontent-lga3-3.cdninstagram.com/v/t51.29350-15/476966172_1149974716769625_1463304103866745401_n.heic?stp=dst-jpg_e35_tt6&amp;_nc_cat=106&amp;ccb=7-5&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiRkVFRC5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=i5A3MLWOliwQ7kNvwEObKHT&amp;_nc_oc=AdlAW1_yTVz5Lwt6Gx9PSS0h-hyDexz3O7PTeYflFF3cmKulGm1ubvCJLdv0Wad1yqS_A6EaSAIVFsxUNl3WOgAs&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-3.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=kxIeYQe8v096bVlfjnK6og&amp;oh=00_AfjSYTziKG5_nRFTMZ45dHP9c9SVUX76zDkQsv0taaK14Q&amp;oe=692923B8</t>
         </is>
       </c>
       <c r="AC48" t="inlineStr"/>
@@ -5337,13 +5364,13 @@
         </is>
       </c>
       <c r="M49" t="n">
-        <v>3278</v>
+        <v>3309</v>
       </c>
       <c r="N49" t="n">
         <v>0</v>
       </c>
       <c r="O49" t="n">
-        <v>1803</v>
+        <v>1806</v>
       </c>
       <c r="P49" t="inlineStr"/>
       <c r="Q49" t="n">
@@ -5371,7 +5398,7 @@
       <c r="AA49" t="inlineStr"/>
       <c r="AB49" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-3.cdninstagram.com/v/t51.29350-15/476582297_2293909164299293_5248111809039082974_n.heic?stp=dst-jpg_e35_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiRkVFRC5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=7Z5piP_50yYQ7kNvwEQgJ4b&amp;_nc_oc=AdmRD27lg4WSC_MWqypzbCTnkBJozzBxop5vTEsbmkETN8Rtlw-b_S3JUJohXIu5-bTB2IDTFApWclsfpQiUaLz4&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-3.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=UX7N9kGiqNNdGFe8DDb9yQ&amp;oh=00_Afc_XFsva5f7IPdKPRa2VG7NG5h37g59pWCF2E6iW3ssbA&amp;oe=68FEF8A8</t>
+          <t>https://scontent-lga3-3.cdninstagram.com/v/t51.29350-15/476582297_2293909164299293_5248111809039082974_n.heic?stp=dst-jpg_e35_tt6&amp;_nc_cat=106&amp;ccb=7-5&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiRkVFRC5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=TUsRJRHbMUAQ7kNvwGfIYEh&amp;_nc_oc=AdlhsvcGhLdEs9IxUo8xLMMANOUxf3cwPEIpMAp_kJMiPsic4Dko9I4EUwxODTK0gV_XRQqY_akdLlmfPFf80tYr&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-3.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=kxIeYQe8v096bVlfjnK6og&amp;oh=00_AfhRr8GoC2x4itNJ3N5w8b17s6uF_l5UetfK1J3PBOAncw&amp;oe=692928A8</t>
         </is>
       </c>
       <c r="AC49" t="inlineStr"/>
@@ -5431,13 +5458,13 @@
         </is>
       </c>
       <c r="M50" t="n">
-        <v>1689</v>
+        <v>1690</v>
       </c>
       <c r="N50" t="n">
         <v>0</v>
       </c>
       <c r="O50" t="n">
-        <v>1193</v>
+        <v>1194</v>
       </c>
       <c r="P50" t="inlineStr"/>
       <c r="Q50" t="n">
@@ -5465,12 +5492,12 @@
       <c r="AA50" t="inlineStr"/>
       <c r="AB50" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-1.cdninstagram.com/o1/v/t2/f2/m86/AQP1Cre9rm8XIQfz-4UwV3NEdjiy6tP5pvAQbHvNSg6-py1wHXMIWlrblbzxuq6S2J_GwfPOBMU0uAOd1sKAwFsajEtG2ycp7a_kN18.mp4?_nc_cat=102&amp;_nc_sid=5e9851&amp;_nc_ht=scontent-lga3-1.cdninstagram.com&amp;_nc_ohc=Z1vPPvEJj1IQ7kNvwEt5lsn&amp;efg=eyJ2ZW5jb2RlX3RhZyI6Inhwdl9wcm9ncmVzc2l2ZS5JTlNUQUdSQU0uQ0xJUFMuQzMuMzYwLmRhc2hfYmFzZWxpbmVfM192MSIsInhwdl9hc3NldF9pZCI6MTQ0NjgyNjUwMDA1NjQwMiwidmlfdXNlY2FzZV9pZCI6MTAwOTksImR1cmF0aW9uX3MiOjI5LCJ1cmxnZW5fc291cmNlIjoid3d3In0%3D&amp;ccb=17-1&amp;vs=99af2fa575b94787&amp;_nc_vs=HBksFQIYUmlnX3hwdl9yZWVsc19wZXJtYW5lbnRfc3JfcHJvZC9FNzQ0ODg4ODg1RjQ4QTBCQjUzMzgwMzEyQTM4NzI5Ml92aWRlb19kYXNoaW5pdC5tcDQVAALIARIAFQIYOnBhc3N0aHJvdWdoX2V2ZXJzdG9yZS9HRVdLV2h4cXRaaUpVaEVFQU9RblIwdEN1cXMxYnFfRUFBQUYVAgLIARIAKAAYABsCiAd1c2Vfb2lsATEScHJvZ3Jlc3NpdmVfcmVjaXBlATEVAAAmpJWzubH4kQUVAigCQzMsF0A890vGp--eGBJkYXNoX2Jhc2VsaW5lXzNfdjERAHX-B2XmnQEA&amp;_nc_gid=UX7N9kGiqNNdGFe8DDb9yQ&amp;edm=AM6HXa8EAAAA&amp;_nc_zt=28&amp;oh=00_AfdxE_taYD8VgtzvNUBrx5wyxQIDTTtXbJHQNukQAoppNw&amp;oe=68FB23CF</t>
+          <t>https://scontent-lga3-1.cdninstagram.com/o1/v/t2/f2/m367/AQPcyRAHyttCT7xD6cKSkTQU0w-ay6jMzme3aS55O1fDgB1kAztaXwGR6wMdeQym_D9lHrHUME4uhDlCjBwpWjAFwlKD_hBCSx8yNYc.mp4?_nc_cat=103&amp;_nc_sid=5e9851&amp;_nc_ht=scontent-lga3-1.cdninstagram.com&amp;_nc_ohc=3tYn8FXjXMgQ7kNvwFLSbAN&amp;efg=eyJ2ZW5jb2RlX3RhZyI6Inhwdl9wcm9ncmVzc2l2ZS5JTlNUQUdSQU0uQ0xJUFMuQzMuNzIwLmRhc2hfYmFzZWxpbmVfMV92MSIsInhwdl9hc3NldF9pZCI6MTQ0NjgyNjUwMDA1NjQwMiwiYXNzZXRfYWdlX2RheXMiOjI5NSwidmlfdXNlY2FzZV9pZCI6MTAwOTksImR1cmF0aW9uX3MiOjI5LCJ1cmxnZW5fc291cmNlIjoid3d3In0%3D&amp;ccb=17-1&amp;vs=31ef2421130efd8&amp;_nc_vs=HBksFQIYQGlnX2VwaGVtZXJhbC85MDQ5RTNBOTZEQUQzRDcyRDkwM0QxQkIzQTBCQ0E5RV92aWRlb19kYXNoaW5pdC5tcDQVAALIARIAFQIYOnBhc3N0aHJvdWdoX2V2ZXJzdG9yZS9HRVdLV2h4cXRaaUpVaEVFQU9RblIwdEN1cXMxYnFfRUFBQUYVAgLIARIAKAAYABsCiAd1c2Vfb2lsATEScHJvZ3Jlc3NpdmVfcmVjaXBlATEVAAAmpJWzubH4kQUVAigCQzMsF0A9AAAAAAAAGBJkYXNoX2Jhc2VsaW5lXzFfdjERAHX-B2XmnQEA&amp;_nc_gid=kxIeYQe8v096bVlfjnK6og&amp;edm=AM6HXa8EAAAA&amp;_nc_zt=28&amp;oh=00_AfgWPrmcOiYtrfN9F09mJj7PxYKI4Kdteio5KDVe61yPRA&amp;oe=69291700</t>
         </is>
       </c>
       <c r="AC50" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-1.cdninstagram.com/v/t51.75761-15/475870208_18486217144017986_7968806361298121493_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0xJUFMuYmVzdF9pbWFnZV91cmxnZW4uQzMifQ%3D%3D&amp;_nc_ohc=MB-3gUIg6jcQ7kNvwFL9NpE&amp;_nc_oc=AdkxDmwMcX-PqDZPpcDSPVSE_mULpMaoaAVKal8iM_ynDJ7yXiW_6sA2K3dPAt8RcWx65LNTmem4HJZxvXfgVu8R&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-1.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=UX7N9kGiqNNdGFe8DDb9yQ&amp;oh=00_Aff9ztgcafmsjwr6BPrpROUqN1xZjYZdY9fAlVeuuWWk8g&amp;oe=68FF0821</t>
+          <t>https://scontent-lga3-1.cdninstagram.com/v/t51.75761-15/475870208_18486217144017986_7968806361298121493_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=102&amp;ccb=7-5&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0xJUFMuYmVzdF9pbWFnZV91cmxnZW4uQzMifQ%3D%3D&amp;_nc_ohc=Z76l1576uMAQ7kNvwEWjz_G&amp;_nc_oc=AdnPmYR8-419L44lacVsvMjLV0sZ0GPmUVE6KgemI7KlVywOJlqah0r7CZ1EJ39WBAS4tCPWPRxtFN6_TeTJVXzK&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-1.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=kxIeYQe8v096bVlfjnK6og&amp;oh=00_AfiEwAzpHqJMJjhk4iYijmg3xuBtifIRapWZ6Hb0ft-EFQ&amp;oe=69293821</t>
         </is>
       </c>
     </row>
@@ -5529,13 +5556,13 @@
         </is>
       </c>
       <c r="M51" t="n">
-        <v>1321</v>
+        <v>1344</v>
       </c>
       <c r="N51" t="n">
         <v>0</v>
       </c>
       <c r="O51" t="n">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="P51" t="inlineStr"/>
       <c r="Q51" t="n">
@@ -5563,7 +5590,7 @@
       <c r="AA51" t="inlineStr"/>
       <c r="AB51" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-1.cdninstagram.com/v/t51.29350-15/475023582_624431849996002_1034496073406729731_n.heic?stp=dst-jpg_e35_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiRkVFRC5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=pmWAHeVO14cQ7kNvwFRHbu3&amp;_nc_oc=AdmdHLdleRNzqnzeMYMnin8603LCEXF0BzjWF46xW0X1mmlq6Hp1R6JOHOCIhmgPuUYMGDRdIYRcvyJuGGAJou8m&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-1.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=UX7N9kGiqNNdGFe8DDb9yQ&amp;oh=00_Affq3R6N4RLHcmvyFdiy_-BQLG62k6an7CjOEx-2LenYYg&amp;oe=68FF0361</t>
+          <t>https://scontent-lga3-3.cdninstagram.com/v/t51.29350-15/475023582_624431849996002_1034496073406729731_n.heic?stp=dst-jpg_e35_tt6&amp;_nc_cat=108&amp;ccb=7-5&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiRkVFRC5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=N49Fjf3Ngq4Q7kNvwH8wxNu&amp;_nc_oc=Adln52GUCuS8J4n7wrOQA_HJSR2sjmG5nHhP1ufW1TVKMxCHhawbA0Rn6ZbGGKBIsfDS3mSdrt77Peh1z1RBQFxJ&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-3.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=kxIeYQe8v096bVlfjnK6og&amp;oh=00_AfiZRBMRVltiwDEYltG4x8Hw6USUvIPHZB8BjFBMwEW1rw&amp;oe=69293361</t>
         </is>
       </c>
       <c r="AC51" t="inlineStr"/>
@@ -5624,7 +5651,7 @@
         </is>
       </c>
       <c r="M52" t="n">
-        <v>1769</v>
+        <v>1771</v>
       </c>
       <c r="N52" t="n">
         <v>0</v>
@@ -5658,12 +5685,12 @@
       <c r="AA52" t="inlineStr"/>
       <c r="AB52" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-3.cdninstagram.com/o1/v/t2/f2/m86/AQNHvMlc96zcjX66b5ofCPtMVHMqUxPyjTmVm_qOuqFHOUyLp1ZiR2-DdYfMaonBeFFD4W8oBW5sqp5Oq5_xee1RJcXW8zV7KmPaQfo.mp4?_nc_cat=110&amp;_nc_sid=5e9851&amp;_nc_ht=scontent-lga3-3.cdninstagram.com&amp;_nc_ohc=uw-yQvzV12gQ7kNvwEwCmA6&amp;efg=eyJ2ZW5jb2RlX3RhZyI6Inhwdl9wcm9ncmVzc2l2ZS5JTlNUQUdSQU0uQ0xJUFMuQzMuMzYwLmRhc2hfYmFzZWxpbmVfM192MSIsInhwdl9hc3NldF9pZCI6OTU4Nzg4NTk2MTgyNTY5LCJ2aV91c2VjYXNlX2lkIjoxMDA5OSwiZHVyYXRpb25fcyI6MjQsInVybGdlbl9zb3VyY2UiOiJ3d3cifQ%3D%3D&amp;ccb=17-1&amp;vs=ea210112dac92d13&amp;_nc_vs=HBksFQIYUmlnX3hwdl9yZWVsc19wZXJtYW5lbnRfc3JfcHJvZC84QTQ4MEFBQjAwNjlDRkM0RjNGODBCMTNENjM0QTlCOV92aWRlb19kYXNoaW5pdC5tcDQVAALIARIAFQIYOnBhc3N0aHJvdWdoX2V2ZXJzdG9yZS9HSm4zU3h4azI4VEZfbk1IQVBzaTlNZ1JudFlJYnFfRUFBQUYVAgLIARIAKAAYABsCiAd1c2Vfb2lsATEScHJvZ3Jlc3NpdmVfcmVjaXBlATEVAAAm0riF2-uAtAMVAigCQzMsF0A4iHKwIMScGBJkYXNoX2Jhc2VsaW5lXzNfdjERAHX-B2XmnQEA&amp;_nc_gid=UX7N9kGiqNNdGFe8DDb9yQ&amp;edm=AM6HXa8EAAAA&amp;_nc_zt=28&amp;oh=00_Aff2gKbzPVhZTQUOVsMgy1KXvB6NpikYUtgJXpMS5qlVnw&amp;oe=68FB0423</t>
+          <t>https://scontent-lga3-2.cdninstagram.com/o1/v/t2/f2/m367/AQPZPCkaKOgD-sTw8eTrE-wRC8Vk4FGtA4ImmM-DcprNjfR0fq197ArE2Yr2ib6CBKpGLUC7KXRUSWH15CKLwpNS1Lw-y1jcUqKEZys.mp4?_nc_cat=107&amp;_nc_sid=5e9851&amp;_nc_ht=scontent-lga3-2.cdninstagram.com&amp;_nc_ohc=fmSigHTalrEQ7kNvwF0tHUO&amp;efg=eyJ2ZW5jb2RlX3RhZyI6Inhwdl9wcm9ncmVzc2l2ZS5JTlNUQUdSQU0uQ0xJUFMuQzMuNzIwLmRhc2hfYmFzZWxpbmVfMV92MSIsInhwdl9hc3NldF9pZCI6OTU4Nzg4NTk2MTgyNTY5LCJhc3NldF9hZ2VfZGF5cyI6MzA1LCJ2aV91c2VjYXNlX2lkIjoxMDA5OSwiZHVyYXRpb25fcyI6MjQsInVybGdlbl9zb3VyY2UiOiJ3d3cifQ%3D%3D&amp;ccb=17-1&amp;vs=98ad25852cc6947a&amp;_nc_vs=HBksFQIYQGlnX2VwaGVtZXJhbC8wNDRCRjZFOERDN0EzQTI5REYxRUQyODMxQUU1RDNCNl92aWRlb19kYXNoaW5pdC5tcDQVAALIARIAFQIYOnBhc3N0aHJvdWdoX2V2ZXJzdG9yZS9HSm4zU3h4azI4VEZfbk1IQVBzaTlNZ1JudFlJYnFfRUFBQUYVAgLIARIAKAAYABsCiAd1c2Vfb2lsATEScHJvZ3Jlc3NpdmVfcmVjaXBlATEVAAAm0riF2-uAtAMVAigCQzMsF0A4kOVgQYk3GBJkYXNoX2Jhc2VsaW5lXzFfdjERAHX-B2XmnQEA&amp;_nc_gid=kxIeYQe8v096bVlfjnK6og&amp;edm=AM6HXa8EAAAA&amp;_nc_zt=28&amp;oh=00_AfhYKFguwmdMS6XCrwM8AhBEOxWiSmZpfmRj-ntDJz8UbA&amp;oe=6929187C</t>
         </is>
       </c>
       <c r="AC52" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-2.cdninstagram.com/v/t51.75761-15/474615521_18484667509017986_45276536124547174_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0xJUFMuYmVzdF9pbWFnZV91cmxnZW4uQzMifQ%3D%3D&amp;_nc_ohc=5nB3-2sfr3AQ7kNvwFQmmjj&amp;_nc_oc=AdnMSxWhpSwIW9ToTYXbkTy5XMv01rMnmOhvw-RnO_-IzZFta2sHavXDesGgjAV-G5WVlUBwcXsectyMnNXerwD0&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-2.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=UX7N9kGiqNNdGFe8DDb9yQ&amp;oh=00_AfdCGnc2RNv8UM1mWfDr3Em7eQrUFD4ac6dywIVCpzwFDg&amp;oe=68FEE7CA</t>
+          <t>https://scontent-lga3-2.cdninstagram.com/v/t51.75761-15/474615521_18484667509017986_45276536124547174_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=107&amp;ccb=7-5&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0xJUFMuYmVzdF9pbWFnZV91cmxnZW4uQzMifQ%3D%3D&amp;_nc_ohc=qWxH3f7LoaMQ7kNvwH7TMNZ&amp;_nc_oc=Adl25YhG3hTuN9JYxeY9Y_KNPPXj4pN4SsYow2XACj5fm-aqa8Ft6mnsKpEaG5W5NiRjI6dvHKG73-qWeA__EGIm&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-2.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=kxIeYQe8v096bVlfjnK6og&amp;oh=00_AfgdHHHiPXnNWZ3MapXdrQfN4NMrKq98hmBpbaHA4ijJIg&amp;oe=692917CA</t>
         </is>
       </c>
     </row>
@@ -5723,17 +5750,17 @@
         </is>
       </c>
       <c r="M53" t="n">
-        <v>2373</v>
+        <v>2393</v>
       </c>
       <c r="N53" t="n">
         <v>0</v>
       </c>
       <c r="O53" t="n">
-        <v>1499</v>
+        <v>1501</v>
       </c>
       <c r="P53" t="inlineStr"/>
       <c r="Q53" t="n">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R53" t="n">
         <v>4</v>
@@ -5748,7 +5775,7 @@
         <v>2</v>
       </c>
       <c r="V53" t="n">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="W53" t="inlineStr"/>
       <c r="X53" t="inlineStr"/>
@@ -5757,7 +5784,7 @@
       <c r="AA53" t="inlineStr"/>
       <c r="AB53" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-1.cdninstagram.com/v/t51.29350-15/474103062_1330955534593936_3371128005102244053_n.heic?stp=dst-jpg_e35_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiRkVFRC5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=KtvAb6AV0qIQ7kNvwHrdc5k&amp;_nc_oc=AdkvR7ISwerWmsp8i5RMc0zGVyA3jxjVag3tmRjwxEJe2QKazbVlAO61oVFOs_BcR8IYIc3cQD-Wxdjgw4r9oYE9&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-1.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=UX7N9kGiqNNdGFe8DDb9yQ&amp;oh=00_AffcweE7u9Tt6FOjF8VW12t1PLOogks78_D0slOtR8yDZQ&amp;oe=68FF0EF6</t>
+          <t>https://scontent-lga3-1.cdninstagram.com/v/t51.29350-15/474103062_1330955534593936_3371128005102244053_n.heic?stp=dst-jpg_e35_tt6&amp;_nc_cat=103&amp;ccb=7-5&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiRkVFRC5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=Msp3Uamg7PMQ7kNvwHQW6KQ&amp;_nc_oc=AdnjPXv6NFqPmCh7LfynBS9-6JdYapE_DYg6yRaT1dbkWUOQC9-TNIrSS2Q1rNDZNg_WlFub8YHKHFENsi8pOGHv&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-1.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=kxIeYQe8v096bVlfjnK6og&amp;oh=00_AfgYTL6BBswjspbtZNXtK4PnaPaR2ycZNdcOtrJokauEgA&amp;oe=69293EF6</t>
         </is>
       </c>
       <c r="AC53" t="inlineStr"/>
@@ -5818,13 +5845,13 @@
         </is>
       </c>
       <c r="M54" t="n">
-        <v>2820</v>
+        <v>2861</v>
       </c>
       <c r="N54" t="n">
         <v>0</v>
       </c>
       <c r="O54" t="n">
-        <v>1938</v>
+        <v>1946</v>
       </c>
       <c r="P54" t="inlineStr"/>
       <c r="Q54" t="n">
@@ -5852,7 +5879,7 @@
       <c r="AA54" t="inlineStr"/>
       <c r="AB54" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-1.cdninstagram.com/v/t51.29350-15/473037598_977558010889870_3868578335516455922_n.heic?stp=dst-jpg_e35_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiRkVFRC5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=9Snpq_gTIPkQ7kNvwFN91pH&amp;_nc_oc=Adlrg5KO0mUwcgzqYnk3TFET5EPvqIZQhmZUHXzmlpNzrD0QpYsUmdWfZ2cH7KJhQ_Jymre76RwOHUqPEiIQm4cX&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-1.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=UX7N9kGiqNNdGFe8DDb9yQ&amp;oh=00_AfeAfhdv85S57V7cRsNLU21zPmKYncGGXZ45t1yjespx6Q&amp;oe=68FF0069</t>
+          <t>https://scontent-lga3-1.cdninstagram.com/v/t51.29350-15/473037598_977558010889870_3868578335516455922_n.heic?stp=dst-jpg_e35_tt6&amp;_nc_cat=102&amp;ccb=7-5&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiRkVFRC5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=D-VreTmx4GQQ7kNvwF34wyF&amp;_nc_oc=Adm9RfdwA3wUWCmK2UASlHkW8oqOcnWya1iCNCncSN2YxCF_HUceh7plF2VEJm1U-YFDXR9dlW4k-DHP88UCWFHn&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-1.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=kxIeYQe8v096bVlfjnK6og&amp;oh=00_AfjbqIKeC7sGqJ1ALbN3K-ZiawtBSEC4ByDyJ8OUqyOizw&amp;oe=69293069</t>
         </is>
       </c>
       <c r="AC54" t="inlineStr"/>
@@ -5911,7 +5938,7 @@
         </is>
       </c>
       <c r="M55" t="n">
-        <v>3857</v>
+        <v>3862</v>
       </c>
       <c r="N55" t="n">
         <v>0</v>
@@ -5945,12 +5972,12 @@
       <c r="AA55" t="inlineStr"/>
       <c r="AB55" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-1.cdninstagram.com/o1/v/t2/f2/m367/AQNA8Gdzhzcxn6icx_ii-i9Uh6KyWcur1o9EzwU_TEfoF-7X_-8hPV2LL0gUj_V_dA5q5xCVdEKonEn_fWUzwWS1-QDCt9pEVEsbEVg.mp4?_nc_cat=103&amp;_nc_sid=5e9851&amp;_nc_ht=scontent-lga3-1.cdninstagram.com&amp;_nc_ohc=6X-5yn7Q_2oQ7kNvwErGtLc&amp;efg=eyJ2ZW5jb2RlX3RhZyI6Inhwdl9wcm9ncmVzc2l2ZS5JTlNUQUdSQU0uQ0xJUFMuQzMuNzIwLmRhc2hfYmFzZWxpbmVfMV92MSIsInhwdl9hc3NldF9pZCI6MTE3NDQ1MjY3NDM4NzAzMywidmlfdXNlY2FzZV9pZCI6MTAwOTksImR1cmF0aW9uX3MiOjM0LCJ1cmxnZW5fc291cmNlIjoid3d3In0%3D&amp;ccb=17-1&amp;vs=72d2e57612e84e9f&amp;_nc_vs=HBksFQIYQGlnX2VwaGVtZXJhbC81NDQyQzA2RkU4NzcyODE4RjFGNkY1RDQyODdFNjY4MF92aWRlb19kYXNoaW5pdC5tcDQVAALIARIAFQIYOnBhc3N0aHJvdWdoX2V2ZXJzdG9yZS9HTFE5TVJ3U2hfSUtMbkVEQUJYWXU2Qzh3X1ZDYnFfRUFBQUYVAgLIARIAKAAYABsCiAd1c2Vfb2lsATEScHJvZ3Jlc3NpdmVfcmVjaXBlATEVAAAmsvGyp5KKlgQVAigCQzMsF0BBDMzMzMzNGBJkYXNoX2Jhc2VsaW5lXzFfdjERAHX-B2XmnQEA&amp;_nc_gid=UX7N9kGiqNNdGFe8DDb9yQ&amp;edm=AM6HXa8EAAAA&amp;_nc_zt=28&amp;oh=00_AfeflVBUnGtYeFNoBVfu8s6CITrjDrG5IZLw9WHMtR7NGw&amp;oe=68FF1870</t>
+          <t>https://scontent-lga3-1.cdninstagram.com/o1/v/t2/f2/m367/AQNA8Gdzhzcxn6icx_ii-i9Uh6KyWcur1o9EzwU_TEfoF-7X_-8hPV2LL0gUj_V_dA5q5xCVdEKonEn_fWUzwWS1-QDCt9pEVEsbEVg.mp4?_nc_cat=103&amp;_nc_sid=5e9851&amp;_nc_ht=scontent-lga3-1.cdninstagram.com&amp;_nc_ohc=l0A825HK--8Q7kNvwETanOd&amp;efg=eyJ2ZW5jb2RlX3RhZyI6Inhwdl9wcm9ncmVzc2l2ZS5JTlNUQUdSQU0uQ0xJUFMuQzMuNzIwLmRhc2hfYmFzZWxpbmVfMV92MSIsInhwdl9hc3NldF9pZCI6MTE3NDQ1MjY3NDM4NzAzMywiYXNzZXRfYWdlX2RheXMiOjMxNCwidmlfdXNlY2FzZV9pZCI6MTAwOTksImR1cmF0aW9uX3MiOjM0LCJ1cmxnZW5fc291cmNlIjoid3d3In0%3D&amp;ccb=17-1&amp;vs=72d2e57612e84e9f&amp;_nc_vs=HBksFQIYQGlnX2VwaGVtZXJhbC81NDQyQzA2RkU4NzcyODE4RjFGNkY1RDQyODdFNjY4MF92aWRlb19kYXNoaW5pdC5tcDQVAALIARIAFQIYOnBhc3N0aHJvdWdoX2V2ZXJzdG9yZS9HTFE5TVJ3U2hfSUtMbkVEQUJYWXU2Qzh3X1ZDYnFfRUFBQUYVAgLIARIAKAAYABsCiAd1c2Vfb2lsATEScHJvZ3Jlc3NpdmVfcmVjaXBlATEVAAAmsvGyp5KKlgQVAigCQzMsF0BBDMzMzMzNGBJkYXNoX2Jhc2VsaW5lXzFfdjERAHX-B2XmnQEA&amp;_nc_gid=kxIeYQe8v096bVlfjnK6og&amp;edm=AM6HXa8EAAAA&amp;_nc_zt=28&amp;oh=00_AfgnojJ-lSvFd0OSGJ--QzWJQPeGzmTmpThRtMsXdIoAWA&amp;oe=69294870</t>
         </is>
       </c>
       <c r="AC55" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-2.cdninstagram.com/v/t51.75761-15/473160095_18483051073017986_6804163268656909500_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0xJUFMuYmVzdF9pbWFnZV91cmxnZW4uQzMifQ%3D%3D&amp;_nc_ohc=womJ6Z2zplAQ7kNvwEbonwO&amp;_nc_oc=AdnMvh4-TCXGnd94klJn3o9SBy2ajua6h5KGvxHosS_T6iod6-g5dWVXVoWUxy--2iT0ovIfoVW938nGEfFg8eli&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-2.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=UX7N9kGiqNNdGFe8DDb9yQ&amp;oh=00_AffKPvvEZfHNLkVotYfyLc5o1jnh3qbOGTnjj9jywnbTnw&amp;oe=68FEFDD5</t>
+          <t>https://scontent-lga3-2.cdninstagram.com/v/t51.75761-15/473160095_18483051073017986_6804163268656909500_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=107&amp;ccb=7-5&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0xJUFMuYmVzdF9pbWFnZV91cmxnZW4uQzMifQ%3D%3D&amp;_nc_ohc=63QjKL64YJEQ7kNvwERzygG&amp;_nc_oc=AdlENcOzjbL6iXbAQ3ecpTxKZ05kauacwNlcKZGBmtr3wx3DaUOBrngjahHHgnw1AmOV8LTkAP51iVullJSur083&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-2.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=kxIeYQe8v096bVlfjnK6og&amp;oh=00_AfiabMwWMQcRsAkAjZnR6ZDEj_AISGFSsoOLa5YzUxbX9Q&amp;oe=69292DD5</t>
         </is>
       </c>
     </row>
@@ -6011,7 +6038,7 @@
         </is>
       </c>
       <c r="M56" t="n">
-        <v>3080</v>
+        <v>3108</v>
       </c>
       <c r="N56" t="n">
         <v>0</v>
@@ -6045,7 +6072,7 @@
       <c r="AA56" t="inlineStr"/>
       <c r="AB56" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-1.cdninstagram.com/v/t51.29350-15/472771951_3880722492148138_7677256190516393567_n.heic?stp=dst-jpg_e35_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0FST1VTRUxfSVRFTS5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=9WSX_V2V-zEQ7kNvwHfs-UE&amp;_nc_oc=Adni1KkeX7oY7d-pNhXlwIsFEQBIdrprhpsKJrLDU5jvNes1zw7_ZmvC20xAtkkobV_BqzYtP2BczQXSvB0CT3FK&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-1.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=UX7N9kGiqNNdGFe8DDb9yQ&amp;oh=00_AfdkYW3Uy0dHyRHP_6CgbUnnWdV0OL_s0zT_35O4AVY7rg&amp;oe=68FEFFC7</t>
+          <t>https://scontent-lga3-1.cdninstagram.com/v/t51.29350-15/472771951_3880722492148138_7677256190516393567_n.heic?stp=dst-jpg_e35_tt6&amp;_nc_cat=102&amp;ccb=7-5&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0FST1VTRUxfSVRFTS5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=Fqd10txJtX0Q7kNvwFpgC1O&amp;_nc_oc=Adl36Ngf3f0ter461Rn8ZQymR0qaVIbgk95mclTWtIVbs4ZgIN7mdzMJSB-a4-fnbX69emIvQ_FSoNCezK32-WL7&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-1.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=kxIeYQe8v096bVlfjnK6og&amp;oh=00_Afj5HZeOcSZ-MM5vNVINmY1-FesMoy-tbDr0c3ozupJ47w&amp;oe=69292FC7</t>
         </is>
       </c>
       <c r="AC56" t="inlineStr"/>
@@ -6105,13 +6132,13 @@
         </is>
       </c>
       <c r="M57" t="n">
-        <v>2873</v>
+        <v>2880</v>
       </c>
       <c r="N57" t="n">
         <v>0</v>
       </c>
       <c r="O57" t="n">
-        <v>2049</v>
+        <v>2055</v>
       </c>
       <c r="P57" t="inlineStr"/>
       <c r="Q57" t="n">
@@ -6139,12 +6166,12 @@
       <c r="AA57" t="inlineStr"/>
       <c r="AB57" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-3.cdninstagram.com/o1/v/t2/f2/m367/AQMmdN9_H1HpMl1pVoXE658cLi8eJn-dbO0tMpJuDPy0XNxNvh3Wn_3im_ZkiGPWeB9q1DDE3BDlgrr1ZSdohrdG4Gysyr4_vKn7wi0.mp4?_nc_cat=106&amp;_nc_sid=5e9851&amp;_nc_ht=scontent-lga3-3.cdninstagram.com&amp;_nc_ohc=JIGyMStMpIUQ7kNvwHJoogK&amp;efg=eyJ2ZW5jb2RlX3RhZyI6Inhwdl9wcm9ncmVzc2l2ZS5JTlNUQUdSQU0uQ0xJUFMuQzMuNzIwLmRhc2hfYmFzZWxpbmVfMV92MSIsInhwdl9hc3NldF9pZCI6NTE5MzE5NjY3ODM0ODg3LCJ2aV91c2VjYXNlX2lkIjoxMDA5OSwiZHVyYXRpb25fcyI6MTgsInVybGdlbl9zb3VyY2UiOiJ3d3cifQ%3D%3D&amp;ccb=17-1&amp;vs=e5da8695b8613fea&amp;_nc_vs=HBksFQIYQGlnX2VwaGVtZXJhbC9BNjRBNUIwQ0E1MzQ0QTBEMDBFREJCRjgwN0Y4MDA4N192aWRlb19kYXNoaW5pdC5tcDQVAALIARIAFQIYOnBhc3N0aHJvdWdoX2V2ZXJzdG9yZS9HR2lNR0J4ZGxGSV9aQW9DQVBHd2ppR0FrcEJHYnFfRUFBQUYVAgLIARIAKAAYABsCiAd1c2Vfb2lsATEScHJvZ3Jlc3NpdmVfcmVjaXBlATEVAAAmjoCchbGU7AEVAigCQzMsF0AybtkWhysCGBJkYXNoX2Jhc2VsaW5lXzFfdjERAHX-B2XmnQEA&amp;_nc_gid=UX7N9kGiqNNdGFe8DDb9yQ&amp;edm=AM6HXa8EAAAA&amp;_nc_zt=28&amp;oh=00_AfeRVOuE747Scx1fABKAPQhfuNRbovOq8cDyKepIblzyrQ&amp;oe=68FEF613</t>
+          <t>https://scontent-lga3-3.cdninstagram.com/o1/v/t2/f2/m86/AQMGwuRq_TM4jPgVTPQf1oP9Yspc7U4oBINr6t3WIJd4r4G25hkl0D4FkW3RpvNiZ4ck6iINnzyTUXBNUF8EG5TRsYtWElgxABvRNJI.mp4?_nc_cat=108&amp;_nc_sid=5e9851&amp;_nc_ht=scontent-lga3-3.cdninstagram.com&amp;_nc_ohc=sTNmUfJonOgQ7kNvwGxCERg&amp;efg=eyJ2ZW5jb2RlX3RhZyI6Inhwdl9wcm9ncmVzc2l2ZS5JTlNUQUdSQU0uQ0xJUFMuQzMuMzYwLmRhc2hfYmFzZWxpbmVfM192MSIsInhwdl9hc3NldF9pZCI6NTE5MzE5NjY3ODM0ODg3LCJhc3NldF9hZ2VfZGF5cyI6MzM1LCJ2aV91c2VjYXNlX2lkIjoxMDA5OSwiZHVyYXRpb25fcyI6MTgsInVybGdlbl9zb3VyY2UiOiJ3d3cifQ%3D%3D&amp;ccb=17-1&amp;vs=ee156a0bc199b1&amp;_nc_vs=HBksFQIYUmlnX3hwdl9yZWVsc19wZXJtYW5lbnRfc3JfcHJvZC85RjRBNTgyRUM1Q0VEMURFMDU2RTQwQjZBQTBGOUQ5RV92aWRlb19kYXNoaW5pdC5tcDQVAALIARIAFQIYOnBhc3N0aHJvdWdoX2V2ZXJzdG9yZS9HR2lNR0J4ZGxGSV9aQW9DQVBHd2ppR0FrcEJHYnFfRUFBQUYVAgLIARIAKAAYABsCiAd1c2Vfb2lsATEScHJvZ3Jlc3NpdmVfcmVjaXBlATEVAAAmjoCchbGU7AEVAigCQzMsF0AyZmZmZmZmGBJkYXNoX2Jhc2VsaW5lXzNfdjERAHX-B2XmnQEA&amp;_nc_gid=kxIeYQe8v096bVlfjnK6og&amp;edm=AM6HXa8EAAAA&amp;_nc_zt=28&amp;oh=00_Afg6nmfOuCMmYyHHNJzvXpmCJle7lNnCF2-_NIVqLXz18A&amp;oe=69252645</t>
         </is>
       </c>
       <c r="AC57" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-3.cdninstagram.com/v/t51.75761-15/471414646_18478704922017986_317776064982552612_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0xJUFMuYmVzdF9pbWFnZV91cmxnZW4uQzMifQ%3D%3D&amp;_nc_ohc=-RdRNZshW3IQ7kNvwGh0OHX&amp;_nc_oc=AdkdCvmB566QpC-0pIVNmZqvHyj_TaH7iDLUOOFVKV6Aaj_NG4FbnWZFiKKzIP1BW1npQFnS1D391aAQTXQ5Qa6m&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-3.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=UX7N9kGiqNNdGFe8DDb9yQ&amp;oh=00_AffjFaR3h5-T2vWyIAb_XVxddP3ZTkBMDOFTqBEy6TQBDg&amp;oe=68FF03BC</t>
+          <t>https://scontent-lga3-3.cdninstagram.com/v/t51.75761-15/471414646_18478704922017986_317776064982552612_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=104&amp;ccb=7-5&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0xJUFMuYmVzdF9pbWFnZV91cmxnZW4uQzMifQ%3D%3D&amp;_nc_ohc=SFaLTHDGl-IQ7kNvwHPWW4O&amp;_nc_oc=Adk1jGTZcIOfTnXkjYwYJpJcNkwCNpSQ3sVYHlMYK2sTu1FqdC-Heghd44N2r91u1sBxVlVp1ReTPczKn0Ao0jzu&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-3.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=kxIeYQe8v096bVlfjnK6og&amp;oh=00_Afib4bjbXcuUFEK8O30eUCcT3yE6hWN_8uuyxBcKJMO8oA&amp;oe=692933BC</t>
         </is>
       </c>
     </row>
@@ -6202,17 +6229,17 @@
         </is>
       </c>
       <c r="M58" t="n">
-        <v>415673</v>
+        <v>415756</v>
       </c>
       <c r="N58" t="n">
         <v>0</v>
       </c>
       <c r="O58" t="n">
-        <v>251209</v>
+        <v>251271</v>
       </c>
       <c r="P58" t="inlineStr"/>
       <c r="Q58" t="n">
-        <v>9943</v>
+        <v>9942</v>
       </c>
       <c r="R58" t="n">
         <v>2</v>
@@ -6221,7 +6248,7 @@
         <v>293</v>
       </c>
       <c r="T58" t="n">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="U58" t="n">
         <v>0</v>
@@ -6236,12 +6263,12 @@
       <c r="AA58" t="inlineStr"/>
       <c r="AB58" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-1.cdninstagram.com/o1/v/t2/f2/m367/AQM0BGNzkvIlqFa_lsvAspElh0muS_BWTFJ9tKh6No3JWAagAhcvnA2jetLcBOKzdFHkn245TR0Osw6gbK5TUv8p3kS1ZkZ9rj8Ou9E.mp4?_nc_cat=108&amp;_nc_sid=5e9851&amp;_nc_ht=scontent-lga3-1.cdninstagram.com&amp;_nc_ohc=oBzM31D9W4sQ7kNvwGR8Tgc&amp;efg=eyJ2ZW5jb2RlX3RhZyI6Inhwdl9wcm9ncmVzc2l2ZS5JTlNUQUdSQU0uQ0xJUFMuQzMuNzIwLmRhc2hfYmFzZWxpbmVfMV92MSIsInhwdl9hc3NldF9pZCI6MTI2MjY5NjQwODExODkxNywidmlfdXNlY2FzZV9pZCI6MTAwOTksImR1cmF0aW9uX3MiOjE0LCJ1cmxnZW5fc291cmNlIjoid3d3In0%3D&amp;ccb=17-1&amp;vs=449e5d2e0054484a&amp;_nc_vs=HBksFQIYQGlnX2VwaGVtZXJhbC8xNDRBRDk5ODM4MjlGQTVGM0JCNjYyNUIzOTBGN0ZBQl92aWRlb19kYXNoaW5pdC5tcDQVAALIARIAFQIYOnBhc3N0aHJvdWdoX2V2ZXJzdG9yZS9HTHJhRkJ4WTNQUkhUQXdFQUVHTGpTb2JBMVE2YnFfRUFBQUYVAgLIARIAKAAYABsCiAd1c2Vfb2lsATEScHJvZ3Jlc3NpdmVfcmVjaXBlATEVAAAmitrrrc2avgQVAigCQzMsF0AszMzMzMzNGBJkYXNoX2Jhc2VsaW5lXzFfdjERAHX-B2XmnQEA&amp;_nc_gid=UX7N9kGiqNNdGFe8DDb9yQ&amp;edm=AM6HXa8EAAAA&amp;_nc_zt=28&amp;oh=00_AffbB5L1yfx3b1-YW2OYpsR3_oZd3hKqI6XLQV8OgfKT5g&amp;oe=68FEE49D</t>
+          <t>https://scontent-lga3-3.cdninstagram.com/o1/v/t2/f2/m367/AQM0BGNzkvIlqFa_lsvAspElh0muS_BWTFJ9tKh6No3JWAagAhcvnA2jetLcBOKzdFHkn245TR0Osw6gbK5TUv8p3kS1ZkZ9rj8Ou9E.mp4?_nc_cat=108&amp;_nc_sid=5e9851&amp;_nc_ht=scontent-lga3-3.cdninstagram.com&amp;_nc_ohc=45lrfdrCKM8Q7kNvwFlcPSR&amp;efg=eyJ2ZW5jb2RlX3RhZyI6Inhwdl9wcm9ncmVzc2l2ZS5JTlNUQUdSQU0uQ0xJUFMuQzMuNzIwLmRhc2hfYmFzZWxpbmVfMV92MSIsInhwdl9hc3NldF9pZCI6MTI2MjY5NjQwODExODkxNywiYXNzZXRfYWdlX2RheXMiOjMzOCwidmlfdXNlY2FzZV9pZCI6MTAwOTksImR1cmF0aW9uX3MiOjE0LCJ1cmxnZW5fc291cmNlIjoid3d3In0%3D&amp;ccb=17-1&amp;vs=449e5d2e0054484a&amp;_nc_vs=HBksFQIYQGlnX2VwaGVtZXJhbC8xNDRBRDk5ODM4MjlGQTVGM0JCNjYyNUIzOTBGN0ZBQl92aWRlb19kYXNoaW5pdC5tcDQVAALIARIAFQIYOnBhc3N0aHJvdWdoX2V2ZXJzdG9yZS9HTHJhRkJ4WTNQUkhUQXdFQUVHTGpTb2JBMVE2YnFfRUFBQUYVAgLIARIAKAAYABsCiAd1c2Vfb2lsATEScHJvZ3Jlc3NpdmVfcmVjaXBlATEVAAAmitrrrc2avgQVAigCQzMsF0AszMzMzMzNGBJkYXNoX2Jhc2VsaW5lXzFfdjERAHX-B2XmnQEA&amp;_nc_gid=kxIeYQe8v096bVlfjnK6og&amp;edm=AM6HXa8EAAAA&amp;_nc_zt=28&amp;oh=00_AfjhSA_P_IoGWHt9ze8lEP88Xlo-qVtBnzkNGJT755L9Fw&amp;oe=6929149D</t>
         </is>
       </c>
       <c r="AC58" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-2.cdninstagram.com/v/t51.75761-15/470902362_18478263241017986_2524166971233477418_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0xJUFMuYmVzdF9pbWFnZV91cmxnZW4uQzMifQ%3D%3D&amp;_nc_ohc=I5sMT8Xs7pIQ7kNvwFjorFM&amp;_nc_oc=AdlJxupAAnuhgRqDZuTiG2sa-NU2QUEYNFEgDB-jORRq2QysV-k0V0OxtkyGERbynEmqwqbrNjCMxOoIF6UyVHOg&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-2.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=UX7N9kGiqNNdGFe8DDb9yQ&amp;oh=00_AfeMNKg4Fy-SYgGWopD5pmDN8BeddlLranSUeoYIUrQ7_w&amp;oe=68FF14D2</t>
+          <t>https://scontent-lga3-2.cdninstagram.com/v/t51.75761-15/470902362_18478263241017986_2524166971233477418_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=109&amp;ccb=7-5&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0xJUFMuYmVzdF9pbWFnZV91cmxnZW4uQzMifQ%3D%3D&amp;_nc_ohc=vdxQlbYSDF8Q7kNvwExlFZz&amp;_nc_oc=Adk_gmIPj85EJ-LftEns5ORya0q6HUbb25qWdp4jU7-no8sKZ_yFLRFUVqAiX7mee2ZXW78UWi1f0xlX7ME0fFE4&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-2.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=kxIeYQe8v096bVlfjnK6og&amp;oh=00_AfiUUqSmeOH6_DSy1B1OXXTzw46CNOqvKRVxaZXDwoiwxw&amp;oe=692944D2</t>
         </is>
       </c>
     </row>
@@ -6300,7 +6327,7 @@
         </is>
       </c>
       <c r="M59" t="n">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="N59" t="n">
         <v>0</v>
@@ -6334,12 +6361,12 @@
       <c r="AA59" t="inlineStr"/>
       <c r="AB59" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-3.cdninstagram.com/o1/v/t2/f2/m86/AQNFt3pm6SkFIQ0ibdLelNWGtlykG-H3REpQLnpQ8mh6FnWspdQRlj8LT96NaIjxvWrsFOis4xSzXbx4-1Duz53jcu3AedBATDTAb-Y.mp4?_nc_cat=104&amp;_nc_sid=5e9851&amp;_nc_ht=scontent-lga3-3.cdninstagram.com&amp;_nc_ohc=4L_H2ki5lagQ7kNvwEw1laD&amp;efg=eyJ2ZW5jb2RlX3RhZyI6Inhwdl9wcm9ncmVzc2l2ZS5JTlNUQUdSQU0uQ0xJUFMuQzMuMzYwLmRhc2hfYmFzZWxpbmVfM192MSIsInhwdl9hc3NldF9pZCI6MjkxODA0MzY1MTY5NzE3OSwidmlfdXNlY2FzZV9pZCI6MTAwOTksImR1cmF0aW9uX3MiOjE2LCJ1cmxnZW5fc291cmNlIjoid3d3In0%3D&amp;ccb=17-1&amp;vs=fd1f6d58eba97082&amp;_nc_vs=HBksFQIYUmlnX3hwdl9yZWVsc19wZXJtYW5lbnRfc3JfcHJvZC9ENDQwNDMyMEFBNUI4ODQwNkFDOUFEMjJBQTZCMTU5Ml92aWRlb19kYXNoaW5pdC5tcDQVAALIARIAFQIYOnBhc3N0aHJvdWdoX2V2ZXJzdG9yZS9HUFladnh0RzZHb2NwVUFlQUIwWWJvWDFKRU0yYnFfRUFBQUYVAgLIARIAKAAYABsCiAd1c2Vfb2lsATEScHJvZ3Jlc3NpdmVfcmVjaXBlATEVAAAmtqjjtL_8rgoVAigCQzMsF0Awqn752yLRGBJkYXNoX2Jhc2VsaW5lXzNfdjERAHX-B2XmnQEA&amp;_nc_gid=UX7N9kGiqNNdGFe8DDb9yQ&amp;edm=AM6HXa8EAAAA&amp;_nc_zt=28&amp;oh=00_AfdcuaQEYdVueeYvS4nAdg-BmPzQohGya-tWx4_Qv5HSLw&amp;oe=68FAFF91</t>
+          <t>https://scontent-lga3-3.cdninstagram.com/o1/v/t2/f2/m86/AQNFt3pm6SkFIQ0ibdLelNWGtlykG-H3REpQLnpQ8mh6FnWspdQRlj8LT96NaIjxvWrsFOis4xSzXbx4-1Duz53jcu3AedBATDTAb-Y.mp4?_nc_cat=104&amp;_nc_sid=5e9851&amp;_nc_ht=scontent-lga3-3.cdninstagram.com&amp;_nc_ohc=zigVBvFQ5ksQ7kNvwFZdxsK&amp;efg=eyJ2ZW5jb2RlX3RhZyI6Inhwdl9wcm9ncmVzc2l2ZS5JTlNUQUdSQU0uQ0xJUFMuQzMuMzYwLmRhc2hfYmFzZWxpbmVfM192MSIsInhwdl9hc3NldF9pZCI6MjkxODA0MzY1MTY5NzE3OSwiYXNzZXRfYWdlX2RheXMiOjM4NSwidmlfdXNlY2FzZV9pZCI6MTAwOTksImR1cmF0aW9uX3MiOjE2LCJ1cmxnZW5fc291cmNlIjoid3d3In0%3D&amp;ccb=17-1&amp;vs=fd1f6d58eba97082&amp;_nc_vs=HBksFQIYUmlnX3hwdl9yZWVsc19wZXJtYW5lbnRfc3JfcHJvZC9ENDQwNDMyMEFBNUI4ODQwNkFDOUFEMjJBQTZCMTU5Ml92aWRlb19kYXNoaW5pdC5tcDQVAALIARIAFQIYOnBhc3N0aHJvdWdoX2V2ZXJzdG9yZS9HUFladnh0RzZHb2NwVUFlQUIwWWJvWDFKRU0yYnFfRUFBQUYVAgLIARIAKAAYABsCiAd1c2Vfb2lsATEScHJvZ3Jlc3NpdmVfcmVjaXBlATEVAAAmtqjjtL_8rgoVAigCQzMsF0Awqn752yLRGBJkYXNoX2Jhc2VsaW5lXzNfdjERAHX-B2XmnQEA&amp;_nc_gid=kxIeYQe8v096bVlfjnK6og&amp;edm=AM6HXa8EAAAA&amp;_nc_zt=28&amp;oh=00_AfjLSedihqb7EnFzqxaXlXo1xzpot8b3ZscLl3u-t6h_cA&amp;oe=69252F91</t>
         </is>
       </c>
       <c r="AC59" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-2.cdninstagram.com/v/t51.71878-15/500076049_3104655863035956_1223084600436569404_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0xJUFMuYmVzdF9pbWFnZV91cmxnZW4uQzMifQ%3D%3D&amp;_nc_ohc=KlGPs6di4UQQ7kNvwG0acvy&amp;_nc_oc=AdnRxHnpYiMPyrBlkAC1xYVS_GDVW0XG1IJwVO7Kpdgj66us7fbGAD9AKJXOt7ou-fYU52Kbo0cstCfkrdNe-p9m&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-2.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=UX7N9kGiqNNdGFe8DDb9yQ&amp;oh=00_Afdbs0dyyFe1XINQ3z8Wc1LH2danUqQxEOvajGfDNJxiKA&amp;oe=68FEF01E</t>
+          <t>https://scontent-lga3-2.cdninstagram.com/v/t51.71878-15/500076049_3104655863035956_1223084600436569404_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=109&amp;ccb=7-5&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0xJUFMuYmVzdF9pbWFnZV91cmxnZW4uQzMifQ%3D%3D&amp;_nc_ohc=FjgT6yfc15YQ7kNvwE6KVrt&amp;_nc_oc=AdnfBfQ117w9bIaNwi00dO218IumB3zNCt4wU_0ZvhdNKy7J0gOaXM0wG3eHXemZP4w0vV8SHwCQQyxmS6xeDc2Y&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-2.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=kxIeYQe8v096bVlfjnK6og&amp;oh=00_AfhRobSBVfA8DIJiVoJSFZpZ-xZi_KzrlvQKZnVPx8P6wA&amp;oe=6929201E</t>
         </is>
       </c>
     </row>
@@ -6401,13 +6428,13 @@
         </is>
       </c>
       <c r="M60" t="n">
-        <v>1267</v>
+        <v>1309</v>
       </c>
       <c r="N60" t="n">
         <v>0</v>
       </c>
       <c r="O60" t="n">
-        <v>711</v>
+        <v>716</v>
       </c>
       <c r="P60" t="inlineStr"/>
       <c r="Q60" t="n">
@@ -6435,7 +6462,7 @@
       <c r="AA60" t="inlineStr"/>
       <c r="AB60" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-1.cdninstagram.com/v/t51.29350-15/464591261_430612536736638_7241096439014149188_n.heic?stp=dst-jpg_e35_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0FST1VTRUxfSVRFTS5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=SzeF84CLteEQ7kNvwExko6s&amp;_nc_oc=AdnzrWxjet0lmmgun__zFAGL8Y3dAJeoD0twrRIGze3_TlVYhzhN2j158vAeAdp-rHbfo1tRS4-XlQ22Oa1SB3cH&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-1.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=UX7N9kGiqNNdGFe8DDb9yQ&amp;oh=00_AffsfTLgfyRjlAXXMMmsZ8lQbcF3Om3Ut1a2hsY7psrrDA&amp;oe=68FEFC62</t>
+          <t>https://scontent-lga3-3.cdninstagram.com/v/t51.29350-15/464591261_430612536736638_7241096439014149188_n.heic?stp=dst-jpg_e35_tt6&amp;_nc_cat=108&amp;ccb=7-5&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0FST1VTRUxfSVRFTS5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=ZkMpDrixWdsQ7kNvwEUE4Iy&amp;_nc_oc=AdlxCvssFOTv_yDoKpQfruJlEqcGos8QPqVvgNg28-havHYrdqt8mX465xhIcerADX8xQCJCVqZWMP19-U0oS-6r&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-3.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=kxIeYQe8v096bVlfjnK6og&amp;oh=00_Afh0ZV4Av1pyrcsYdcqztKfx0JZ_ClwCqN7u2Y9SJ8NHOw&amp;oe=69292C62</t>
         </is>
       </c>
       <c r="AC60" t="inlineStr"/>
@@ -6496,7 +6523,7 @@
         </is>
       </c>
       <c r="M61" t="n">
-        <v>3109</v>
+        <v>3112</v>
       </c>
       <c r="N61" t="n">
         <v>0</v>
@@ -6530,12 +6557,12 @@
       <c r="AA61" t="inlineStr"/>
       <c r="AB61" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-2.cdninstagram.com/o1/v/t2/f2/m86/AQP99azyti2qxJCH4Ldmyzhkur1tmTAb2h72hCKbBClAJl7rT2YNeBwVSFXw_7o548d-MKLhDnal-SKBXQnURix_OkdlFLpPpTR6RWU.mp4?_nc_cat=100&amp;_nc_sid=5e9851&amp;_nc_ht=scontent-lga3-2.cdninstagram.com&amp;_nc_ohc=B41yrPeCHFkQ7kNvwEj8_KY&amp;efg=eyJ2ZW5jb2RlX3RhZyI6Inhwdl9wcm9ncmVzc2l2ZS5JTlNUQUdSQU0uQ0xJUFMuQzMuMzYwLmRhc2hfYmFzZWxpbmVfM192MSIsInhwdl9hc3NldF9pZCI6MTI5OTE3MzMxMTUyMTU1NSwidmlfdXNlY2FzZV9pZCI6MTAwOTksImR1cmF0aW9uX3MiOjEwLCJ1cmxnZW5fc291cmNlIjoid3d3In0%3D&amp;ccb=17-1&amp;vs=ce32a77a981440ce&amp;_nc_vs=HBksFQIYUmlnX3hwdl9yZWVsc19wZXJtYW5lbnRfc3JfcHJvZC8xMDQ4M0IyM0UxNzQ0RjAzNEVGQkZCNjEwQUVBNDg5OV92aWRlb19kYXNoaW5pdC5tcDQVAALIARIAFQIYOnBhc3N0aHJvdWdoX2V2ZXJzdG9yZS9HQTJoc0J2TEhUdDh5UUlDQUxhMEs2Y19CVzVGYnFfRUFBQUYVAgLIARIAKAAYABsCiAd1c2Vfb2lsATEScHJvZ3Jlc3NpdmVfcmVjaXBlATEVAAAmpozhu-vlzgQVAigCQzMsF0Ald0vGp--eGBJkYXNoX2Jhc2VsaW5lXzNfdjERAHX-B2XmnQEA&amp;_nc_gid=UX7N9kGiqNNdGFe8DDb9yQ&amp;edm=AM6HXa8EAAAA&amp;_nc_zt=28&amp;oh=00_AfdQgbmsPukpcbZskY3ElBDNZxyDDXu_SgKGQxPWmvywJw&amp;oe=68FB24C1</t>
+          <t>https://scontent-lga3-2.cdninstagram.com/o1/v/t2/f2/m86/AQP99azyti2qxJCH4Ldmyzhkur1tmTAb2h72hCKbBClAJl7rT2YNeBwVSFXw_7o548d-MKLhDnal-SKBXQnURix_OkdlFLpPpTR6RWU.mp4?_nc_cat=100&amp;_nc_sid=5e9851&amp;_nc_ht=scontent-lga3-2.cdninstagram.com&amp;_nc_ohc=V2nE1fapvOwQ7kNvwFiD9v-&amp;efg=eyJ2ZW5jb2RlX3RhZyI6Inhwdl9wcm9ncmVzc2l2ZS5JTlNUQUdSQU0uQ0xJUFMuQzMuMzYwLmRhc2hfYmFzZWxpbmVfM192MSIsInhwdl9hc3NldF9pZCI6MTI5OTE3MzMxMTUyMTU1NSwiYXNzZXRfYWdlX2RheXMiOjM5NSwidmlfdXNlY2FzZV9pZCI6MTAwOTksImR1cmF0aW9uX3MiOjEwLCJ1cmxnZW5fc291cmNlIjoid3d3In0%3D&amp;ccb=17-1&amp;vs=ce32a77a981440ce&amp;_nc_vs=HBksFQIYUmlnX3hwdl9yZWVsc19wZXJtYW5lbnRfc3JfcHJvZC8xMDQ4M0IyM0UxNzQ0RjAzNEVGQkZCNjEwQUVBNDg5OV92aWRlb19kYXNoaW5pdC5tcDQVAALIARIAFQIYOnBhc3N0aHJvdWdoX2V2ZXJzdG9yZS9HQTJoc0J2TEhUdDh5UUlDQUxhMEs2Y19CVzVGYnFfRUFBQUYVAgLIARIAKAAYABsCiAd1c2Vfb2lsATEScHJvZ3Jlc3NpdmVfcmVjaXBlATEVAAAmpozhu-vlzgQVAigCQzMsF0Ald0vGp--eGBJkYXNoX2Jhc2VsaW5lXzNfdjERAHX-B2XmnQEA&amp;_nc_gid=kxIeYQe8v096bVlfjnK6og&amp;edm=AM6HXa8EAAAA&amp;_nc_zt=28&amp;oh=00_AfgnuensNoBFxglI1gSrVzIC4LTdPtgjueUbBCQ4e1CT1A&amp;oe=692554C1</t>
         </is>
       </c>
       <c r="AC61" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-1.cdninstagram.com/v/t51.71878-15/508137357_1467412131364338_8455485693774854419_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0xJUFMuYmVzdF9pbWFnZV91cmxnZW4uQzMifQ%3D%3D&amp;_nc_ohc=iLD3EQy3wmEQ7kNvwGydoWv&amp;_nc_oc=AdkuS8yBwiO_7lEfgVN-IiH7IxPvnZh8E-0epIXcNiZRFw5rjXaXP8UDh_JY01qsqhKUqyG6XmWdyQY7SXzmpzgy&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-1.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=UX7N9kGiqNNdGFe8DDb9yQ&amp;oh=00_AfcfFjKvc7WP65O647BUbdbxXnBm7vB7O_Kl0Nm_DDHeBg&amp;oe=68FF139F</t>
+          <t>https://scontent-lga3-3.cdninstagram.com/v/t51.71878-15/508137357_1467412131364338_8455485693774854419_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=108&amp;ccb=7-5&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0xJUFMuYmVzdF9pbWFnZV91cmxnZW4uQzMifQ%3D%3D&amp;_nc_ohc=GiHpBMVpOL8Q7kNvwF-JonQ&amp;_nc_oc=AdnlWtFXjZLc67vBzBFKX4zFzM4hMBFFsgICSxzPpgpmd5A0gsxU1TAk7nt1tSwk9q5B5lR4ciAHxvOGlOvaETQF&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-3.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=kxIeYQe8v096bVlfjnK6og&amp;oh=00_AfjlVS6RgD94tqDHkU_JqKR0-IPsv41jKrtb88CMk2zhjQ&amp;oe=6929439F</t>
         </is>
       </c>
     </row>
@@ -6630,12 +6657,12 @@
       <c r="AA62" t="inlineStr"/>
       <c r="AB62" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-3.cdninstagram.com/o1/v/t2/f2/m367/AQPejhsZ8Kmi0F2u-pepTg6VB2mlvTaNl5ETA_bJ7XE51YQvNAf5MxGQVHSSPBacc_t2a09vWXTgPrC_dfaCBAxRKHB6_9l_YbvxILc.mp4?_nc_cat=110&amp;_nc_sid=5e9851&amp;_nc_ht=scontent-lga3-3.cdninstagram.com&amp;_nc_ohc=4BYXN8OWeLIQ7kNvwFw_XZO&amp;efg=eyJ2ZW5jb2RlX3RhZyI6Inhwdl9wcm9ncmVzc2l2ZS5JTlNUQUdSQU0uQ0xJUFMuQzMuNzIwLmRhc2hfYmFzZWxpbmVfMV92MSIsInhwdl9hc3NldF9pZCI6MTA5MTc0OTM5NTg4Nzk1NiwidmlfdXNlY2FzZV9pZCI6MTAwOTksImR1cmF0aW9uX3MiOjUsInVybGdlbl9zb3VyY2UiOiJ3d3cifQ%3D%3D&amp;ccb=17-1&amp;vs=65f0161c62475208&amp;_nc_vs=HBksFQIYQGlnX2VwaGVtZXJhbC8yMjRBQzcyNTgxNjQxNzE3Q0U1RDQ5RTkxQjQ0OEI4OV92aWRlb19kYXNoaW5pdC5tcDQVAALIARIAFQIYOnBhc3N0aHJvdWdoX2V2ZXJzdG9yZS9HR2VyclJ2T1hwTnJwT3NCQU9ZV2c5WUFUSHhBYnFfRUFBQUYVAgLIARIAKAAYABsCiAd1c2Vfb2lsATEScHJvZ3Jlc3NpdmVfcmVjaXBlATEVAAAmqN3n7pa88AMVAigCQzMsF0AUIcrAgxJvGBJkYXNoX2Jhc2VsaW5lXzFfdjERAHX-B2XmnQEA&amp;_nc_gid=UX7N9kGiqNNdGFe8DDb9yQ&amp;edm=AM6HXa8EAAAA&amp;_nc_zt=28&amp;oh=00_AfdMumUm6AqtEr07YO_rW7nB19Jt5teA-FZYG6VMD_t1BQ&amp;oe=68FF0A63</t>
+          <t>https://scontent-lga3-3.cdninstagram.com/o1/v/t2/f2/m367/AQPejhsZ8Kmi0F2u-pepTg6VB2mlvTaNl5ETA_bJ7XE51YQvNAf5MxGQVHSSPBacc_t2a09vWXTgPrC_dfaCBAxRKHB6_9l_YbvxILc.mp4?_nc_cat=110&amp;_nc_sid=5e9851&amp;_nc_ht=scontent-lga3-3.cdninstagram.com&amp;_nc_ohc=_E4QDLUg738Q7kNvwFRDpmt&amp;efg=eyJ2ZW5jb2RlX3RhZyI6Inhwdl9wcm9ncmVzc2l2ZS5JTlNUQUdSQU0uQ0xJUFMuQzMuNzIwLmRhc2hfYmFzZWxpbmVfMV92MSIsInhwdl9hc3NldF9pZCI6MTA5MTc0OTM5NTg4Nzk1NiwiYXNzZXRfYWdlX2RheXMiOjM5NiwidmlfdXNlY2FzZV9pZCI6MTAwOTksImR1cmF0aW9uX3MiOjUsInVybGdlbl9zb3VyY2UiOiJ3d3cifQ%3D%3D&amp;ccb=17-1&amp;vs=65f0161c62475208&amp;_nc_vs=HBksFQIYQGlnX2VwaGVtZXJhbC8yMjRBQzcyNTgxNjQxNzE3Q0U1RDQ5RTkxQjQ0OEI4OV92aWRlb19kYXNoaW5pdC5tcDQVAALIARIAFQIYOnBhc3N0aHJvdWdoX2V2ZXJzdG9yZS9HR2VyclJ2T1hwTnJwT3NCQU9ZV2c5WUFUSHhBYnFfRUFBQUYVAgLIARIAKAAYABsCiAd1c2Vfb2lsATEScHJvZ3Jlc3NpdmVfcmVjaXBlATEVAAAmqN3n7pa88AMVAigCQzMsF0AUIcrAgxJvGBJkYXNoX2Jhc2VsaW5lXzFfdjERAHX-B2XmnQEA&amp;_nc_gid=kxIeYQe8v096bVlfjnK6og&amp;edm=AM6HXa8EAAAA&amp;_nc_zt=28&amp;oh=00_Afhmf1i9I1dW15roTzT9p9uPpWer3rgC7wX3T24Su9XAgw&amp;oe=69293A63</t>
         </is>
       </c>
       <c r="AC62" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-2.cdninstagram.com/v/t51.71878-15/506296478_1258750902521137_2780527513087410000_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0xJUFMuYmVzdF9pbWFnZV91cmxnZW4uQzMifQ%3D%3D&amp;_nc_ohc=3PrAGbPMt3EQ7kNvwFPYdpR&amp;_nc_oc=AdmbziHS0gZ6f8bCbS5HGMmk664ZT3HBf9yI7MMkycCdUMoQwWBi_kcrR0YkOpx_eoNI3XWY0aHuUIioxP3GBUWA&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-2.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=UX7N9kGiqNNdGFe8DDb9yQ&amp;oh=00_AfdxfyOGWo48cXfV1DB9KLd-JW4A20gKa5BRRo6YnwXIOA&amp;oe=68FEFF01</t>
+          <t>https://scontent-lga3-2.cdninstagram.com/v/t51.71878-15/506296478_1258750902521137_2780527513087410000_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=107&amp;ccb=7-5&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0xJUFMuYmVzdF9pbWFnZV91cmxnZW4uQzMifQ%3D%3D&amp;_nc_ohc=HCZoKNHN6roQ7kNvwH_mlZP&amp;_nc_oc=AdkroQ-PCgcuFg00k__Xe0vvVI_IxncwxspYH8MO6zzq_Cy7YuqSt9ug-hRZKC2RQUIyP0QrAanFpAzWL7YtscqD&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-2.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=kxIeYQe8v096bVlfjnK6og&amp;oh=00_Afh5eSpmSdMecl1EhhOvtrSuIGHr4gwLHR3cvyrL0R_U8g&amp;oe=69292F01</t>
         </is>
       </c>
     </row>
@@ -6698,13 +6725,13 @@
         </is>
       </c>
       <c r="M63" t="n">
-        <v>5519</v>
+        <v>5551</v>
       </c>
       <c r="N63" t="n">
         <v>0</v>
       </c>
       <c r="O63" t="n">
-        <v>3630</v>
+        <v>3642</v>
       </c>
       <c r="P63" t="inlineStr"/>
       <c r="Q63" t="n">
@@ -6732,7 +6759,7 @@
       <c r="AA63" t="inlineStr"/>
       <c r="AB63" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-2.cdninstagram.com/v/t51.29350-15/464131865_1077959940720758_2641481990828487327_n.heic?stp=dst-jpg_e35_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0FST1VTRUxfSVRFTS5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=xOgnjb9EE8AQ7kNvwEjySJ5&amp;_nc_oc=AdkCKjwbxB-dR832Ua0EJPHMVmOXPe6ijsOqgzuFy2KgyAd8BJWs3IqDQ2Hw9TlraNhv49KzJGcSmpNPb5tGpGsi&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-2.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=UX7N9kGiqNNdGFe8DDb9yQ&amp;oh=00_AffzVZpvUH2hzV8aLSKpVj2iNO_uRZYw0u6NMzw2udbzPQ&amp;oe=68FEEC42</t>
+          <t>https://scontent-lga3-2.cdninstagram.com/v/t51.29350-15/464131865_1077959940720758_2641481990828487327_n.heic?stp=dst-jpg_e35_tt6&amp;_nc_cat=105&amp;ccb=7-5&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0FST1VTRUxfSVRFTS5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=d_i_z7_DmIcQ7kNvwHHNMHC&amp;_nc_oc=AdnB04hqjra69WR9XWfqulapu_zmHbcYcJYrkoBnY9uDleyFPdzv5SpfOTjif7GJ2oc6ur0tzUK9G-rc48TYry7c&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-2.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=kxIeYQe8v096bVlfjnK6og&amp;oh=00_AfiSVIKep-zZZT5kfo1sRswqdKgAey8K7cWX1N4YSFG09A&amp;oe=69291C42</t>
         </is>
       </c>
       <c r="AC63" t="inlineStr"/>
@@ -6794,13 +6821,13 @@
         </is>
       </c>
       <c r="M64" t="n">
-        <v>2429</v>
+        <v>2474</v>
       </c>
       <c r="N64" t="n">
         <v>0</v>
       </c>
       <c r="O64" t="n">
-        <v>1396</v>
+        <v>1400</v>
       </c>
       <c r="P64" t="inlineStr"/>
       <c r="Q64" t="n">
@@ -6828,7 +6855,7 @@
       <c r="AA64" t="inlineStr"/>
       <c r="AB64" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-1.cdninstagram.com/v/t51.29350-15/463803309_351920084608789_1656989072284420870_n.heic?stp=dst-jpg_e35_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0FST1VTRUxfSVRFTS5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=eq5mdqRfdW0Q7kNvwGPFl50&amp;_nc_oc=AdmcKxpCoH7exOAM-yZnSIs9Fq3JuVSc7b_njH86myrekOQy_4Sd3renL_6CHtCjV4WhJDwmp8XRRuSC9maWELwV&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-1.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=UX7N9kGiqNNdGFe8DDb9yQ&amp;oh=00_Afe0fO7JjsxXH7faf_N-mrxPwZWuw2GQZBhX2xSG6JBMLQ&amp;oe=68FEF7F4</t>
+          <t>https://scontent-lga3-3.cdninstagram.com/v/t51.29350-15/463803309_351920084608789_1656989072284420870_n.heic?stp=dst-jpg_e35_tt6&amp;_nc_cat=108&amp;ccb=7-5&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0FST1VTRUxfSVRFTS5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=RM6wPivkoxwQ7kNvwEEs2bQ&amp;_nc_oc=AdkR6BOqHiy-hRfeHl03iGX7v9aL_P3oG997D3RzJIpI-0OB3Jk3Ljim8iybFMzhQ59Jq52Wp-nCQoj4NypI7YMZ&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-3.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=kxIeYQe8v096bVlfjnK6og&amp;oh=00_AfjfRD4Q3daKDUFeseyhzw7zh0xVPnYDFbe7Yjlm1k-ArA&amp;oe=692927F4</t>
         </is>
       </c>
       <c r="AC64" t="inlineStr"/>
@@ -6925,12 +6952,12 @@
       <c r="AA65" t="inlineStr"/>
       <c r="AB65" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-3.cdninstagram.com/o1/v/t2/f2/m367/AQOR6B7lsvqYVaCTD06WrrBE5Dl6K328oYBk6FSeI2NZDysqlAseYz81qFh7IxKLQkLItkkNrEm-3qFrzUYs8RSHO29LrRv8u0QUN9c.mp4?_nc_cat=104&amp;_nc_sid=5e9851&amp;_nc_ht=scontent-lga3-3.cdninstagram.com&amp;_nc_ohc=xLXDU-LJ00oQ7kNvwEoySEE&amp;efg=eyJ2ZW5jb2RlX3RhZyI6Inhwdl9wcm9ncmVzc2l2ZS5JTlNUQUdSQU0uQ0xJUFMuQzMuNzIwLmRhc2hfYmFzZWxpbmVfMV92MSIsInhwdl9hc3NldF9pZCI6MTYwMzkzODgzMDUxNjMyMSwiYXNzZXRfYWdlX2RheXMiOjM2OSwidmlfdXNlY2FzZV9pZCI6MTAwOTksImR1cmF0aW9uX3MiOjUsInVybGdlbl9zb3VyY2UiOiJ3d3cifQ%3D%3D&amp;ccb=17-1&amp;vs=87adadbebb63d6d7&amp;_nc_vs=HBksFQIYQGlnX2VwaGVtZXJhbC84MjQ0RDU5NjhBRjUwRDg3RTkyOTlGQkRFMTFCNUJCOF92aWRlb19kYXNoaW5pdC5tcDQVAALIARIAFQIYOnBhc3N0aHJvdWdoX2V2ZXJzdG9yZS9HUHNkcFJ1YmZwRkdPMXNFQUNIZDVINWsxUE5SYnFfRUFBQUYVAgLIARIAKAAYABsCiAd1c2Vfb2lsATEScHJvZ3Jlc3NpdmVfcmVjaXBlATEVAAAmwoHgw8Ox2QUVAigCQzMsF0AUIcrAgxJvGBJkYXNoX2Jhc2VsaW5lXzFfdjERAHX-B2XmnQEA&amp;_nc_gid=UX7N9kGiqNNdGFe8DDb9yQ&amp;edm=AM6HXa8EAAAA&amp;_nc_zt=28&amp;oh=00_Afe8xArSHTVoKpb8Ug5Dtry2bjeu7AMpKsngPOCUIBI9Rg&amp;oe=68FEE759</t>
+          <t>https://scontent-lga3-3.cdninstagram.com/o1/v/t2/f2/m367/AQOR6B7lsvqYVaCTD06WrrBE5Dl6K328oYBk6FSeI2NZDysqlAseYz81qFh7IxKLQkLItkkNrEm-3qFrzUYs8RSHO29LrRv8u0QUN9c.mp4?_nc_cat=104&amp;_nc_sid=5e9851&amp;_nc_ht=scontent-lga3-3.cdninstagram.com&amp;_nc_ohc=mjDcNZefTzwQ7kNvwHy_7CS&amp;efg=eyJ2ZW5jb2RlX3RhZyI6Inhwdl9wcm9ncmVzc2l2ZS5JTlNUQUdSQU0uQ0xJUFMuQzMuNzIwLmRhc2hfYmFzZWxpbmVfMV92MSIsInhwdl9hc3NldF9pZCI6MTYwMzkzODgzMDUxNjMyMSwiYXNzZXRfYWdlX2RheXMiOjQwMSwidmlfdXNlY2FzZV9pZCI6MTAwOTksImR1cmF0aW9uX3MiOjUsInVybGdlbl9zb3VyY2UiOiJ3d3cifQ%3D%3D&amp;ccb=17-1&amp;vs=87adadbebb63d6d7&amp;_nc_vs=HBksFQIYQGlnX2VwaGVtZXJhbC84MjQ0RDU5NjhBRjUwRDg3RTkyOTlGQkRFMTFCNUJCOF92aWRlb19kYXNoaW5pdC5tcDQVAALIARIAFQIYOnBhc3N0aHJvdWdoX2V2ZXJzdG9yZS9HUHNkcFJ1YmZwRkdPMXNFQUNIZDVINWsxUE5SYnFfRUFBQUYVAgLIARIAKAAYABsCiAd1c2Vfb2lsATEScHJvZ3Jlc3NpdmVfcmVjaXBlATEVAAAmwoHgw8Ox2QUVAigCQzMsF0AUIcrAgxJvGBJkYXNoX2Jhc2VsaW5lXzFfdjERAHX-B2XmnQEA&amp;_nc_gid=kxIeYQe8v096bVlfjnK6og&amp;edm=AM6HXa8EAAAA&amp;_nc_zt=28&amp;oh=00_Afhnt5h0u2vAltbglgiwVtQ_iH6Bhj2vIxdyp2w7otdf2A&amp;oe=69291759</t>
         </is>
       </c>
       <c r="AC65" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-1.cdninstagram.com/v/t51.71878-15/501913718_1763118177931718_367716351130909770_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0xJUFMuYmVzdF9pbWFnZV91cmxnZW4uQzMifQ%3D%3D&amp;_nc_ohc=UInL-gKc7VkQ7kNvwFGAsD_&amp;_nc_oc=Adk0MqqlMJwWQEdkSOxuqTo49PAEgyJC21KXJM88qKwBSoNwxiyMzX0FD14bifFWq4pGkd7iY3HtzZ-AP8PTfGYR&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-1.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=UX7N9kGiqNNdGFe8DDb9yQ&amp;oh=00_Afdq7RBOraX5fMTWs6tApehKX00Qjnf0KYSNsKTFf80xXA&amp;oe=68FF1545</t>
+          <t>https://scontent-lga3-1.cdninstagram.com/v/t51.71878-15/501913718_1763118177931718_367716351130909770_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=111&amp;ccb=7-5&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0xJUFMuYmVzdF9pbWFnZV91cmxnZW4uQzMifQ%3D%3D&amp;_nc_ohc=Av4N14wKeMMQ7kNvwFMcdYn&amp;_nc_oc=AdkhhU0YKJX1W3oQ4jkPYZKxomfg3Mg1mUBgpI9lue8eyBCLyo1JiKfTooyumEnUHLtJ51MxdcnPug_4K3QRH_aL&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-1.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=kxIeYQe8v096bVlfjnK6og&amp;oh=00_Afi5MQdzYpzMJkw9hxd5VNHQ6crmi2ATFYTcphczSFgq8g&amp;oe=69294545</t>
         </is>
       </c>
     </row>
@@ -6995,13 +7022,13 @@
         </is>
       </c>
       <c r="M66" t="n">
-        <v>3329</v>
+        <v>3331</v>
       </c>
       <c r="N66" t="n">
         <v>0</v>
       </c>
       <c r="O66" t="n">
-        <v>2231</v>
+        <v>2237</v>
       </c>
       <c r="P66" t="inlineStr"/>
       <c r="Q66" t="n">
@@ -7029,12 +7056,12 @@
       <c r="AA66" t="inlineStr"/>
       <c r="AB66" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-2.cdninstagram.com/o1/v/t2/f2/m86/AQMx0lMzpOg-6X259jbs3QPIe_GnXitHwh0h6eIUEbqIks0A5Gx85TKKSLhMS-ceEc2mtj4phGmka-MRiqmg3LSIDWkvEA90cCw6aps.mp4?_nc_cat=101&amp;_nc_sid=5e9851&amp;_nc_ht=scontent-lga3-2.cdninstagram.com&amp;_nc_ohc=rvRpNndhJZAQ7kNvwGYuBAK&amp;efg=eyJ2ZW5jb2RlX3RhZyI6Inhwdl9wcm9ncmVzc2l2ZS5JTlNUQUdSQU0uQ0xJUFMuQzMuMzYwLmRhc2hfYmFzZWxpbmVfM192MSIsInhwdl9hc3NldF9pZCI6Mzk1ODQwNzUwMTE0OTU4NCwiYXNzZXRfYWdlX2RheXMiOjM3MCwidmlfdXNlY2FzZV9pZCI6MTAwOTksImR1cmF0aW9uX3MiOjM4LCJ1cmxnZW5fc291cmNlIjoid3d3In0%3D&amp;ccb=17-1&amp;vs=4b2f99ed6e68fc06&amp;_nc_vs=HBksFQIYUmlnX3hwdl9yZWVsc19wZXJtYW5lbnRfc3JfcHJvZC85OTQ2Q0E1RDgzNEIwRkE3NzI3N0E4RTdFMUNFQTQ4Ql92aWRlb19kYXNoaW5pdC5tcDQVAALIARIAFQIYOnBhc3N0aHJvdWdoX2V2ZXJzdG9yZS9HQXJhbnh0aDJzUW1Qak1EQUkwZFJWbFdBUk1ZYnFfRUFBQUYVAgLIARIAKAAYABsCiAd1c2Vfb2lsATEScHJvZ3Jlc3NpdmVfcmVjaXBlATEVAAAmoNbbj9KJiA4VAigCQzMsF0BDZmZmZmZmGBJkYXNoX2Jhc2VsaW5lXzNfdjERAHX-B2XmnQEA&amp;_nc_gid=UX7N9kGiqNNdGFe8DDb9yQ&amp;edm=AM6HXa8EAAAA&amp;_nc_zt=28&amp;oh=00_AfdXi851FdjEbHT1f8UQhB1YrSjjIuPeYevK8CZn-GQ-2w&amp;oe=68FAF78E</t>
+          <t>https://scontent-lga3-2.cdninstagram.com/o1/v/t2/f2/m86/AQMx0lMzpOg-6X259jbs3QPIe_GnXitHwh0h6eIUEbqIks0A5Gx85TKKSLhMS-ceEc2mtj4phGmka-MRiqmg3LSIDWkvEA90cCw6aps.mp4?_nc_cat=101&amp;_nc_sid=5e9851&amp;_nc_ht=scontent-lga3-2.cdninstagram.com&amp;_nc_ohc=C6ob3DzetSMQ7kNvwHWmj13&amp;efg=eyJ2ZW5jb2RlX3RhZyI6Inhwdl9wcm9ncmVzc2l2ZS5JTlNUQUdSQU0uQ0xJUFMuQzMuMzYwLmRhc2hfYmFzZWxpbmVfM192MSIsInhwdl9hc3NldF9pZCI6Mzk1ODQwNzUwMTE0OTU4NCwiYXNzZXRfYWdlX2RheXMiOjQwMiwidmlfdXNlY2FzZV9pZCI6MTAwOTksImR1cmF0aW9uX3MiOjM4LCJ1cmxnZW5fc291cmNlIjoid3d3In0%3D&amp;ccb=17-1&amp;vs=4b2f99ed6e68fc06&amp;_nc_vs=HBksFQIYUmlnX3hwdl9yZWVsc19wZXJtYW5lbnRfc3JfcHJvZC85OTQ2Q0E1RDgzNEIwRkE3NzI3N0E4RTdFMUNFQTQ4Ql92aWRlb19kYXNoaW5pdC5tcDQVAALIARIAFQIYOnBhc3N0aHJvdWdoX2V2ZXJzdG9yZS9HQXJhbnh0aDJzUW1Qak1EQUkwZFJWbFdBUk1ZYnFfRUFBQUYVAgLIARIAKAAYABsCiAd1c2Vfb2lsATEScHJvZ3Jlc3NpdmVfcmVjaXBlATEVAAAmoNbbj9KJiA4VAigCQzMsF0BDZmZmZmZmGBJkYXNoX2Jhc2VsaW5lXzNfdjERAHX-B2XmnQEA&amp;_nc_gid=kxIeYQe8v096bVlfjnK6og&amp;edm=AM6HXa8EAAAA&amp;_nc_zt=28&amp;oh=00_AfgzWsnliGSEUt3suhO9evP_z8XGzJkCrbp3lYq-Pzi7bg&amp;oe=6925278E</t>
         </is>
       </c>
       <c r="AC66" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-3.cdninstagram.com/v/t51.71878-15/506416333_4180861722237493_3077235334737556520_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0xJUFMuYmVzdF9pbWFnZV91cmxnZW4uQzMifQ%3D%3D&amp;_nc_ohc=_-Wz1tRvmNMQ7kNvwGewagf&amp;_nc_oc=AdkMls93iqFdoooHClIN3EgtiAAsyivsqMdj0EddFDLY6KDzsEGIkT_-sKnK_Mw4RS8l3vrPVUv7FFjoOJkeyTtS&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-3.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=UX7N9kGiqNNdGFe8DDb9yQ&amp;oh=00_AfcJog86D7DVwflbHPGHGJb8lLXn22njuJ_cQ_O6xFTA_g&amp;oe=68FEE4AC</t>
+          <t>https://scontent-lga3-3.cdninstagram.com/v/t51.71878-15/506416333_4180861722237493_3077235334737556520_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=106&amp;ccb=7-5&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0xJUFMuYmVzdF9pbWFnZV91cmxnZW4uQzMifQ%3D%3D&amp;_nc_ohc=9H7wGb6S5cAQ7kNvwGqQgMd&amp;_nc_oc=AdmcXMY7fOA_mMfNM1SjpEqJCTQZXB_ssUIQpH2EZlYdKm4F5Bzq76J3Tw-_d2ePccgY-Ufc66JRaoM6eGKgMD_n&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-3.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=kxIeYQe8v096bVlfjnK6og&amp;oh=00_AfiqarUzyxiU18eoOOTjm_SDSiMVyVwp89EVZnEgs8TJtQ&amp;oe=692914AC</t>
         </is>
       </c>
     </row>
@@ -7094,13 +7121,13 @@
         </is>
       </c>
       <c r="M67" t="n">
-        <v>3658</v>
+        <v>3689</v>
       </c>
       <c r="N67" t="n">
         <v>0</v>
       </c>
       <c r="O67" t="n">
-        <v>2130</v>
+        <v>2132</v>
       </c>
       <c r="P67" t="inlineStr"/>
       <c r="Q67" t="n">
@@ -7128,7 +7155,7 @@
       <c r="AA67" t="inlineStr"/>
       <c r="AB67" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-3.cdninstagram.com/v/t51.29350-15/463369246_557178133658299_385240364412777647_n.heic?stp=dst-jpg_e35_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0FST1VTRUxfSVRFTS5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=SAzGuZybLWYQ7kNvwEmGM_u&amp;_nc_oc=Adn3K8ZC-G9F6d7jYVI1cubSN_8413ltLolqcz674PFIrOxCh0zEHJ1m6EgQx_pFuDDQzp_RIjNTMO0en-U46iTK&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-3.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=UX7N9kGiqNNdGFe8DDb9yQ&amp;oh=00_AfcSN5FFLQXyDl3MREnrZ_W0DA4cgx4a8aiPgoKz88UGrw&amp;oe=68FF0D88</t>
+          <t>https://scontent-lga3-3.cdninstagram.com/v/t51.29350-15/463369246_557178133658299_385240364412777647_n.heic?stp=dst-jpg_e35_tt6&amp;_nc_cat=110&amp;ccb=7-5&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0FST1VTRUxfSVRFTS5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=6jKoHyPqPIUQ7kNvwFS69EV&amp;_nc_oc=AdlG43uuru-vCepra5d3eMmH-lcYDLluto4F_HqpCxvlAEuvkQbyT47XNqI3lb7VZGPB9AKO68zE2sYf0n7KSbMA&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-3.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=kxIeYQe8v096bVlfjnK6og&amp;oh=00_AfgaUVUTmsogQzyc-rwE7wB3mJSm7lStydVEqYoTB3RzlQ&amp;oe=69293D88</t>
         </is>
       </c>
       <c r="AC67" t="inlineStr"/>
@@ -7222,12 +7249,12 @@
       <c r="AA68" t="inlineStr"/>
       <c r="AB68" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-2.cdninstagram.com/o1/v/t2/f2/m367/AQP4ZXh9woJw5z3l98LatTTqlm-95Lv7bY4ahUpZ0TdqIjUwAeEwcdBQzDYNCaEdT0CMkwOCGEsntFstHSu9gZVeO4TzU_TiDczDNRs.mp4?_nc_cat=100&amp;_nc_sid=5e9851&amp;_nc_ht=scontent-lga3-2.cdninstagram.com&amp;_nc_ohc=aHiXhXuKSt4Q7kNvwGMpf_S&amp;efg=eyJ2ZW5jb2RlX3RhZyI6Inhwdl9wcm9ncmVzc2l2ZS5JTlNUQUdSQU0uQ0xJUFMuQzMuNzIwLmRhc2hfYmFzZWxpbmVfMV92MSIsInhwdl9hc3NldF9pZCI6OTYxNzM2ODY1NzEzNzU2LCJhc3NldF9hZ2VfZGF5cyI6MzcyLCJ2aV91c2VjYXNlX2lkIjoxMDA5OSwiZHVyYXRpb25fcyI6MjEsInVybGdlbl9zb3VyY2UiOiJ3d3cifQ%3D%3D&amp;ccb=17-1&amp;vs=cddeccb9148c596&amp;_nc_vs=HBksFQIYQGlnX2VwaGVtZXJhbC9EOTQ1NzNFODYxOEFBRDcyQjYxRjA3RkMxOUVFN0FBQl92aWRlb19kYXNoaW5pdC5tcDQVAALIARIAFQIYOnBhc3N0aHJvdWdoX2V2ZXJzdG9yZS9HQm55bmhzcEJ0ZE9pVFFEQUcxaHpKV3lQVzVhYnFfRUFBQUYVAgLIARIAKAAYABsCiAd1c2Vfb2lsATEScHJvZ3Jlc3NpdmVfcmVjaXBlATEVAAAmuLn8g7qstQMVAigCQzMsF0A1EOVgQYk3GBJkYXNoX2Jhc2VsaW5lXzFfdjERAHX-B2XmnQEA&amp;_nc_gid=UX7N9kGiqNNdGFe8DDb9yQ&amp;edm=AM6HXa8EAAAA&amp;_nc_zt=28&amp;oh=00_Affgn2UnY5UUlBrtr2t-FcyUraYg3Sr2Nip-S3uN3y1GJQ&amp;oe=68FEFBE5</t>
+          <t>https://scontent-lga3-3.cdninstagram.com/o1/v/t2/f2/m86/AQPV8d1w8xL_6CkUeHFKDPz3F2UE8jXvcgWGSwRDxhziix0ylHFOPPo8-kYgL9s7Xkr1dqICuqn-tDtCWd0k-W9hqtrTNUkS88mMMyY.mp4?_nc_cat=104&amp;_nc_sid=5e9851&amp;_nc_ht=scontent-lga3-3.cdninstagram.com&amp;_nc_ohc=NAxQdZp0c-0Q7kNvwEaEUlp&amp;efg=eyJ2ZW5jb2RlX3RhZyI6Inhwdl9wcm9ncmVzc2l2ZS5JTlNUQUdSQU0uQ0xJUFMuQzMuMzYwLmRhc2hfYmFzZWxpbmVfM192MSIsInhwdl9hc3NldF9pZCI6OTYxNzM2ODY1NzEzNzU2LCJhc3NldF9hZ2VfZGF5cyI6NDA0LCJ2aV91c2VjYXNlX2lkIjoxMDA5OSwiZHVyYXRpb25fcyI6MjEsInVybGdlbl9zb3VyY2UiOiJ3d3cifQ%3D%3D&amp;ccb=17-1&amp;vs=3295cc162266cfb6&amp;_nc_vs=HBksFQIYUmlnX3hwdl9yZWVsc19wZXJtYW5lbnRfc3JfcHJvZC80NjRBRDJDQTlEODZBREIyQTJGNzFENDU5NDI3QjQ4Rl92aWRlb19kYXNoaW5pdC5tcDQVAALIARIAFQIYOnBhc3N0aHJvdWdoX2V2ZXJzdG9yZS9HQm55bmhzcEJ0ZE9pVFFEQUcxaHpKV3lQVzVhYnFfRUFBQUYVAgLIARIAKAAYABsCiAd1c2Vfb2lsATEScHJvZ3Jlc3NpdmVfcmVjaXBlATEVAAAmuLn8g7qstQMVAigCQzMsF0A1CHKwIMScGBJkYXNoX2Jhc2VsaW5lXzNfdjERAHX-B2XmnQEA&amp;_nc_gid=kxIeYQe8v096bVlfjnK6og&amp;edm=AM6HXa8EAAAA&amp;_nc_zt=28&amp;oh=00_Afg3iIKufG2-0CmXUalwGg39nGJ7GCSDas6SGFvvghRvyg&amp;oe=69252F25</t>
         </is>
       </c>
       <c r="AC68" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-2.cdninstagram.com/v/t51.71878-15/506362065_1129475722273202_5529059671215046789_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0xJUFMuYmVzdF9pbWFnZV91cmxnZW4uQzMifQ%3D%3D&amp;_nc_ohc=CHDcdnYW3HQQ7kNvwFHwS8A&amp;_nc_oc=AdmVo2cwivu_5STvzOVMvjsHHMqWZkJQz6ORdib1DVN4F7Z5cim4FhhkuWFN5lpapb9Sgojvs3YeoK5njoD4SxHs&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-2.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=UX7N9kGiqNNdGFe8DDb9yQ&amp;oh=00_AfdfM1WKb2vzQrZXs5lEXpNbULAt6HxsiIpqEkfkwkETfw&amp;oe=68FF1345</t>
+          <t>https://scontent-lga3-2.cdninstagram.com/v/t51.71878-15/506362065_1129475722273202_5529059671215046789_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=101&amp;ccb=7-5&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0xJUFMuYmVzdF9pbWFnZV91cmxnZW4uQzMifQ%3D%3D&amp;_nc_ohc=LZrVuTKqBqoQ7kNvwEFWuFO&amp;_nc_oc=AdkkuJZkA6kn4JM7aGQ-EJDCG97eNT0pjyhsJ6VRfCCsLhEj9oJO29sI0ZcPWmB8Ffhi0rUYM9LryszevLMPEfrz&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-2.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=kxIeYQe8v096bVlfjnK6og&amp;oh=00_AfgYGJw58-sL6pqNBRFo3bGu64TilxvKaxhI8gOHlMOsoA&amp;oe=69294345</t>
         </is>
       </c>
     </row>
@@ -7290,7 +7317,7 @@
         </is>
       </c>
       <c r="M69" t="n">
-        <v>1678</v>
+        <v>1679</v>
       </c>
       <c r="N69" t="n">
         <v>0</v>
@@ -7324,12 +7351,12 @@
       <c r="AA69" t="inlineStr"/>
       <c r="AB69" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-2.cdninstagram.com/o1/v/t2/f2/m86/AQO5mlMz3SQMfFQj_e9qAW1aVHy7sY9JP0Fy_sP6C5eO7qTZ7PcEMgDWo2oSj0L-NNYTdlnN-5p0YM6CtNDE0DreHYGXZr2YmsVyTIs.mp4?_nc_cat=107&amp;_nc_sid=5e9851&amp;_nc_ht=scontent-lga3-2.cdninstagram.com&amp;_nc_ohc=u6NtIxPa5eoQ7kNvwE7c2nV&amp;efg=eyJ2ZW5jb2RlX3RhZyI6Inhwdl9wcm9ncmVzc2l2ZS5JTlNUQUdSQU0uQ0xJUFMuQzMuMzYwLmRhc2hfYmFzZWxpbmVfM192MSIsInhwdl9hc3NldF9pZCI6MzMyNzk2NzI4NDAwNTgyOCwiYXNzZXRfYWdlX2RheXMiOjM3NiwidmlfdXNlY2FzZV9pZCI6MTAwOTksImR1cmF0aW9uX3MiOjQ4LCJ1cmxnZW5fc291cmNlIjoid3d3In0%3D&amp;ccb=17-1&amp;vs=567e729cb997ec82&amp;_nc_vs=HBksFQIYUmlnX3hwdl9yZWVsc19wZXJtYW5lbnRfc3JfcHJvZC83MTQyMEQzMzIzQTVEMUZGMjYxNUNEMTBDNUY5RDc4OV92aWRlb19kYXNoaW5pdC5tcDQVAALIARIAFQIYOnBhc3N0aHJvdWdoX2V2ZXJzdG9yZS9HUGFzbEJ2RDdIdjZtS3NHQUEzc0ZQRXZ1aHNlYnFfRUFBQUYVAgLIARIAKAAYABsCiAd1c2Vfb2lsATEScHJvZ3Jlc3NpdmVfcmVjaXBlATEVAAAmiK_MvJix6QsVAigCQzMsF0BIOFHrhR64GBJkYXNoX2Jhc2VsaW5lXzNfdjERAHX-B2XmnQEA&amp;_nc_gid=UX7N9kGiqNNdGFe8DDb9yQ&amp;edm=AM6HXa8EAAAA&amp;_nc_zt=28&amp;oh=00_Affupc-tilIZ-kHdb-YcC7ZeWQMsbI392zXfgYqbbt6oBA&amp;oe=68FB0D58</t>
+          <t>https://scontent-lga3-2.cdninstagram.com/o1/v/t2/f2/m86/AQO5mlMz3SQMfFQj_e9qAW1aVHy7sY9JP0Fy_sP6C5eO7qTZ7PcEMgDWo2oSj0L-NNYTdlnN-5p0YM6CtNDE0DreHYGXZr2YmsVyTIs.mp4?_nc_cat=107&amp;_nc_sid=5e9851&amp;_nc_ht=scontent-lga3-2.cdninstagram.com&amp;_nc_ohc=VPkFu66sVNwQ7kNvwEyq9EN&amp;efg=eyJ2ZW5jb2RlX3RhZyI6Inhwdl9wcm9ncmVzc2l2ZS5JTlNUQUdSQU0uQ0xJUFMuQzMuMzYwLmRhc2hfYmFzZWxpbmVfM192MSIsInhwdl9hc3NldF9pZCI6MzMyNzk2NzI4NDAwNTgyOCwiYXNzZXRfYWdlX2RheXMiOjQwOCwidmlfdXNlY2FzZV9pZCI6MTAwOTksImR1cmF0aW9uX3MiOjQ4LCJ1cmxnZW5fc291cmNlIjoid3d3In0%3D&amp;ccb=17-1&amp;vs=567e729cb997ec82&amp;_nc_vs=HBksFQIYUmlnX3hwdl9yZWVsc19wZXJtYW5lbnRfc3JfcHJvZC83MTQyMEQzMzIzQTVEMUZGMjYxNUNEMTBDNUY5RDc4OV92aWRlb19kYXNoaW5pdC5tcDQVAALIARIAFQIYOnBhc3N0aHJvdWdoX2V2ZXJzdG9yZS9HUGFzbEJ2RDdIdjZtS3NHQUEzc0ZQRXZ1aHNlYnFfRUFBQUYVAgLIARIAKAAYABsCiAd1c2Vfb2lsATEScHJvZ3Jlc3NpdmVfcmVjaXBlATEVAAAmiK_MvJix6QsVAigCQzMsF0BIOFHrhR64GBJkYXNoX2Jhc2VsaW5lXzNfdjERAHX-B2XmnQEA&amp;_nc_gid=kxIeYQe8v096bVlfjnK6og&amp;edm=AM6HXa8EAAAA&amp;_nc_zt=28&amp;oh=00_AfgjHo4xMjF-M075U-5e2QnQpraYppk3giVDsz54J04MEg&amp;oe=69253D58</t>
         </is>
       </c>
       <c r="AC69" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-2.cdninstagram.com/v/t51.71878-15/506302750_3604402649695622_4792698450872450920_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0xJUFMuYmVzdF9pbWFnZV91cmxnZW4uQzMifQ%3D%3D&amp;_nc_ohc=UeBSAzwYcrYQ7kNvwHWFFWg&amp;_nc_oc=AdnBdefFj05aWvy3N9zXylm1p1aYSzGH3YC6mHVD6p4Rsyorg2jAPnldzl2tsuSzXAxw57xoXuJT0jJ25gN-f9W5&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-2.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=UX7N9kGiqNNdGFe8DDb9yQ&amp;oh=00_Afd_Spopn3xut90YMZdcsTESm4JgaSnD2P_-LlZORAr0EQ&amp;oe=68FEF111</t>
+          <t>https://scontent-lga3-2.cdninstagram.com/v/t51.71878-15/506302750_3604402649695622_4792698450872450920_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=105&amp;ccb=7-5&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0xJUFMuYmVzdF9pbWFnZV91cmxnZW4uQzMifQ%3D%3D&amp;_nc_ohc=YXybLzfhiiwQ7kNvwHk-I0C&amp;_nc_oc=Adn1kl4sedHpP--HcNHaZC0a7jm2vy20BLg0s4SSw-YcvZ6SXl6BzU6sjMucqmVN1wDCUx5lnVwdHdLllk2jyyer&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-2.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=kxIeYQe8v096bVlfjnK6og&amp;oh=00_AfjzaS17BAakDs5EzRiD4qtAMsa_ChOgcfh9vu51YyX3aQ&amp;oe=69292111</t>
         </is>
       </c>
     </row>
@@ -7388,13 +7415,13 @@
         </is>
       </c>
       <c r="M70" t="n">
-        <v>2126</v>
+        <v>2184</v>
       </c>
       <c r="N70" t="n">
         <v>0</v>
       </c>
       <c r="O70" t="n">
-        <v>1220</v>
+        <v>1221</v>
       </c>
       <c r="P70" t="inlineStr"/>
       <c r="Q70" t="n">
@@ -7422,7 +7449,7 @@
       <c r="AA70" t="inlineStr"/>
       <c r="AB70" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-3.cdninstagram.com/v/t51.29350-15/462448332_1263598168161753_6290103634804239614_n.heic?stp=dst-jpg_e35_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0FST1VTRUxfSVRFTS5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=6xrewRtmLkAQ7kNvwGBTGRR&amp;_nc_oc=AdmiZV9C01rlMpYuTkNMgZSBSz0UxX_I6DRF6ZVKxlYksFBoD0w0DJoDBlC4Yxw4dk9ONlUPD3hcAh1N0HIdXBa-&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-3.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=UX7N9kGiqNNdGFe8DDb9yQ&amp;oh=00_AfeEbtUhz6gz8EBJI6-miW1bIkl8K99IBACHz6mO05z3Qw&amp;oe=68FEF3F3</t>
+          <t>https://scontent-lga3-3.cdninstagram.com/v/t51.29350-15/462448332_1263598168161753_6290103634804239614_n.heic?stp=dst-jpg_e35_tt6&amp;_nc_cat=110&amp;ccb=7-5&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0FST1VTRUxfSVRFTS5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=v8Qrmn8ivBkQ7kNvwGmVWY7&amp;_nc_oc=AdnPDjTHA4Nhat0VCS3OSesN6mu8DotBRNreBVZSYrJeQjOdvPi_WVIg6n_T0ej8aDu0Na5VGOSuAaQyMzTGOqOR&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-3.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=kxIeYQe8v096bVlfjnK6og&amp;oh=00_AfhEhWyChXKFv12HRw_f1Yfep8p7F1um9wJPccGA4icFrg&amp;oe=692923F3</t>
         </is>
       </c>
       <c r="AC70" t="inlineStr"/>
@@ -7482,7 +7509,7 @@
         </is>
       </c>
       <c r="M71" t="n">
-        <v>1685</v>
+        <v>1686</v>
       </c>
       <c r="N71" t="n">
         <v>0</v>
@@ -7516,12 +7543,12 @@
       <c r="AA71" t="inlineStr"/>
       <c r="AB71" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-3.cdninstagram.com/o1/v/t2/f2/m367/AQPsf2iDUBL790CEdba0BvRh9ZFzuDNFC-jmcPrQykmZgoKnUUZmZhsToQwKo-CbPmnEUr72jLBaR7bnPna0QzU6zwbHcX9CCeEoTZs.mp4?_nc_cat=104&amp;_nc_sid=5e9851&amp;_nc_ht=scontent-lga3-3.cdninstagram.com&amp;_nc_ohc=fJuLNmk2vgYQ7kNvwECt0LH&amp;efg=eyJ2ZW5jb2RlX3RhZyI6Inhwdl9wcm9ncmVzc2l2ZS5JTlNUQUdSQU0uQ0xJUFMuQzMuNzIwLmRhc2hfYmFzZWxpbmVfMV92MSIsInhwdl9hc3NldF9pZCI6MTA2MTI5ODYyMjMxMzAwNiwiYXNzZXRfYWdlX2RheXMiOjM4MiwidmlfdXNlY2FzZV9pZCI6MTAwOTksImR1cmF0aW9uX3MiOjEwLCJ1cmxnZW5fc291cmNlIjoid3d3In0%3D&amp;ccb=17-1&amp;vs=aaddce3582a0087c&amp;_nc_vs=HBksFQIYQGlnX2VwaGVtZXJhbC80NDRERDUyMENBQTU5RjdGRjZFMDI2MUJDQUEyOTRCQl92aWRlb19kYXNoaW5pdC5tcDQVAALIARIAFQIYOnBhc3N0aHJvdWdoX2V2ZXJzdG9yZS9HRGtLakJ2N1lMOW0weDhkQUdhN3ZfYi1veE1kYnFfRUFBQUYVAgLIARIAKAAYABsCiAd1c2Vfb2lsATEScHJvZ3Jlc3NpdmVfcmVjaXBlATEVAAAm3MiR9trP4gMVAigCQzMsF0AlZmZmZmZmGBJkYXNoX2Jhc2VsaW5lXzFfdjERAHX-B2XmnQEA&amp;_nc_gid=UX7N9kGiqNNdGFe8DDb9yQ&amp;edm=AM6HXa8EAAAA&amp;_nc_zt=28&amp;oh=00_AfdbLs0R1I0-2Xzh5n1i0ha2hfRTL1xu4q7rOaVipc1LTw&amp;oe=68FEE855</t>
+          <t>https://scontent-lga3-1.cdninstagram.com/o1/v/t2/f2/m86/AQMwsAu3NIU169icSIt46G8fJmXjfIoT6CBCrY1zQmutV4lk0StENtCnBiD_WwmWilsROYP9_rR8rjx5E6VAPLx6636-lNfDKVZn0Yg.mp4?_nc_cat=103&amp;_nc_sid=5e9851&amp;_nc_ht=scontent-lga3-1.cdninstagram.com&amp;_nc_ohc=4Jkh6dldxWIQ7kNvwGZrBut&amp;efg=eyJ2ZW5jb2RlX3RhZyI6Inhwdl9wcm9ncmVzc2l2ZS5JTlNUQUdSQU0uQ0xJUFMuQzMuMzYwLmRhc2hfYmFzZWxpbmVfM192MSIsInhwdl9hc3NldF9pZCI6MTA2MTI5ODYyMjMxMzAwNiwiYXNzZXRfYWdlX2RheXMiOjQxNCwidmlfdXNlY2FzZV9pZCI6MTAwOTksImR1cmF0aW9uX3MiOjEwLCJ1cmxnZW5fc291cmNlIjoid3d3In0%3D&amp;ccb=17-1&amp;vs=d3af11527b19f279&amp;_nc_vs=HBksFQIYUmlnX3hwdl9yZWVsc19wZXJtYW5lbnRfc3JfcHJvZC8wMzQwNDFBRjVBNEEzMDUyRkVGNkFCN0I4M0Q4NjdBQl92aWRlb19kYXNoaW5pdC5tcDQVAALIARIAFQIYOnBhc3N0aHJvdWdoX2V2ZXJzdG9yZS9HRGtLakJ2N1lMOW0weDhkQUdhN3ZfYi1veE1kYnFfRUFBQUYVAgLIARIAKAAYABsCiAd1c2Vfb2lsATEScHJvZ3Jlc3NpdmVfcmVjaXBlATEVAAAm3MiR9trP4gMVAigCQzMsF0AlVP3ztkWiGBJkYXNoX2Jhc2VsaW5lXzNfdjERAHX-B2XmnQEA&amp;_nc_gid=kxIeYQe8v096bVlfjnK6og&amp;edm=AM6HXa8EAAAA&amp;_nc_zt=28&amp;oh=00_Afjyjr-gm529qLevCHjMcZo0ubW1JXr0OHyqrSD6NbuC9g&amp;oe=69253A34</t>
         </is>
       </c>
       <c r="AC71" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-3.cdninstagram.com/v/t51.71878-15/504486925_1242010967575103_992953247929418126_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0xJUFMuYmVzdF9pbWFnZV91cmxnZW4uQzMifQ%3D%3D&amp;_nc_ohc=QmoIQJkJ5dUQ7kNvwF_UCIe&amp;_nc_oc=Adnctf88I0HOdtKyePymyFJ_0UaGfjnCVhxjvU34DbwBFehTUIGCCmn2AQZAqmqu9zslbrDwLM7TZ0OccUvfj5aF&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-3.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=UX7N9kGiqNNdGFe8DDb9yQ&amp;oh=00_AfeQuXd9O-N1v_3qPQXH2k1SqYzgx72bT267UmriJGJ6bQ&amp;oe=68FF1756</t>
+          <t>https://scontent-lga3-3.cdninstagram.com/v/t51.71878-15/504486925_1242010967575103_992953247929418126_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=104&amp;ccb=7-5&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0xJUFMuYmVzdF9pbWFnZV91cmxnZW4uQzMifQ%3D%3D&amp;_nc_ohc=9JzPgVkJPbMQ7kNvwFeXM0W&amp;_nc_oc=Adnzt8ttwnuG4xe5PX10QD0e7jji9RUM94deI9-ENDOO5IQGGyFRkzdVnU3JmjOmOGLKVI6zc7xrq7uGwfYX4fsg&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-3.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=kxIeYQe8v096bVlfjnK6og&amp;oh=00_Afj3uOL5MGxW0m0hwkmtw6x3PgHOc-01nPDkt6BWwQ7rRg&amp;oe=69294756</t>
         </is>
       </c>
     </row>
@@ -7585,13 +7612,13 @@
         </is>
       </c>
       <c r="M72" t="n">
-        <v>2164</v>
+        <v>2187</v>
       </c>
       <c r="N72" t="n">
         <v>0</v>
       </c>
       <c r="O72" t="n">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="P72" t="inlineStr"/>
       <c r="Q72" t="n">
@@ -7619,7 +7646,7 @@
       <c r="AA72" t="inlineStr"/>
       <c r="AB72" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-1.cdninstagram.com/v/t51.29350-15/461922641_1054708332777981_7051615651583207981_n.heic?stp=dst-jpg_e35_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0FST1VTRUxfSVRFTS5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=bE7kXJVwiGIQ7kNvwHl0rm3&amp;_nc_oc=AdnOTX9MeuBD7QWmsJKwywhQfSKXUQuxgCT_ZDqcgr7ZmFPB5iW8_X3d6hMBcEo5rMJMBGPkHV6jHqjgpC2TFnFg&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-1.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=UX7N9kGiqNNdGFe8DDb9yQ&amp;oh=00_AfcWU6FB2D2JGJj1fI3VY_hQnWsIxpc0e-qT9gob5DGoJA&amp;oe=68FF0A5E</t>
+          <t>https://scontent-lga3-3.cdninstagram.com/v/t51.29350-15/461922641_1054708332777981_7051615651583207981_n.heic?stp=dst-jpg_e35_tt6&amp;_nc_cat=108&amp;ccb=7-5&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0FST1VTRUxfSVRFTS5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=jSQ7TQmHl4EQ7kNvwHpRdn7&amp;_nc_oc=AdkeZFxfUkZh6WTqCilzK1QrqRbBNcWCQ0L0K1oxm0euF0H0tzzNhBejxW05vFAIEHIyShGB6g_94jZ8oUXbTU2C&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-3.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=kxIeYQe8v096bVlfjnK6og&amp;oh=00_AfiL1309h3vuP3bei-UO5BTv3lm1cI5BOHV34QtZTHOryQ&amp;oe=69293A5E</t>
         </is>
       </c>
       <c r="AC72" t="inlineStr"/>
@@ -7680,13 +7707,13 @@
         </is>
       </c>
       <c r="M73" t="n">
-        <v>2334</v>
+        <v>2343</v>
       </c>
       <c r="N73" t="n">
         <v>0</v>
       </c>
       <c r="O73" t="n">
-        <v>1458</v>
+        <v>1462</v>
       </c>
       <c r="P73" t="inlineStr"/>
       <c r="Q73" t="n">
@@ -7714,12 +7741,12 @@
       <c r="AA73" t="inlineStr"/>
       <c r="AB73" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-3.cdninstagram.com/o1/v/t2/f2/m367/AQOjn358sIWMSPsjalK5Ejzq5YgFHbZaFYy_GhdZa3YRlctd49yWWOsZc0UaVfKzjA_N8dHE4vMpgqBlKIz1NtnVUyz_zdqIRSabcro.mp4?_nc_cat=104&amp;_nc_sid=5e9851&amp;_nc_ht=scontent-lga3-3.cdninstagram.com&amp;_nc_ohc=EI_bHQpyyGUQ7kNvwHMN6_m&amp;efg=eyJ2ZW5jb2RlX3RhZyI6Inhwdl9wcm9ncmVzc2l2ZS5JTlNUQUdSQU0uQ0xJUFMuQzMuNzIwLmRhc2hfYmFzZWxpbmVfMV92MSIsInhwdl9hc3NldF9pZCI6MTA5MTg5MzA3MjMyNzE4NiwiYXNzZXRfYWdlX2RheXMiOjM5MSwidmlfdXNlY2FzZV9pZCI6MTAwOTksImR1cmF0aW9uX3MiOjI2LCJ1cmxnZW5fc291cmNlIjoid3d3In0%3D&amp;ccb=17-1&amp;vs=186281193a6cf242&amp;_nc_vs=HBksFQIYQGlnX2VwaGVtZXJhbC80OTQxRDc3MjFFMTMyNjA1MzRENUZBRkFFOEQ1NDk4Ql92aWRlb19kYXNoaW5pdC5tcDQVAALIARIAFQIYOnBhc3N0aHJvdWdoX2V2ZXJzdG9yZS9HSVFQZmh0bWx1TzZGVEVCQUxjLTFrT2V2eko5YnFfRUFBQUYVAgLIARIAKAAYABsCiAd1c2Vfb2lsATEScHJvZ3Jlc3NpdmVfcmVjaXBlATEVAAAmpMirq8XE8AMVAigCQzMsF0A6O6XjU_fPGBJkYXNoX2Jhc2VsaW5lXzFfdjERAHX-B2XmnQEA&amp;_nc_gid=UX7N9kGiqNNdGFe8DDb9yQ&amp;edm=AM6HXa8EAAAA&amp;_nc_zt=28&amp;oh=00_Afc3dSSTGQC-FCzN3jI8Z7lSXH9KiYeCJEnzFrJdN7A8Lw&amp;oe=68FEF4F5</t>
+          <t>https://scontent-lga3-3.cdninstagram.com/o1/v/t2/f2/m367/AQNfOTBliZ_4d2GD46q1IryxJK8-QD9QGVNT1vLR4f5xlLg9U4z_zbK7AFnH5FrilFmBsPV0s_GXXhuQtz2__05KSB46n90rS-rWICE.mp4?_nc_cat=110&amp;_nc_sid=5e9851&amp;_nc_ht=scontent-lga3-3.cdninstagram.com&amp;_nc_ohc=xNEzAufayUAQ7kNvwHuuo9P&amp;efg=eyJ2ZW5jb2RlX3RhZyI6Inhwdl9wcm9ncmVzc2l2ZS5JTlNUQUdSQU0uQ0xJUFMuQzMuNzIwLmRhc2hfYmFzZWxpbmVfMV92MSIsInhwdl9hc3NldF9pZCI6MTA5MTg5MzA3MjMyNzE4NiwiYXNzZXRfYWdlX2RheXMiOjQyMywidmlfdXNlY2FzZV9pZCI6MTAwOTksImR1cmF0aW9uX3MiOjI2LCJ1cmxnZW5fc291cmNlIjoid3d3In0%3D&amp;ccb=17-1&amp;vs=358c5bed6e3e947f&amp;_nc_vs=HBksFQIYQGlnX2VwaGVtZXJhbC9DMDQwNjYzNjgzMzc2N0U0RUNERDJERjFDNEE1RUU4RV92aWRlb19kYXNoaW5pdC5tcDQVAALIARIAFQIYOnBhc3N0aHJvdWdoX2V2ZXJzdG9yZS9HSVFQZmh0bWx1TzZGVEVCQUxjLTFrT2V2eko5YnFfRUFBQUYVAgLIARIAKAAYABsCiAd1c2Vfb2lsATEScHJvZ3Jlc3NpdmVfcmVjaXBlATEVAAAmpMirq8XE8AMVAigCQzMsF0A6O6XjU_fPGBJkYXNoX2Jhc2VsaW5lXzFfdjERAHX-B2XmnQEA&amp;_nc_gid=kxIeYQe8v096bVlfjnK6og&amp;edm=AM6HXa8EAAAA&amp;_nc_zt=28&amp;oh=00_AfgNDlQxyddm5vAk22snj--l6axzRaXn9wbTmQ2ZniTQMg&amp;oe=6929365F</t>
         </is>
       </c>
       <c r="AC73" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-1.cdninstagram.com/v/t51.71878-15/505749733_1272993924217099_2649766839857230663_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0xJUFMuYmVzdF9pbWFnZV91cmxnZW4uQzMifQ%3D%3D&amp;_nc_ohc=oyz0WcrE9X4Q7kNvwHvVMiy&amp;_nc_oc=AdmaJWA6AovWox47LbNJ6mChPaLI1dB4eOcmkyPN6Vwu0qVI5LE5LmhGAf5uivvr8CgxS_EbjKdtdDsmhE6haKm7&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-1.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=UX7N9kGiqNNdGFe8DDb9yQ&amp;oh=00_AfcXfqwHi4koqleiA1qY9x5GOH1wo3L64LXH1CapiOs0mg&amp;oe=68FEF0BC</t>
+          <t>https://scontent-lga3-1.cdninstagram.com/v/t51.71878-15/505749733_1272993924217099_2649766839857230663_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=103&amp;ccb=7-5&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0xJUFMuYmVzdF9pbWFnZV91cmxnZW4uQzMifQ%3D%3D&amp;_nc_ohc=qDzqeF87PZAQ7kNvwHbteFI&amp;_nc_oc=Adk1-QbBCde2qQoqMk-mPZERsbKGk74qfFMIYFDCTVfN_WJEhLS5rCNeLZ6QEau0ucawKuOhqAS-_1m7acODllXw&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-1.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=kxIeYQe8v096bVlfjnK6og&amp;oh=00_AfiazK8r7VzhkAm-uLIf7047osb07XFuEBx-ye7c-4p4sw&amp;oe=692920BC</t>
         </is>
       </c>
     </row>
@@ -7783,7 +7810,7 @@
         </is>
       </c>
       <c r="M74" t="n">
-        <v>2299</v>
+        <v>2350</v>
       </c>
       <c r="N74" t="n">
         <v>0</v>
@@ -7817,7 +7844,7 @@
       <c r="AA74" t="inlineStr"/>
       <c r="AB74" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-2.cdninstagram.com/v/t51.29350-15/461317947_2980098835466093_3036733352659525189_n.heic?stp=dst-jpg_e35_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0FST1VTRUxfSVRFTS5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=iu336I1Y6gcQ7kNvwHP5L2m&amp;_nc_oc=AdkZ1R-XqUrEHd0Zj-vy6kZa1KiTn84OugZeLkTWFOsiNWeWmj0uVvolkpeXYTaleM2_ZYJL2TWJelqgDaL5y-MX&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-2.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=UX7N9kGiqNNdGFe8DDb9yQ&amp;oh=00_Afec4MHvBRpIfjPBr9KfHsFBE88aYpoct3CwBNvjNmIs6A&amp;oe=68FEFDA8</t>
+          <t>https://scontent-lga3-2.cdninstagram.com/v/t51.29350-15/461317947_2980098835466093_3036733352659525189_n.heic?stp=dst-jpg_e35_tt6&amp;_nc_cat=100&amp;ccb=7-5&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0FST1VTRUxfSVRFTS5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=iKQHPRxPrCEQ7kNvwFkcEEv&amp;_nc_oc=AdlvTsxoVDs6CWfenQsMHk_zpmHzQsC7N8B4WQcbcQb602MFWM42_G14C88p6eAApT4m8DiNPr9SJJ5dYoa3mbGm&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-2.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=kxIeYQe8v096bVlfjnK6og&amp;oh=00_Afj2DHyma0eNvbD5l4rUscTiG6PIRLg4VfTh-hezUASoRw&amp;oe=69292DA8</t>
         </is>
       </c>
       <c r="AC74" t="inlineStr"/>
@@ -7877,7 +7904,7 @@
         </is>
       </c>
       <c r="M75" t="n">
-        <v>2148</v>
+        <v>2151</v>
       </c>
       <c r="N75" t="n">
         <v>0</v>
@@ -7911,12 +7938,12 @@
       <c r="AA75" t="inlineStr"/>
       <c r="AB75" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-3.cdninstagram.com/o1/v/t2/f2/m367/AQMzcK46YyxdjYl2Av34Cwzv2NSMNrpW1RxoJRs3o54Oup3XuQzpvVua7Y2Poz1hZWGmm2PmC2nhwWwV8Kji6oGmhEky1GsTI89I0e0.mp4?_nc_cat=104&amp;_nc_sid=5e9851&amp;_nc_ht=scontent-lga3-3.cdninstagram.com&amp;_nc_ohc=Nxomsb_V0VcQ7kNvwE7k0UX&amp;efg=eyJ2ZW5jb2RlX3RhZyI6Inhwdl9wcm9ncmVzc2l2ZS5JTlNUQUdSQU0uQ0xJUFMuQzMuNzIwLmRhc2hfYmFzZWxpbmVfMV92MSIsInhwdl9hc3NldF9pZCI6ODIzODM1MTg2Mjk0NDkwNywiYXNzZXRfYWdlX2RheXMiOjM5NCwidmlfdXNlY2FzZV9pZCI6MTAwOTksImR1cmF0aW9uX3MiOjEwLCJ1cmxnZW5fc291cmNlIjoid3d3In0%3D&amp;ccb=17-1&amp;vs=14fd5499d325f433&amp;_nc_vs=HBksFQIYQGlnX2VwaGVtZXJhbC9CQzQ2QUZCQUQyM0UwQUUxQjNFMkM5OEQ3NUEzMDg4N192aWRlb19kYXNoaW5pdC5tcDQVAALIARIAFQIYOnBhc3N0aHJvdWdoX2V2ZXJzdG9yZS9HTUVpZVJ0THhBV1dsUEVCQUhVQW5vRTdSbGNJYnFfRUFBQUYVAgLIARIAKAAYABsCiAd1c2Vfb2lsATEScHJvZ3Jlc3NpdmVfcmVjaXBlATEVAAAmltKaxZivoh0VAigCQzMsF0Ald0vGp--eGBJkYXNoX2Jhc2VsaW5lXzFfdjERAHX-B2XmnQEA&amp;_nc_gid=UX7N9kGiqNNdGFe8DDb9yQ&amp;edm=AM6HXa8EAAAA&amp;_nc_zt=28&amp;oh=00_AfeNTdMx1XfH6XKrQphGpPlUYLv_fh3JxIqtNFrm1KMyhQ&amp;oe=68FEE891</t>
+          <t>https://scontent-lga3-1.cdninstagram.com/o1/v/t2/f2/m367/AQMD-Vku-cmoa7PR0qHKdjBMHn1PHd7Vbb1deiSVa8Zu6Vd1MqiZgPrAey76LsMhrNZwODR4eViJpbY-g1jI0DvAvORZAsbx0DELAFc.mp4?_nc_cat=102&amp;_nc_sid=5e9851&amp;_nc_ht=scontent-lga3-1.cdninstagram.com&amp;_nc_ohc=wGXlVvhaVUUQ7kNvwEMeg4O&amp;efg=eyJ2ZW5jb2RlX3RhZyI6Inhwdl9wcm9ncmVzc2l2ZS5JTlNUQUdSQU0uQ0xJUFMuQzMuNzIwLmRhc2hfYmFzZWxpbmVfMV92MSIsInhwdl9hc3NldF9pZCI6ODIzODM1MTg2Mjk0NDkwNywiYXNzZXRfYWdlX2RheXMiOjQyNiwidmlfdXNlY2FzZV9pZCI6MTAwOTksImR1cmF0aW9uX3MiOjEwLCJ1cmxnZW5fc291cmNlIjoid3d3In0%3D&amp;ccb=17-1&amp;vs=8b80db5348d0a29b&amp;_nc_vs=HBksFQIYQGlnX2VwaGVtZXJhbC8xQjRGODA4NkJENjNBRDJBMjJGOUJEOTVGMzNGNkRCRF92aWRlb19kYXNoaW5pdC5tcDQVAALIARIAFQIYOnBhc3N0aHJvdWdoX2V2ZXJzdG9yZS9HTUVpZVJ0THhBV1dsUEVCQUhVQW5vRTdSbGNJYnFfRUFBQUYVAgLIARIAKAAYABsCiAd1c2Vfb2lsATEScHJvZ3Jlc3NpdmVfcmVjaXBlATEVAAAmltKaxZivoh0VAigCQzMsF0Ald0vGp--eGBJkYXNoX2Jhc2VsaW5lXzFfdjERAHX-B2XmnQEA&amp;_nc_gid=kxIeYQe8v096bVlfjnK6og&amp;edm=AM6HXa8EAAAA&amp;_nc_zt=28&amp;oh=00_AfjflbyiwyR8o0TGythPaXCYsdEc6r2NNkiPHM_PONET6A&amp;oe=6929497B</t>
         </is>
       </c>
       <c r="AC75" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-1.cdninstagram.com/v/t51.71878-15/506288227_10003232976456778_754440701550211593_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0xJUFMuYmVzdF9pbWFnZV91cmxnZW4uQzMifQ%3D%3D&amp;_nc_ohc=mOef6C9nnd4Q7kNvwEWLb-P&amp;_nc_oc=Admk7qtv114tVl9vqEhrMI-8zj9a9WBgZbo7_yhsNgR98HHi_Jp2Y0IuCViEQpU15f0xd1Vu_mMYkgAzC8IzHGmp&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-1.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=UX7N9kGiqNNdGFe8DDb9yQ&amp;oh=00_Afdqvp6K7VT_3kotKZ-eX3rPohIO8XQ0yT1RqLxa5YdPZQ&amp;oe=68FEFA93</t>
+          <t>https://scontent-lga3-1.cdninstagram.com/v/t51.71878-15/506288227_10003232976456778_754440701550211593_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=102&amp;ccb=7-5&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0xJUFMuYmVzdF9pbWFnZV91cmxnZW4uQzMifQ%3D%3D&amp;_nc_ohc=KSxytNIn1S4Q7kNvwEAUmwL&amp;_nc_oc=AdkgEkRSy9JmRyWcZYGi2_a4djB8cKbX_p1oS7zh9e6WxeKAzDPiVoN4s7n2n5eQfk6AbuKF4i7H9sh9s_3fM_dc&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-1.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=kxIeYQe8v096bVlfjnK6og&amp;oh=00_Afis896zP8R3Peq0nb3iEHnmOjDgsHuxOFGRnhE64iEuhw&amp;oe=69292A93</t>
         </is>
       </c>
     </row>
@@ -7979,13 +8006,13 @@
         </is>
       </c>
       <c r="M76" t="n">
-        <v>3475</v>
+        <v>3504</v>
       </c>
       <c r="N76" t="n">
         <v>0</v>
       </c>
       <c r="O76" t="n">
-        <v>2427</v>
+        <v>2431</v>
       </c>
       <c r="P76" t="inlineStr"/>
       <c r="Q76" t="n">
@@ -8013,7 +8040,7 @@
       <c r="AA76" t="inlineStr"/>
       <c r="AB76" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-3.cdninstagram.com/v/t51.29350-15/460353912_1593912951231628_4582703277763067756_n.heic?stp=dst-jpg_e35_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiRkVFRC5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=F8bUk371dKgQ7kNvwEdh9ca&amp;_nc_oc=AdlDmIFkstOuH1IMZuw-LdJOXUPsi-suj6LHCGX73JzfMvWu5vdE4tWMotor1v7j_Q4SSnnuKBR0e9nbr6EMCXIN&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-3.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=UX7N9kGiqNNdGFe8DDb9yQ&amp;oh=00_Affyu9dCw2J4A1WQ-zr5XcphraBKmDXG-ffiE0xyWNNIMA&amp;oe=68FF0CE6</t>
+          <t>https://scontent-lga3-3.cdninstagram.com/v/t51.29350-15/460353912_1593912951231628_4582703277763067756_n.heic?stp=dst-jpg_e35_tt6&amp;_nc_cat=110&amp;ccb=7-5&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiRkVFRC5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=cFgPHiY2_QYQ7kNvwE7P9W7&amp;_nc_oc=AdlcxMjnjTZ3OG4BzyVrwnV4VFYcoxRMDERxgdlOs01fRtjZnWn1m2HZshHmHDovrIjTWvLxBm5vfte1oxb5S7HM&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-3.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=kxIeYQe8v096bVlfjnK6og&amp;oh=00_AfjwRH_JYO9YLpwmFO7C8EBJVlXfupA8DHwa-r5dEGHbsQ&amp;oe=69293CE6</t>
         </is>
       </c>
       <c r="AC76" t="inlineStr"/>
@@ -8073,13 +8100,13 @@
         </is>
       </c>
       <c r="M77" t="n">
-        <v>2205</v>
+        <v>2262</v>
       </c>
       <c r="N77" t="n">
         <v>0</v>
       </c>
       <c r="O77" t="n">
-        <v>1305</v>
+        <v>1307</v>
       </c>
       <c r="P77" t="inlineStr"/>
       <c r="Q77" t="n">
@@ -8107,7 +8134,7 @@
       <c r="AA77" t="inlineStr"/>
       <c r="AB77" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-1.cdninstagram.com/v/t51.29350-15/459034075_822965586574328_3510133125186511373_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiRkVFRC5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=l90yVAswytsQ7kNvwH5Rx0_&amp;_nc_oc=Adlk-S81y4dRxHDiRTu3nD6SnV9xh8kHaleidTYE1IfTAxbQPgVQqjZ4lDdiGhh_sLFshu5ttgOYNxLBnMoDATrw&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-1.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=UX7N9kGiqNNdGFe8DDb9yQ&amp;oh=00_AfcsfRpUhq3WCEYamVFh5b3DS6tZ_bd1iS-IJ3EFb7H90w&amp;oe=68FF0DC4</t>
+          <t>https://scontent-lga3-1.cdninstagram.com/v/t51.29350-15/459034075_822965586574328_3510133125186511373_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=103&amp;ccb=7-5&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiRkVFRC5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=pmW8KAwKvywQ7kNvwEclZqb&amp;_nc_oc=AdkeZcvwRU9IS4Enk0To-WJei1zkXowx9RQ2kQqZHL8oyX3mJ2qGBhWPTXQ2Llz5cfk1WCYOBhL3ySv9E8vE_cCb&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-1.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=kxIeYQe8v096bVlfjnK6og&amp;oh=00_Afh3TlenoquTKgN0pQbhhyObpJNIzAPwkQu9C7NoifmBWw&amp;oe=69293DC4</t>
         </is>
       </c>
       <c r="AC77" t="inlineStr"/>
@@ -8167,7 +8194,7 @@
         </is>
       </c>
       <c r="M78" t="n">
-        <v>4666</v>
+        <v>4697</v>
       </c>
       <c r="N78" t="n">
         <v>0</v>
@@ -8201,7 +8228,7 @@
       <c r="AA78" t="inlineStr"/>
       <c r="AB78" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-2.cdninstagram.com/v/t51.29350-15/458490107_1699286980844653_3150828503575553809_n.heic?stp=dst-jpg_e35_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiRkVFRC5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=-8jrGXcEYxgQ7kNvwFuJsUq&amp;_nc_oc=Adlweg-bF9R3DjltdySt0u8D_TXZHLHxk06IxZtWEOl6nFiq4Q2yQJ5nPIyt_Z5ollWzVQ9JTzchOUuQ6k-Ds68S&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-2.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=UX7N9kGiqNNdGFe8DDb9yQ&amp;oh=00_Afczz2l2MIN2Bn2LqEmjb-fuDEkytGtS8A4vLH471HxbIA&amp;oe=68FEEF41</t>
+          <t>https://scontent-lga3-2.cdninstagram.com/v/t51.29350-15/458490107_1699286980844653_3150828503575553809_n.heic?stp=dst-jpg_e35_tt6&amp;_nc_cat=100&amp;ccb=7-5&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiRkVFRC5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=AYr_lGpTI54Q7kNvwF0C42t&amp;_nc_oc=AdkoIJbnauzYo8ocAgjm4tuT_kNnk4WK6Gx97QD-SI-4BcpoFzHoHes4mkoW60OPiC_NHL-NZk46Q6fpIxmEqhw3&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-2.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=kxIeYQe8v096bVlfjnK6og&amp;oh=00_AfhCTNvP85TZiXB0ALqeQ2A0q_ygmvaAO6ODJkX3R_XxBg&amp;oe=69291F41</t>
         </is>
       </c>
       <c r="AC78" t="inlineStr"/>
@@ -8262,13 +8289,13 @@
         </is>
       </c>
       <c r="M79" t="n">
-        <v>1654</v>
+        <v>1681</v>
       </c>
       <c r="N79" t="n">
         <v>0</v>
       </c>
       <c r="O79" t="n">
-        <v>854</v>
+        <v>857</v>
       </c>
       <c r="P79" t="inlineStr"/>
       <c r="Q79" t="n">
@@ -8296,7 +8323,7 @@
       <c r="AA79" t="inlineStr"/>
       <c r="AB79" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-3.cdninstagram.com/v/t51.29350-15/457880072_809610587858827_6187316265015629664_n.heic?stp=dst-jpg_e35_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0FST1VTRUxfSVRFTS5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=Kd6mtIPcZY8Q7kNvwF3I7dQ&amp;_nc_oc=Admk5PCFjZaxLs9IXpJ0MciETx8lNte9ThQ0WmCJERPB77iVRNMlQYLS5n2YCxjHB7lxtc0F8hD5bwvsh_q9K7-c&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-3.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=UX7N9kGiqNNdGFe8DDb9yQ&amp;oh=00_Afet4yHUq_CPsGWmmEnk9YTlPUzNnK-kDgW3F_wbmliavg&amp;oe=68FF06EB</t>
+          <t>https://scontent-lga3-3.cdninstagram.com/v/t51.29350-15/457880072_809610587858827_6187316265015629664_n.heic?stp=dst-jpg_e35_tt6&amp;_nc_cat=104&amp;ccb=7-5&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0FST1VTRUxfSVRFTS5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=rHGrOMwhVAgQ7kNvwE78ZO-&amp;_nc_oc=Adn12VOYNiF2tHtssKlkV4bbyW9XCAHqIOyQLls4ZOUPWydl7DaK13WzbDBpIAVUsVTCK3FhsSanLwDPCs-hQPfk&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-3.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=kxIeYQe8v096bVlfjnK6og&amp;oh=00_AfhKhiKMLqXXQ9Jbfy2ioc_ni0U_U-FpBCDLiFmkS6WzoQ&amp;oe=692936EB</t>
         </is>
       </c>
       <c r="AC79" t="inlineStr"/>
@@ -8357,13 +8384,13 @@
         </is>
       </c>
       <c r="M80" t="n">
-        <v>1549</v>
+        <v>1582</v>
       </c>
       <c r="N80" t="n">
         <v>0</v>
       </c>
       <c r="O80" t="n">
-        <v>950</v>
+        <v>956</v>
       </c>
       <c r="P80" t="inlineStr"/>
       <c r="Q80" t="n">
@@ -8391,7 +8418,7 @@
       <c r="AA80" t="inlineStr"/>
       <c r="AB80" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-1.cdninstagram.com/v/t51.29350-15/457673795_521552413739855_3570505663933371774_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0FST1VTRUxfSVRFTS5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=lLGm1tvRwl0Q7kNvwGl7fJl&amp;_nc_oc=Adm5Fjs8EMSDQlhdetqTe5C22Yl4pxnMnxt4qNiYw3pXyNJHkJpYPcs3YP3fp3PqsfmQfdazkoihQH88NUSAQPol&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-1.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=UX7N9kGiqNNdGFe8DDb9yQ&amp;oh=00_AffKC_KQ8q9YAUU7IkCsEzqMEzrLTxxBH9LJK4W5HT4olw&amp;oe=68FEF23C</t>
+          <t>https://scontent-lga3-1.cdninstagram.com/v/t51.29350-15/457673795_521552413739855_3570505663933371774_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=102&amp;ccb=7-5&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0FST1VTRUxfSVRFTS5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=PAODKCQt5VcQ7kNvwGcE3n4&amp;_nc_oc=AdkRYtXQsOXbAiZnJerXY1iQDcP378NeRPqUW57lqV_zHYiASuO0OGDmiQslRtKlatC-U_AKJ-iTjeUzTpmdyfIA&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-1.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=kxIeYQe8v096bVlfjnK6og&amp;oh=00_AfiEI_aM4vI3v82rpzbd9NFdYnKBPhzX4y6I_BkC-G4zZg&amp;oe=6929223C</t>
         </is>
       </c>
       <c r="AC80" t="inlineStr"/>
@@ -8453,13 +8480,13 @@
         </is>
       </c>
       <c r="M81" t="n">
-        <v>7690</v>
+        <v>7771</v>
       </c>
       <c r="N81" t="n">
         <v>0</v>
       </c>
       <c r="O81" t="n">
-        <v>5413</v>
+        <v>5418</v>
       </c>
       <c r="P81" t="inlineStr"/>
       <c r="Q81" t="n">
@@ -8487,7 +8514,7 @@
       <c r="AA81" t="inlineStr"/>
       <c r="AB81" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-2.cdninstagram.com/v/t51.29350-15/457150508_516801387654210_4103899933195028767_n.heic?stp=dst-jpg_e35_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiRkVFRC5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=EwMmAS_yFhwQ7kNvwHnB8Wb&amp;_nc_oc=AdmoPWv_lEtzsKadiEtrWYqyuWle61QIyBTyggFYhj7vPCrH42BE6n7FcBEaD5KPbYskERrf0Eez_JKpu7DKF6TD&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-2.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=UX7N9kGiqNNdGFe8DDb9yQ&amp;oh=00_Afe6huummQnXxeXbsRfCcYE_DSwQxmHaARDa2i8Q1wlc5w&amp;oe=68FF1081</t>
+          <t>https://scontent-lga3-2.cdninstagram.com/v/t51.29350-15/457150508_516801387654210_4103899933195028767_n.heic?stp=dst-jpg_e35_tt6&amp;_nc_cat=100&amp;ccb=7-5&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiRkVFRC5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=HKTC9GXmfYUQ7kNvwFA1Q0B&amp;_nc_oc=Adk_epd-ecBp1UlFKK-_tYVSWB0raA1McCbQpXsERrCRuF0AVKRy1xHf11lFYWlvK4j9A4kKQWxYcnbMTdfMGnen&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-2.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=kxIeYQe8v096bVlfjnK6og&amp;oh=00_AfgYUOcLZ6gDzUvIke9lOwN3P194akesPIkvxXlZUvFD6g&amp;oe=69294081</t>
         </is>
       </c>
       <c r="AC81" t="inlineStr"/>
@@ -8549,13 +8576,13 @@
         </is>
       </c>
       <c r="M82" t="n">
-        <v>1975</v>
+        <v>2008</v>
       </c>
       <c r="N82" t="n">
         <v>0</v>
       </c>
       <c r="O82" t="n">
-        <v>1016</v>
+        <v>1019</v>
       </c>
       <c r="P82" t="inlineStr"/>
       <c r="Q82" t="n">
@@ -8583,7 +8610,7 @@
       <c r="AA82" t="inlineStr"/>
       <c r="AB82" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-3.cdninstagram.com/v/t51.29350-15/453473912_1596797161016774_5780541337483750972_n.heic?stp=dst-jpg_e35_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0FST1VTRUxfSVRFTS5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=Qt-G3ndl684Q7kNvwFBMAZO&amp;_nc_oc=AdnKQUuNrNPxGrXvtq9Xf1CDACOFxBontYJYosMpOxAdtgqv4rCYuxp_xebF5ZKbZdz-uuFpoRbx_0RJlPy2Jl3k&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-3.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=UX7N9kGiqNNdGFe8DDb9yQ&amp;oh=00_AfcbDvBmLCG9m8mW7FgiAK6KsKFaD_5q7H_aILAjrchYzg&amp;oe=68FF149E</t>
+          <t>https://scontent-lga3-3.cdninstagram.com/v/t51.29350-15/453473912_1596797161016774_5780541337483750972_n.heic?stp=dst-jpg_e35_tt6&amp;_nc_cat=104&amp;ccb=7-5&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0FST1VTRUxfSVRFTS5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=9KPj4dsee_8Q7kNvwGng-MB&amp;_nc_oc=Adn5F40XxN98doMMRwPH9yJ02zTpJC7iPEw-hJneLjM7hBJOVMRarxuNm1thizdMe_zBAeIW6AM0SjRy1PhK1C0J&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-3.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=kxIeYQe8v096bVlfjnK6og&amp;oh=00_Afge9LJucF_GVrKJxmgEVj26QDugf3iGBkADfex4KLgndg&amp;oe=6929449E</t>
         </is>
       </c>
       <c r="AC82" t="inlineStr"/>
@@ -8643,7 +8670,7 @@
         </is>
       </c>
       <c r="M83" t="n">
-        <v>1986</v>
+        <v>1987</v>
       </c>
       <c r="N83" t="n">
         <v>0</v>
@@ -8677,12 +8704,12 @@
       <c r="AA83" t="inlineStr"/>
       <c r="AB83" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-3.cdninstagram.com/o1/v/t2/f2/m86/AQPk2sXXZgTYgve9BWPV-_56lnnkQzWXm7bSlyke0pfBDxa-7UJumCu0f8bNhJunawrSMerzgCFn9cTbbgCiYA8bkvsz5Mt8li49z_A.mp4?_nc_cat=104&amp;_nc_sid=5e9851&amp;_nc_ht=scontent-lga3-3.cdninstagram.com&amp;_nc_ohc=OzPCQvLc7rMQ7kNvwG9Ji2g&amp;efg=eyJ2ZW5jb2RlX3RhZyI6Inhwdl9wcm9ncmVzc2l2ZS5JTlNUQUdSQU0uQ0xJUFMuQzMuMzYwLmRhc2hfYmFzZWxpbmVfM192MSIsInhwdl9hc3NldF9pZCI6MzM4Nzc0NzU4ODAzNTc4NywiYXNzZXRfYWdlX2RheXMiOjQ0OSwidmlfdXNlY2FzZV9pZCI6MTAwOTksImR1cmF0aW9uX3MiOjM5LCJ1cmxnZW5fc291cmNlIjoid3d3In0%3D&amp;ccb=17-1&amp;vs=1293f2830537056d&amp;_nc_vs=HBksFQIYUmlnX3hwdl9yZWVsc19wZXJtYW5lbnRfc3JfcHJvZC9ENzQ4RTE2ODUxODcwRjM5OEQ5RjE1MzU4Mjg2Rjc4MF92aWRlb19kYXNoaW5pdC5tcDQVAALIARIAFQIYOnBhc3N0aHJvdWdoX2V2ZXJzdG9yZS9HTmFHQ0J2MmNXakdRbWdEQUJFVksyR3lKX3d5YnFfRUFBQUYVAgLIARIAKAAYABsCiAd1c2Vfb2lsATEScHJvZ3Jlc3NpdmVfcmVjaXBlATEVAAAmltOWue7IhAwVAigCQzMsF0BDlT987ZFoGBJkYXNoX2Jhc2VsaW5lXzNfdjERAHX-B2XmnQEA&amp;_nc_gid=UX7N9kGiqNNdGFe8DDb9yQ&amp;edm=AM6HXa8EAAAA&amp;_nc_zt=28&amp;oh=00_Afc_CTIBXvGU7Mity18vbv8m2OLYxpKHNySb2l34G7KfCA&amp;oe=68FB0CE1</t>
+          <t>https://scontent-lga3-3.cdninstagram.com/o1/v/t2/f2/m86/AQPk2sXXZgTYgve9BWPV-_56lnnkQzWXm7bSlyke0pfBDxa-7UJumCu0f8bNhJunawrSMerzgCFn9cTbbgCiYA8bkvsz5Mt8li49z_A.mp4?_nc_cat=104&amp;_nc_sid=5e9851&amp;_nc_ht=scontent-lga3-3.cdninstagram.com&amp;_nc_ohc=O8uGgeHXtuUQ7kNvwF9srFq&amp;efg=eyJ2ZW5jb2RlX3RhZyI6Inhwdl9wcm9ncmVzc2l2ZS5JTlNUQUdSQU0uQ0xJUFMuQzMuMzYwLmRhc2hfYmFzZWxpbmVfM192MSIsInhwdl9hc3NldF9pZCI6MzM4Nzc0NzU4ODAzNTc4NywiYXNzZXRfYWdlX2RheXMiOjQ4MSwidmlfdXNlY2FzZV9pZCI6MTAwOTksImR1cmF0aW9uX3MiOjM5LCJ1cmxnZW5fc291cmNlIjoid3d3In0%3D&amp;ccb=17-1&amp;vs=1293f2830537056d&amp;_nc_vs=HBksFQIYUmlnX3hwdl9yZWVsc19wZXJtYW5lbnRfc3JfcHJvZC9ENzQ4RTE2ODUxODcwRjM5OEQ5RjE1MzU4Mjg2Rjc4MF92aWRlb19kYXNoaW5pdC5tcDQVAALIARIAFQIYOnBhc3N0aHJvdWdoX2V2ZXJzdG9yZS9HTmFHQ0J2MmNXakdRbWdEQUJFVksyR3lKX3d5YnFfRUFBQUYVAgLIARIAKAAYABsCiAd1c2Vfb2lsATEScHJvZ3Jlc3NpdmVfcmVjaXBlATEVAAAmltOWue7IhAwVAigCQzMsF0BDlT987ZFoGBJkYXNoX2Jhc2VsaW5lXzNfdjERAHX-B2XmnQEA&amp;_nc_gid=kxIeYQe8v096bVlfjnK6og&amp;edm=AM6HXa8EAAAA&amp;_nc_zt=28&amp;oh=00_AfjhsSxevzay7t0eN9XgOplNiFldXjJ27HqXABOlxyQLqg&amp;oe=69253CE1</t>
         </is>
       </c>
       <c r="AC83" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-2.cdninstagram.com/v/t51.71878-15/503359675_3733673223443220_5400297636831134220_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0xJUFMuYmVzdF9pbWFnZV91cmxnZW4uQzMifQ%3D%3D&amp;_nc_ohc=2XrwiaQRVMsQ7kNvwGgRJei&amp;_nc_oc=Adkikl9czi6IId28soXSVJud3bLMz3M8GuNnDAa1yUqumitToVelaloW1o3ekDaIM1poZoUCcQcmtYW6vQohkpgI&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-2.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=UX7N9kGiqNNdGFe8DDb9yQ&amp;oh=00_Affg3VY7t9D66f0D6FYeI_gzl3YiL5E866Ot3cEWM1QAMw&amp;oe=68FEE63B</t>
+          <t>https://scontent-lga3-2.cdninstagram.com/v/t51.71878-15/503359675_3733673223443220_5400297636831134220_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=105&amp;ccb=7-5&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0xJUFMuYmVzdF9pbWFnZV91cmxnZW4uQzMifQ%3D%3D&amp;_nc_ohc=a_P10vfPhaYQ7kNvwGTt1sJ&amp;_nc_oc=AdlEtHIgCQrrLOsH-tqmA3SmuXbnLno2_d_rGLVVxUre6I0uTawglvBN6uiFUsFppsuVfWLRVrff5NWhe353qiSg&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-2.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=kxIeYQe8v096bVlfjnK6og&amp;oh=00_AfiASH0D0Cuwa_4mgQrIiCHKJEjaSiZkwZsYOpWnZST0DQ&amp;oe=6929163B</t>
         </is>
       </c>
     </row>
@@ -8742,13 +8769,13 @@
         </is>
       </c>
       <c r="M84" t="n">
-        <v>2616</v>
+        <v>2617</v>
       </c>
       <c r="N84" t="n">
         <v>0</v>
       </c>
       <c r="O84" t="n">
-        <v>1243</v>
+        <v>1247</v>
       </c>
       <c r="P84" t="inlineStr"/>
       <c r="Q84" t="n">
@@ -8776,12 +8803,12 @@
       <c r="AA84" t="inlineStr"/>
       <c r="AB84" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-1.cdninstagram.com/o1/v/t2/f2/m367/AQOgpxuNvPxa27TTKpMdVB_edVIYXLIKDpaj8j0sP7uFlfmT3ykPkcAxpbQzrtC3tSOAxZZ9YbOpLU4GfVm3aH3TSzjhuOdaIWC2zhE.mp4?_nc_cat=108&amp;_nc_sid=5e9851&amp;_nc_ht=scontent-lga3-1.cdninstagram.com&amp;_nc_ohc=0dyqgB6PkvEQ7kNvwF731s4&amp;efg=eyJ2ZW5jb2RlX3RhZyI6Inhwdl9wcm9ncmVzc2l2ZS5JTlNUQUdSQU0uQ0xJUFMuQzMuNzIwLmRhc2hfYmFzZWxpbmVfMV92MSIsInhwdl9hc3NldF9pZCI6MTIwMjM2NTIwNDI4OTIyOCwiYXNzZXRfYWdlX2RheXMiOjQ1NCwidmlfdXNlY2FzZV9pZCI6MTAwOTksImR1cmF0aW9uX3MiOjE1LCJ1cmxnZW5fc291cmNlIjoid3d3In0%3D&amp;ccb=17-1&amp;vs=92e10b2538c5acee&amp;_nc_vs=HBksFQIYQGlnX2VwaGVtZXJhbC81NzQ5QjQyMzlENkE1RUM2MjJGMjExRUM5OEYyNUI4OF92aWRlb19kYXNoaW5pdC5tcDQVAALIARIAFQIYOnBhc3N0aHJvdWdoX2V2ZXJzdG9yZS9HSEU5OXhvN2hpNEtXZXNHQUs0ZHo2NVRkS0l3YnFfRUFBQUYVAgLIARIAKAAYABsCiAd1c2Vfb2lsATEScHJvZ3Jlc3NpdmVfcmVjaXBlATEVAAAmmNui7u7iogQVAigCQzMsF0At7peNT987GBJkYXNoX2Jhc2VsaW5lXzFfdjERAHX-B2XmnQEA&amp;_nc_gid=UX7N9kGiqNNdGFe8DDb9yQ&amp;edm=AM6HXa8EAAAA&amp;_nc_zt=28&amp;oh=00_AffMqfXT8DpqQ0yYSB8RGiJItjjBIOrKxsu9cAqjsTejmg&amp;oe=68FEFC0D</t>
+          <t>https://scontent-lga3-2.cdninstagram.com/o1/v/t2/f2/m367/AQM9AR3FcGt_9RJtasDyTcBD3MqretW7xei2CvQ4cwtfJG6xmIoCZBJBcfVk74yXOeXMeaXrYAKrvR6kuFEnaa-VEi-AshPSn46w72w.mp4?_nc_cat=100&amp;_nc_sid=5e9851&amp;_nc_ht=scontent-lga3-2.cdninstagram.com&amp;_nc_ohc=5uGxkbcogQsQ7kNvwEFbPwn&amp;efg=eyJ2ZW5jb2RlX3RhZyI6Inhwdl9wcm9ncmVzc2l2ZS5JTlNUQUdSQU0uQ0xJUFMuQzMuNzIwLmRhc2hfYmFzZWxpbmVfMV92MSIsInhwdl9hc3NldF9pZCI6MTIwMjM2NTIwNDI4OTIyOCwiYXNzZXRfYWdlX2RheXMiOjQ4NiwidmlfdXNlY2FzZV9pZCI6MTAwOTksImR1cmF0aW9uX3MiOjE1LCJ1cmxnZW5fc291cmNlIjoid3d3In0%3D&amp;ccb=17-1&amp;vs=3f3e51964e3e7886&amp;_nc_vs=HBksFQIYQGlnX2VwaGVtZXJhbC9CRjQwRUE2NkE5Mzc4NjBDNDRBNjE3NUY1N0E4MjY5N192aWRlb19kYXNoaW5pdC5tcDQVAALIARIAFQIYOnBhc3N0aHJvdWdoX2V2ZXJzdG9yZS9HSEU5OXhvN2hpNEtXZXNHQUs0ZHo2NVRkS0l3YnFfRUFBQUYVAgLIARIAKAAYABsCiAd1c2Vfb2lsATEScHJvZ3Jlc3NpdmVfcmVjaXBlATEVAAAmmNui7u7iogQVAigCQzMsF0At7peNT987GBJkYXNoX2Jhc2VsaW5lXzFfdjERAHX-B2XmnQEA&amp;_nc_gid=kxIeYQe8v096bVlfjnK6og&amp;edm=AM6HXa8EAAAA&amp;_nc_zt=28&amp;oh=00_Afh30PZ1mQvcCD9wAQ5967-qnN_URAM5BmYD4fRt9iV23A&amp;oe=692925E9</t>
         </is>
       </c>
       <c r="AC84" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-2.cdninstagram.com/v/t51.71878-15/503476124_1423439042181842_4725237256571509385_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0xJUFMuYmVzdF9pbWFnZV91cmxnZW4uQzMifQ%3D%3D&amp;_nc_ohc=nYfFrJOv_g0Q7kNvwFJaRie&amp;_nc_oc=Admcv_onB_e2xok4n14W0yLZcyXn0znMqshT7nMuyICBewIe70wVlwcTHYm876uMEsixaa6A72LhbjGYfHXlzvsY&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-2.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=UX7N9kGiqNNdGFe8DDb9yQ&amp;oh=00_AfdhHUwAXqP_ceiVF9-P7UaB7j4lRRAkf03J_TEVXUO71Q&amp;oe=68FF16AE</t>
+          <t>https://scontent-lga3-2.cdninstagram.com/v/t51.71878-15/503476124_1423439042181842_4725237256571509385_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=100&amp;ccb=7-5&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0xJUFMuYmVzdF9pbWFnZV91cmxnZW4uQzMifQ%3D%3D&amp;_nc_ohc=iJ08m2BRfDAQ7kNvwEOvGDw&amp;_nc_oc=AdkvenlCyPQ6gQusSSHhqY0sKlsi9WoruoOMMeQJwjv-jHTszh8_KPBtcEsY2HHJRsv8PQdPmUPZ0AA-AzdVJwp5&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-2.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=kxIeYQe8v096bVlfjnK6og&amp;oh=00_Afjujs2jpnJvCdj1UUFB2Xvx7UMlWsg_t4mpMDfPe7RHaw&amp;oe=692946AE</t>
         </is>
       </c>
     </row>
@@ -8840,7 +8867,7 @@
         </is>
       </c>
       <c r="M85" t="n">
-        <v>2059</v>
+        <v>2081</v>
       </c>
       <c r="N85" t="n">
         <v>0</v>
@@ -8874,7 +8901,7 @@
       <c r="AA85" t="inlineStr"/>
       <c r="AB85" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-1.cdninstagram.com/v/t51.29350-15/451820260_503525102353259_6880398404235844079_n.heic?stp=dst-jpg_e35_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiRkVFRC5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=zODKWRccQxQQ7kNvwE3HllB&amp;_nc_oc=AdnYGFdWnDAc9QdQ_r1C7vlxC_60PVcvJ4xoZMWlAxrri22GNLBoLWLCWfCon5Pgaa8uyTDc4lqdPBtTjiaSCAYL&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-1.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=UX7N9kGiqNNdGFe8DDb9yQ&amp;oh=00_Aff0vBjfktvOrmuVNKX763zU0QuZJEv356sltWM8U3eCfw&amp;oe=68FEFE76</t>
+          <t>https://scontent-lga3-1.cdninstagram.com/v/t51.29350-15/451820260_503525102353259_6880398404235844079_n.heic?stp=dst-jpg_e35_tt6&amp;_nc_cat=102&amp;ccb=7-5&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiRkVFRC5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=chyclR8pDGcQ7kNvwGxo35A&amp;_nc_oc=AdmVagt6swUltxRXyNnrFCDmApSPRZNPu4QAvmIYQYz5T-bXyLnSgKT__6IUKQ6FvrgkEQa_aB9IvQZ1863bBO8F&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-1.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=kxIeYQe8v096bVlfjnK6og&amp;oh=00_AfjU2dWu3F44UFDM7O8FJXmnFwaYTXjMO614W5Oi5I_QaQ&amp;oe=69292E76</t>
         </is>
       </c>
       <c r="AC85" t="inlineStr"/>
@@ -8935,13 +8962,13 @@
         </is>
       </c>
       <c r="M86" t="n">
-        <v>2331</v>
+        <v>2355</v>
       </c>
       <c r="N86" t="n">
         <v>0</v>
       </c>
       <c r="O86" t="n">
-        <v>1282</v>
+        <v>1284</v>
       </c>
       <c r="P86" t="inlineStr"/>
       <c r="Q86" t="n">
@@ -8969,7 +8996,7 @@
       <c r="AA86" t="inlineStr"/>
       <c r="AB86" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-2.cdninstagram.com/v/t51.29350-15/451358749_1002601801076853_4263102887627237880_n.heic?stp=dst-jpg_e35_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiRkVFRC5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=z0f4hZCE_y8Q7kNvwHgH37x&amp;_nc_oc=AdmFUW8RWlj1WwdBT9bOyvlB6nN3MAajfnlJkx31b51J1BS4m6vLuyffcoPZ1GXebrDKAiuIL1ezTN2k4iTaFOHK&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-2.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=UX7N9kGiqNNdGFe8DDb9yQ&amp;oh=00_AfcyuXB2Z6CgswTngtiPG3RzJAedHzTPa75XaRlNMO4i4A&amp;oe=68FF07B6</t>
+          <t>https://scontent-lga3-2.cdninstagram.com/v/t51.29350-15/451358749_1002601801076853_4263102887627237880_n.heic?stp=dst-jpg_e35_tt6&amp;_nc_cat=107&amp;ccb=7-5&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiRkVFRC5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=DayZwWPScJcQ7kNvwHxLqU3&amp;_nc_oc=AdksD9REqdosYgNwsRuV78rgSp4gpor9JE1PzCWQfA6Eal9dN5q6a45lby90DlYxOQXdQb6UT2ujaL4nQ42leJkj&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-2.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=kxIeYQe8v096bVlfjnK6og&amp;oh=00_AfjHCUDZMkrDY2BkFrNg7Sy7p9BYJtc2_535J-JpHYSPRQ&amp;oe=692937B6</t>
         </is>
       </c>
       <c r="AC86" t="inlineStr"/>
@@ -9065,7 +9092,7 @@
       <c r="AA87" t="inlineStr"/>
       <c r="AB87" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-2.cdninstagram.com/v/t51.29350-15/449137999_1137438587490654_8569225546428917524_n.heic?stp=dst-jpg_e35_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiRkVFRC5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=NYVgboCHc5EQ7kNvwE2AhZN&amp;_nc_oc=AdlnYM-OMK6_hARhW7Qig5obXljvd9YqxyYMNUUF4CFCEYZcM7N49O9ZEWPS-qt_ZZsaSBx7qw_4kl3STzYkk815&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-2.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=UX7N9kGiqNNdGFe8DDb9yQ&amp;oh=00_AfeIyi4iIH0ONEihonqw9f-EeGl3fud-jl_1WAt2XRTs3Q&amp;oe=68FF0A75</t>
+          <t>https://scontent-lga3-2.cdninstagram.com/v/t51.29350-15/449137999_1137438587490654_8569225546428917524_n.heic?stp=dst-jpg_e35_tt6&amp;_nc_cat=100&amp;ccb=7-5&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiRkVFRC5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=cJnmOSOkdY0Q7kNvwEHsO-6&amp;_nc_oc=AdmgpNCis-t80SBvO8Z1IqlmKBW5oA8agaKXMTTlTZbpu_8wjpg3pIxlzX7pJAfsdWMzYF7Bg0_wHTDDkVXoBqAP&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-2.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=kxIeYQe8v096bVlfjnK6og&amp;oh=00_AfiGAo2Af15nXHiT0vm8jihA-mgQs8v88Mpx4EbY8tAKSw&amp;oe=69293A75</t>
         </is>
       </c>
       <c r="AC87" t="inlineStr"/>
@@ -9158,12 +9185,12 @@
       <c r="AA88" t="inlineStr"/>
       <c r="AB88" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-1.cdninstagram.com/o1/v/t2/f2/m82/AQPEBXzTPiYYblsnJPM69cy1rn4WGu1VAB0P_LS7Ye-MVDAPocNrNGuEU1e-K0_tzo5NJJXLFO3aE1MNr_-YAuMzBB1tSty8qX3qjls.mp4?_nc_cat=108&amp;_nc_sid=5e9851&amp;_nc_ht=scontent-lga3-1.cdninstagram.com&amp;_nc_ohc=P7lN_LdZvG8Q7kNvwE5pIHn&amp;efg=eyJ2ZW5jb2RlX3RhZyI6Inhwdl9wcm9ncmVzc2l2ZS5JTlNUQUdSQU0uQ0xJUFMuQzMuNzIwLmRhc2hfYmFzZWxpbmVfMV92MSIsInhwdl9hc3NldF9pZCI6MTc5NTQ2NjQ0NzYxMDI3NSwiYXNzZXRfYWdlX2RheXMiOjQ5OSwidmlfdXNlY2FzZV9pZCI6MTAwOTksImR1cmF0aW9uX3MiOjc1LCJ1cmxnZW5fc291cmNlIjoid3d3In0%3D&amp;ccb=17-1&amp;vs=4dd307f6122953cf&amp;_nc_vs=HBksFQIYT2lnX3hwdl9yZWVsc19wZXJtYW5lbnRfcHJvZC82MDQ0Q0FCNjlBM0IyNUMyMDc4QTkwREI0Nzg1QkI5Rl92aWRlb19kYXNoaW5pdC5tcDQVAALIARIAFQIYOnBhc3N0aHJvdWdoX2V2ZXJzdG9yZS9HSnEzdGhvVC04RHp1dVlEQUVBa09oRHBpWlZTYnFfRUFBQUYVAgLIARIAKAAYABsCiAd1c2Vfb2lsATEScHJvZ3Jlc3NpdmVfcmVjaXBlATEVAAAmxoaHvfO9sAYVAigCQzMsF0BSwAAAAAAAGBJkYXNoX2Jhc2VsaW5lXzFfdjERAHX-B2XmnQEA&amp;_nc_gid=UX7N9kGiqNNdGFe8DDb9yQ&amp;edm=AM6HXa8EAAAA&amp;_nc_zt=28&amp;oh=00_AfcCYZYx7xRd_ImCI5m2kaH_ruezNavaKjZfWExjvnGIig&amp;oe=68FB11FD</t>
+          <t>https://scontent-lga3-3.cdninstagram.com/o1/v/t2/f2/m82/AQPEBXzTPiYYblsnJPM69cy1rn4WGu1VAB0P_LS7Ye-MVDAPocNrNGuEU1e-K0_tzo5NJJXLFO3aE1MNr_-YAuMzBB1tSty8qX3qjls.mp4?_nc_cat=108&amp;_nc_sid=5e9851&amp;_nc_ht=scontent-lga3-3.cdninstagram.com&amp;_nc_ohc=O5irjGjdJmYQ7kNvwFS9ymL&amp;efg=eyJ2ZW5jb2RlX3RhZyI6Inhwdl9wcm9ncmVzc2l2ZS5JTlNUQUdSQU0uQ0xJUFMuQzMuNzIwLmRhc2hfYmFzZWxpbmVfMV92MSIsInhwdl9hc3NldF9pZCI6MTc5NTQ2NjQ0NzYxMDI3NSwiYXNzZXRfYWdlX2RheXMiOjUzMSwidmlfdXNlY2FzZV9pZCI6MTAwOTksImR1cmF0aW9uX3MiOjc1LCJ1cmxnZW5fc291cmNlIjoid3d3In0%3D&amp;ccb=17-1&amp;vs=4dd307f6122953cf&amp;_nc_vs=HBksFQIYT2lnX3hwdl9yZWVsc19wZXJtYW5lbnRfcHJvZC82MDQ0Q0FCNjlBM0IyNUMyMDc4QTkwREI0Nzg1QkI5Rl92aWRlb19kYXNoaW5pdC5tcDQVAALIARIAFQIYOnBhc3N0aHJvdWdoX2V2ZXJzdG9yZS9HSnEzdGhvVC04RHp1dVlEQUVBa09oRHBpWlZTYnFfRUFBQUYVAgLIARIAKAAYABsCiAd1c2Vfb2lsATEScHJvZ3Jlc3NpdmVfcmVjaXBlATEVAAAmxoaHvfO9sAYVAigCQzMsF0BSwAAAAAAAGBJkYXNoX2Jhc2VsaW5lXzFfdjERAHX-B2XmnQEA&amp;_nc_gid=kxIeYQe8v096bVlfjnK6og&amp;edm=AM6HXa8EAAAA&amp;_nc_zt=28&amp;oh=00_Afj-eUQWHLLwhfHEv-eF2y150l1r7Ia2B8qHLjx9Kl6xIw&amp;oe=692541FD</t>
         </is>
       </c>
       <c r="AC88" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-1.cdninstagram.com/v/t51.71878-15/503028628_2057526254737625_6372216935767042755_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0xJUFMuYmVzdF9pbWFnZV91cmxnZW4uQzMifQ%3D%3D&amp;_nc_ohc=EPhdnwRRViYQ7kNvwF8qsHJ&amp;_nc_oc=AdlDdX3xd8HticMI8GF_7t-cBu_GFuhuppF5B0zwZa8PrlsAkJ7PV2VbTKY93IFOAgpmwWdbgoq4fVBWG7U3a7iH&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-1.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=UX7N9kGiqNNdGFe8DDb9yQ&amp;oh=00_Afc0tTZVHAUN7sdhy9jFV0ABzy_0psxAWaCwA9Qb35Sw8g&amp;oe=68FEFA2B</t>
+          <t>https://scontent-lga3-3.cdninstagram.com/v/t51.71878-15/503028628_2057526254737625_6372216935767042755_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=108&amp;ccb=7-5&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0xJUFMuYmVzdF9pbWFnZV91cmxnZW4uQzMifQ%3D%3D&amp;_nc_ohc=v2b3TTUlgdIQ7kNvwF1m_6t&amp;_nc_oc=AdnpgV6AbjIq6IV3wvYxPbXzH-iMxEqu4YYQxojRW8d90UH9hSLU3PLInSMagMo05o-o7qxJF70700iZR-8tPQ4g&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-3.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=kxIeYQe8v096bVlfjnK6og&amp;oh=00_Afj3ZLuhQFGCqavEsN4XnsO4hKdRn-08-3XWmEY5OkViOA&amp;oe=69292A2B</t>
         </is>
       </c>
     </row>
@@ -9258,7 +9285,7 @@
       <c r="AA89" t="inlineStr"/>
       <c r="AB89" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-1.cdninstagram.com/v/t51.29350-15/447873305_359626827136765_3154098995076450207_n.heic?stp=dst-jpg_e35_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiRkVFRC5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=kOETAM6EqkoQ7kNvwHnybE3&amp;_nc_oc=AdkC5aK5GuyqA8OiO50pLpo9UU_bm7qF3Cw9mO0UpsZPPJSmOsE2cgka4QCPfMYmK1VKWcYA6N0rW0tZg9wVnsBL&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-1.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=UX7N9kGiqNNdGFe8DDb9yQ&amp;oh=00_AfeyP63INVfC3BRElvQIYVUgoESuvqx0SUe0zbRVKfVXtg&amp;oe=68FF16D8</t>
+          <t>https://scontent-lga3-1.cdninstagram.com/v/t51.29350-15/447873305_359626827136765_3154098995076450207_n.heic?stp=dst-jpg_e35_tt6&amp;_nc_cat=102&amp;ccb=7-5&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiRkVFRC5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=6caZoD4I6fYQ7kNvwH7mUPS&amp;_nc_oc=Adl9hq7W0gQcAtE1AslVLKE6EOkzAcmunIJUt3gwtWb8XPpVfm4DlIR24rqk0dHAn4SJVCKK94tteXFdHj9x9kKq&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-1.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=kxIeYQe8v096bVlfjnK6og&amp;oh=00_AfjtB3aHNt3apYXfM0A4VR7NpRsmS-s-vt1pPY5fVO9VuQ&amp;oe=692946D8</t>
         </is>
       </c>
       <c r="AC89" t="inlineStr"/>
@@ -9355,7 +9382,7 @@
       <c r="AA90" t="inlineStr"/>
       <c r="AB90" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-2.cdninstagram.com/v/t51.29350-15/447068390_1005211414335976_5153253545939086799_n.heic?stp=dst-jpg_e35_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0FST1VTRUxfSVRFTS5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=5O-o8kJ52i4Q7kNvwGo2oTR&amp;_nc_oc=Adms0DAZzbe6HjTH-1MJSzOU-nis6vTX2fQvStfkvm7FdPBZKHsEFzVaSlrYfiuFb0o_CeoXRTpUkkaSd_D0SWGD&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-2.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=UX7N9kGiqNNdGFe8DDb9yQ&amp;oh=00_Aff7tBPBkDZSWEyvRxb4h9YK9oJ5PQTpowt1c8ADdMEVBA&amp;oe=68FF1229</t>
+          <t>https://scontent-lga3-2.cdninstagram.com/v/t51.29350-15/447068390_1005211414335976_5153253545939086799_n.heic?stp=dst-jpg_e35_tt6&amp;_nc_cat=100&amp;ccb=7-5&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0FST1VTRUxfSVRFTS5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=W7YPgn5Z4O0Q7kNvwE9_Hiq&amp;_nc_oc=AdnZmrWpA_2QZPuWInIjYzC2XSBy9g2ElU5ACpzuAZnGEFb7h7JGrxPkWeFi2g4JfSs4W77CwuzLGRI1Nehk1TMn&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-2.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=kxIeYQe8v096bVlfjnK6og&amp;oh=00_Afh3xauab6MOjQwf8X6Wf0ptz2yDAJ30VLELpQtYXuOF9w&amp;oe=69294229</t>
         </is>
       </c>
       <c r="AC90" t="inlineStr"/>
@@ -9422,13 +9449,13 @@
         </is>
       </c>
       <c r="M91" t="n">
-        <v>2299</v>
+        <v>2300</v>
       </c>
       <c r="N91" t="n">
         <v>0</v>
       </c>
       <c r="O91" t="n">
-        <v>1514</v>
+        <v>1516</v>
       </c>
       <c r="P91" t="inlineStr"/>
       <c r="Q91" t="n">
@@ -9456,12 +9483,12 @@
       <c r="AA91" t="inlineStr"/>
       <c r="AB91" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-2.cdninstagram.com/o1/v/t2/f2/m82/AQOuitzWtoMEyd3E55WEO1jd-IFt_YHisOkSSbTzYvHlN7ajzI4q8VLMwH01J72bdhDTlM7Mg6G1jTOgNUOkXL5on58W13_WzKJnFHw.mp4?_nc_cat=109&amp;_nc_sid=5e9851&amp;_nc_ht=scontent-lga3-2.cdninstagram.com&amp;_nc_ohc=Q6y4MdmCcRkQ7kNvwHIaNf5&amp;efg=eyJ2ZW5jb2RlX3RhZyI6Inhwdl9wcm9ncmVzc2l2ZS5JTlNUQUdSQU0uQ0xJUFMuQzMuNzIwLmRhc2hfYmFzZWxpbmVfMV92MSIsInhwdl9hc3NldF9pZCI6Mzk1MDM5NTk2ODQ1NDQ0LCJhc3NldF9hZ2VfZGF5cyI6NTUwLCJ2aV91c2VjYXNlX2lkIjoxMDA5OSwiZHVyYXRpb25fcyI6NTIsInVybGdlbl9zb3VyY2UiOiJ3d3cifQ%3D%3D&amp;ccb=17-1&amp;vs=39fa9eef95527424&amp;_nc_vs=HBksFQIYT2lnX3hwdl9yZWVsc19wZXJtYW5lbnRfcHJvZC9EOTQ2NjVEMENDMEVBRTg2MjYwQzk4NzM1NkQ4OEZCQl92aWRlb19kYXNoaW5pdC5tcDQVAALIARIAFQIYOnBhc3N0aHJvdWdoX2V2ZXJzdG9yZS9HTVFnS0JvRUJKNXpVV3NCQUhsQUN5QU5jZDRYYnFfRUFBQUYVAgLIARIAKAAYABsCiAd1c2Vfb2lsATEScHJvZ3Jlc3NpdmVfcmVjaXBlATEVAAAmiOa8rarSswEVAigCQzMsF0BKZmZmZmZmGBJkYXNoX2Jhc2VsaW5lXzFfdjERAHX-B2XmnQEA&amp;_nc_gid=UX7N9kGiqNNdGFe8DDb9yQ&amp;edm=AM6HXa8EAAAA&amp;_nc_zt=28&amp;oh=00_Afe2Sw22etdkC7NDH5bJJvuTWM9ChN7MPLkmZuyGfQPlIw&amp;oe=68FB01E2</t>
+          <t>https://scontent-lga3-2.cdninstagram.com/o1/v/t2/f2/m82/AQOuitzWtoMEyd3E55WEO1jd-IFt_YHisOkSSbTzYvHlN7ajzI4q8VLMwH01J72bdhDTlM7Mg6G1jTOgNUOkXL5on58W13_WzKJnFHw.mp4?_nc_cat=109&amp;_nc_sid=5e9851&amp;_nc_ht=scontent-lga3-2.cdninstagram.com&amp;_nc_ohc=CHFfSzvbQR8Q7kNvwGCDarY&amp;efg=eyJ2ZW5jb2RlX3RhZyI6Inhwdl9wcm9ncmVzc2l2ZS5JTlNUQUdSQU0uQ0xJUFMuQzMuNzIwLmRhc2hfYmFzZWxpbmVfMV92MSIsInhwdl9hc3NldF9pZCI6Mzk1MDM5NTk2ODQ1NDQ0LCJhc3NldF9hZ2VfZGF5cyI6NTgyLCJ2aV91c2VjYXNlX2lkIjoxMDA5OSwiZHVyYXRpb25fcyI6NTIsInVybGdlbl9zb3VyY2UiOiJ3d3cifQ%3D%3D&amp;ccb=17-1&amp;vs=39fa9eef95527424&amp;_nc_vs=HBksFQIYT2lnX3hwdl9yZWVsc19wZXJtYW5lbnRfcHJvZC9EOTQ2NjVEMENDMEVBRTg2MjYwQzk4NzM1NkQ4OEZCQl92aWRlb19kYXNoaW5pdC5tcDQVAALIARIAFQIYOnBhc3N0aHJvdWdoX2V2ZXJzdG9yZS9HTVFnS0JvRUJKNXpVV3NCQUhsQUN5QU5jZDRYYnFfRUFBQUYVAgLIARIAKAAYABsCiAd1c2Vfb2lsATEScHJvZ3Jlc3NpdmVfcmVjaXBlATEVAAAmiOa8rarSswEVAigCQzMsF0BKZmZmZmZmGBJkYXNoX2Jhc2VsaW5lXzFfdjERAHX-B2XmnQEA&amp;_nc_gid=kxIeYQe8v096bVlfjnK6og&amp;edm=AM6HXa8EAAAA&amp;_nc_zt=28&amp;oh=00_AfhpFa6NE8rxKhqZjsdElfqrVwG2gY7fcBHnNcaYyA889g&amp;oe=692531E2</t>
         </is>
       </c>
       <c r="AC91" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-1.cdninstagram.com/v/t51.71878-15/491422844_694296320253102_8721059078930460548_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0xJUFMuYmVzdF9pbWFnZV91cmxnZW4uQzMifQ%3D%3D&amp;_nc_ohc=yM_dtssH_N0Q7kNvwEyY-Rk&amp;_nc_oc=AdkRUAu9p-D9wtZox2gR0u0cRf-FXp_SoztrruafZv70hozYbrsW0slfSTfIlni_kSJAvw4kxv4csqQdcRyfsaLm&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-1.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=UX7N9kGiqNNdGFe8DDb9yQ&amp;oh=00_Aff3dqZ_2RLpD9xrUsp05kqdrGklP3HtbUHsFb5eJX08Xg&amp;oe=68FF11C9</t>
+          <t>https://scontent-lga3-1.cdninstagram.com/v/t51.71878-15/491422844_694296320253102_8721059078930460548_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=103&amp;ccb=7-5&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0xJUFMuYmVzdF9pbWFnZV91cmxnZW4uQzMifQ%3D%3D&amp;_nc_ohc=uXZjh9_s_ucQ7kNvwE3h0Lp&amp;_nc_oc=AdlxRHF2WTGD9joKysSr-tHT6W0Jhx4rIkr3pNkjPZ6TtdI-M1wadG5D7D3EcQ6cihoRxVfcXzGCWJAa7tKEWndX&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-1.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=kxIeYQe8v096bVlfjnK6og&amp;oh=00_Afh-Npnzfl2O0v5HKDDXQQbjMtUwxlu3FlP2PJLqc1M0cA&amp;oe=692941C9</t>
         </is>
       </c>
     </row>
@@ -9557,7 +9584,7 @@
       <c r="AA92" t="inlineStr"/>
       <c r="AB92" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-2.cdninstagram.com/v/t51.29350-15/439282112_1141459103968763_2992148268986172356_n.heic?stp=dst-jpg_e35_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0FST1VTRUxfSVRFTS5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=k_z84oVkHgUQ7kNvwEadvoL&amp;_nc_oc=AdkWsU5r4g8tNkG2I5Ka86XzLG4oKEQ0QJiasPslubPv79JYF63NwO5bsM7R4t_DoDcZK8HPB1kOPNa6qfSzgt4t&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-2.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=UX7N9kGiqNNdGFe8DDb9yQ&amp;oh=00_Afe4VazHRI8PPXYeow1Y2E2_odjHxA0weVXVhaNtsHLkyA&amp;oe=68FEE97D</t>
+          <t>https://scontent-lga3-2.cdninstagram.com/v/t51.29350-15/439282112_1141459103968763_2992148268986172356_n.heic?stp=dst-jpg_e35_tt6&amp;_nc_cat=109&amp;ccb=7-5&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0FST1VTRUxfSVRFTS5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=mROPkkyL8EwQ7kNvwGw0gI8&amp;_nc_oc=AdnhnzfVSb0nnT7W-6mI_-Z2Z5Rf-3yW93TBMTQNS7vCQ6qaaO8MpWly4G9mCMrztFqPDEo7P5hNjeHxXGiYktTo&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-2.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=kxIeYQe8v096bVlfjnK6og&amp;oh=00_AfiBlqY0fLQPsyVP1AxDVUyte5NRLKX5GUa6ppiOWpC0BQ&amp;oe=6929197D</t>
         </is>
       </c>
       <c r="AC92" t="inlineStr"/>
@@ -9618,7 +9645,7 @@
         </is>
       </c>
       <c r="M93" t="n">
-        <v>4008</v>
+        <v>4012</v>
       </c>
       <c r="N93" t="n">
         <v>0</v>
@@ -9652,12 +9679,12 @@
       <c r="AA93" t="inlineStr"/>
       <c r="AB93" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-2.cdninstagram.com/o1/v/t2/f2/m82/AQNh1PA9WUhmevIxTdGgluaLjaHSdEP2eeTJcgsvrgM14789lau5ccUVmXPPICZtsDuqmY9Q4PnfaL2bgwcHaQAkWzqi857HERY6whs.mp4?_nc_cat=109&amp;_nc_sid=5e9851&amp;_nc_ht=scontent-lga3-2.cdninstagram.com&amp;_nc_ohc=0LjviyY4iB8Q7kNvwHrc_vg&amp;efg=eyJ2ZW5jb2RlX3RhZyI6Inhwdl9wcm9ncmVzc2l2ZS5JTlNUQUdSQU0uQ0xJUFMuQzMuNzIwLmRhc2hfYmFzZWxpbmVfMV92MSIsInhwdl9hc3NldF9pZCI6MzkxNTM2MjkwNDY2Mjg1LCJhc3NldF9hZ2VfZGF5cyI6NTU1LCJ2aV91c2VjYXNlX2lkIjoxMDA5OSwiZHVyYXRpb25fcyI6MzcsInVybGdlbl9zb3VyY2UiOiJ3d3cifQ%3D%3D&amp;ccb=17-1&amp;vs=9e1fad322965fe1d&amp;_nc_vs=HBksFQIYT2lnX3hwdl9yZWVsc19wZXJtYW5lbnRfcHJvZC8yMzQ4OEJCNDQzN0MxRkM1QzZDQUU5ODAxRDA5NDVCQ192aWRlb19kYXNoaW5pdC5tcDQVAALIARIAFQIYOnBhc3N0aHJvdWdoX2V2ZXJzdG9yZS9HRXF4SnhwRFNKNlNrMkFEQUFaM1VoRG9DWHhuYnFfRUFBQUYVAgLIARIAKAAYABsCiAd1c2Vfb2lsATEScHJvZ3Jlc3NpdmVfcmVjaXBlATEVAAAm2qeU2LSGsgEVAigCQzMsF0BCeBBiTdLyGBJkYXNoX2Jhc2VsaW5lXzFfdjERAHX-B2XmnQEA&amp;_nc_gid=UX7N9kGiqNNdGFe8DDb9yQ&amp;edm=AM6HXa8EAAAA&amp;_nc_zt=28&amp;oh=00_AfcIgwEzWQs5QOiMJID1sgMPQ_b3xvO2sgvhgO6VMmq_KA&amp;oe=68FB052E</t>
+          <t>https://scontent-lga3-2.cdninstagram.com/o1/v/t2/f2/m82/AQNh1PA9WUhmevIxTdGgluaLjaHSdEP2eeTJcgsvrgM14789lau5ccUVmXPPICZtsDuqmY9Q4PnfaL2bgwcHaQAkWzqi857HERY6whs.mp4?_nc_cat=109&amp;_nc_sid=5e9851&amp;_nc_ht=scontent-lga3-2.cdninstagram.com&amp;_nc_ohc=0NRvbJElT5oQ7kNvwGiEmM9&amp;efg=eyJ2ZW5jb2RlX3RhZyI6Inhwdl9wcm9ncmVzc2l2ZS5JTlNUQUdSQU0uQ0xJUFMuQzMuNzIwLmRhc2hfYmFzZWxpbmVfMV92MSIsInhwdl9hc3NldF9pZCI6MzkxNTM2MjkwNDY2Mjg1LCJhc3NldF9hZ2VfZGF5cyI6NTg3LCJ2aV91c2VjYXNlX2lkIjoxMDA5OSwiZHVyYXRpb25fcyI6MzcsInVybGdlbl9zb3VyY2UiOiJ3d3cifQ%3D%3D&amp;ccb=17-1&amp;vs=9e1fad322965fe1d&amp;_nc_vs=HBksFQIYT2lnX3hwdl9yZWVsc19wZXJtYW5lbnRfcHJvZC8yMzQ4OEJCNDQzN0MxRkM1QzZDQUU5ODAxRDA5NDVCQ192aWRlb19kYXNoaW5pdC5tcDQVAALIARIAFQIYOnBhc3N0aHJvdWdoX2V2ZXJzdG9yZS9HRXF4SnhwRFNKNlNrMkFEQUFaM1VoRG9DWHhuYnFfRUFBQUYVAgLIARIAKAAYABsCiAd1c2Vfb2lsATEScHJvZ3Jlc3NpdmVfcmVjaXBlATEVAAAm2qeU2LSGsgEVAigCQzMsF0BCeBBiTdLyGBJkYXNoX2Jhc2VsaW5lXzFfdjERAHX-B2XmnQEA&amp;_nc_gid=kxIeYQe8v096bVlfjnK6og&amp;edm=AM6HXa8EAAAA&amp;_nc_zt=28&amp;oh=00_AfiTkz87_oneQIh3bXS7a86HWNu9ZbmLNTOtiHELXHvVsg&amp;oe=6925352E</t>
         </is>
       </c>
       <c r="AC93" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-2.cdninstagram.com/v/t51.71878-15/502998367_678822321737679_6043393287045065368_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0xJUFMuYmVzdF9pbWFnZV91cmxnZW4uQzMifQ%3D%3D&amp;_nc_ohc=f_sXHeqla0cQ7kNvwHLL27s&amp;_nc_oc=Adk6qA-Nep9Z_prExEZdVeq1yhzuJfXoA4itx1xSv0lWfFNEYw16N3lFEpzGDVx5mDnGSKIagedORW6qVNZxxn4v&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-2.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=UX7N9kGiqNNdGFe8DDb9yQ&amp;oh=00_AffauceVz9IEkZRzfp-1xvyxwt0c-8QHf3eMZerj-481WA&amp;oe=68FEEBAB</t>
+          <t>https://scontent-lga3-2.cdninstagram.com/v/t51.71878-15/502998367_678822321737679_6043393287045065368_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=101&amp;ccb=7-5&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0xJUFMuYmVzdF9pbWFnZV91cmxnZW4uQzMifQ%3D%3D&amp;_nc_ohc=IPl_vtM-SL0Q7kNvwE02yQl&amp;_nc_oc=AdnuBoN9IVmlD49D2vIBMR7Gi6KPKQY1o1vgBeFvfdYn4O_7kiMayysC892TUNhq86fTxfLK1MGzAWvxWMV3e1Zm&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-2.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=kxIeYQe8v096bVlfjnK6og&amp;oh=00_Afi4R6l6JryWBoeF6BI0LeU6WycMAspMu5rAK2I1D7r8HQ&amp;oe=69291BAB</t>
         </is>
       </c>
     </row>
@@ -9724,10 +9751,10 @@
         <v>0</v>
       </c>
       <c r="O94" t="n">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="P94" t="n">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="Q94" t="n">
         <v>62</v>
@@ -9754,7 +9781,7 @@
       <c r="AA94" t="inlineStr"/>
       <c r="AB94" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-1.cdninstagram.com/v/t51.29350-15/438377687_1194709274846225_2251957466175958169_n.heic?stp=dst-jpg_e35_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0FST1VTRUxfSVRFTS5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=XofAGiV3POYQ7kNvwGnNNXR&amp;_nc_oc=AdkKDaIqekIxrxqHRYSj01JOq-_4GoYfowUTt5_gCx_CdwPga53oWTaykx-dFugF3HGwi4iYJ6dffyVQ0sgWHxh1&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-1.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=UX7N9kGiqNNdGFe8DDb9yQ&amp;oh=00_AfdlfUHOnGaLDREcrddnSpjUKuAnzqV2FS2erJ3CQaAaYQ&amp;oe=68FEF62C</t>
+          <t>https://scontent-lga3-3.cdninstagram.com/v/t51.29350-15/438377687_1194709274846225_2251957466175958169_n.heic?stp=dst-jpg_e35_tt6&amp;_nc_cat=108&amp;ccb=7-5&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0FST1VTRUxfSVRFTS5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=mkAJn2tjNPYQ7kNvwHxqyb4&amp;_nc_oc=AdnDMdGlZ3HlYAiVgT9D-JE782IAw4bYycOWxr-JHi2y9nEA38s87ba-myYaISH66_kRiX6snZaHiDRqvt0DYtfM&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-3.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=kxIeYQe8v096bVlfjnK6og&amp;oh=00_AfioCYyqhbxSsx9ALTbwfj9GzARWYXGg7QkZyPqi0432tQ&amp;oe=6929262C</t>
         </is>
       </c>
       <c r="AC94" t="inlineStr"/>
@@ -9851,7 +9878,7 @@
       <c r="AA95" t="inlineStr"/>
       <c r="AB95" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-1.cdninstagram.com/v/t51.29350-15/437094690_397170873113428_4595234627775536478_n.heic?stp=dst-jpg_e35_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0FST1VTRUxfSVRFTS5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=imHh80EIXfkQ7kNvwF9687M&amp;_nc_oc=AdkHW-XvvxYkfktGpaQ5P6s4-s-rhkggL5vtCglqj3vBAuGhXOW6teCz8ttLFG0QI2qjZjSBEWMxRodbUVWAppNd&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-1.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=UX7N9kGiqNNdGFe8DDb9yQ&amp;oh=00_AfeZeSzxm2dhlaZFmz-RMNBFRGXncBxWFCv66Qu4Pp72sg&amp;oe=68FF08D3</t>
+          <t>https://scontent-lga3-1.cdninstagram.com/v/t51.29350-15/437094690_397170873113428_4595234627775536478_n.heic?stp=dst-jpg_e35_tt6&amp;_nc_cat=111&amp;ccb=7-5&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0FST1VTRUxfSVRFTS5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=41QOBnZdRs4Q7kNvwGkZgjP&amp;_nc_oc=AdkALhn2qTcU2x_nBoF-XJ9CAvrs8-cXlPkSkquFw0VOADjRIJrSJ83OM2jHVzEOxdx9kPNCzocB6UL-v2ZFtDaU&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-1.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=kxIeYQe8v096bVlfjnK6og&amp;oh=00_AfhC1bSYDKVF9kJcHAXQYOwJZ4UfN0B2CrgqpeLWdmvPAg&amp;oe=692938D3</t>
         </is>
       </c>
       <c r="AC95" t="inlineStr"/>
@@ -9945,12 +9972,12 @@
       <c r="AA96" t="inlineStr"/>
       <c r="AB96" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-2.cdninstagram.com/o1/v/t2/f2/m82/AQPO9xbfSIm2poaQmpW67C6BY8td9Ta24hrYec9dFATKrDXL-W8E34NkjzgHowg4GX7_kQc196yz2QdOwGWdOumSvaadhsyXNy1oeAI.mp4?_nc_cat=101&amp;_nc_sid=5e9851&amp;_nc_ht=scontent-lga3-2.cdninstagram.com&amp;_nc_ohc=Kw25mTxoe7cQ7kNvwHsD3zT&amp;efg=eyJ2ZW5jb2RlX3RhZyI6Inhwdl9wcm9ncmVzc2l2ZS5JTlNUQUdSQU0uQ0xJUFMuQzMuNzIwLmRhc2hfYmFzZWxpbmVfMV92MSIsInhwdl9hc3NldF9pZCI6OTkxMzkwMzA2MDExMDM2LCJhc3NldF9hZ2VfZGF5cyI6NTYyLCJ2aV91c2VjYXNlX2lkIjoxMDA5OSwiZHVyYXRpb25fcyI6OTAsInVybGdlbl9zb3VyY2UiOiJ3d3cifQ%3D%3D&amp;ccb=17-1&amp;vs=c5e8f96715e94a18&amp;_nc_vs=HBksFQIYT2lnX3hwdl9yZWVsc19wZXJtYW5lbnRfcHJvZC8yQjQyNTY1RENENkM0NUYyQjE2QTVCMkM0NDhFMjZBM192aWRlb19kYXNoaW5pdC5tcDQVAALIARIAFQIYOnBhc3N0aHJvdWdoX2V2ZXJzdG9yZS9HUFRIQUJxWkJ6MzlYWkFCQUcwNWJ1Tnh6V0lFYnFfRUFBQUYVAgLIARIAKAAYABsCiAd1c2Vfb2lsATEScHJvZ3Jlc3NpdmVfcmVjaXBlATEVAAAmuJ6wsMHqwgMVAigCQzMsF0BWghysCDEnGBJkYXNoX2Jhc2VsaW5lXzFfdjERAHX-B2XmnQEA&amp;_nc_gid=UX7N9kGiqNNdGFe8DDb9yQ&amp;edm=AM6HXa8EAAAA&amp;_nc_zt=28&amp;oh=00_AfcFLMPfArqUdQLQ0f8EYP1RViZUBKvhHMdZCHfx4kAT6g&amp;oe=68FAEE16</t>
+          <t>https://scontent-lga3-2.cdninstagram.com/o1/v/t2/f2/m82/AQPO9xbfSIm2poaQmpW67C6BY8td9Ta24hrYec9dFATKrDXL-W8E34NkjzgHowg4GX7_kQc196yz2QdOwGWdOumSvaadhsyXNy1oeAI.mp4?_nc_cat=101&amp;_nc_sid=5e9851&amp;_nc_ht=scontent-lga3-2.cdninstagram.com&amp;_nc_ohc=NiovzMqSmB0Q7kNvwGlUD5D&amp;efg=eyJ2ZW5jb2RlX3RhZyI6Inhwdl9wcm9ncmVzc2l2ZS5JTlNUQUdSQU0uQ0xJUFMuQzMuNzIwLmRhc2hfYmFzZWxpbmVfMV92MSIsInhwdl9hc3NldF9pZCI6OTkxMzkwMzA2MDExMDM2LCJhc3NldF9hZ2VfZGF5cyI6NTk0LCJ2aV91c2VjYXNlX2lkIjoxMDA5OSwiZHVyYXRpb25fcyI6OTAsInVybGdlbl9zb3VyY2UiOiJ3d3cifQ%3D%3D&amp;ccb=17-1&amp;vs=c5e8f96715e94a18&amp;_nc_vs=HBksFQIYT2lnX3hwdl9yZWVsc19wZXJtYW5lbnRfcHJvZC8yQjQyNTY1RENENkM0NUYyQjE2QTVCMkM0NDhFMjZBM192aWRlb19kYXNoaW5pdC5tcDQVAALIARIAFQIYOnBhc3N0aHJvdWdoX2V2ZXJzdG9yZS9HUFRIQUJxWkJ6MzlYWkFCQUcwNWJ1Tnh6V0lFYnFfRUFBQUYVAgLIARIAKAAYABsCiAd1c2Vfb2lsATEScHJvZ3Jlc3NpdmVfcmVjaXBlATEVAAAmuJ6wsMHqwgMVAigCQzMsF0BWghysCDEnGBJkYXNoX2Jhc2VsaW5lXzFfdjERAHX-B2XmnQEA&amp;_nc_gid=kxIeYQe8v096bVlfjnK6og&amp;edm=AM6HXa8EAAAA&amp;_nc_zt=28&amp;oh=00_Afi1ESBt7CMk6uEBpq2YOQntNdOldilRnYke-GBBQeIWTA&amp;oe=69255656</t>
         </is>
       </c>
       <c r="AC96" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-1.cdninstagram.com/v/t51.71878-15/496410419_1261063049043759_7975994983941059160_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0xJUFMuYmVzdF9pbWFnZV91cmxnZW4uQzMifQ%3D%3D&amp;_nc_ohc=S7Hw6i8RyQgQ7kNvwGn7Bfr&amp;_nc_oc=AdkkCq9Vjm72Cy8PLr32BDhNIfWECtx3cHT7AP9r0SZHnnFjVV8cTHAwD6PCBSH4QbpZVVE4oZtfHbZPP4kysNIa&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-1.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=UX7N9kGiqNNdGFe8DDb9yQ&amp;oh=00_AfeuXiANvVdEPcc4PjZB_eJsdsryBGd1ZtTC94A2cwq55Q&amp;oe=68FF00C5</t>
+          <t>https://scontent-lga3-1.cdninstagram.com/v/t51.71878-15/496410419_1261063049043759_7975994983941059160_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=103&amp;ccb=7-5&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0xJUFMuYmVzdF9pbWFnZV91cmxnZW4uQzMifQ%3D%3D&amp;_nc_ohc=TsDB7O68uSwQ7kNvwG4Tbg6&amp;_nc_oc=Adnd7t170WRQ1KSK87Dmo7QhyAlAVhr0YhfoIdWbjUVi9_adZXxTfoL1vst1aF0vOdaYtRZjoGNs56FUMH2uvljE&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-1.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=kxIeYQe8v096bVlfjnK6og&amp;oh=00_AfgpPEi-unD73BvPPel2cl-X-zrDJVaQVTCdxgcFoNu79w&amp;oe=692930C5</t>
         </is>
       </c>
     </row>
@@ -10046,7 +10073,7 @@
       <c r="AA97" t="inlineStr"/>
       <c r="AB97" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-3.cdninstagram.com/v/t51.29350-15/436333712_1639460103533176_2332424681326552414_n.heic?stp=dst-jpg_e35_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0FST1VTRUxfSVRFTS5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=gNCRI8uDcrYQ7kNvwEpzv3r&amp;_nc_oc=AdngEnUWrNm-2FhaiH1dWwaWND7wiMn24M73b_a6OR0REGE9UsmeFWErRJxTaTDTF3YUTnhVKpbRbNpj4v-f5XRZ&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-3.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=UX7N9kGiqNNdGFe8DDb9yQ&amp;oh=00_AfeY69wUNJB3UtddXsebre3PMWHA5HbFqtzIqBBeYsVfhQ&amp;oe=68FEE43F</t>
+          <t>https://scontent-lga3-3.cdninstagram.com/v/t51.29350-15/436333712_1639460103533176_2332424681326552414_n.heic?stp=dst-jpg_e35_tt6&amp;_nc_cat=104&amp;ccb=7-5&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0FST1VTRUxfSVRFTS5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=uN12diLYQOsQ7kNvwG-EhlN&amp;_nc_oc=AdnFytT0ib7VlU9Lqjr3SzAjKnkxtIsuceHNc7Jji1AN5cRa6u66YYaq-YmEIVlYUiWXdg4GVwfYFz94IBBQ9wr1&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-3.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=kxIeYQe8v096bVlfjnK6og&amp;oh=00_AfhMlwPZBCdPLU2ALzAh1but4nJ43JlNN5gyXAVuuqCvxA&amp;oe=6929143F</t>
         </is>
       </c>
       <c r="AC97" t="inlineStr"/>
@@ -10116,7 +10143,7 @@
         <v>522</v>
       </c>
       <c r="P98" t="n">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="Q98" t="n">
         <v>51</v>
@@ -10143,7 +10170,7 @@
       <c r="AA98" t="inlineStr"/>
       <c r="AB98" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-3.cdninstagram.com/v/t51.29350-15/434950804_425150820067462_1856735072417731630_n.heic?stp=dst-jpg_e35_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0FST1VTRUxfSVRFTS5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=sSt9mle0aA0Q7kNvwHwc-bw&amp;_nc_oc=AdmQD0BricOmp_0wCsM33Czvj6TaAgnW19XUhYX1_Jvb6B3DPKL0Cb89P0PqMh3_8OFmIBjC4RTVYLX0lzNyHl_X&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-3.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=UX7N9kGiqNNdGFe8DDb9yQ&amp;oh=00_AffQcDfPZVo92qP2jSLWofLgUeiHB7MU28KDjulH0uJuhQ&amp;oe=68FEF9AF</t>
+          <t>https://scontent-lga3-3.cdninstagram.com/v/t51.29350-15/434950804_425150820067462_1856735072417731630_n.heic?stp=dst-jpg_e35_tt6&amp;_nc_cat=110&amp;ccb=7-5&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0FST1VTRUxfSVRFTS5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=fCMlK8a2ek8Q7kNvwHWx11B&amp;_nc_oc=AdmQpevQB5PffZk1PlUw31kPGCYORrT6QgCbV017xhtmDfB1W4OS7wMwVpTvPJh-om-5dHo0sw-nadyUj-CbqicG&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-3.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=kxIeYQe8v096bVlfjnK6og&amp;oh=00_Afh92Zym4hNEJ2dB1Q7znJkY2OvkY9lvO6mOLgpQMwF1ww&amp;oe=692929AF</t>
         </is>
       </c>
       <c r="AC98" t="inlineStr"/>
@@ -10205,13 +10232,13 @@
         </is>
       </c>
       <c r="M99" t="n">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="N99" t="n">
         <v>0</v>
       </c>
       <c r="O99" t="n">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="P99" t="inlineStr"/>
       <c r="Q99" t="n">
@@ -10239,12 +10266,12 @@
       <c r="AA99" t="inlineStr"/>
       <c r="AB99" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-1.cdninstagram.com/o1/v/t2/f2/m82/AQPfLCpldyxFX-gG5nMNQIdTyNlSyL53YKOniOYfVaW6LyxGN7r-uzx3FRMEo6_pNXbNVlLY91yh2wLBXfh-CTKnH9J4ZG30KQp9AYA.mp4?_nc_cat=108&amp;_nc_sid=5e9851&amp;_nc_ht=scontent-lga3-1.cdninstagram.com&amp;_nc_ohc=faAMzBvkNMsQ7kNvwFpQR0y&amp;efg=eyJ2ZW5jb2RlX3RhZyI6Inhwdl9wcm9ncmVzc2l2ZS5JTlNUQUdSQU0uQ0xJUFMuQzMuNzIwLmRhc2hfYmFzZWxpbmVfMV92MSIsInhwdl9hc3NldF9pZCI6MjMxNDYxODAwMjA3NzcxMCwiYXNzZXRfYWdlX2RheXMiOjU3MiwidmlfdXNlY2FzZV9pZCI6MTAwOTksImR1cmF0aW9uX3MiOjEwLCJ1cmxnZW5fc291cmNlIjoid3d3In0%3D&amp;ccb=17-1&amp;vs=8a55c433841f5ff&amp;_nc_vs=HBksFQIYT2lnX3hwdl9yZWVsc19wZXJtYW5lbnRfcHJvZC9DMjQyNTRFREMzNzdCREQ0ODcwQTBEREM0QjNFREZCQl92aWRlb19kYXNoaW5pdC5tcDQVAALIARIAFQIYOnBhc3N0aHJvdWdoX2V2ZXJzdG9yZS9HQW1PNUJrNFNkUlk2MklHQUU0N3A2Z0txRndSYnFfRUFBQUYVAgLIARIAKAAYABsCiAd1c2Vfb2lsATEScHJvZ3Jlc3NpdmVfcmVjaXBlATEVAAAmnODv_L_InAgVAigCQzMsF0Ajsi0OVgQZGBJkYXNoX2Jhc2VsaW5lXzFfdjERAHX-B2XmnQEA&amp;_nc_gid=UX7N9kGiqNNdGFe8DDb9yQ&amp;edm=AM6HXa8EAAAA&amp;_nc_zt=28&amp;oh=00_Affj9MttXISZIXKwAwmq1e9M_wvcn_QVMjabh9NzsiRVqg&amp;oe=68FAEDC5</t>
+          <t>https://scontent-lga3-3.cdninstagram.com/o1/v/t2/f2/m82/AQPfLCpldyxFX-gG5nMNQIdTyNlSyL53YKOniOYfVaW6LyxGN7r-uzx3FRMEo6_pNXbNVlLY91yh2wLBXfh-CTKnH9J4ZG30KQp9AYA.mp4?_nc_cat=108&amp;_nc_sid=5e9851&amp;_nc_ht=scontent-lga3-3.cdninstagram.com&amp;_nc_ohc=pghgHhszssUQ7kNvwEbBjfM&amp;efg=eyJ2ZW5jb2RlX3RhZyI6Inhwdl9wcm9ncmVzc2l2ZS5JTlNUQUdSQU0uQ0xJUFMuQzMuNzIwLmRhc2hfYmFzZWxpbmVfMV92MSIsInhwdl9hc3NldF9pZCI6MjMxNDYxODAwMjA3NzcxMCwiYXNzZXRfYWdlX2RheXMiOjYwNCwidmlfdXNlY2FzZV9pZCI6MTAwOTksImR1cmF0aW9uX3MiOjEwLCJ1cmxnZW5fc291cmNlIjoid3d3In0%3D&amp;ccb=17-1&amp;vs=8a55c433841f5ff&amp;_nc_vs=HBksFQIYT2lnX3hwdl9yZWVsc19wZXJtYW5lbnRfcHJvZC9DMjQyNTRFREMzNzdCREQ0ODcwQTBEREM0QjNFREZCQl92aWRlb19kYXNoaW5pdC5tcDQVAALIARIAFQIYOnBhc3N0aHJvdWdoX2V2ZXJzdG9yZS9HQW1PNUJrNFNkUlk2MklHQUU0N3A2Z0txRndSYnFfRUFBQUYVAgLIARIAKAAYABsCiAd1c2Vfb2lsATEScHJvZ3Jlc3NpdmVfcmVjaXBlATEVAAAmnODv_L_InAgVAigCQzMsF0Ajsi0OVgQZGBJkYXNoX2Jhc2VsaW5lXzFfdjERAHX-B2XmnQEA&amp;_nc_gid=kxIeYQe8v096bVlfjnK6og&amp;edm=AM6HXa8EAAAA&amp;_nc_zt=28&amp;oh=00_Afjp4CsxY0QLGrTmQ2pI4EYN_4iOiVeUjjPNQJrsaUYBNw&amp;oe=69255605</t>
         </is>
       </c>
       <c r="AC99" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-3.cdninstagram.com/v/t51.71878-15/504361230_2669085859964254_318808737838082389_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0xJUFMuYmVzdF9pbWFnZV91cmxnZW4uQzMifQ%3D%3D&amp;_nc_ohc=CHFecGGinqAQ7kNvwFiejP_&amp;_nc_oc=AdlqUxk_Ygqo-JrW23ORQF-6AlUFnyswSdS8l72bLolPR9Y_y1NvHeyLWCB9Ak2yjLh4Fh-5ZKAi9HrzaDiNTCn0&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-3.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=UX7N9kGiqNNdGFe8DDb9yQ&amp;oh=00_AffU_zYlmho6AjBQJjzTNS3GH1s-Pw9TG3PU9g7izEokLw&amp;oe=68FEEC32</t>
+          <t>https://scontent-lga3-3.cdninstagram.com/v/t51.71878-15/504361230_2669085859964254_318808737838082389_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=104&amp;ccb=7-5&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0xJUFMuYmVzdF9pbWFnZV91cmxnZW4uQzMifQ%3D%3D&amp;_nc_ohc=0Ox3xX7txucQ7kNvwF5E3s7&amp;_nc_oc=AdkoF5W4JAhbt4xVirADzCiJUf1zJ2jSccq6c5C1i-5QeWJV7gTRkTr4Gm4Op0fRMyqxyjFzUlKT568Q6-3o4qWe&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-3.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=kxIeYQe8v096bVlfjnK6og&amp;oh=00_AfisWVc0Zb02yeukMsT-cugNEisJ_FgF-HFvmfy5C6bxIA&amp;oe=69291C32</t>
         </is>
       </c>
     </row>
@@ -10310,10 +10337,10 @@
         <v>0</v>
       </c>
       <c r="O100" t="n">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="P100" t="n">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="Q100" t="n">
         <v>61</v>
@@ -10340,7 +10367,7 @@
       <c r="AA100" t="inlineStr"/>
       <c r="AB100" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-2.cdninstagram.com/v/t51.29350-15/433998207_816285323866536_2058229924481972708_n.heic?stp=dst-jpg_e35_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0FST1VTRUxfSVRFTS5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=k31IzxMRlJQQ7kNvwFE6O4A&amp;_nc_oc=AdmUlpFHRRpkFFWoz1PYzy3FWLMRs0gLqcwhXHjEoVQ8RQYjz22_HbpZz10GeIFKUyJKkIn8To9GJO_n6zOwvBVb&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-2.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=UX7N9kGiqNNdGFe8DDb9yQ&amp;oh=00_AfeKS8-uSFG2c02yxkO6leHsmx0lTrib2kPD6YonE0hp3w&amp;oe=68FEF79F</t>
+          <t>https://scontent-lga3-2.cdninstagram.com/v/t51.29350-15/433998207_816285323866536_2058229924481972708_n.heic?stp=dst-jpg_e35_tt6&amp;_nc_cat=105&amp;ccb=7-5&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0FST1VTRUxfSVRFTS5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=cJR4jq_xDJIQ7kNvwEypXd_&amp;_nc_oc=AdnMu14EC05nVpHDMy596LKUe3f4s51-LHqKaVWYhb4bix9H6Ca8MjYCcQCiZnfkf5kJblJLBjKEWVVQYr8rUvjf&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-2.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=kxIeYQe8v096bVlfjnK6og&amp;oh=00_Afio-KtivM9wSw5sUXKEoGpK1XJqSCj_6ZF_ePFbTAOfhQ&amp;oe=6929279F</t>
         </is>
       </c>
       <c r="AC100" t="inlineStr"/>
@@ -10407,10 +10434,10 @@
         <v>0</v>
       </c>
       <c r="O101" t="n">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="P101" t="n">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="Q101" t="n">
         <v>60</v>
@@ -10437,7 +10464,7 @@
       <c r="AA101" t="inlineStr"/>
       <c r="AB101" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-1.cdninstagram.com/v/t51.29350-15/432923860_778191430455752_2805653783862790512_n.heic?stp=dst-jpg_e35_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0FST1VTRUxfSVRFTS5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=eGn97D3THysQ7kNvwEtaTOu&amp;_nc_oc=AdkaG6_kAsJSmzEllTbkpGm1PBrXV3tM5cjjvnCgiOzZeiK4jmFtbIbaKb43eJPOjp-808k2x80gAREiS0fIUoax&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-1.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=UX7N9kGiqNNdGFe8DDb9yQ&amp;oh=00_AfcqLTtwJhX12EhCtErybdzh2X53QvHaw8Weebbtr8rAJw&amp;oe=68FEF91F</t>
+          <t>https://scontent-lga3-1.cdninstagram.com/v/t51.29350-15/432923860_778191430455752_2805653783862790512_n.heic?stp=dst-jpg_e35_tt6&amp;_nc_cat=102&amp;ccb=7-5&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0FST1VTRUxfSVRFTS5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=tFoSMUwKb5AQ7kNvwGFX2ay&amp;_nc_oc=AdlD-JHoaw0H2YEhViVU3wKt-7A5qlPo96qIe_EmGpAQ29EnUwhyvIQzivof81_-g4lFaFc0mzdNYW6DEHITr-AT&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-1.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=kxIeYQe8v096bVlfjnK6og&amp;oh=00_AfjKpKLc3dLmn9dS4sZ4iPgdYcobykhrXFJf5wU3rni-yQ&amp;oe=6929291F</t>
         </is>
       </c>
       <c r="AC101" t="inlineStr"/>
@@ -10505,10 +10532,10 @@
         <v>0</v>
       </c>
       <c r="O102" t="n">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="P102" t="n">
-        <v>1245</v>
+        <v>1247</v>
       </c>
       <c r="Q102" t="n">
         <v>111</v>
@@ -10535,7 +10562,7 @@
       <c r="AA102" t="inlineStr"/>
       <c r="AB102" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-3.cdninstagram.com/v/t51.29350-15/432600943_2199023180432217_1726391454970271311_n.heic?stp=dst-jpg_e35_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiRkVFRC5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=fTBmhUHGdRoQ7kNvwFbZVHG&amp;_nc_oc=Adn5r4omDWaCvWFWG_cD1NqEwfyeDUbho_-qS-mEnZhP5nEUKN6kvJzor1dHqDO_Wz-t_ZsRb__6Tm9VufRmwAbQ&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-3.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=NMh7la5AfM9mywX1Im3YVQ&amp;oh=00_AffmX1CI5j2_BxQC0DSMNjFxSg9nkJqh3NwOr7Yw-lTWdQ&amp;oe=68FEFA76</t>
+          <t>https://scontent-lga3-3.cdninstagram.com/v/t51.29350-15/432600943_2199023180432217_1726391454970271311_n.heic?stp=dst-jpg_e35_tt6&amp;_nc_cat=106&amp;ccb=7-5&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiRkVFRC5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=20BVm6kK_J4Q7kNvwGAtW4u&amp;_nc_oc=AdlohkNR8Ub--q1jACWEYfxV0m9kzKjp5PTEEj1g7ASi7Pc7ALJTKzV4MFZDxJgeAcTy-sPmQf-y2FiMyTdzuDhG&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-3.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=Lo2XEUA_pHwBJY5IU7WgrQ&amp;oh=00_AfiO3lRxZ6Une-qEicORh93MfF03uT4idguXuS6N2aabzg&amp;oe=69292A76</t>
         </is>
       </c>
       <c r="AC102" t="inlineStr"/>
@@ -10606,7 +10633,7 @@
         <v>1700</v>
       </c>
       <c r="P103" t="n">
-        <v>2030</v>
+        <v>2033</v>
       </c>
       <c r="Q103" t="n">
         <v>189</v>
@@ -10633,7 +10660,7 @@
       <c r="AA103" t="inlineStr"/>
       <c r="AB103" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-3.cdninstagram.com/v/t51.29350-15/432240444_768151831660033_7620805970792660772_n.heic?stp=dst-jpg_e35_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiRkVFRC5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=HB3I8R2yj3QQ7kNvwGOTlsz&amp;_nc_oc=AdkSEKGITd7AHy_d_z_Wo9sWbKLUMd7Esjy7V4L1bzLPu7ZjLl0oxLaDMQYNVzDC8s_6_t65PjnK-GUkuGRcJyJD&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-3.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=NMh7la5AfM9mywX1Im3YVQ&amp;oh=00_AfdNlpu7oASU4bW9OCAiAmDa7znEB0cB55p3vvW1YbsTqQ&amp;oe=68FEEE69</t>
+          <t>https://scontent-lga3-3.cdninstagram.com/v/t51.29350-15/432240444_768151831660033_7620805970792660772_n.heic?stp=dst-jpg_e35_tt6&amp;_nc_cat=110&amp;ccb=7-5&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiRkVFRC5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=vAQOOoWXMDcQ7kNvwEeZaMB&amp;_nc_oc=Adlm6yAeV_XlXYipk6yqTFNKSLRTDMU3DX7bu3ZMPmOi1RnBnQozuS6xGbpWgeD1tKS9RjKnE7L8FI3alORc2iXx&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-3.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=Lo2XEUA_pHwBJY5IU7WgrQ&amp;oh=00_Afg2Ka978VZO7lck-LKmlqvNbQ3HU_J9ltbYpf3Afk629A&amp;oe=69291E69</t>
         </is>
       </c>
       <c r="AC103" t="inlineStr"/>
@@ -10693,7 +10720,7 @@
         </is>
       </c>
       <c r="M104" t="n">
-        <v>1520</v>
+        <v>1522</v>
       </c>
       <c r="N104" t="n">
         <v>0</v>
@@ -10727,12 +10754,12 @@
       <c r="AA104" t="inlineStr"/>
       <c r="AB104" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-2.cdninstagram.com/o1/v/t2/f2/m82/AQNjgCU1Oif9abHbOSk6APCPBl23v-3LRCJLhns7z11uKnbvNvILyfdis0zIKueTkIxIYfSTP0MhdcoTBx9d35Lg0fDduwyGdlZ5Nso.mp4?_nc_cat=101&amp;_nc_sid=5e9851&amp;_nc_ht=scontent-lga3-2.cdninstagram.com&amp;_nc_ohc=fKXZUstzm6QQ7kNvwFqCiUj&amp;efg=eyJ2ZW5jb2RlX3RhZyI6Inhwdl9wcm9ncmVzc2l2ZS5JTlNUQUdSQU0uQ0xJUFMuQzMuNzIwLmRhc2hfYmFzZWxpbmVfMV92MSIsInhwdl9hc3NldF9pZCI6MTM4NzQzNzUzODgxNTYxMywiYXNzZXRfYWdlX2RheXMiOjY2NywidmlfdXNlY2FzZV9pZCI6MTAwOTksImR1cmF0aW9uX3MiOjM2LCJ1cmxnZW5fc291cmNlIjoid3d3In0%3D&amp;ccb=17-1&amp;vs=8a028114f9e1786c&amp;_nc_vs=HBksFQIYT2lnX3hwdl9yZWVsc19wZXJtYW5lbnRfcHJvZC8zRjRGNTkwNzY2Qzc1OTY5OTlCMDFGNERGOUIyNkNBQl92aWRlb19kYXNoaW5pdC5tcDQVAALIARIAFQIYOnBhc3N0aHJvdWdoX2V2ZXJzdG9yZS9HRms3cnhocTBzaDNTUzhEQUpxOXU2bWF4dmhFYnFfRUFBQUYVAgLIARIAKAAYABsCiAd1c2Vfb2lsATEScHJvZ3Jlc3NpdmVfcmVjaXBlATEVAAAm-rmxmr_39gQVAigCQzMsF0BCJ--dsi0OGBJkYXNoX2Jhc2VsaW5lXzFfdjERAHX-B2XmnQEA&amp;_nc_gid=NMh7la5AfM9mywX1Im3YVQ&amp;edm=AM6HXa8EAAAA&amp;_nc_zt=28&amp;oh=00_AfeAqxcO0L9w7Movl47j0xQHzyrcFAYNnUJ_l-llVSgy9Q&amp;oe=68FB0D8E</t>
+          <t>https://scontent-lga3-2.cdninstagram.com/o1/v/t2/f2/m82/AQNjgCU1Oif9abHbOSk6APCPBl23v-3LRCJLhns7z11uKnbvNvILyfdis0zIKueTkIxIYfSTP0MhdcoTBx9d35Lg0fDduwyGdlZ5Nso.mp4?_nc_cat=101&amp;_nc_sid=5e9851&amp;_nc_ht=scontent-lga3-2.cdninstagram.com&amp;_nc_ohc=GEktuZ2e6VQQ7kNvwFBZPPK&amp;efg=eyJ2ZW5jb2RlX3RhZyI6Inhwdl9wcm9ncmVzc2l2ZS5JTlNUQUdSQU0uQ0xJUFMuQzMuNzIwLmRhc2hfYmFzZWxpbmVfMV92MSIsInhwdl9hc3NldF9pZCI6MTM4NzQzNzUzODgxNTYxMywiYXNzZXRfYWdlX2RheXMiOjY5OSwidmlfdXNlY2FzZV9pZCI6MTAwOTksImR1cmF0aW9uX3MiOjM2LCJ1cmxnZW5fc291cmNlIjoid3d3In0%3D&amp;ccb=17-1&amp;_nc_gid=Lo2XEUA_pHwBJY5IU7WgrQ&amp;edm=AM6HXa8EAAAA&amp;_nc_zt=28&amp;vs=8a028114f9e1786c&amp;_nc_vs=HBksFQIYT2lnX3hwdl9yZWVsc19wZXJtYW5lbnRfcHJvZC8zRjRGNTkwNzY2Qzc1OTY5OTlCMDFGNERGOUIyNkNBQl92aWRlb19kYXNoaW5pdC5tcDQVAALIARIAFQIYOnBhc3N0aHJvdWdoX2V2ZXJzdG9yZS9HRms3cnhocTBzaDNTUzhEQUpxOXU2bWF4dmhFYnFfRUFBQUYVAgLIARIAKAAYABsCiAd1c2Vfb2lsATEScHJvZ3Jlc3NpdmVfcmVjaXBlATEVAAAm-rmxmr_39gQVAigCQzMsF0BCJ--dsi0OGBJkYXNoX2Jhc2VsaW5lXzFfdjERAHX-B2XmnQEA&amp;oh=00_Afh5ht7TZiRXGeUk-jZaWeQpcWiEuT0gDG5KeMOZ1yQecQ&amp;oe=69253D8E</t>
         </is>
       </c>
       <c r="AC104" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-1.cdninstagram.com/v/t51.71878-15/499055827_1727019271524103_1903569100426439205_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0xJUFMuYmVzdF9pbWFnZV91cmxnZW4uQzMifQ%3D%3D&amp;_nc_ohc=QLy44Bdd_YYQ7kNvwGqNKDg&amp;_nc_oc=AdmoE1GJ-h30u3GkOOiw1k33VkOrOXIahOm7obVzCoUmcH4tUlr_dz2oRB_MiqjNJx8wmP_vC8uwoBad7-hr3Cd5&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-1.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=NMh7la5AfM9mywX1Im3YVQ&amp;oh=00_AfcWWN_f6I9ct6QR017nzarbihgv8OUzB2bd2HDA0idbQw&amp;oe=68FEF22F</t>
+          <t>https://scontent-lga3-1.cdninstagram.com/v/t51.71878-15/499055827_1727019271524103_1903569100426439205_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=103&amp;ccb=7-5&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0xJUFMuYmVzdF9pbWFnZV91cmxnZW4uQzMifQ%3D%3D&amp;_nc_ohc=oRppLWpASfkQ7kNvwHC7mVl&amp;_nc_oc=AdlA1pY8GZg4VuXrhdxHGq9kjsBKZOESm-4r3Fo-UK1eEyXq51AlZsGJcmXH5fMemx0DvgQnltRRTNAqR2ghjeDH&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-1.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=Lo2XEUA_pHwBJY5IU7WgrQ&amp;oh=00_AfgDcbLI8ah_mrRgnJ2H2qhBL13I7K9usoS82sIP0lq2qQ&amp;oe=6929222F</t>
         </is>
       </c>
     </row>
@@ -10799,7 +10826,7 @@
         <v>0</v>
       </c>
       <c r="O105" t="n">
-        <v>639</v>
+        <v>232</v>
       </c>
       <c r="P105" t="inlineStr"/>
       <c r="Q105" t="n">
@@ -10809,7 +10836,7 @@
         <v>0</v>
       </c>
       <c r="S105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T105" t="n">
         <v>1</v>
@@ -10818,7 +10845,7 @@
         <v>0</v>
       </c>
       <c r="V105" t="n">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="W105" t="inlineStr"/>
       <c r="X105" t="inlineStr"/>
@@ -10827,12 +10854,12 @@
       <c r="AA105" t="inlineStr"/>
       <c r="AB105" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-3.cdninstagram.com/o1/v/t2/f2/m82/AQOgBZI1FZI15McsUyBudq6-rKJNE0uZ6cCFzfFCcs_E9oO-ttD63_Nl4x2k4aBNPBpzEdfqAuVnNn1GbIqSlIWCDdCHwj_N-sKos1U.mp4?_nc_cat=110&amp;_nc_sid=5e9851&amp;_nc_ht=scontent-lga3-3.cdninstagram.com&amp;_nc_ohc=c2UVCXkrzzYQ7kNvwHQDTnI&amp;efg=eyJ2ZW5jb2RlX3RhZyI6Inhwdl9wcm9ncmVzc2l2ZS5JTlNUQUdSQU0uQ0xJUFMuQzMuMTI4MC5kYXNoX2Jhc2VsaW5lXzFfdjEiLCJ4cHZfYXNzZXRfaWQiOjY3OTAzMDE5NzU0MjgzMSwiYXNzZXRfYWdlX2RheXMiOjY5NCwidmlfdXNlY2FzZV9pZCI6MTAwOTksImR1cmF0aW9uX3MiOjMwLCJ1cmxnZW5fc291cmNlIjoid3d3In0%3D&amp;ccb=17-1&amp;vs=b60aaf6579204969&amp;_nc_vs=HBksFQIYT2lnX3hwdl9yZWVsc19wZXJtYW5lbnRfcHJvZC8yQjRDMTNENUEwQTM0NzAxOTYzQjhDQzM1M0NBMkQ5Rl92aWRlb19kYXNoaW5pdC5tcDQVAALIARIAFQIYOnBhc3N0aHJvdWdoX2V2ZXJzdG9yZS9HTFZ3TVJodFdlMFI1R2NDQUJuaUc3bzNiR2dkYnFfRUFBQUYVAgLIARIAKAAYABsCiAd1c2Vfb2lsATEScHJvZ3Jlc3NpdmVfcmVjaXBlATEVAAAm3v66m-HktAIVAigCQzMsF0A-AAAAAAAAGBJkYXNoX2Jhc2VsaW5lXzFfdjERAHX-B2XmnQEA&amp;_nc_gid=NMh7la5AfM9mywX1Im3YVQ&amp;edm=AM6HXa8EAAAA&amp;_nc_zt=28&amp;oh=00_Afes-ZFoHD3vyc8ODnMQ3WW72FOqjoIiyokJjbTkqhuMJg&amp;oe=68FAED6F</t>
+          <t>https://scontent-lga3-3.cdninstagram.com/o1/v/t2/f2/m82/AQOgBZI1FZI15McsUyBudq6-rKJNE0uZ6cCFzfFCcs_E9oO-ttD63_Nl4x2k4aBNPBpzEdfqAuVnNn1GbIqSlIWCDdCHwj_N-sKos1U.mp4?_nc_cat=110&amp;_nc_sid=5e9851&amp;_nc_ht=scontent-lga3-3.cdninstagram.com&amp;_nc_ohc=CbpdpP2H_3MQ7kNvwG23cV8&amp;efg=eyJ2ZW5jb2RlX3RhZyI6Inhwdl9wcm9ncmVzc2l2ZS5JTlNUQUdSQU0uQ0xJUFMuQzMuMTI4MC5kYXNoX2Jhc2VsaW5lXzFfdjEiLCJ4cHZfYXNzZXRfaWQiOjY3OTAzMDE5NzU0MjgzMSwiYXNzZXRfYWdlX2RheXMiOjcyNiwidmlfdXNlY2FzZV9pZCI6MTAwOTksImR1cmF0aW9uX3MiOjMwLCJ1cmxnZW5fc291cmNlIjoid3d3In0%3D&amp;ccb=17-1&amp;vs=b60aaf6579204969&amp;_nc_vs=HBksFQIYT2lnX3hwdl9yZWVsc19wZXJtYW5lbnRfcHJvZC8yQjRDMTNENUEwQTM0NzAxOTYzQjhDQzM1M0NBMkQ5Rl92aWRlb19kYXNoaW5pdC5tcDQVAALIARIAFQIYOnBhc3N0aHJvdWdoX2V2ZXJzdG9yZS9HTFZ3TVJodFdlMFI1R2NDQUJuaUc3bzNiR2dkYnFfRUFBQUYVAgLIARIAKAAYABsCiAd1c2Vfb2lsATEScHJvZ3Jlc3NpdmVfcmVjaXBlATEVAAAm3v66m-HktAIVAigCQzMsF0A-AAAAAAAAGBJkYXNoX2Jhc2VsaW5lXzFfdjERAHX-B2XmnQEA&amp;_nc_gid=Lo2XEUA_pHwBJY5IU7WgrQ&amp;edm=AM6HXa8EAAAA&amp;_nc_zt=28&amp;oh=00_Afignqi0oziot-CNHyuW33PCibBGTyn9l-SJhKoL4B2Ruw&amp;oe=692555AF</t>
         </is>
       </c>
       <c r="AC105" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-2.cdninstagram.com/v/t51.71878-15/503028111_1018195290292985_5209823160277346877_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0xJUFMuYmVzdF9pbWFnZV91cmxnZW4uQzMifQ%3D%3D&amp;_nc_ohc=FYnQJRwrd1gQ7kNvwGCYTQ6&amp;_nc_oc=Adl9ve9YO8nyoZo03Sz1shOVEL_ESGeWT_PhLiMWh9LQd4IJF6TRGoodO7OpRN0MEqa_1VwUzIMBuKzPy34ja7Cs&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-2.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=NMh7la5AfM9mywX1Im3YVQ&amp;oh=00_AffnuzR0PWEIESKKY_CEuzuwHfxZLhhtviqFyxgFp8fvNw&amp;oe=68FEE28A</t>
+          <t>https://scontent-lga3-2.cdninstagram.com/v/t51.71878-15/503028111_1018195290292985_5209823160277346877_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=109&amp;ccb=7-5&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0xJUFMuYmVzdF9pbWFnZV91cmxnZW4uQzMifQ%3D%3D&amp;_nc_ohc=3GC2cLep2t0Q7kNvwFUlo8v&amp;_nc_oc=AdldCbYIRi3k4yO2ki5KlXlefobN79Oxk4D9C8yM6k24k77dk09imdpEB_ojVyM-U6iv42xEBFjGg0_8hfRkeEdf&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-2.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=Lo2XEUA_pHwBJY5IU7WgrQ&amp;oh=00_AfgSqFdprtfHsasQCQcO4m_m5uIe-O60KeBudDyeDDl5KA&amp;oe=69294ACA</t>
         </is>
       </c>
     </row>
@@ -10898,10 +10925,10 @@
         <v>0</v>
       </c>
       <c r="O106" t="n">
-        <v>321</v>
+        <v>279</v>
       </c>
       <c r="P106" t="n">
-        <v>444</v>
+        <v>372</v>
       </c>
       <c r="Q106" t="n">
         <v>43</v>
@@ -10910,7 +10937,7 @@
         <v>0</v>
       </c>
       <c r="S106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T106" t="n">
         <v>2</v>
@@ -10919,7 +10946,7 @@
         <v>0</v>
       </c>
       <c r="V106" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W106" t="inlineStr"/>
       <c r="X106" t="inlineStr"/>
@@ -10928,7 +10955,7 @@
       <c r="AA106" t="inlineStr"/>
       <c r="AB106" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-3.cdninstagram.com/v/t51.29350-15/394729122_886389792402105_4767731542303656216_n.heic?stp=dst-jpg_e35_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiRkVFRC5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=uK4tQbevcOMQ7kNvwFddmbS&amp;_nc_oc=AdmDpYnKCoohOphrgENWt0B8sHH9X_97WrYXyN86ZlWZ02FgYtEPkvfGET7AiCf-o2KSd-jMCLqMPMZjavI-BNaS&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-3.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=NMh7la5AfM9mywX1Im3YVQ&amp;oh=00_AfchVCbCzRrXATv8SxIZDlwINhwze5z98n32jV-ZcMyQZw&amp;oe=68FF1684</t>
+          <t>https://scontent-lga3-3.cdninstagram.com/v/t51.29350-15/394729122_886389792402105_4767731542303656216_n.heic?stp=dst-jpg_e35_tt6&amp;_nc_cat=106&amp;ccb=7-5&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiRkVFRC5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=-hTDzC-6WQkQ7kNvwE8a4mU&amp;_nc_oc=AdnN0fjSACL8LXsngjG59uTW-RycKvXop83E0W5UsJqyYpZSgjxZVb5yTKOT37hpW_xPKKlwggMbwvhPSMKuvh9-&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-3.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=Lo2XEUA_pHwBJY5IU7WgrQ&amp;oh=00_AfjUFpGLTG_SIW0aAK4ssI5wCs24sKiVk_pF11q8Dy7tNQ&amp;oe=69294684</t>
         </is>
       </c>
       <c r="AC106" t="inlineStr"/>
@@ -10995,7 +11022,7 @@
         <v>0</v>
       </c>
       <c r="O107" t="n">
-        <v>300</v>
+        <v>264</v>
       </c>
       <c r="P107" t="inlineStr"/>
       <c r="Q107" t="n">
@@ -11023,12 +11050,12 @@
       <c r="AA107" t="inlineStr"/>
       <c r="AB107" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-3.cdninstagram.com/o1/v/t2/f2/m82/AQNTxeegwEA-ogGMerhM7TJsRwdEJ1OtUVQrnPl2u6mP3WYkvRZ1t7OskgZW952MiHD0uXUI8gsgx_t1o8AtnihW2OA9tkYiiczAULg.mp4?_nc_cat=104&amp;_nc_sid=5e9851&amp;_nc_ht=scontent-lga3-3.cdninstagram.com&amp;_nc_ohc=AteS2VlSvY4Q7kNvwFcOigv&amp;efg=eyJ2ZW5jb2RlX3RhZyI6Inhwdl9wcm9ncmVzc2l2ZS5JTlNUQUdSQU0uQ0xJUFMuQzMuNzIwLmRhc2hfYmFzZWxpbmVfMV92MSIsInhwdl9hc3NldF9pZCI6Mjk2NDc3NjQwMDMyNTQzOSwiYXNzZXRfYWdlX2RheXMiOjczMywidmlfdXNlY2FzZV9pZCI6MTAwOTksImR1cmF0aW9uX3MiOjI4LCJ1cmxnZW5fc291cmNlIjoid3d3In0%3D&amp;ccb=17-1&amp;vs=e939df85554aa79b&amp;_nc_vs=HBksFQIYT2lnX3hwdl9yZWVsc19wZXJtYW5lbnRfcHJvZC84QzQ4MTZFNjg0NjQ1NjQ4ODY1ODg2RjMzMDU4Nzc5MF92aWRlb19kYXNoaW5pdC5tcDQVAALIARIAFQIYOnBhc3N0aHJvdWdoX2V2ZXJzdG9yZS9HRDFEZVJmdGdqbkFFXzBHQUhYQkxnWG5nSHRNYnFfRUFBQUYVAgLIARIAKAAYABsCiAd1c2Vfb2lsATEScHJvZ3Jlc3NpdmVfcmVjaXBlATEVAAAm_qzwwtmcxAoVAigCQzMsF0A7C0OVgQYlGBJkYXNoX2Jhc2VsaW5lXzFfdjERAHX-B2XmnQEA&amp;_nc_gid=NMh7la5AfM9mywX1Im3YVQ&amp;edm=AM6HXa8EAAAA&amp;_nc_zt=28&amp;oh=00_AfeLTJDY7CEHCRPRRMF87DftME1dTC0Yes4IOeGEuXwPPA&amp;oe=68FAF4E5</t>
+          <t>https://scontent-lga3-3.cdninstagram.com/o1/v/t2/f2/m82/AQNTxeegwEA-ogGMerhM7TJsRwdEJ1OtUVQrnPl2u6mP3WYkvRZ1t7OskgZW952MiHD0uXUI8gsgx_t1o8AtnihW2OA9tkYiiczAULg.mp4?_nc_cat=104&amp;_nc_sid=5e9851&amp;_nc_ht=scontent-lga3-3.cdninstagram.com&amp;_nc_ohc=YtY1O7iJ0pwQ7kNvwEtwYiJ&amp;efg=eyJ2ZW5jb2RlX3RhZyI6Inhwdl9wcm9ncmVzc2l2ZS5JTlNUQUdSQU0uQ0xJUFMuQzMuNzIwLmRhc2hfYmFzZWxpbmVfMV92MSIsInhwdl9hc3NldF9pZCI6Mjk2NDc3NjQwMDMyNTQzOSwiYXNzZXRfYWdlX2RheXMiOjc2NSwidmlfdXNlY2FzZV9pZCI6MTAwOTksImR1cmF0aW9uX3MiOjI4LCJ1cmxnZW5fc291cmNlIjoid3d3In0%3D&amp;ccb=17-1&amp;vs=e939df85554aa79b&amp;_nc_vs=HBksFQIYT2lnX3hwdl9yZWVsc19wZXJtYW5lbnRfcHJvZC84QzQ4MTZFNjg0NjQ1NjQ4ODY1ODg2RjMzMDU4Nzc5MF92aWRlb19kYXNoaW5pdC5tcDQVAALIARIAFQIYOnBhc3N0aHJvdWdoX2V2ZXJzdG9yZS9HRDFEZVJmdGdqbkFFXzBHQUhYQkxnWG5nSHRNYnFfRUFBQUYVAgLIARIAKAAYABsCiAd1c2Vfb2lsATEScHJvZ3Jlc3NpdmVfcmVjaXBlATEVAAAm_qzwwtmcxAoVAigCQzMsF0A7C0OVgQYlGBJkYXNoX2Jhc2VsaW5lXzFfdjERAHX-B2XmnQEA&amp;_nc_gid=Lo2XEUA_pHwBJY5IU7WgrQ&amp;edm=AM6HXa8EAAAA&amp;_nc_zt=28&amp;oh=00_Afhw5SbTeZQHEGP1R1RE6KxgZxpVeG9FgIhnbd8oByUHbA&amp;oe=692524E5</t>
         </is>
       </c>
       <c r="AC107" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-1.cdninstagram.com/v/t51.71878-15/499819101_3475656795904061_3971198544192609831_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0xJUFMuYmVzdF9pbWFnZV91cmxnZW4uQzMifQ%3D%3D&amp;_nc_ohc=T47-QkYh5WMQ7kNvwG7OH75&amp;_nc_oc=Adl905oXytT6qwcFjqrWQlPzsyWObXE72v8ciUQ9VrJXFqFCtwWISpEk-G9RzvvvM6779B1QvikaLcYu7X6d7abr&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-1.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=NMh7la5AfM9mywX1Im3YVQ&amp;oh=00_Aff5ImtyslAXdr5AWU_3nBeh8EuuqoiCPy5j0A8qZY-mJg&amp;oe=68FF03C9</t>
+          <t>https://scontent-lga3-1.cdninstagram.com/v/t51.71878-15/499819101_3475656795904061_3971198544192609831_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=102&amp;ccb=7-5&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0xJUFMuYmVzdF9pbWFnZV91cmxnZW4uQzMifQ%3D%3D&amp;_nc_ohc=rtVDqIkMsXsQ7kNvwE7dJfr&amp;_nc_oc=AdlEHAtjyVq_66UBKaqjJrlMamMJRt0Gecq7vwKa9smIRpJwhKT8if-uEmMjDKzy2oX2W0zh76m69QWt_oeZBqxi&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-1.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=Lo2XEUA_pHwBJY5IU7WgrQ&amp;oh=00_AfhZUc9W5DeHI5uv0bRmronuhtHJZeqkFOyrCJo7ncH9aA&amp;oe=692933C9</t>
         </is>
       </c>
     </row>
@@ -11094,7 +11121,7 @@
         <v>0</v>
       </c>
       <c r="O108" t="n">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="P108" t="inlineStr"/>
       <c r="Q108" t="n">
@@ -11122,12 +11149,12 @@
       <c r="AA108" t="inlineStr"/>
       <c r="AB108" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-2.cdninstagram.com/o1/v/t2/f2/m82/AQMx0gJ530Ua6ADe4xRjAhalxJ0TASwFavofrr63LTApt1B10I7Vz2jO-fJ9M24SUVuZwcy7KcpMWuZWfTgrOMQtsFZvbwoXNWIjNxc.mp4?_nc_cat=107&amp;_nc_sid=5e9851&amp;_nc_ht=scontent-lga3-2.cdninstagram.com&amp;_nc_ohc=sgLAGwLfj7oQ7kNvwG_Qkl3&amp;efg=eyJ2ZW5jb2RlX3RhZyI6Inhwdl9wcm9ncmVzc2l2ZS5JTlNUQUdSQU0uQ0xJUFMuQzMuNzIwLmRhc2hfYmFzZWxpbmVfMV92MSIsInhwdl9hc3NldF9pZCI6ODYzNTMyNzgyMDI3NjA5LCJhc3NldF9hZ2VfZGF5cyI6NzM1LCJ2aV91c2VjYXNlX2lkIjoxMDA5OSwiZHVyYXRpb25fcyI6ODYsInVybGdlbl9zb3VyY2UiOiJ3d3cifQ%3D%3D&amp;ccb=17-1&amp;vs=b9b69c19c13ebbb9&amp;_nc_vs=HBksFQIYT2lnX3hwdl9yZWVsc19wZXJtYW5lbnRfcHJvZC81QzQyODNEODYwQTlCMTFFODAxNUJDOUE2MzZCQTY5Ql92aWRlb19kYXNoaW5pdC5tcDQVAALIARIAFQIYOnBhc3N0aHJvdWdoX2V2ZXJzdG9yZS9HSk81TWhjMHVRaEFpZklDQUdkeEQ4dmdES0UtYnFfRUFBQUYVAgLIARIAKAAYABsCiAd1c2Vfb2lsATEScHJvZ3Jlc3NpdmVfcmVjaXBlATEVAAAmso3My5zYiAMVAigCQzMsF0BVm7ZFocrBGBJkYXNoX2Jhc2VsaW5lXzFfdjERAHX-B2XmnQEA&amp;_nc_gid=NMh7la5AfM9mywX1Im3YVQ&amp;edm=AM6HXa8EAAAA&amp;_nc_zt=28&amp;oh=00_AffzCf9Zw0NEJJTuqC53odtzpI0jPBKe9OhdB-KBVZfq4w&amp;oe=68FAF6D0</t>
+          <t>https://scontent-lga3-2.cdninstagram.com/o1/v/t2/f2/m82/AQMx0gJ530Ua6ADe4xRjAhalxJ0TASwFavofrr63LTApt1B10I7Vz2jO-fJ9M24SUVuZwcy7KcpMWuZWfTgrOMQtsFZvbwoXNWIjNxc.mp4?_nc_cat=107&amp;_nc_sid=5e9851&amp;_nc_ht=scontent-lga3-2.cdninstagram.com&amp;_nc_ohc=M8LWwSlk21gQ7kNvwHnplv3&amp;efg=eyJ2ZW5jb2RlX3RhZyI6Inhwdl9wcm9ncmVzc2l2ZS5JTlNUQUdSQU0uQ0xJUFMuQzMuNzIwLmRhc2hfYmFzZWxpbmVfMV92MSIsInhwdl9hc3NldF9pZCI6ODYzNTMyNzgyMDI3NjA5LCJhc3NldF9hZ2VfZGF5cyI6NzY3LCJ2aV91c2VjYXNlX2lkIjoxMDA5OSwiZHVyYXRpb25fcyI6ODYsInVybGdlbl9zb3VyY2UiOiJ3d3cifQ%3D%3D&amp;ccb=17-1&amp;vs=b9b69c19c13ebbb9&amp;_nc_vs=HBksFQIYT2lnX3hwdl9yZWVsc19wZXJtYW5lbnRfcHJvZC81QzQyODNEODYwQTlCMTFFODAxNUJDOUE2MzZCQTY5Ql92aWRlb19kYXNoaW5pdC5tcDQVAALIARIAFQIYOnBhc3N0aHJvdWdoX2V2ZXJzdG9yZS9HSk81TWhjMHVRaEFpZklDQUdkeEQ4dmdES0UtYnFfRUFBQUYVAgLIARIAKAAYABsCiAd1c2Vfb2lsATEScHJvZ3Jlc3NpdmVfcmVjaXBlATEVAAAmso3My5zYiAMVAigCQzMsF0BVm7ZFocrBGBJkYXNoX2Jhc2VsaW5lXzFfdjERAHX-B2XmnQEA&amp;_nc_gid=Lo2XEUA_pHwBJY5IU7WgrQ&amp;edm=AM6HXa8EAAAA&amp;_nc_zt=28&amp;oh=00_AfgnEn2gSA8oLtpStMygqlT2aexvEei4m-AcOK2D37H4Eg&amp;oe=692526D0</t>
         </is>
       </c>
       <c r="AC108" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-2.cdninstagram.com/v/t51.71878-15/500327813_1231493175231566_2643929150908498070_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0xJUFMuYmVzdF9pbWFnZV91cmxnZW4uQzMifQ%3D%3D&amp;_nc_ohc=0g-_oA1BPGUQ7kNvwEllmPG&amp;_nc_oc=AdnUBIGTIDWR5wMCgj5IlOfaBouxewASzRXH4EmsZoA2WN-KGQAPiZZFaqdby0kIe33jsqdkvZ0HNZOKmyRN7wva&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-2.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=NMh7la5AfM9mywX1Im3YVQ&amp;oh=00_AfcyK9BZGuLD1japwdP6mwGJHQpaHUreoTk07EVgGaBcJA&amp;oe=68FEE963</t>
+          <t>https://scontent-lga3-2.cdninstagram.com/v/t51.71878-15/500327813_1231493175231566_2643929150908498070_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=107&amp;ccb=7-5&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0xJUFMuYmVzdF9pbWFnZV91cmxnZW4uQzMifQ%3D%3D&amp;_nc_ohc=bleZCJ4k3G0Q7kNvwEkCfmg&amp;_nc_oc=AdkDy6OYzbCbAz_cFDJso3NYN3lq4Xsq3nzV9Efe4TtlZK9u8Jrel5P7_FWOqckmtMf64jUa3wCQw9u1bRZZ1UmB&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-2.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=Lo2XEUA_pHwBJY5IU7WgrQ&amp;oh=00_AfjegAkFqW4PN0_X_7y3OHU0KtbzoLe098SC8xZVbZ7iOw&amp;oe=69291963</t>
         </is>
       </c>
     </row>
@@ -11192,10 +11219,10 @@
         <v>0</v>
       </c>
       <c r="O109" t="n">
-        <v>175</v>
+        <v>154</v>
       </c>
       <c r="P109" t="n">
-        <v>223</v>
+        <v>198</v>
       </c>
       <c r="Q109" t="n">
         <v>39</v>
@@ -11222,7 +11249,7 @@
       <c r="AA109" t="inlineStr"/>
       <c r="AB109" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-1.cdninstagram.com/v/t51.29350-15/391384458_2034654013546630_9200231334282280842_n.heic?stp=dst-jpg_e35_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0FST1VTRUxfSVRFTS5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=NKyh9cc4nE4Q7kNvwGQ7DZz&amp;_nc_oc=AdmpF-ZjHGRqteLDIq1xJyax89yU-hPf9JS5sj97B2Ra4A-oTZB6yXeB1pygb_pZqTN1qWlyyOf3KSJLN6Qe6dBS&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-1.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=NMh7la5AfM9mywX1Im3YVQ&amp;oh=00_AfdtYXO-uS5nG9zF1ppRmpO1rWh1q5SoWaF1Yb2bFPNSlw&amp;oe=68FEE394</t>
+          <t>https://scontent-lga3-3.cdninstagram.com/v/t51.29350-15/391384458_2034654013546630_9200231334282280842_n.heic?stp=dst-jpg_e35_tt6&amp;_nc_cat=108&amp;ccb=7-5&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0FST1VTRUxfSVRFTS5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=zTn8I_v4aA0Q7kNvwHBvR66&amp;_nc_oc=AdlKeTyZ7-Q10Bs0ZNjxu1bvOAXJHP6sd6E8W74w4UVXZ9_6R9XGrpxsMon2Wk-YT8Hh7IdoVn0KdjtxhVKeLIIk&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-3.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=Lo2XEUA_pHwBJY5IU7WgrQ&amp;oh=00_AfiWABWfVpi1lULYrPsxXzeM3Qy1YVMePOJBg8Or1NXh0w&amp;oe=69291394</t>
         </is>
       </c>
       <c r="AC109" t="inlineStr"/>
@@ -11287,7 +11314,7 @@
         <v>0</v>
       </c>
       <c r="O110" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="P110" t="inlineStr"/>
       <c r="Q110" t="n">
@@ -11315,12 +11342,12 @@
       <c r="AA110" t="inlineStr"/>
       <c r="AB110" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-2.cdninstagram.com/o1/v/t2/f2/m82/AQPNca2487Aw6UqjQQskp8Dlftr0jJzTZkMsZaka2tk7kiUeiOI95VjEE74i3SQx5_k0GU1ouRMNx7RnGzv-QME5WPoAwEiclDo6rH8.mp4?_nc_cat=101&amp;_nc_sid=5e9851&amp;_nc_ht=scontent-lga3-2.cdninstagram.com&amp;_nc_ohc=PhEtl_MKNbEQ7kNvwHgWvEc&amp;efg=eyJ2ZW5jb2RlX3RhZyI6Inhwdl9wcm9ncmVzc2l2ZS5JTlNUQUdSQU0uQ0xJUFMuQzMuNzIwLmRhc2hfYmFzZWxpbmVfMV92MSIsInhwdl9hc3NldF9pZCI6ODY4NDIzMTQ0NjI2MzE1LCJhc3NldF9hZ2VfZGF5cyI6NzM5LCJ2aV91c2VjYXNlX2lkIjoxMDA5OSwiZHVyYXRpb25fcyI6MjgsInVybGdlbl9zb3VyY2UiOiJ3d3cifQ%3D%3D&amp;ccb=17-1&amp;vs=c0800b5175ac067a&amp;_nc_vs=HBksFQIYT2lnX3hwdl9yZWVsc19wZXJtYW5lbnRfcHJvZC9BRTQ3MkI4NDA3NzQ1RjUwNUY1QzgzRjA3QUExNTJCOF92aWRlb19kYXNoaW5pdC5tcDQVAALIARIAFQIYOnBhc3N0aHJvdWdoX2V2ZXJzdG9yZS9HSmFTTWhlckgtM3hIellCQUZnNnh1aGFkX1UzYnFfRUFBQUYVAgLIARIAKAAYABsCiAd1c2Vfb2lsATEScHJvZ3Jlc3NpdmVfcmVjaXBlATEVAAAmluLm0PD0igMVAigCQzMsF0A8TMzMzMzNGBJkYXNoX2Jhc2VsaW5lXzFfdjERAHX-B2XmnQEA&amp;_nc_gid=NMh7la5AfM9mywX1Im3YVQ&amp;edm=AM6HXa8EAAAA&amp;_nc_zt=28&amp;oh=00_AfeiXr1xACyx3iY1vioPJ8PUD8hDet6QTRSbxxftrKOQag&amp;oe=68FB22AE</t>
+          <t>https://scontent-lga3-2.cdninstagram.com/o1/v/t2/f2/m82/AQPNca2487Aw6UqjQQskp8Dlftr0jJzTZkMsZaka2tk7kiUeiOI95VjEE74i3SQx5_k0GU1ouRMNx7RnGzv-QME5WPoAwEiclDo6rH8.mp4?_nc_cat=101&amp;_nc_sid=5e9851&amp;_nc_ht=scontent-lga3-2.cdninstagram.com&amp;_nc_ohc=qw95SiGXCGoQ7kNvwGlauZh&amp;efg=eyJ2ZW5jb2RlX3RhZyI6Inhwdl9wcm9ncmVzc2l2ZS5JTlNUQUdSQU0uQ0xJUFMuQzMuNzIwLmRhc2hfYmFzZWxpbmVfMV92MSIsInhwdl9hc3NldF9pZCI6ODY4NDIzMTQ0NjI2MzE1LCJhc3NldF9hZ2VfZGF5cyI6NzcxLCJ2aV91c2VjYXNlX2lkIjoxMDA5OSwiZHVyYXRpb25fcyI6MjgsInVybGdlbl9zb3VyY2UiOiJ3d3cifQ%3D%3D&amp;ccb=17-1&amp;vs=c0800b5175ac067a&amp;_nc_vs=HBksFQIYT2lnX3hwdl9yZWVsc19wZXJtYW5lbnRfcHJvZC9BRTQ3MkI4NDA3NzQ1RjUwNUY1QzgzRjA3QUExNTJCOF92aWRlb19kYXNoaW5pdC5tcDQVAALIARIAFQIYOnBhc3N0aHJvdWdoX2V2ZXJzdG9yZS9HSmFTTWhlckgtM3hIellCQUZnNnh1aGFkX1UzYnFfRUFBQUYVAgLIARIAKAAYABsCiAd1c2Vfb2lsATEScHJvZ3Jlc3NpdmVfcmVjaXBlATEVAAAmluLm0PD0igMVAigCQzMsF0A8TMzMzMzNGBJkYXNoX2Jhc2VsaW5lXzFfdjERAHX-B2XmnQEA&amp;_nc_gid=Lo2XEUA_pHwBJY5IU7WgrQ&amp;edm=AM6HXa8EAAAA&amp;_nc_zt=28&amp;oh=00_AfiAPoShS8hhkVmzPy9bU-ze1QO4KpN9vwhc9XK5-X_O9w&amp;oe=692552AE</t>
         </is>
       </c>
       <c r="AC110" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-1.cdninstagram.com/v/t51.71878-15/495426681_1222786329189993_3802283557279185530_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0xJUFMuYmVzdF9pbWFnZV91cmxnZW4uQzMifQ%3D%3D&amp;_nc_ohc=CFBvNxs7ALEQ7kNvwG_Clbp&amp;_nc_oc=Adm0YObzkbnAvxRtZO_BTGQS1UDn5-5fJMJAmyefEbQQK6AQFGz_uZevW74quxtr7gNtbcjJ9ydhhk8pAmS6xklq&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-1.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=NMh7la5AfM9mywX1Im3YVQ&amp;oh=00_AfeStGNGbg9EO20CnjZTZgazbWOpxoZKbZo5_c08mYiVbA&amp;oe=68FF0F04</t>
+          <t>https://scontent-lga3-3.cdninstagram.com/v/t51.71878-15/495426681_1222786329189993_3802283557279185530_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=108&amp;ccb=7-5&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0xJUFMuYmVzdF9pbWFnZV91cmxnZW4uQzMifQ%3D%3D&amp;_nc_ohc=466NvzX_f4YQ7kNvwFlMAT2&amp;_nc_oc=AdmjTsl2DWHnELfUOEg4hFHHGHvpWS7v0MWtFpaRufNCQFHwfFKnNMUwP9BYEyPCIvKaisB4E56kSZAgfLrlp4UU&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-3.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=Lo2XEUA_pHwBJY5IU7WgrQ&amp;oh=00_AfiN95y5hS6_3uPbXUCvbf1MV7u-0tUChDENXU_b-GCyQg&amp;oe=69293F04</t>
         </is>
       </c>
     </row>
@@ -11385,14 +11412,14 @@
         <v>0</v>
       </c>
       <c r="O111" t="n">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="P111" t="inlineStr"/>
       <c r="Q111" t="n">
         <v>25</v>
       </c>
       <c r="R111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S111" t="n">
         <v>0</v>
@@ -11404,7 +11431,7 @@
         <v>0</v>
       </c>
       <c r="V111" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="W111" t="inlineStr"/>
       <c r="X111" t="inlineStr"/>
@@ -11413,12 +11440,12 @@
       <c r="AA111" t="inlineStr"/>
       <c r="AB111" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-2.cdninstagram.com/o1/v/t2/f2/m82/AQNTw7_bBTDIRAvI1unhEi0lMbXM6N1sZuiV80UGPk8E1tKviq0IdOxP_bU5Ahp3qveFxSXUyE1ZeTuoSckwqW6i9fM2UQJAPvftNkM.mp4?_nc_cat=107&amp;_nc_sid=5e9851&amp;_nc_ht=scontent-lga3-2.cdninstagram.com&amp;_nc_ohc=Rirj90LWBQEQ7kNvwHT4yv-&amp;efg=eyJ2ZW5jb2RlX3RhZyI6Inhwdl9wcm9ncmVzc2l2ZS5JTlNUQUdSQU0uQ0xJUFMuQzMuNzIwLmRhc2hfYmFzZWxpbmVfMV92MSIsInhwdl9hc3NldF9pZCI6NzA5MDE2OTA0NDMyODIyLCJhc3NldF9hZ2VfZGF5cyI6NzQwLCJ2aV91c2VjYXNlX2lkIjoxMDA5OSwiZHVyYXRpb25fcyI6NDAsInVybGdlbl9zb3VyY2UiOiJ3d3cifQ%3D%3D&amp;ccb=17-1&amp;vs=383fb44fec30d27b&amp;_nc_vs=HBksFQIYT2lnX3hwdl9yZWVsc19wZXJtYW5lbnRfcHJvZC9GODQzNjZCRTc5QTJBQTA3OTgzRjk3QjRCQUI1RUE4OV92aWRlb19kYXNoaW5pdC5tcDQVAALIARIAFQIYOnBhc3N0aHJvdWdoX2V2ZXJzdG9yZS9HQ1h4WkJlZTZ0dDRRMGdDQUt3NHZzYTBkeVVfYnFfRUFBQUYVAgLIARIAKAAYABsCiAd1c2Vfb2lsATEScHJvZ3Jlc3NpdmVfcmVjaXBlATEVAAAm7PLTy5u2wgIVAigCQzMsF0BEDMzMzMzNGBJkYXNoX2Jhc2VsaW5lXzFfdjERAHX-B2XmnQEA&amp;_nc_gid=NMh7la5AfM9mywX1Im3YVQ&amp;edm=AM6HXa8EAAAA&amp;_nc_zt=28&amp;oh=00_AfdSSo4095fmXJEtmQRlrocH_c76FCgsWtP56G0R53Rvow&amp;oe=68FB12B4</t>
+          <t>https://scontent-lga3-2.cdninstagram.com/o1/v/t2/f2/m82/AQNTw7_bBTDIRAvI1unhEi0lMbXM6N1sZuiV80UGPk8E1tKviq0IdOxP_bU5Ahp3qveFxSXUyE1ZeTuoSckwqW6i9fM2UQJAPvftNkM.mp4?_nc_cat=107&amp;_nc_sid=5e9851&amp;_nc_ht=scontent-lga3-2.cdninstagram.com&amp;_nc_ohc=ixlAgn9cL38Q7kNvwG16tFU&amp;efg=eyJ2ZW5jb2RlX3RhZyI6Inhwdl9wcm9ncmVzc2l2ZS5JTlNUQUdSQU0uQ0xJUFMuQzMuNzIwLmRhc2hfYmFzZWxpbmVfMV92MSIsInhwdl9hc3NldF9pZCI6NzA5MDE2OTA0NDMyODIyLCJhc3NldF9hZ2VfZGF5cyI6NzcyLCJ2aV91c2VjYXNlX2lkIjoxMDA5OSwiZHVyYXRpb25fcyI6NDAsInVybGdlbl9zb3VyY2UiOiJ3d3cifQ%3D%3D&amp;ccb=17-1&amp;_nc_gid=Lo2XEUA_pHwBJY5IU7WgrQ&amp;edm=AM6HXa8EAAAA&amp;_nc_zt=28&amp;vs=383fb44fec30d27b&amp;_nc_vs=HBksFQIYT2lnX3hwdl9yZWVsc19wZXJtYW5lbnRfcHJvZC9GODQzNjZCRTc5QTJBQTA3OTgzRjk3QjRCQUI1RUE4OV92aWRlb19kYXNoaW5pdC5tcDQVAALIARIAFQIYOnBhc3N0aHJvdWdoX2V2ZXJzdG9yZS9HQ1h4WkJlZTZ0dDRRMGdDQUt3NHZzYTBkeVVfYnFfRUFBQUYVAgLIARIAKAAYABsCiAd1c2Vfb2lsATEScHJvZ3Jlc3NpdmVfcmVjaXBlATEVAAAm7PLTy5u2wgIVAigCQzMsF0BEDMzMzMzNGBJkYXNoX2Jhc2VsaW5lXzFfdjERAHX-B2XmnQEA&amp;oh=00_Afg1gwtYXDYwxqUsT8Tcj3xkEn_qwlA1t23BuC6ttVgcFA&amp;oe=692542B4</t>
         </is>
       </c>
       <c r="AC111" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-1.cdninstagram.com/v/t51.71878-15/503070873_1074586507875858_5233460506630885463_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0xJUFMuYmVzdF9pbWFnZV91cmxnZW4uQzMifQ%3D%3D&amp;_nc_ohc=h35-gQuiBVUQ7kNvwGgZ-3A&amp;_nc_oc=AdndXNak1K2a949poSr1uqZSU2hYLIhscQ_NUa5kiPOfektM-mIH27C5vtQ2nqXVI8zBjepJ6-3_jWiPqUxObnRz&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-1.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=NMh7la5AfM9mywX1Im3YVQ&amp;oh=00_AfdSSaHV-CldfW9dBEHB_hYbOS2ZyzXBSHjxFBKLD_xW2w&amp;oe=68FF13FD</t>
+          <t>https://scontent-lga3-1.cdninstagram.com/v/t51.71878-15/503070873_1074586507875858_5233460506630885463_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=111&amp;ccb=7-5&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0xJUFMuYmVzdF9pbWFnZV91cmxnZW4uQzMifQ%3D%3D&amp;_nc_ohc=7-6zOR5QNy4Q7kNvwHd7jCZ&amp;_nc_oc=AdkSxWJkTWfACNM80g23nBKKDBsBS28J0wdqCLTStFR2HbZYJu-b6L0twcs5GyJxetAof4y6wL1Lhe0pOr-wTFsr&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-1.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=Lo2XEUA_pHwBJY5IU7WgrQ&amp;oh=00_AfhntyUuIbR6LPP4CMr3uMgzOmyru9djtFiZLrD4U4U8Gw&amp;oe=692943FD</t>
         </is>
       </c>
     </row>
@@ -11484,10 +11511,10 @@
         <v>0</v>
       </c>
       <c r="O112" t="n">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="P112" t="n">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c r="Q112" t="n">
         <v>68</v>
@@ -11514,7 +11541,7 @@
       <c r="AA112" t="inlineStr"/>
       <c r="AB112" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-2.cdninstagram.com/v/t51.29350-15/387675037_1973903202965416_3049482362604725836_n.heic?stp=dst-jpg_e35_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiRkVFRC5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=luMqMBD4FroQ7kNvwHKKUxi&amp;_nc_oc=AdntznMcCDyhfeReY7x8HNks8kf2YPQ6eH35v5MDsaiZgtHvb1kfYodOjjRJ6PUuPzMCXCpwMUmueJbhj5SGFlNP&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-2.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=NMh7la5AfM9mywX1Im3YVQ&amp;oh=00_AfcZQgl0TvoMnDPZ7BApqDCjp--tDR2GllqkpZzfjDBNxw&amp;oe=68FEED78</t>
+          <t>https://scontent-lga3-2.cdninstagram.com/v/t51.29350-15/387675037_1973903202965416_3049482362604725836_n.heic?stp=dst-jpg_e35_tt6&amp;_nc_cat=105&amp;ccb=7-5&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiRkVFRC5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=5wyXWbiFwtIQ7kNvwH-pKik&amp;_nc_oc=AdloPjY7gz3vETvs1ue5nzzY7k-GycFHpkhRpslNxRwbwqUUAvFZWLBod-eFlBF33eIx6SY3J_C0Y1OOQmlrGsiJ&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-2.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=Lo2XEUA_pHwBJY5IU7WgrQ&amp;oh=00_AfhPQHWN1YijTt2xnnfMez3faoHwOQXOyCNU5xH-fhcNIw&amp;oe=69291D78</t>
         </is>
       </c>
       <c r="AC112" t="inlineStr"/>
@@ -11582,7 +11609,7 @@
         <v>0</v>
       </c>
       <c r="O113" t="n">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="P113" t="inlineStr"/>
       <c r="Q113" t="n">
@@ -11610,12 +11637,12 @@
       <c r="AA113" t="inlineStr"/>
       <c r="AB113" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-2.cdninstagram.com/o1/v/t2/f2/m82/AQNtTeRl5T9SsDGPZ2x6RTmfc63gzozV6XBlozHjZknN8_ptp8QvueOh8icVYL6cHEnN6h-jfEMLncf5nANWXLLPffSZ0cMY8cVTRis.mp4?_nc_cat=100&amp;_nc_sid=5e9851&amp;_nc_ht=scontent-lga3-2.cdninstagram.com&amp;_nc_ohc=ahuDkJulLlUQ7kNvwFGfY3r&amp;efg=eyJ2ZW5jb2RlX3RhZyI6Inhwdl9wcm9ncmVzc2l2ZS5JTlNUQUdSQU0uQ0xJUFMuQzMuNzIwLmRhc2hfYmFzZWxpbmVfMV92MSIsInhwdl9hc3NldF9pZCI6MjQxMDMxNDI1ODkzMDA5MTYsImFzc2V0X2FnZV9kYXlzIjo3NDUsInZpX3VzZWNhc2VfaWQiOjEwMDk5LCJkdXJhdGlvbl9zIjo5LCJ1cmxnZW5fc291cmNlIjoid3d3In0%3D&amp;ccb=17-1&amp;vs=ace236dc24e45987&amp;_nc_vs=HBksFQIYT2lnX3hwdl9yZWVsc19wZXJtYW5lbnRfcHJvZC8yNTRBNDA2Q0ZGMUFEQzg0MkRFQ0NDMjIyQ0M2MTA5OV92aWRlb19kYXNoaW5pdC5tcDQVAALIARIAFQIYOnBhc3N0aHJvdWdoX2V2ZXJzdG9yZS9HR3hlQ0JmY2xYUmFGZUFFQUViWGdPNHhsZmt1YnFfRUFBQUYVAgLIARIAKAAYABsCiAd1c2Vfb2lsATEScHJvZ3Jlc3NpdmVfcmVjaXBlATEVAAAm6IKMwMbr0FUVAigCQzMsF0Aid0vGp--eGBJkYXNoX2Jhc2VsaW5lXzFfdjERAHX-B2XmnQEA&amp;_nc_gid=NMh7la5AfM9mywX1Im3YVQ&amp;edm=AM6HXa8EAAAA&amp;_nc_zt=28&amp;oh=00_AfdLj4MiJ-vIzn6BX-n30Zm2U3qJLoDjEdsIyIvjSFo-SQ&amp;oe=68FAF575</t>
+          <t>https://scontent-lga3-2.cdninstagram.com/o1/v/t2/f2/m82/AQNtTeRl5T9SsDGPZ2x6RTmfc63gzozV6XBlozHjZknN8_ptp8QvueOh8icVYL6cHEnN6h-jfEMLncf5nANWXLLPffSZ0cMY8cVTRis.mp4?_nc_cat=100&amp;_nc_sid=5e9851&amp;_nc_ht=scontent-lga3-2.cdninstagram.com&amp;_nc_ohc=U23Oxun6tg4Q7kNvwEobm07&amp;efg=eyJ2ZW5jb2RlX3RhZyI6Inhwdl9wcm9ncmVzc2l2ZS5JTlNUQUdSQU0uQ0xJUFMuQzMuNzIwLmRhc2hfYmFzZWxpbmVfMV92MSIsInhwdl9hc3NldF9pZCI6MjQxMDMxNDI1ODkzMDA5MTYsImFzc2V0X2FnZV9kYXlzIjo3NzcsInZpX3VzZWNhc2VfaWQiOjEwMDk5LCJkdXJhdGlvbl9zIjo5LCJ1cmxnZW5fc291cmNlIjoid3d3In0%3D&amp;ccb=17-1&amp;vs=ace236dc24e45987&amp;_nc_vs=HBksFQIYT2lnX3hwdl9yZWVsc19wZXJtYW5lbnRfcHJvZC8yNTRBNDA2Q0ZGMUFEQzg0MkRFQ0NDMjIyQ0M2MTA5OV92aWRlb19kYXNoaW5pdC5tcDQVAALIARIAFQIYOnBhc3N0aHJvdWdoX2V2ZXJzdG9yZS9HR3hlQ0JmY2xYUmFGZUFFQUViWGdPNHhsZmt1YnFfRUFBQUYVAgLIARIAKAAYABsCiAd1c2Vfb2lsATEScHJvZ3Jlc3NpdmVfcmVjaXBlATEVAAAm6IKMwMbr0FUVAigCQzMsF0Aid0vGp--eGBJkYXNoX2Jhc2VsaW5lXzFfdjERAHX-B2XmnQEA&amp;_nc_gid=Lo2XEUA_pHwBJY5IU7WgrQ&amp;edm=AM6HXa8EAAAA&amp;_nc_zt=28&amp;oh=00_Afh8b2TTAcXEso2k6geC4mu1GnCHA8qG0bhE7bz7z65qOg&amp;oe=69252575</t>
         </is>
       </c>
       <c r="AC113" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-3.cdninstagram.com/v/t51.71878-15/504203328_30000564146225368_6452864482854750549_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0xJUFMuYmVzdF9pbWFnZV91cmxnZW4uQzMifQ%3D%3D&amp;_nc_ohc=fnXNeI5d0IgQ7kNvwGBPmhS&amp;_nc_oc=Adkwp1RKIdP6cawTDqqIKJDv2wnLUflsA7C875ggDTDKy1rZkanAvS__UCKaV9nzoHFc7IMmwZ7Mm5DiFNgMXzyA&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-3.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=NMh7la5AfM9mywX1Im3YVQ&amp;oh=00_Afem0WF77_tG3JnBfm32jkkzXvsjaJO-f2KfxP8AsGANvQ&amp;oe=68FEFDB6</t>
+          <t>https://scontent-lga3-3.cdninstagram.com/v/t51.71878-15/504203328_30000564146225368_6452864482854750549_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=104&amp;ccb=7-5&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0xJUFMuYmVzdF9pbWFnZV91cmxnZW4uQzMifQ%3D%3D&amp;_nc_ohc=r9KNJ5bW3CoQ7kNvwG0hq5u&amp;_nc_oc=AdmpYE8HsvLcm9VuQhl5RyxvmvJdf4fOw3qDvO3FBwKnggDTGGECO9qyVcx1ZKDIkQNn587d2_aQxBSbiOIIYD2l&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-3.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=Lo2XEUA_pHwBJY5IU7WgrQ&amp;oh=00_AfhJwnZAOmf51gvd7_nybXzRLdmznwaBT8BwR63PP4kZww&amp;oe=69292DB6</t>
         </is>
       </c>
     </row>
@@ -11681,7 +11708,7 @@
         <v>0</v>
       </c>
       <c r="O114" t="n">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="P114" t="inlineStr"/>
       <c r="Q114" t="n">
@@ -11709,12 +11736,12 @@
       <c r="AA114" t="inlineStr"/>
       <c r="AB114" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-2.cdninstagram.com/o1/v/t2/f2/m82/AQMhw8webzCQG9ygkRV9RfjmvQxYjUBkm2QWKOGki1DLUljPx3dRobPwa084LmxslOVOGdvUXmJAOf7UOALRFZV7Zg47hFbkmddDuxI.mp4?_nc_cat=100&amp;_nc_sid=5e9851&amp;_nc_ht=scontent-lga3-2.cdninstagram.com&amp;_nc_ohc=GWsD7QZkGBIQ7kNvwH8zuqc&amp;efg=eyJ2ZW5jb2RlX3RhZyI6Inhwdl9wcm9ncmVzc2l2ZS5JTlNUQUdSQU0uQ0xJUFMuQzMuNzIwLmRhc2hfYmFzZWxpbmVfMV92MSIsInhwdl9hc3NldF9pZCI6MjM2Mjg4NzkyNzc5NDI1LCJhc3NldF9hZ2VfZGF5cyI6NzQ5LCJ2aV91c2VjYXNlX2lkIjoxMDA5OSwiZHVyYXRpb25fcyI6NTQsInVybGdlbl9zb3VyY2UiOiJ3d3cifQ%3D%3D&amp;ccb=17-1&amp;vs=d12525fea317a94&amp;_nc_vs=HBksFQIYT2lnX3hwdl9yZWVsc19wZXJtYW5lbnRfcHJvZC8yMzRGMzMyM0VDRTUyQzFFRjg1QjExQTVBNTdGOTM4N192aWRlb19kYXNoaW5pdC5tcDQVAALIARIAFQIYOnBhc3N0aHJvdWdoX2V2ZXJzdG9yZS9HSV9pNnhhMll1bjFnQWNEQUNvYUdtdUhsTXBVYnFfRUFBQUYVAgLIARIAKAAYABsCiAd1c2Vfb2lsATEScHJvZ3Jlc3NpdmVfcmVjaXBlATEVAAAmwur22Oi5axUCKAJDMywXQErd0vGp--cYEmRhc2hfYmFzZWxpbmVfMV92MREAdf4HZeadAQA&amp;_nc_gid=NMh7la5AfM9mywX1Im3YVQ&amp;edm=AM6HXa8EAAAA&amp;_nc_zt=28&amp;oh=00_Afe_-NgHQVrJPC08bRLD9S_ErtMzC00uI7GSNUEn9zswFQ&amp;oe=68FAF029</t>
+          <t>https://scontent-lga3-2.cdninstagram.com/o1/v/t2/f2/m82/AQMhw8webzCQG9ygkRV9RfjmvQxYjUBkm2QWKOGki1DLUljPx3dRobPwa084LmxslOVOGdvUXmJAOf7UOALRFZV7Zg47hFbkmddDuxI.mp4?_nc_cat=100&amp;_nc_sid=5e9851&amp;_nc_ht=scontent-lga3-2.cdninstagram.com&amp;_nc_ohc=OPpX0kxyEcAQ7kNvwEygmh5&amp;efg=eyJ2ZW5jb2RlX3RhZyI6Inhwdl9wcm9ncmVzc2l2ZS5JTlNUQUdSQU0uQ0xJUFMuQzMuNzIwLmRhc2hfYmFzZWxpbmVfMV92MSIsInhwdl9hc3NldF9pZCI6MjM2Mjg4NzkyNzc5NDI1LCJhc3NldF9hZ2VfZGF5cyI6NzgxLCJ2aV91c2VjYXNlX2lkIjoxMDA5OSwiZHVyYXRpb25fcyI6NTQsInVybGdlbl9zb3VyY2UiOiJ3d3cifQ%3D%3D&amp;ccb=17-1&amp;vs=d12525fea317a94&amp;_nc_vs=HBksFQIYT2lnX3hwdl9yZWVsc19wZXJtYW5lbnRfcHJvZC8yMzRGMzMyM0VDRTUyQzFFRjg1QjExQTVBNTdGOTM4N192aWRlb19kYXNoaW5pdC5tcDQVAALIARIAFQIYOnBhc3N0aHJvdWdoX2V2ZXJzdG9yZS9HSV9pNnhhMll1bjFnQWNEQUNvYUdtdUhsTXBVYnFfRUFBQUYVAgLIARIAKAAYABsCiAd1c2Vfb2lsATEScHJvZ3Jlc3NpdmVfcmVjaXBlATEVAAAmwur22Oi5axUCKAJDMywXQErd0vGp--cYEmRhc2hfYmFzZWxpbmVfMV92MREAdf4HZeadAQA&amp;_nc_gid=Lo2XEUA_pHwBJY5IU7WgrQ&amp;edm=AM6HXa8EAAAA&amp;_nc_zt=28&amp;oh=00_AfgPSg0bPad1w8G4R5LJlaQVuKPndE6Xr3mT1C1TAOcIQw&amp;oe=69252029</t>
         </is>
       </c>
       <c r="AC114" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-1.cdninstagram.com/v/t51.71878-15/500041154_674429865631980_2803418589588895626_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0xJUFMuYmVzdF9pbWFnZV91cmxnZW4uQzMifQ%3D%3D&amp;_nc_ohc=ANefC4KTvTwQ7kNvwFftyl-&amp;_nc_oc=Adk5E6PcOT9WFKVrbU70tob_ZxWjrM9JkNSbUzgE6MiVVZlzUhmvJ4Wc9xfpxuRPFD4X6rf7cK_MK8RK8_P9JuqH&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-1.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=NMh7la5AfM9mywX1Im3YVQ&amp;oh=00_Afey_5ij_qOsukfZmVvh-PjGdKdTSWvO88tImg1wFMgzhw&amp;oe=68FEF099</t>
+          <t>https://scontent-lga3-1.cdninstagram.com/v/t51.71878-15/500041154_674429865631980_2803418589588895626_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=102&amp;ccb=7-5&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0xJUFMuYmVzdF9pbWFnZV91cmxnZW4uQzMifQ%3D%3D&amp;_nc_ohc=ieJd3sNfWpoQ7kNvwH9v2YR&amp;_nc_oc=AdkL_sQaAE97UGimS7qWBAsd45VSjGe0EWtupXbaJm6YpLPCGgKTG6MKqGAWp7HOfkwGf9fD45Q0fBSRpAjgJtU0&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-1.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=Lo2XEUA_pHwBJY5IU7WgrQ&amp;oh=00_Afit6uFmI10qq9YZ6mDzMpvEiYR9qSK0Wh5i8jzEGzZbeA&amp;oe=69292099</t>
         </is>
       </c>
     </row>
@@ -11783,10 +11810,10 @@
         <v>0</v>
       </c>
       <c r="O115" t="n">
-        <v>231</v>
+        <v>214</v>
       </c>
       <c r="P115" t="n">
-        <v>317</v>
+        <v>296</v>
       </c>
       <c r="Q115" t="n">
         <v>113</v>
@@ -11813,7 +11840,7 @@
       <c r="AA115" t="inlineStr"/>
       <c r="AB115" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-3.cdninstagram.com/v/t51.29350-15/375776136_1725717844569570_2296560098479141220_n.heic?stp=dst-jpg_e35_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiRkVFRC5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=TfMPq8UxfL0Q7kNvwHNSqq4&amp;_nc_oc=AdkDPPlLb-AcJNmAMHxL9IzbYweym9j5bVQRAcU5SNc8qL_C7vfJCAUaj1IhjH3fz3f-T04zSxqnnYSQH8aZvO3-&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-3.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=NMh7la5AfM9mywX1Im3YVQ&amp;oh=00_AfdfFxcr-K5a3nv4ST-QYk7EurGk5tGEPM5pq9NfQSSVQQ&amp;oe=68FEF5C7</t>
+          <t>https://scontent-lga3-3.cdninstagram.com/v/t51.29350-15/375776136_1725717844569570_2296560098479141220_n.heic?stp=dst-jpg_e35_tt6&amp;_nc_cat=110&amp;ccb=7-5&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiRkVFRC5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=9F2mIu1AzcwQ7kNvwEsITNn&amp;_nc_oc=AdlPvYw0vgR1bny-Mpb7JERdxJqwIeZ-6XfmdGG7nIV0O5wxB5LygY44HJDRaDge4yElm1CPs5Fc02hmZfWWxEm_&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-3.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=Lo2XEUA_pHwBJY5IU7WgrQ&amp;oh=00_AfhBW3oyy_xahljTwyEcF6F_hxMUDkZ6h44nFWu5ogUxUg&amp;oe=692925C7</t>
         </is>
       </c>
       <c r="AC115" t="inlineStr"/>
@@ -11880,10 +11907,10 @@
         <v>0</v>
       </c>
       <c r="O116" t="n">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="P116" t="n">
-        <v>303</v>
+        <v>290</v>
       </c>
       <c r="Q116" t="n">
         <v>99</v>
@@ -11910,7 +11937,7 @@
       <c r="AA116" t="inlineStr"/>
       <c r="AB116" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-3.cdninstagram.com/v/t51.29350-15/375258661_968489950876364_5346286462689878669_n.heic?stp=dst-jpg_e35_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiRkVFRC5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=wszbgKfVuBEQ7kNvwENUtwx&amp;_nc_oc=Adm2rkt9Gh-5FZCL3ozOHN45VtYiLCgOprqiYymlcUFu6FGelHRJcMyJwnW3OaPwuT_PGAwsI3XjTIBMUHdztBDW&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-3.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=NMh7la5AfM9mywX1Im3YVQ&amp;oh=00_AfdkOiV2FOOwOIIgEoHaQNawHzUFvaoaXMz3IqcxKEpxtA&amp;oe=68FEE8D0</t>
+          <t>https://scontent-lga3-3.cdninstagram.com/v/t51.29350-15/375258661_968489950876364_5346286462689878669_n.heic?stp=dst-jpg_e35_tt6&amp;_nc_cat=106&amp;ccb=7-5&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiRkVFRC5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=Qipo-4HlyEoQ7kNvwHI2b2w&amp;_nc_oc=AdknizYzlgI-TRdDeAHxNY3cQqAxOEoy_A18E25vitCiM5lEjtfWp-BP-B0zmsu4f4qUpinBjZyO9JUho3-6jRCn&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-3.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=Lo2XEUA_pHwBJY5IU7WgrQ&amp;oh=00_AfjQeXWFqqswRvhppuQ6AIIzAnNHUG8rUSLmMOP3YzoL8Q&amp;oe=692918D0</t>
         </is>
       </c>
       <c r="AC116" t="inlineStr"/>
@@ -11979,10 +12006,10 @@
         <v>0</v>
       </c>
       <c r="O117" t="n">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="P117" t="n">
-        <v>392</v>
+        <v>366</v>
       </c>
       <c r="Q117" t="n">
         <v>168</v>
@@ -12009,7 +12036,7 @@
       <c r="AA117" t="inlineStr"/>
       <c r="AB117" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-2.cdninstagram.com/v/t51.29350-15/367424278_835445491625943_5579899134834809151_n.heic?stp=dst-jpg_e35_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiRkVFRC5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=EBcrmE-zJ0cQ7kNvwFKnWdg&amp;_nc_oc=Adn2hXRa9ph_s8zzE17APYcp-Tq-MGIXXOKOF4ccRXlIuoPrVYR9aphoU3HvZDoed8sBefOKmx8Nt2YK6qdzVmWN&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-2.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=NMh7la5AfM9mywX1Im3YVQ&amp;oh=00_AfeHTWtwcrnF_VkCryr-41dhYFwLqhpwIrP_IEOmbphNYw&amp;oe=68FEE430</t>
+          <t>https://scontent-lga3-2.cdninstagram.com/v/t51.29350-15/367424278_835445491625943_5579899134834809151_n.heic?stp=dst-jpg_e35_tt6&amp;_nc_cat=101&amp;ccb=7-5&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiRkVFRC5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=Q4kP5o_oljcQ7kNvwFKeH8l&amp;_nc_oc=Admwe5IfRoJm7XxAE7WX6lom1adGWq7QfZwFQjElR2DdRV9y8gmddH1Nyfw7IvubIH-9JAfKsxTM47BqEEmrJg1v&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-2.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=Lo2XEUA_pHwBJY5IU7WgrQ&amp;oh=00_Afj7IqSiYYXC7zHPtf5l14BfuKQ8q1XJ3CYt5wBuCc-J2A&amp;oe=69291430</t>
         </is>
       </c>
       <c r="AC117" t="inlineStr"/>
@@ -12075,10 +12102,10 @@
         <v>0</v>
       </c>
       <c r="O118" t="n">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="P118" t="n">
-        <v>296</v>
+        <v>278</v>
       </c>
       <c r="Q118" t="n">
         <v>65</v>
@@ -12105,7 +12132,7 @@
       <c r="AA118" t="inlineStr"/>
       <c r="AB118" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-2.cdninstagram.com/v/t51.29350-15/366144464_1368576923739831_7230034654501422139_n.heic?stp=dst-jpg_e35_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiRkVFRC5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=lQMc5bgdJcwQ7kNvwGCGiQS&amp;_nc_oc=AdkOjqlD3lUJvIg2UxzDNGWklce_l56QF1HuNo_paVS23ZeicxoT8zE42ttjzOCGNZQKtuQZnE_pUtS3R6L4dKx3&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-2.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=NMh7la5AfM9mywX1Im3YVQ&amp;oh=00_AfcvHd5vp-4qcBOwXR8Px7EBCGgeR41xj4IgH38xVCmYRw&amp;oe=68FEE84D</t>
+          <t>https://scontent-lga3-2.cdninstagram.com/v/t51.29350-15/366144464_1368576923739831_7230034654501422139_n.heic?stp=dst-jpg_e35_tt6&amp;_nc_cat=109&amp;ccb=7-5&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiRkVFRC5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=GH5MhP_-SckQ7kNvwHzsPWS&amp;_nc_oc=AdnpbK0R4t75IKXi7Bhq6QP2jEFIkBGMPeBMxWbEq_h3o5Ne4W1SIL49XAsL4wohNJoTuV6FuM9k39WFqef2Yfwj&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-2.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=Lo2XEUA_pHwBJY5IU7WgrQ&amp;oh=00_AfhwoDyYYHW_L_RB7ac8uNUAW2IAt_mtTk18ZKzR13lwjg&amp;oe=6929184D</t>
         </is>
       </c>
       <c r="AC118" t="inlineStr"/>
@@ -12175,10 +12202,10 @@
         <v>0</v>
       </c>
       <c r="O119" t="n">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="P119" t="n">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="Q119" t="n">
         <v>60</v>
@@ -12205,7 +12232,7 @@
       <c r="AA119" t="inlineStr"/>
       <c r="AB119" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-2.cdninstagram.com/v/t51.29350-15/360005151_241012172074210_2222756389564208401_n.webp?stp=dst-jpg_e35_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiRkVFRC5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=3qBgMyCpnGkQ7kNvwE3rRnI&amp;_nc_oc=AdlnjPjhSwk3V19WUgmepAJOo8wwvyu9LpOIBihBBRbeWy6YKbcvdNQMqnFT7D2E-BqV5fkpN-vqGoNYHqfFFVnq&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-2.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=NMh7la5AfM9mywX1Im3YVQ&amp;oh=00_Afe2lhTUZR2Aix3BGw0uUMqZWMFnDguiQyAb5_WKYbA44g&amp;oe=68FEE4C5</t>
+          <t>https://scontent-lga3-2.cdninstagram.com/v/t51.29350-15/360005151_241012172074210_2222756389564208401_n.webp?stp=dst-jpg_e35_tt6&amp;_nc_cat=101&amp;ccb=7-5&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiRkVFRC5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=lCwLrMgbs6YQ7kNvwHjNcOV&amp;_nc_oc=AdnJll7rDgT8l_czI_FuF41wlsWl3UJfMu0wDOT2FxEc1Rtv5FIfnE9oVo5RDwnnywPCmtfQhh3AatA9edqi5VNv&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-2.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=Lo2XEUA_pHwBJY5IU7WgrQ&amp;oh=00_AfjAt3W1B6Q4bG4bOLZbsRGolInLpZUWZFAU8AEx-I_iHQ&amp;oe=692914C5</t>
         </is>
       </c>
       <c r="AC119" t="inlineStr"/>
@@ -12271,10 +12298,10 @@
         <v>0</v>
       </c>
       <c r="O120" t="n">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="P120" t="n">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="Q120" t="n">
         <v>69</v>
@@ -12301,7 +12328,7 @@
       <c r="AA120" t="inlineStr"/>
       <c r="AB120" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-1.cdninstagram.com/v/t39.30808-6/357350117_18371952034017986_7123459429045380697_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiRkVFRC5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=myJC5RZpgoUQ7kNvwGKv-e0&amp;_nc_oc=Adn4P2uEvEuO5mFjhrXBtChCu4OjF0cGQS_grP-StGG9PdxY1kr8SxSLixCPIzk-0cxTCwNSWL_LaVinX8_K4tuS&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-1.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=NMh7la5AfM9mywX1Im3YVQ&amp;oh=00_Aff3AHDh-23EEvlciJZq6wVuerHgfyNnTlj6Azw9tNXZJQ&amp;oe=68FEF733</t>
+          <t>https://scontent-lga3-3.cdninstagram.com/v/t39.30808-6/357350117_18371952034017986_7123459429045380697_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=108&amp;ccb=7-5&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiRkVFRC5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=xSUcigscWnkQ7kNvwGNr4Xz&amp;_nc_oc=Adl3xOWOmX_8hcvQ9W583XU9ymgkxzvI_jkacINllf5BZMsq9hJFmEjKmjbWknqzPguRG87xtlDcCj2gRxPkVfY-&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-3.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=Lo2XEUA_pHwBJY5IU7WgrQ&amp;oh=00_AfhZzty1b0K_jVD0KSj0LmvY4r-TFcQn6lRVA5tt1R5e9w&amp;oe=69292733</t>
         </is>
       </c>
       <c r="AC120" t="inlineStr"/>
@@ -12370,10 +12397,10 @@
         <v>0</v>
       </c>
       <c r="O121" t="n">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="P121" t="n">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="Q121" t="n">
         <v>94</v>
@@ -12400,7 +12427,7 @@
       <c r="AA121" t="inlineStr"/>
       <c r="AB121" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-3.cdninstagram.com/v/t51.29350-15/356410355_1097991131158368_7177033296340404696_n.webp?stp=dst-jpg_e35_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0FST1VTRUxfSVRFTS5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=pJOVLY_3fngQ7kNvwGrsIPB&amp;_nc_oc=AdmSiV30fHT6ZhTq6P33oO3EZM97HctVmvYHBKxFagNrwc_GDNHWRgvyNrFBykfYK6UIV27Gz9AknSHNt5TD6Rgn&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-3.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=NMh7la5AfM9mywX1Im3YVQ&amp;oh=00_AfdkmXRSr1krf4r3NYz1wZsiVWNISC3rsSPDq45Z7qXcCg&amp;oe=68FEFDAC</t>
+          <t>https://scontent-lga3-3.cdninstagram.com/v/t51.29350-15/356410355_1097991131158368_7177033296340404696_n.webp?stp=dst-jpg_e35_tt6&amp;_nc_cat=106&amp;ccb=7-5&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0FST1VTRUxfSVRFTS5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=PrmkLayvnogQ7kNvwFgGALD&amp;_nc_oc=AdnEt32AQXYmklAj4n0mAr67G9VncIfuRs8keRCDmjtKMwUG9U2qJsv04Q0ZlI_QJ7HvlDD2AXWLc8ct_R7AYXL6&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-3.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=Lo2XEUA_pHwBJY5IU7WgrQ&amp;oh=00_AfiZO5DVUastDqWWQeZLaUOnHcfsaBcqNOHC6Q4ihkB50Q&amp;oe=69292DAC</t>
         </is>
       </c>
       <c r="AC121" t="inlineStr"/>
@@ -12466,10 +12493,10 @@
         <v>0</v>
       </c>
       <c r="O122" t="n">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="P122" t="n">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="Q122" t="n">
         <v>36</v>
@@ -12496,7 +12523,7 @@
       <c r="AA122" t="inlineStr"/>
       <c r="AB122" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-1.cdninstagram.com/v/t51.29350-15/353641875_1686352478459340_1777312750757318607_n.webp?stp=dst-jpg_e35_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiRkVFRC5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=Jc0r4f-z8ZkQ7kNvwFhN8fc&amp;_nc_oc=Admzi-LEpVxHDnykhNuj7rBID72JxFgnmhP3F0P4WNuPA8f1oidYfj249a0sd6vRzN8zHrgzCMxcz8wv2rsc0TPR&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-1.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=NMh7la5AfM9mywX1Im3YVQ&amp;oh=00_AfeL-tErcvG5pNLFRqb5gZI3K2n9-cIWEisFViGY7zOaIw&amp;oe=68FF1176</t>
+          <t>https://scontent-lga3-1.cdninstagram.com/v/t51.29350-15/353641875_1686352478459340_1777312750757318607_n.webp?stp=dst-jpg_e35_tt6&amp;_nc_cat=103&amp;ccb=7-5&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiRkVFRC5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=8UIzPZoLbOwQ7kNvwFRzUeo&amp;_nc_oc=Adk3OuEsb15DGeUdNr_5ZdiL4U6evVVne5VEhT_NnU8abAdoplmRt3afXq9YFKjlbo_VRE-qT5plg3ZUrZO7FWUX&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-1.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=Lo2XEUA_pHwBJY5IU7WgrQ&amp;oh=00_Afg0Fex1g6mNFuCl4-LWQIXu522v4v8kiQ8sSJfMQRQ56Q&amp;oe=69294176</t>
         </is>
       </c>
       <c r="AC122" t="inlineStr"/>
@@ -12567,10 +12594,10 @@
         <v>0</v>
       </c>
       <c r="O123" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P123" t="n">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q123" t="n">
         <v>33</v>
@@ -12597,7 +12624,7 @@
       <c r="AA123" t="inlineStr"/>
       <c r="AB123" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-3.cdninstagram.com/v/t51.29350-15/351126959_606787224764042_3896411747258525737_n.webp?stp=dst-jpg_e35_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiRkVFRC5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=AmNUFShC94kQ7kNvwE00BVc&amp;_nc_oc=AdnKBoC-qAYVpxzgh66AYBldP5zdhkYq0GIo1FpppYkj_7z4SOAwUgEh_PLF8lxYLgno1s3yCvf4aH27vtiJVzAz&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-3.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=NMh7la5AfM9mywX1Im3YVQ&amp;oh=00_AfcAgxYFpvEG1ZeZZ6P_IY-IXgdzpvgbX6xU_P0nCYsdPw&amp;oe=68FEF3AD</t>
+          <t>https://scontent-lga3-3.cdninstagram.com/v/t51.29350-15/351126959_606787224764042_3896411747258525737_n.webp?stp=dst-jpg_e35_tt6&amp;_nc_cat=110&amp;ccb=7-5&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiRkVFRC5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=sd1Uw5ieSb0Q7kNvwGDKeit&amp;_nc_oc=Adl9aC4OGvrPix1LU1Jek5VAjmiYKUy062dHuNu3LDz8UNQ7yhVZKo6vMcECSnOQRv9ITP0DIf1Ii7DkmzGH-qMv&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-3.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=Lo2XEUA_pHwBJY5IU7WgrQ&amp;oh=00_Afif4IT_GVi89hNLkkEr0pFvzpQBgPBIg44V57_s5vVHTw&amp;oe=692923AD</t>
         </is>
       </c>
       <c r="AC123" t="inlineStr"/>
@@ -12665,10 +12692,10 @@
         <v>0</v>
       </c>
       <c r="O124" t="n">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="P124" t="n">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="Q124" t="n">
         <v>87</v>
@@ -12695,7 +12722,7 @@
       <c r="AA124" t="inlineStr"/>
       <c r="AB124" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-2.cdninstagram.com/v/t51.29350-15/350847939_561808056115510_5846761572491480866_n.webp?stp=dst-jpg_e35_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0FST1VTRUxfSVRFTS5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=4209Ho7u6eQQ7kNvwG76FQd&amp;_nc_oc=AdmjuFYaLRuVfXjNwxkfhrVuED__zMOolIzlDmACcc3ksd4f6s7TzFVH0zESTncOy4qt7IGApDYhSkcPtSw7JmT1&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-2.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=NMh7la5AfM9mywX1Im3YVQ&amp;oh=00_AfcscBUvPJMuXcxzTJJcrHQ61bhQVhv9_7sQi6HWw7OQlg&amp;oe=68FF142C</t>
+          <t>https://scontent-lga3-2.cdninstagram.com/v/t51.29350-15/350847939_561808056115510_5846761572491480866_n.webp?stp=dst-jpg_e35_tt6&amp;_nc_cat=109&amp;ccb=7-5&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0FST1VTRUxfSVRFTS5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=znH1oXmzaOQQ7kNvwHm-vd2&amp;_nc_oc=AdmIWVRRij2_mYacgOgyX1DkocwWLVxv8utLqxAK57L8rWAIsYQimCsyfhRPMdhHFXYcN-ZstDfX9QUv6nu0z8iZ&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-2.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=Lo2XEUA_pHwBJY5IU7WgrQ&amp;oh=00_AfhM1eQvqd-O33vUzXifDMCtOoD-Q6MtUihmbjSM4cdr9A&amp;oe=6929442C</t>
         </is>
       </c>
       <c r="AC124" t="inlineStr"/>
@@ -12761,10 +12788,10 @@
         <v>0</v>
       </c>
       <c r="O125" t="n">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="P125" t="n">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="Q125" t="n">
         <v>65</v>
@@ -12791,7 +12818,7 @@
       <c r="AA125" t="inlineStr"/>
       <c r="AB125" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-2.cdninstagram.com/v/t51.29350-15/346868611_2219386401584935_4831880184649600991_n.webp?stp=dst-jpg_e35_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0FST1VTRUxfSVRFTS5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=NwtJ7q-YwGsQ7kNvwEh-Ihv&amp;_nc_oc=Adlk3v7w79tlj9LjjgeO24EnQQieN05QLueH-S2YPjinpkDq5fRLZNIbD3TXO1pFV8egIWZm_EuGn7QxhvGgDUnc&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-2.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=NMh7la5AfM9mywX1Im3YVQ&amp;oh=00_AffKFrQ-E78tBUE-8NctSgCq8s5fIL7Rj1Ba_yeaJhoo-Q&amp;oe=68FEF8BA</t>
+          <t>https://scontent-lga3-2.cdninstagram.com/v/t51.29350-15/346868611_2219386401584935_4831880184649600991_n.webp?stp=dst-jpg_e35_tt6&amp;_nc_cat=109&amp;ccb=7-5&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0FST1VTRUxfSVRFTS5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=_QSMFS3WXaUQ7kNvwHzfHzM&amp;_nc_oc=AdlK_Wm5Jenc5jQ09Bry5luxdHL6rS-DV8nVOrAiCg8mZhTm5SMlL0Niy_3IV2VZuEGmdL0vkGo0Sq973fW5NQgk&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-2.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=Lo2XEUA_pHwBJY5IU7WgrQ&amp;oh=00_AfhO1SEXHqFD3Fm5xZP6B4_CwdHv7h49Wek5pS8d_U8nOA&amp;oe=692928BA</t>
         </is>
       </c>
       <c r="AC125" t="inlineStr"/>
@@ -12859,10 +12886,10 @@
         <v>0</v>
       </c>
       <c r="O126" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="P126" t="n">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="Q126" t="n">
         <v>40</v>
@@ -12889,7 +12916,7 @@
       <c r="AA126" t="inlineStr"/>
       <c r="AB126" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-1.cdninstagram.com/v/t51.29350-15/328017559_152695387744298_9156375397309059613_n.webp?stp=dst-jpg_e35_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiRkVFRC5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=tkm2tIP-_rAQ7kNvwHpFbi3&amp;_nc_oc=AdmBGyeB6gVONKc-J4hspyhmw-TO8VOsmkG3gQv-_AWADFqnkI6roFWn1DWYQ4vL_90vfq-U87gnP_W5QC-Lq1Dd&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-1.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=NMh7la5AfM9mywX1Im3YVQ&amp;oh=00_AfeQ75hkFQHekKHKqBM1Rf2rH1Qf_VZ_NQfpfhM_rmi6Ag&amp;oe=68FEE5DC</t>
+          <t>https://scontent-lga3-1.cdninstagram.com/v/t51.29350-15/328017559_152695387744298_9156375397309059613_n.webp?stp=dst-jpg_e35_tt6&amp;_nc_cat=103&amp;ccb=7-5&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiRkVFRC5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=C4_TA1tjQfQQ7kNvwHEr3Md&amp;_nc_oc=AdnoEEkWxuM0rZHzIKKXN8b9xFfZwvCsgxnsMuDGX9GM8x4dD8cfkwvUTe4GzRYC_n_DfUgx1ZDhu7fIlUlY3KY2&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-1.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=Lo2XEUA_pHwBJY5IU7WgrQ&amp;oh=00_AfiDESO-rb_fNYNRIu2C5wsmcjMm5ju7VknSokiWC31sWQ&amp;oe=692915DC</t>
         </is>
       </c>
       <c r="AC126" t="inlineStr"/>
@@ -12957,7 +12984,7 @@
         <v>0</v>
       </c>
       <c r="O127" t="n">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="P127" t="inlineStr"/>
       <c r="Q127" t="n">
@@ -12985,12 +13012,12 @@
       <c r="AA127" t="inlineStr"/>
       <c r="AB127" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-1.cdninstagram.com/o1/v/t2/f2/m82/AQMlJ51hBxdWPsys-ZMia3QubZ--U0vAf8cSXe7w31uJMnVdYJPFXbYlRNLUr-mQxYA0VoNfuyH-Jxcmpe3fCH0JAjmYCPxKKh0Oj7c.mp4?_nc_cat=111&amp;_nc_sid=5e9851&amp;_nc_ht=scontent-lga3-1.cdninstagram.com&amp;_nc_ohc=pLdyeiy5J3cQ7kNvwEy2AFt&amp;efg=eyJ2ZW5jb2RlX3RhZyI6Inhwdl9wcm9ncmVzc2l2ZS5JTlNUQUdSQU0uQ0xJUFMuQzMuNzIwLmRhc2hfYmFzZWxpbmVfMV92MSIsInhwdl9hc3NldF9pZCI6NzcwNDMxMjQxMjQ2MjI5LCJhc3NldF9hZ2VfZGF5cyI6OTIyLCJ2aV91c2VjYXNlX2lkIjoxMDA5OSwiZHVyYXRpb25fcyI6MTEsInVybGdlbl9zb3VyY2UiOiJ3d3cifQ%3D%3D&amp;ccb=17-1&amp;vs=e697f4895a2f7f48&amp;_nc_vs=HBksFQIYT2lnX3hwdl9yZWVsc19wZXJtYW5lbnRfcHJvZC80MDRBNTg3RUY3RUY4Q0IyQUEzRkQ5QUY1NkZDQTA5NV92aWRlb19kYXNoaW5pdC5tcDQVAALIARIAFQIYOnBhc3N0aHJvdWdoX2V2ZXJzdG9yZS9HSHRtV0JTNC1PRnVOQVFDQUJqNUxwVjAxSm9aYnFfRUFBQUYVAgLIARIAKAAYABsCiAd1c2Vfb2lsATEScHJvZ3Jlc3NpdmVfcmVjaXBlATEVAAAmqtiqh4Ct3gIVAigCQzMsF0AmAAAAAAAAGBJkYXNoX2Jhc2VsaW5lXzFfdjERAHX-B2XmnQEA&amp;_nc_gid=NMh7la5AfM9mywX1Im3YVQ&amp;edm=AM6HXa8EAAAA&amp;_nc_zt=28&amp;oh=00_AfeUsQ1s8D1hXmpnvwnQZ2CFN7mqMO3E8gcBk-IOL5Q7BA&amp;oe=68FB19D4</t>
+          <t>https://scontent-lga3-1.cdninstagram.com/o1/v/t2/f2/m82/AQMlJ51hBxdWPsys-ZMia3QubZ--U0vAf8cSXe7w31uJMnVdYJPFXbYlRNLUr-mQxYA0VoNfuyH-Jxcmpe3fCH0JAjmYCPxKKh0Oj7c.mp4?_nc_cat=111&amp;_nc_sid=5e9851&amp;_nc_ht=scontent-lga3-1.cdninstagram.com&amp;_nc_ohc=fzNllh78KFQQ7kNvwGuKELx&amp;efg=eyJ2ZW5jb2RlX3RhZyI6Inhwdl9wcm9ncmVzc2l2ZS5JTlNUQUdSQU0uQ0xJUFMuQzMuNzIwLmRhc2hfYmFzZWxpbmVfMV92MSIsInhwdl9hc3NldF9pZCI6NzcwNDMxMjQxMjQ2MjI5LCJhc3NldF9hZ2VfZGF5cyI6OTU0LCJ2aV91c2VjYXNlX2lkIjoxMDA5OSwiZHVyYXRpb25fcyI6MTEsInVybGdlbl9zb3VyY2UiOiJ3d3cifQ%3D%3D&amp;ccb=17-1&amp;vs=e697f4895a2f7f48&amp;_nc_vs=HBksFQIYT2lnX3hwdl9yZWVsc19wZXJtYW5lbnRfcHJvZC80MDRBNTg3RUY3RUY4Q0IyQUEzRkQ5QUY1NkZDQTA5NV92aWRlb19kYXNoaW5pdC5tcDQVAALIARIAFQIYOnBhc3N0aHJvdWdoX2V2ZXJzdG9yZS9HSHRtV0JTNC1PRnVOQVFDQUJqNUxwVjAxSm9aYnFfRUFBQUYVAgLIARIAKAAYABsCiAd1c2Vfb2lsATEScHJvZ3Jlc3NpdmVfcmVjaXBlATEVAAAmqtiqh4Ct3gIVAigCQzMsF0AmAAAAAAAAGBJkYXNoX2Jhc2VsaW5lXzFfdjERAHX-B2XmnQEA&amp;_nc_gid=Lo2XEUA_pHwBJY5IU7WgrQ&amp;edm=AM6HXa8EAAAA&amp;_nc_zt=28&amp;oh=00_AfiOclOCevptoitjpk2sltLzU8OWP5cLR13m8tElHBk7uQ&amp;oe=692549D4</t>
         </is>
       </c>
       <c r="AC127" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-2.cdninstagram.com/v/t51.71878-15/491468925_1233323834956965_5647737843391428613_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0xJUFMuYmVzdF9pbWFnZV91cmxnZW4uQzMifQ%3D%3D&amp;_nc_ohc=kClh27zhRIkQ7kNvwESctUM&amp;_nc_oc=Admt2B_PEzrNuwJrLk9DxdHSMU9Pq16xXhNXEXWBdEU690T3yYlLwVoJz7dmHIbMrufugYr8Y9MlrAcd1G44NyTb&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-2.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=NMh7la5AfM9mywX1Im3YVQ&amp;oh=00_AffAiU7AoCdM0L2RPhVvfg5sO6c2vsTP7_UaaMFynWR82Q&amp;oe=68FEF1BD</t>
+          <t>https://scontent-lga3-2.cdninstagram.com/v/t51.71878-15/491468925_1233323834956965_5647737843391428613_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=105&amp;ccb=7-5&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0xJUFMuYmVzdF9pbWFnZV91cmxnZW4uQzMifQ%3D%3D&amp;_nc_ohc=sQLAYqG3ky4Q7kNvwFwnKte&amp;_nc_oc=AdnIkaO4tgSs6D1hH_CE7hXF4L9aAGyVn_zDKkpx2pcHeb5gKY_kjjdAGq1nDzyb5Y5cVcdIYZaYyxwYGRykXmIa&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-2.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=Lo2XEUA_pHwBJY5IU7WgrQ&amp;oh=00_AfgpiFygiAJv7Q1FhmySpaM9IuZi4DpigD65nku7ZIs-Ow&amp;oe=692921BD</t>
         </is>
       </c>
     </row>
@@ -13056,10 +13083,10 @@
         <v>0</v>
       </c>
       <c r="O128" t="n">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P128" t="n">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="Q128" t="n">
         <v>51</v>
@@ -13086,7 +13113,7 @@
       <c r="AA128" t="inlineStr"/>
       <c r="AB128" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-3.cdninstagram.com/v/t51.29350-15/340969214_1189770355016166_1630916551972272328_n.webp?stp=dst-jpg_e35_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0FST1VTRUxfSVRFTS5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=fUXnJx0hqzoQ7kNvwEL_kru&amp;_nc_oc=AdlI3IL3-7XtVO6QZZ3OPturulkI3z2oMJehMX1dRbnYKuc-OsqWpbNnHyBATR45m1eaEtxIUjkYJmc8LQROeLUt&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-3.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=NMh7la5AfM9mywX1Im3YVQ&amp;oh=00_AfentYYVbmDBfHFAA-CL7bMIhnTfEY1qm_8WIxk4zJsRGg&amp;oe=68FEEB4E</t>
+          <t>https://scontent-lga3-3.cdninstagram.com/v/t51.29350-15/340969214_1189770355016166_1630916551972272328_n.webp?stp=dst-jpg_e35_tt6&amp;_nc_cat=106&amp;ccb=7-5&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0FST1VTRUxfSVRFTS5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=SLL1sJOuPckQ7kNvwF9Nifv&amp;_nc_oc=Adkpn9ke11CyX67q7hPXZjaDDZbSWrC975MtwIztAMe1MKQ7WpLRERwo1n1_hvymeo3tYmZdNRupn2zREFQVBAza&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-3.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=Lo2XEUA_pHwBJY5IU7WgrQ&amp;oh=00_AfitBB9Kr1Fcx0tESQa_hCeVDWVnd_bi6EfVo3A1LD9qpA&amp;oe=69291B4E</t>
         </is>
       </c>
       <c r="AC128" t="inlineStr"/>
@@ -13146,13 +13173,13 @@
         </is>
       </c>
       <c r="M129" t="n">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="N129" t="n">
         <v>0</v>
       </c>
       <c r="O129" t="n">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="P129" t="inlineStr"/>
       <c r="Q129" t="n">
@@ -13180,12 +13207,12 @@
       <c r="AA129" t="inlineStr"/>
       <c r="AB129" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-2.cdninstagram.com/o1/v/t2/f2/m82/AQP93d9md1Qe2c0hj0JzOVpIMpocFBnXyystYvDR1qFIxv0FkaIm7Jw7rQdbELVV4adOkgJ5beKhAR1jQ4DpJisJiIDzJPH-4OtCtNM.mp4?_nc_cat=100&amp;_nc_sid=5e9851&amp;_nc_ht=scontent-lga3-2.cdninstagram.com&amp;_nc_ohc=Jm6AgL0UPE8Q7kNvwGCWcu1&amp;efg=eyJ2ZW5jb2RlX3RhZyI6Inhwdl9wcm9ncmVzc2l2ZS5JTlNUQUdSQU0uQ0xJUFMuQzMuNzIwLmRhc2hfYmFzZWxpbmVfMV92MSIsInhwdl9hc3NldF9pZCI6MjM4ODk5Mjg4NTIzNzA1LCJhc3NldF9hZ2VfZGF5cyI6OTI2LCJ2aV91c2VjYXNlX2lkIjoxMDA5OSwiZHVyYXRpb25fcyI6NTksInVybGdlbl9zb3VyY2UiOiJ3d3cifQ%3D%3D&amp;ccb=17-1&amp;vs=fb76e42a95e2d325&amp;_nc_vs=HBksFQIYT2lnX3hwdl9yZWVsc19wZXJtYW5lbnRfcHJvZC9DRjQ0MTAxMTlFMkI2MkMyNTgxRDRCQjI2NjQzRTNBNl92aWRlb19kYXNoaW5pdC5tcDQVAALIARIAFQIYOnBhc3N0aHJvdWdoX2V2ZXJzdG9yZS9HSTlsTUJRXy14b1ZUMTREQUIzZW9KcEx2dDhVYnFfRUFBQUYVAgLIARIAKAAYABsCiAd1c2Vfb2lsATEScHJvZ3Jlc3NpdmVfcmVjaXBlATEVAAAm8o7Ws-LRbBUCKAJDMywXQE2AAAAAAAAYEmRhc2hfYmFzZWxpbmVfMV92MREAdf4HZeadAQA&amp;_nc_gid=NMh7la5AfM9mywX1Im3YVQ&amp;edm=AM6HXa8EAAAA&amp;_nc_zt=28&amp;oh=00_AfcBWNWoCdI3DhtZK2KfXJstf8nzaO1tf886VyzT7sM0Sg&amp;oe=68FAFD19</t>
+          <t>https://scontent-lga3-2.cdninstagram.com/o1/v/t2/f2/m82/AQP93d9md1Qe2c0hj0JzOVpIMpocFBnXyystYvDR1qFIxv0FkaIm7Jw7rQdbELVV4adOkgJ5beKhAR1jQ4DpJisJiIDzJPH-4OtCtNM.mp4?_nc_cat=100&amp;_nc_sid=5e9851&amp;_nc_ht=scontent-lga3-2.cdninstagram.com&amp;_nc_ohc=HTQX0X_QyZ4Q7kNvwFfy9Tl&amp;efg=eyJ2ZW5jb2RlX3RhZyI6Inhwdl9wcm9ncmVzc2l2ZS5JTlNUQUdSQU0uQ0xJUFMuQzMuNzIwLmRhc2hfYmFzZWxpbmVfMV92MSIsInhwdl9hc3NldF9pZCI6MjM4ODk5Mjg4NTIzNzA1LCJhc3NldF9hZ2VfZGF5cyI6OTU4LCJ2aV91c2VjYXNlX2lkIjoxMDA5OSwiZHVyYXRpb25fcyI6NTksInVybGdlbl9zb3VyY2UiOiJ3d3cifQ%3D%3D&amp;ccb=17-1&amp;vs=fb76e42a95e2d325&amp;_nc_vs=HBksFQIYT2lnX3hwdl9yZWVsc19wZXJtYW5lbnRfcHJvZC9DRjQ0MTAxMTlFMkI2MkMyNTgxRDRCQjI2NjQzRTNBNl92aWRlb19kYXNoaW5pdC5tcDQVAALIARIAFQIYOnBhc3N0aHJvdWdoX2V2ZXJzdG9yZS9HSTlsTUJRXy14b1ZUMTREQUIzZW9KcEx2dDhVYnFfRUFBQUYVAgLIARIAKAAYABsCiAd1c2Vfb2lsATEScHJvZ3Jlc3NpdmVfcmVjaXBlATEVAAAm8o7Ws-LRbBUCKAJDMywXQE2AAAAAAAAYEmRhc2hfYmFzZWxpbmVfMV92MREAdf4HZeadAQA&amp;_nc_gid=Lo2XEUA_pHwBJY5IU7WgrQ&amp;edm=AM6HXa8EAAAA&amp;_nc_zt=28&amp;oh=00_Afjyg8hy2yZgjE1rNu62AMfhvTt47pWAgAajBTIACn5jLw&amp;oe=69252D19</t>
         </is>
       </c>
       <c r="AC129" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-2.cdninstagram.com/v/t51.71878-15/496718958_685745247172438_3137809581979013248_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0xJUFMuYmVzdF9pbWFnZV91cmxnZW4uQzMifQ%3D%3D&amp;_nc_ohc=LpaM3RL_Hy4Q7kNvwElpHnx&amp;_nc_oc=AdloSzrUWW88RgegH8kcqOqN_CzoYdm8pdPSjuBqbYfmQVKdjd5UCBXy9OyO7OWxELd2HmDU8LkddeLKINSttvkT&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-2.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=NMh7la5AfM9mywX1Im3YVQ&amp;oh=00_Afdg-cuS4zXuRs6Gxcu-as_h-I_FYPrWhJSUBOH9kZSvHw&amp;oe=68FEF432</t>
+          <t>https://scontent-lga3-2.cdninstagram.com/v/t51.71878-15/496718958_685745247172438_3137809581979013248_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=107&amp;ccb=7-5&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0xJUFMuYmVzdF9pbWFnZV91cmxnZW4uQzMifQ%3D%3D&amp;_nc_ohc=N3b-di3QvasQ7kNvwE9GMnu&amp;_nc_oc=Adm8gHUz9-0MUPMRHvMHyQpZj6nTo-XFxqjLSWNmXxv1VySN9aCmeFKTC1GmV5dwyjyH21cYH7sy_a8Ofrz95_H0&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-2.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=Lo2XEUA_pHwBJY5IU7WgrQ&amp;oh=00_Afj1W-ILXFejGOzBCgtLTEihJKpnf0-rHwLEIFibIx1mYw&amp;oe=69292432</t>
         </is>
       </c>
     </row>
@@ -13252,10 +13279,10 @@
         <v>0</v>
       </c>
       <c r="O130" t="n">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="P130" t="n">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Q130" t="n">
         <v>50</v>
@@ -13282,7 +13309,7 @@
       <c r="AA130" t="inlineStr"/>
       <c r="AB130" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-1.cdninstagram.com/v/t51.29350-15/339711305_543656177894692_5569017753280716685_n.webp?stp=dst-jpg_e35_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0FST1VTRUxfSVRFTS5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=0qPp5vWYHscQ7kNvwGNMBge&amp;_nc_oc=Adn0T_M8l3jARTwuxCbjbIvTb8fW9mJSt0SLocDwlzjDpfV6GTWG3pEgvE5HHWg-E1aQOtxooQPcxSROt65_XqjE&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-1.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=NMh7la5AfM9mywX1Im3YVQ&amp;oh=00_AfdCe9h8RyELlZ8_IqHVmIQK4JdW4mjVImAoEiRNNNq_Cg&amp;oe=68FEE23D</t>
+          <t>https://scontent-lga3-3.cdninstagram.com/v/t51.29350-15/339711305_543656177894692_5569017753280716685_n.webp?stp=dst-jpg_e35_tt6&amp;_nc_cat=108&amp;ccb=7-5&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0FST1VTRUxfSVRFTS5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=aHiJ5SrCiEUQ7kNvwFofwHp&amp;_nc_oc=AdltVSvz54Q0Qfo-RijC2NiDiv9437hIBXf19eqQMEpK0y2Vpbxwx8E-36qYPtlrPhWacyUeno5--PskKONOBFAe&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-3.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=Lo2XEUA_pHwBJY5IU7WgrQ&amp;oh=00_Afg8HYE8kNeOB2Yim19h0UNKFV1EHLu_mvyK8q3xJLm5mw&amp;oe=69294A7D</t>
         </is>
       </c>
       <c r="AC130" t="inlineStr"/>
@@ -13348,10 +13375,10 @@
         <v>0</v>
       </c>
       <c r="O131" t="n">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="P131" t="n">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="Q131" t="n">
         <v>70</v>
@@ -13378,7 +13405,7 @@
       <c r="AA131" t="inlineStr"/>
       <c r="AB131" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-3.cdninstagram.com/v/t51.29350-15/339662439_165423236411436_5869808167243990640_n.webp?stp=dst-jpg_e35_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0FST1VTRUxfSVRFTS5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=DNif6U0RJ_MQ7kNvwEf4qsW&amp;_nc_oc=AdmOBhL7DWta-okUaYZBmn80BT0TOgEXq6FyaOh7Tosyv13BHelpaQOm9j2-wn3HqC-NHzcGIfPrlnbUQoErcJbS&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-3.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=NMh7la5AfM9mywX1Im3YVQ&amp;oh=00_Afc_TsOB8PYUUY0J3olqkkudyBYbWvxFGI_64liBi0BcbA&amp;oe=68FEF668</t>
+          <t>https://scontent-lga3-3.cdninstagram.com/v/t51.29350-15/339662439_165423236411436_5869808167243990640_n.webp?stp=dst-jpg_e35_tt6&amp;_nc_cat=110&amp;ccb=7-5&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0FST1VTRUxfSVRFTS5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=b6HYdYHC7AEQ7kNvwHqRNac&amp;_nc_oc=AdlsVj7FCPdPNX2XqTqYZMwYzRmfx_f-sEYyn3nWdjjxXEdnYrTJjfHcmEO5lA5usHAB5Yr275yu13OE5JsztYrv&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-3.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=Lo2XEUA_pHwBJY5IU7WgrQ&amp;oh=00_Afh27RG8WzTZ44oSbFIhMVlpBe54jxqaOYeMekGdn-CYzg&amp;oe=69292668</t>
         </is>
       </c>
       <c r="AC131" t="inlineStr"/>
@@ -13438,13 +13465,13 @@
         </is>
       </c>
       <c r="M132" t="n">
-        <v>1568</v>
+        <v>1570</v>
       </c>
       <c r="N132" t="n">
         <v>0</v>
       </c>
       <c r="O132" t="n">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="P132" t="inlineStr"/>
       <c r="Q132" t="n">
@@ -13472,12 +13499,12 @@
       <c r="AA132" t="inlineStr"/>
       <c r="AB132" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-2.cdninstagram.com/o1/v/t2/f2/m82/AQMRZxnidWwax9cL3Z-ho2HkQpQV3eXTLa2QtNbMDlqOYGqusEjWWiZEbSxJe-2wF06SUaGMP2BtcRD6r3OG4WXjrTu4ex370Fxlf-g.mp4?_nc_cat=109&amp;_nc_sid=5e9851&amp;_nc_ht=scontent-lga3-2.cdninstagram.com&amp;_nc_ohc=DrCTaV9b_ogQ7kNvwGM747U&amp;efg=eyJ2ZW5jb2RlX3RhZyI6Inhwdl9wcm9ncmVzc2l2ZS5JTlNUQUdSQU0uQ0xJUFMuQzMuNzIwLmRhc2hfYmFzZWxpbmVfMV92MSIsInhwdl9hc3NldF9pZCI6NTM2NTQ3NzA1MDU2NzI2LCJhc3NldF9hZ2VfZGF5cyI6OTQxLCJ2aV91c2VjYXNlX2lkIjoxMDA5OSwiZHVyYXRpb25fcyI6NDYsInVybGdlbl9zb3VyY2UiOiJ3d3cifQ%3D%3D&amp;ccb=17-1&amp;vs=a07427ce5c90c1f1&amp;_nc_vs=HBksFQIYT2lnX3hwdl9yZWVsc19wZXJtYW5lbnRfcHJvZC9CRDRDMThDN0MzMzE0QkZBQzc3MTMwMjRDMkUzOTk4NF92aWRlb19kYXNoaW5pdC5tcDQVAALIARIAFQIYOnBhc3N0aHJvdWdoX2V2ZXJzdG9yZS9HS29lb1JNZ3RYQ00tdkFLQUZySC1GMUpHSnNUYnFfRUFBQUYVAgLIARIAKAAYABsCiAd1c2Vfb2lsATEScHJvZ3Jlc3NpdmVfcmVjaXBlATEVAAAmrLfr9Zf_8wEVAigCQzMsF0BHBDlYEGJOGBJkYXNoX2Jhc2VsaW5lXzFfdjERAHX-B2XmnQEA&amp;_nc_gid=NMh7la5AfM9mywX1Im3YVQ&amp;edm=AM6HXa8EAAAA&amp;_nc_zt=28&amp;oh=00_AfeXXiVRaGR8nciujy-p0YWua25TIcO4LJIMKifv9B1Kig&amp;oe=68FB2006</t>
+          <t>https://scontent-lga3-2.cdninstagram.com/o1/v/t2/f2/m82/AQMRZxnidWwax9cL3Z-ho2HkQpQV3eXTLa2QtNbMDlqOYGqusEjWWiZEbSxJe-2wF06SUaGMP2BtcRD6r3OG4WXjrTu4ex370Fxlf-g.mp4?_nc_cat=109&amp;_nc_sid=5e9851&amp;_nc_ht=scontent-lga3-2.cdninstagram.com&amp;_nc_ohc=2OsTvw6sofMQ7kNvwGXiBlZ&amp;efg=eyJ2ZW5jb2RlX3RhZyI6Inhwdl9wcm9ncmVzc2l2ZS5JTlNUQUdSQU0uQ0xJUFMuQzMuNzIwLmRhc2hfYmFzZWxpbmVfMV92MSIsInhwdl9hc3NldF9pZCI6NTM2NTQ3NzA1MDU2NzI2LCJhc3NldF9hZ2VfZGF5cyI6OTczLCJ2aV91c2VjYXNlX2lkIjoxMDA5OSwiZHVyYXRpb25fcyI6NDYsInVybGdlbl9zb3VyY2UiOiJ3d3cifQ%3D%3D&amp;ccb=17-1&amp;vs=a07427ce5c90c1f1&amp;_nc_vs=HBksFQIYT2lnX3hwdl9yZWVsc19wZXJtYW5lbnRfcHJvZC9CRDRDMThDN0MzMzE0QkZBQzc3MTMwMjRDMkUzOTk4NF92aWRlb19kYXNoaW5pdC5tcDQVAALIARIAFQIYOnBhc3N0aHJvdWdoX2V2ZXJzdG9yZS9HS29lb1JNZ3RYQ00tdkFLQUZySC1GMUpHSnNUYnFfRUFBQUYVAgLIARIAKAAYABsCiAd1c2Vfb2lsATEScHJvZ3Jlc3NpdmVfcmVjaXBlATEVAAAmrLfr9Zf_8wEVAigCQzMsF0BHBDlYEGJOGBJkYXNoX2Jhc2VsaW5lXzFfdjERAHX-B2XmnQEA&amp;_nc_gid=Lo2XEUA_pHwBJY5IU7WgrQ&amp;edm=AM6HXa8EAAAA&amp;_nc_zt=28&amp;oh=00_AfgIkcl2-8BVAaLoqN3Lu7uxgCXGiblGWOtAFrG5UnQ68g&amp;oe=69255006</t>
         </is>
       </c>
       <c r="AC132" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-2.cdninstagram.com/v/t51.71878-15/503342079_974293094615516_5647045944223076012_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0xJUFMuYmVzdF9pbWFnZV91cmxnZW4uQzMifQ%3D%3D&amp;_nc_ohc=7E31D-WQk-wQ7kNvwFE26_2&amp;_nc_oc=AdlEzdJUaF74dAojtNeyePCKLRQtXcFI6OGTLjBFWig04d_wL-Pnplcs5yzer8hMMdQy8B2edu4mW3oA8K0OJc67&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-2.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=NMh7la5AfM9mywX1Im3YVQ&amp;oh=00_AffG37ik9p9eoD-nOtZTiNMBeK2z1JIMCcqQtN8EHX_5WA&amp;oe=68FF08ED</t>
+          <t>https://scontent-lga3-2.cdninstagram.com/v/t51.71878-15/503342079_974293094615516_5647045944223076012_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=107&amp;ccb=7-5&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0xJUFMuYmVzdF9pbWFnZV91cmxnZW4uQzMifQ%3D%3D&amp;_nc_ohc=sg0x18o7tiYQ7kNvwGQ2RaD&amp;_nc_oc=AdlMZfvcgpzfxJE2E-ZpNWSFQArGobybsToG3grH5oGxeEZ-mUkc8KkSSjjGhhOs-iBNUQL7qCcElCTxl27LUjYf&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-2.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=Lo2XEUA_pHwBJY5IU7WgrQ&amp;oh=00_AfhvQImGGkYUHMDkQdsI7yGm9mLGLsN9qbI8v-XkwMu3Yg&amp;oe=692938ED</t>
         </is>
       </c>
     </row>
@@ -13545,13 +13572,13 @@
         <v>42</v>
       </c>
       <c r="P133" t="n">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Q133" t="n">
         <v>66</v>
       </c>
       <c r="R133" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S133" t="n">
         <v>0</v>
@@ -13563,7 +13590,7 @@
         <v>0</v>
       </c>
       <c r="V133" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="W133" t="inlineStr"/>
       <c r="X133" t="inlineStr"/>
@@ -13572,7 +13599,7 @@
       <c r="AA133" t="inlineStr"/>
       <c r="AB133" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-1.cdninstagram.com/v/t51.29350-15/334731759_2739584132843772_303124690534271615_n.webp?stp=dst-jpg_e35_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiRkVFRC5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=L4M1npD2MP4Q7kNvwGB0vlh&amp;_nc_oc=Adl_klCsfEEGKIyBoO63Tj8OxSsWig6GVCejte40EvGlGqeAaO69ZQJXhlddWq8xwFm50gtJvbHxCLOL_SWgvDAc&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-1.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=NMh7la5AfM9mywX1Im3YVQ&amp;oh=00_AffNiHtNF_y-hU3eKJ5l-xijN0k2IDMBiUf9ERNeZWJ_jw&amp;oe=68FF159E</t>
+          <t>https://scontent-lga3-1.cdninstagram.com/v/t51.29350-15/334731759_2739584132843772_303124690534271615_n.webp?stp=dst-jpg_e35_tt6&amp;_nc_cat=103&amp;ccb=7-5&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiRkVFRC5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=tfyE_spUho0Q7kNvwE0yZAW&amp;_nc_oc=AdnHNWfxl9mnadfP8JAoh0Ou2TT4fR6hj2XWNe6ALnP9D9rwnGaWYT0SJa19IEihM8pLxyYxB9XRRPv02f9boZH1&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-1.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=Lo2XEUA_pHwBJY5IU7WgrQ&amp;oh=00_AfjJahrUCjGDUWqjKDexNce1VfPrDCmYQEDhgavU0i5PPQ&amp;oe=6929459E</t>
         </is>
       </c>
       <c r="AC133" t="inlineStr"/>
@@ -13638,16 +13665,16 @@
         <v>0</v>
       </c>
       <c r="O134" t="n">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="P134" t="n">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="Q134" t="n">
         <v>81</v>
       </c>
       <c r="R134" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S134" t="n">
         <v>0</v>
@@ -13659,7 +13686,7 @@
         <v>0</v>
       </c>
       <c r="V134" t="n">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="W134" t="inlineStr"/>
       <c r="X134" t="inlineStr"/>
@@ -13668,7 +13695,7 @@
       <c r="AA134" t="inlineStr"/>
       <c r="AB134" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-2.cdninstagram.com/v/t51.29350-15/333490563_877171853391952_5856290618643312545_n.webp?stp=dst-jpg_e35_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0FST1VTRUxfSVRFTS5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=5ncxJr0LqjMQ7kNvwEitRxa&amp;_nc_oc=AdnF1-jE9dktvmf9cnvQZdWq7aHKa8kPBqSj-GP0P356gQlawOkKfTo8cyUD1AIvxiChlRKDWGVaoe20DMgIRZfE&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-2.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=NMh7la5AfM9mywX1Im3YVQ&amp;oh=00_AfeWP3jx4qe_Lhw0KO4r2KLY4LmlTVIHtH_ly8CsnvHD6w&amp;oe=68FF0D2F</t>
+          <t>https://scontent-lga3-2.cdninstagram.com/v/t51.29350-15/333490563_877171853391952_5856290618643312545_n.webp?stp=dst-jpg_e35_tt6&amp;_nc_cat=100&amp;ccb=7-5&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0FST1VTRUxfSVRFTS5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=vgA5K9rAfd8Q7kNvwFcA4XB&amp;_nc_oc=AdmXrSIwM24Rf-q5GEa_7JBdhAmCzkfV5RHDHMCTXGMj2wnORzzy67aeUsmO08r6t36o3xTmKH7uFzsUh68J42QU&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-2.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=Lo2XEUA_pHwBJY5IU7WgrQ&amp;oh=00_AfhjChPEwWZn6SL82_L2lmQQZleZN5kZw79JRFJzafGiqQ&amp;oe=69293D2F</t>
         </is>
       </c>
       <c r="AC134" t="inlineStr"/>
@@ -13734,7 +13761,7 @@
         <v>0</v>
       </c>
       <c r="O135" t="n">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="P135" t="n">
         <v>136</v>
@@ -13764,7 +13791,7 @@
       <c r="AA135" t="inlineStr"/>
       <c r="AB135" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-1.cdninstagram.com/v/t51.29350-15/332701552_1376277306506671_4998666039645788823_n.webp?stp=dst-jpg_e35_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiRkVFRC5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=ooVPdCWN5jkQ7kNvwGFrxxM&amp;_nc_oc=AdlmjFgFgVig0xKXCSL8IyzSU9rywQRZwij_AFJroig0Aaa8FsN2MKC_arbnsgGU0svWx08dFPodDYGuCo8d2Y30&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-1.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=NMh7la5AfM9mywX1Im3YVQ&amp;oh=00_Afeyx0n6eyD11L7U3JOccq3VSxdk-qzcLKo_uZ7GLyOFFA&amp;oe=68FEFBAF</t>
+          <t>https://scontent-lga3-1.cdninstagram.com/v/t51.29350-15/332701552_1376277306506671_4998666039645788823_n.webp?stp=dst-jpg_e35_tt6&amp;_nc_cat=103&amp;ccb=7-5&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiRkVFRC5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=ANzprKSJxXYQ7kNvwGwSb62&amp;_nc_oc=AdlKV1J-U0d9qw7lhgz6puj8JWE-nGVQy9qYDbkdhK2aHT3mNQmv2zicTYI4QaD0gHPzob9DK5NR55H3ID7r60LF&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-1.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=Lo2XEUA_pHwBJY5IU7WgrQ&amp;oh=00_AfhtADkfDnNpj4XEhIkTwur1XyxIsDSWAuIlF9Vo9LfmjQ&amp;oe=69292BAF</t>
         </is>
       </c>
       <c r="AC135" t="inlineStr"/>
@@ -13830,10 +13857,10 @@
         <v>0</v>
       </c>
       <c r="O136" t="n">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="P136" t="n">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="Q136" t="n">
         <v>57</v>
@@ -13860,7 +13887,7 @@
       <c r="AA136" t="inlineStr"/>
       <c r="AB136" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-2.cdninstagram.com/v/t51.29350-15/332194686_222091453595752_7983224388199827522_n.webp?stp=dst-jpg_e35_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0FST1VTRUxfSVRFTS5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=-XW_In7fXsQQ7kNvwGm3xej&amp;_nc_oc=AdllqguFR2Oz8uoIpXeJFg4ixGUjNSVoyuAhlpGeMFRqxNW_XoM1Obfs7199yLbWeWMRvmitWI3uqfexdfKMO5sp&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-2.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=NMh7la5AfM9mywX1Im3YVQ&amp;oh=00_AfctuPh3KfgC4aLMatZrooc_Hp7-TvbpU0bxElRAeSavSw&amp;oe=68FF0FDE</t>
+          <t>https://scontent-lga3-2.cdninstagram.com/v/t51.29350-15/332194686_222091453595752_7983224388199827522_n.webp?stp=dst-jpg_e35_tt6&amp;_nc_cat=109&amp;ccb=7-5&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0FST1VTRUxfSVRFTS5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=l92LOdbc2HUQ7kNvwHjsndE&amp;_nc_oc=AdlfeyfWQXwt3q_QVRt4V357eR7gSZ42bT58-xV3bnlI02x69NuDmibyH389dKpmHRINXf5yIUBIh8uamY-iyrFS&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-2.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=Lo2XEUA_pHwBJY5IU7WgrQ&amp;oh=00_Afjw1YO3Jh0cnBtJ3c8ph6H5u9J1vQBu24tUvaWqgYKmcw&amp;oe=69293FDE</t>
         </is>
       </c>
       <c r="AC136" t="inlineStr"/>
@@ -13929,7 +13956,7 @@
         <v>91</v>
       </c>
       <c r="P137" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q137" t="n">
         <v>61</v>
@@ -13956,7 +13983,7 @@
       <c r="AA137" t="inlineStr"/>
       <c r="AB137" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-2.cdninstagram.com/v/t51.29350-15/318475336_1633625507093243_5734333210536230265_n.webp?stp=dst-jpg_e35_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiRkVFRC5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=mJ86cpa9eVsQ7kNvwHy1T_D&amp;_nc_oc=AdlNsVJWq7XWsn8k5Mc35CrCvPPeTpwaoKAQq7BwLuVM78CE3sPmadY72urR5F1GyLgG_IL3xbme_GVCWptYGwWF&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-2.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=NMh7la5AfM9mywX1Im3YVQ&amp;oh=00_Afd2Il52UZm2J3FrHSCVAPFW8cuvBYNBDQkOTn_-mWLhOg&amp;oe=68FF113F</t>
+          <t>https://scontent-lga3-2.cdninstagram.com/v/t51.29350-15/318475336_1633625507093243_5734333210536230265_n.webp?stp=dst-jpg_e35_tt6&amp;_nc_cat=100&amp;ccb=7-5&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiRkVFRC5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=7xGnPCMrLrQQ7kNvwGMdB4d&amp;_nc_oc=AdnI4XP_01BgMZhy9_LO2ZcAf31G1zoAO2m57S-ANyA5AfQtFEnbPQS-XHheMs2zs2VaV7ojBjPoASHyvt-YRuj0&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-2.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=Lo2XEUA_pHwBJY5IU7WgrQ&amp;oh=00_AfiqWENlYzY_hawjoK77ClUTay0-yUK5Zxm2Ye8kV2wrtw&amp;oe=6929413F</t>
         </is>
       </c>
       <c r="AC137" t="inlineStr"/>
@@ -14022,10 +14049,10 @@
         <v>0</v>
       </c>
       <c r="O138" t="n">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="P138" t="n">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="Q138" t="n">
         <v>71</v>
@@ -14052,7 +14079,7 @@
       <c r="AA138" t="inlineStr"/>
       <c r="AB138" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-3.cdninstagram.com/v/t51.29350-15/313843505_788786318902004_6736382841673986056_n.webp?stp=dst-jpg_e35_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiRkVFRC5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=glCY9eKoc0oQ7kNvwEjZlsc&amp;_nc_oc=AdlL_eAHMVjDKJEmRZvT2tD0K6X57Yrhy3_nHOrIok2agHr65Fkn8lWWfPPHRb8UkEvpewh1lnsmk3srq002iQJ2&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-3.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=NMh7la5AfM9mywX1Im3YVQ&amp;oh=00_Afey8T5D8QTPT5GYDyjA0qPmzC95pqo7TsqAUm_2Rh5_Fw&amp;oe=68FEF1CA</t>
+          <t>https://scontent-lga3-3.cdninstagram.com/v/t51.29350-15/313843505_788786318902004_6736382841673986056_n.webp?stp=dst-jpg_e35_tt6&amp;_nc_cat=104&amp;ccb=7-5&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiRkVFRC5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=SOFAZ99X66EQ7kNvwFIpd87&amp;_nc_oc=Adn9sl6VDYDq0rG7JSDI-wr0IFqUNaBBK4rQUtUkcuOgbKb7GdYNVlwCByFVKi1hej5XJyQ_2BxEiLIXQjPyMswl&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-3.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=Lo2XEUA_pHwBJY5IU7WgrQ&amp;oh=00_AfiRW6dgFhfnLseWsNnY-X2Fqg70Ix5_bviyEbQWVo8r5w&amp;oe=692921CA</t>
         </is>
       </c>
       <c r="AC138" t="inlineStr"/>
@@ -14119,10 +14146,10 @@
         <v>0</v>
       </c>
       <c r="O139" t="n">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="P139" t="n">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="Q139" t="n">
         <v>118</v>
@@ -14149,7 +14176,7 @@
       <c r="AA139" t="inlineStr"/>
       <c r="AB139" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-1.cdninstagram.com/v/t51.29350-15/312061589_118650701016383_1603768605632485312_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiRkVFRC5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=md8EaVgq6ZMQ7kNvwGftcKh&amp;_nc_oc=Adm99hVxheJiDsH-8yKvxWlib8oo-7leaFEi_Vc6tNBO8VWXS1RNXwIl9Ip2oZrwA4OFxdSF-23Uid1yXjsZJENc&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-1.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=NMh7la5AfM9mywX1Im3YVQ&amp;oh=00_AffBHaLqmS-W-cHVd48xIObtAvjeCIefvXjiP9jlMryGcQ&amp;oe=68FF024A</t>
+          <t>https://scontent-lga3-1.cdninstagram.com/v/t51.29350-15/312061589_118650701016383_1603768605632485312_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=103&amp;ccb=7-5&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiRkVFRC5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=UjIzwt340UcQ7kNvwG9Rtcv&amp;_nc_oc=AdltmMefNbro_LEKHFpx8uhw5XCTyojDXL7WRkPnAt2GTUBC3Jj050Vts24d4EyTpa8UDYGNYvb0cQJbxdc97YPZ&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-1.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=Lo2XEUA_pHwBJY5IU7WgrQ&amp;oh=00_AfirrLOvGZ8icO-EYsDSMRAgkgl6wnxfwqUyd2MTHsJRQg&amp;oe=6929324A</t>
         </is>
       </c>
       <c r="AC139" t="inlineStr"/>
@@ -14215,10 +14242,10 @@
         <v>0</v>
       </c>
       <c r="O140" t="n">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="P140" t="n">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="Q140" t="n">
         <v>70</v>
@@ -14245,7 +14272,7 @@
       <c r="AA140" t="inlineStr"/>
       <c r="AB140" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-1.cdninstagram.com/v/t51.29350-15/287531015_574630080689716_776543746070218315_n.webp?stp=dst-jpg_e35_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiRkVFRC5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=9LZCcbj7C6wQ7kNvwEFa-nZ&amp;_nc_oc=AdlYPp5-oYTIWLM4tKSyQkRFLFPDABwigIvjOFZu01h2SXsZTryNJZnjH3BQCDrCSB8egZ7QaTRLTt6OtQvT1VyL&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-1.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=NMh7la5AfM9mywX1Im3YVQ&amp;oh=00_AffanAcJwGxQxGO430YAQq1fHCOTvoir3JhvqP5xmuuHRA&amp;oe=68FF06C9</t>
+          <t>https://scontent-lga3-1.cdninstagram.com/v/t51.29350-15/287531015_574630080689716_776543746070218315_n.webp?stp=dst-jpg_e35_tt6&amp;_nc_cat=102&amp;ccb=7-5&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiRkVFRC5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=hCekOZbAcy0Q7kNvwHxSqIE&amp;_nc_oc=AdlYBooRWYmlFhX3toMSpaR_Qe9l-5wuewqFD7W0bp4VQu8NF_sf-t1eQTX7QKW1aMEiZUEuybFFtcFIVVCcX21g&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-1.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=Lo2XEUA_pHwBJY5IU7WgrQ&amp;oh=00_AfiWjk-so8YQwicNlnAUwhC5UGIPYgbLusYuJTLBo2Vz0g&amp;oe=692936C9</t>
         </is>
       </c>
       <c r="AC140" t="inlineStr"/>
@@ -14312,10 +14339,10 @@
         <v>0</v>
       </c>
       <c r="O141" t="n">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="P141" t="n">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="Q141" t="n">
         <v>78</v>
@@ -14342,7 +14369,7 @@
       <c r="AA141" t="inlineStr"/>
       <c r="AB141" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-1.cdninstagram.com/v/t51.29350-15/285610451_1456447968108153_5073138534999567862_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiRkVFRC5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=m5V30KxmOroQ7kNvwFpzKUO&amp;_nc_oc=AdnaAVSBFKd6mkj10L-i_ZOu-sMIPgX-1CAB4833gBi2I0Ghp-rTAPMXABYsYlk7B4cKkoryJDIn-AWmQz7wdDrW&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-1.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=NMh7la5AfM9mywX1Im3YVQ&amp;oh=00_AfcLwmol5HS4zk3FBmwvj2n4Hb4Rk8WIO2nxypO_srfZoQ&amp;oe=68FF04A4</t>
+          <t>https://scontent-lga3-1.cdninstagram.com/v/t51.29350-15/285610451_1456447968108153_5073138534999567862_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=103&amp;ccb=7-5&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiRkVFRC5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=FnhSyHMdPY8Q7kNvwEftxGH&amp;_nc_oc=AdndueOZvoWDnsM-r8WdpWGo1utzid7O2LulrY1tdjCldSBkDtuOFXl0sbPdAPsS36sfsoh9lYuEPjGDBvu17sdG&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-1.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=Lo2XEUA_pHwBJY5IU7WgrQ&amp;oh=00_Afik_V054906Y7D3tB-l_YuUQgpmDAPJYLRyTIM2JCpmVQ&amp;oe=692934A4</t>
         </is>
       </c>
       <c r="AC141" t="inlineStr"/>
@@ -14438,7 +14465,7 @@
       <c r="AA142" t="inlineStr"/>
       <c r="AB142" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-2.cdninstagram.com/v/t51.29350-15/280565519_2341297176178022_1179421129689046314_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiRkVFRC5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=0Q0tEyFXKQcQ7kNvwH5DmUo&amp;_nc_oc=AdmJfAnYS3-HK_PkQlyE3WdLzA2BZcPDowqTOuzHcu3EcMJ303-ntBRhWn5CgcRhHQ2vFx9_02eQcdNj149Ddxnr&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-2.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=NMh7la5AfM9mywX1Im3YVQ&amp;oh=00_AfdC8GL92u7uUDTPodjM3X2FHCTXO9QT0bLwoIdpt6b8ag&amp;oe=68FF0270</t>
+          <t>https://scontent-lga3-2.cdninstagram.com/v/t51.29350-15/280565519_2341297176178022_1179421129689046314_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=107&amp;ccb=7-5&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiRkVFRC5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=nXyvGQehfkkQ7kNvwEoCvs8&amp;_nc_oc=AdkFBcV-JU2wwy7VB5pvH7hQJlLV529e73s6eF6Kx3XUPS09f7Te9nkQnnIoaUFjIkB9wCoU8WCB5_D_I80pjoji&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-2.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=Lo2XEUA_pHwBJY5IU7WgrQ&amp;oh=00_AfgMlBh3HRdCsJXvJQcEuKTF496bSFFKDjbkSvxd9N6ZxA&amp;oe=69293270</t>
         </is>
       </c>
       <c r="AC142" t="inlineStr"/>
@@ -14504,10 +14531,10 @@
         <v>0</v>
       </c>
       <c r="O143" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P143" t="n">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="Q143" t="n">
         <v>56</v>
@@ -14534,7 +14561,7 @@
       <c r="AA143" t="inlineStr"/>
       <c r="AB143" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-1.cdninstagram.com/v/t51.29350-15/279416921_1610029856034285_5348772350790506467_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0FST1VTRUxfSVRFTS5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=Rn0HRVRXBToQ7kNvwH-ATgC&amp;_nc_oc=Adn-mISnvCmkpQPWwlXf2nTt2wNeGZMk0gdWeKF2qoHB3Gjw6VL6WSAObFxTln_seOL2Sly1_MYHlUSZKiS1qeeC&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-1.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=NMh7la5AfM9mywX1Im3YVQ&amp;oh=00_AfcANHUO8eQJVw0ybfXI2mbb5ptKI9s_cwysLuX1qBLqhg&amp;oe=68FF0FB2</t>
+          <t>https://scontent-lga3-1.cdninstagram.com/v/t51.29350-15/279416921_1610029856034285_5348772350790506467_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=103&amp;ccb=7-5&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0FST1VTRUxfSVRFTS5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=588rqiBrDeoQ7kNvwE-9yQM&amp;_nc_oc=AdmbojeEiDq2m6VZjoK58hQR71k9U_oXvRLCxbkuDwtne9EsBXfyjNvkUBMQAPe-XfZzcLmudJzJR4BjWlsuWkBU&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-1.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=Lo2XEUA_pHwBJY5IU7WgrQ&amp;oh=00_AfjO41HI6hpLjKIWcrezkzDj6d9jbLOoMayT4MmWc7D1gw&amp;oe=69293FB2</t>
         </is>
       </c>
       <c r="AC143" t="inlineStr"/>
@@ -14603,10 +14630,10 @@
         <v>0</v>
       </c>
       <c r="O144" t="n">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="P144" t="n">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="Q144" t="n">
         <v>103</v>
@@ -14633,7 +14660,7 @@
       <c r="AA144" t="inlineStr"/>
       <c r="AB144" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-1.cdninstagram.com/v/t51.29350-15/276021827_509022657235560_5403270428892596113_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiRkVFRC5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=68d1gMwXYYYQ7kNvwHuFazp&amp;_nc_oc=AdmCP5JToNmNqBLannJjq0o8QuVZ_Bzl1ZnuaMsKR0k0O9VRB3frQ68I1pMjDhJGO58w4HxCZChYWAvhdoSNCe5W&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-1.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=NMh7la5AfM9mywX1Im3YVQ&amp;oh=00_AfeRiWAgbz6lvNGTVj54UzmZJiR4895BecQ1HGa1YLxjDQ&amp;oe=68FF025C</t>
+          <t>https://scontent-lga3-1.cdninstagram.com/v/t51.29350-15/276021827_509022657235560_5403270428892596113_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=103&amp;ccb=7-5&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiRkVFRC5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=3tfn9jIEdYMQ7kNvwGmksUa&amp;_nc_oc=AdnjfH2p0ZSBS6WcxzK2bFRF9jay_mDHhAtBIizUOTwxP7Zppcge3Ez9XkFBe7RLBUei5G1GZYsLQR5j_6kJNnlB&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-1.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=Lo2XEUA_pHwBJY5IU7WgrQ&amp;oh=00_AfhK07K6NKo782DoX9S9pqWW4qEuQqwTv3GyfB42Ac5Nkg&amp;oe=6929325C</t>
         </is>
       </c>
       <c r="AC144" t="inlineStr"/>
@@ -14699,10 +14726,10 @@
         <v>0</v>
       </c>
       <c r="O145" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P145" t="n">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="Q145" t="n">
         <v>59</v>
@@ -14729,7 +14756,7 @@
       <c r="AA145" t="inlineStr"/>
       <c r="AB145" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-1.cdninstagram.com/v/t51.29350-15/256386782_3019813901611069_7560023008249034559_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0FST1VTRUxfSVRFTS5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=XZnJzY4sPHoQ7kNvwG0CdXO&amp;_nc_oc=AdkVpmcCfUEBz2PfAh3TBxqzNIeISrM3LBTQWOo1peQUZPAyOHTdCXZqcVn8DFIBvaHQDd9hBGt8PYe2uUEUXK6m&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-1.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=NMh7la5AfM9mywX1Im3YVQ&amp;oh=00_AffkuL3Y29B4BKavVCoiuaa0SLmWhzxaRPXIsqIgmoAAsg&amp;oe=68FEF034</t>
+          <t>https://scontent-lga3-1.cdninstagram.com/v/t51.29350-15/256386782_3019813901611069_7560023008249034559_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=102&amp;ccb=7-5&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0FST1VTRUxfSVRFTS5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=DCA46-K1aRsQ7kNvwH1Fiqq&amp;_nc_oc=AdnNPpDPNGpncuYwVAdqzvb0ViFbCDMcwVUCtPSCNZAeY3paz0GskOuJlgcb2NkzbxtMUELAbdtTQMmQrkTm8Ew8&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-1.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=Lo2XEUA_pHwBJY5IU7WgrQ&amp;oh=00_AfgLAwzBLjC9oogz8hAmjWTFg8FhUH1FfXUG6uwaPxYHJQ&amp;oe=69292034</t>
         </is>
       </c>
       <c r="AC145" t="inlineStr"/>
@@ -14825,7 +14852,7 @@
       <c r="AA146" t="inlineStr"/>
       <c r="AB146" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-1.cdninstagram.com/v/t51.29350-15/256708618_1050588529009674_4575906176918728345_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiRkVFRC5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=QMNvjlbtjHAQ7kNvwGgZwVi&amp;_nc_oc=AdkSqk3VnW5bCkSUXFbbMSfCmrMON_eTmJbxkCpW2jqw8ruYFbJHkS1mfJoYHIZ7NLdpBjC4nkkYPZofoqc_NSzX&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-1.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=NMh7la5AfM9mywX1Im3YVQ&amp;oh=00_Afe_nuPT7POJcfeXepQYQJC99y-CKKp3mC9sfuwBfqiK1A&amp;oe=68FF0D74</t>
+          <t>https://scontent-lga3-1.cdninstagram.com/v/t51.29350-15/256708618_1050588529009674_4575906176918728345_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=111&amp;ccb=7-5&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiRkVFRC5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=8WPLlk6FGQIQ7kNvwF8QXdV&amp;_nc_oc=AdnSxXd1S2DNWm42r5NQpGyTmRR415wH-xDeFLHgOUD8Qelcr1gkklmwDNYq80AYMuuWPcAJ-n25HyWnnyk8gR29&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-1.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=Lo2XEUA_pHwBJY5IU7WgrQ&amp;oh=00_AfhN5f5549ZFa94oNa4QCYLNCKpCr_eC9_vgBixNu7cAMQ&amp;oe=69293D74</t>
         </is>
       </c>
       <c r="AC146" t="inlineStr"/>
@@ -14921,7 +14948,7 @@
       <c r="AA147" t="inlineStr"/>
       <c r="AB147" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-3.cdninstagram.com/v/t51.29350-15/252470240_827767477891494_1855400010854762156_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiRkVFRC5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=tIqXuC0kcDMQ7kNvwHje5n5&amp;_nc_oc=Adn2wGziumv-pq5TyhCZJIGv2qZVPV58S0Z7STFmSRLSaR_Oc0_rHl4JSxwIW0Z005qsC29LGsm-U2mAUiDEvhCA&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-3.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=NMh7la5AfM9mywX1Im3YVQ&amp;oh=00_Afe_mQqMrScDoCYHNvjQV7S41uPU7bZiJWoepVpnHiPS5g&amp;oe=68FEEFD9</t>
+          <t>https://scontent-lga3-3.cdninstagram.com/v/t51.29350-15/252470240_827767477891494_1855400010854762156_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=104&amp;ccb=7-5&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiRkVFRC5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=AEqVf_RyIQYQ7kNvwH2I_ZR&amp;_nc_oc=AdlOmAn0MPazefUor4PHSI2vG75JAXC3Q_xSaqBG14eaEeP0ydGL6aSvxSRNoxoEfUvUzPZhTA-khmhdCdAcCPJH&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-3.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=Lo2XEUA_pHwBJY5IU7WgrQ&amp;oh=00_AfjK6QPhp0zbjLcLKH0XAOvYzmy2Lf2GuCjhLB1BsJQgEg&amp;oe=69291FD9</t>
         </is>
       </c>
       <c r="AC147" t="inlineStr"/>
@@ -14987,10 +15014,10 @@
         <v>0</v>
       </c>
       <c r="O148" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P148" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Q148" t="n">
         <v>80</v>
@@ -15017,7 +15044,7 @@
       <c r="AA148" t="inlineStr"/>
       <c r="AB148" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-1.cdninstagram.com/v/t51.29350-15/247471369_1064414354317746_4897212084538669653_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiRkVFRC5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=_DeJw-BFkSgQ7kNvwHJ7Yb0&amp;_nc_oc=AdmdZpcyz4cB0nT9Wu6jCPS2Fmx6Zn11l4sZyZG5NQUqNuN6l3gHkPCTFczqTU4P5966ahR4kuEhbyVURVuykClc&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-1.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=NMh7la5AfM9mywX1Im3YVQ&amp;oh=00_AfeENJ6ZEIJP_vyN_sXmRSEiVQfV9JtFYlTihcosWJ_zUA&amp;oe=68FEF5B8</t>
+          <t>https://scontent-lga3-3.cdninstagram.com/v/t51.29350-15/247471369_1064414354317746_4897212084538669653_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=108&amp;ccb=7-5&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiRkVFRC5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=bGgjxnrL6joQ7kNvwEQ09v7&amp;_nc_oc=AdkqDzXgRf7p1oFHzq2K0SngDBDv_SiWtYLHIMFS_qtHB_0ZVMS91Img04MWnBwguzJDqnTJEJ7wrZTKQ6LxwNiP&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-3.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=Lo2XEUA_pHwBJY5IU7WgrQ&amp;oh=00_Afh0enTPycSMkrWBDMA2_cBxdDAwZQOGms8Wp7gQGbyeCQ&amp;oe=692925B8</t>
         </is>
       </c>
       <c r="AC148" t="inlineStr"/>
@@ -15087,10 +15114,10 @@
         <v>0</v>
       </c>
       <c r="O149" t="n">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="P149" t="n">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="Q149" t="n">
         <v>85</v>
@@ -15117,7 +15144,7 @@
       <c r="AA149" t="inlineStr"/>
       <c r="AB149" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-3.cdninstagram.com/v/t51.29350-15/242157820_1065630884209208_7221639467277935963_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiRkVFRC5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=vx6DyOS6GjgQ7kNvwHq8r71&amp;_nc_oc=AdnQvJ03-w8thnguS7Z6-7dzuwqKH0-x3akqIucVU_GQKkEr5rhA9iJhCFut7r-FsgXQ2c5AaFGxRQUooLoNrFxk&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-3.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=NMh7la5AfM9mywX1Im3YVQ&amp;oh=00_AffhgjZnRX0yc4joAsGOj_6vRh72XOjFgqdN2_1QaRm9cQ&amp;oe=68FEEF70</t>
+          <t>https://scontent-lga3-3.cdninstagram.com/v/t51.29350-15/242157820_1065630884209208_7221639467277935963_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=110&amp;ccb=7-5&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiRkVFRC5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=pPw1VO5oZAEQ7kNvwHgNv3b&amp;_nc_oc=Adm97adVJo5VyBsLjTtNjEC6wTX3hJCpn7rsZgFuikGfZ7L0Xd8hbZHMV61S9nVEWDaZ8LA15pNQaQhvrph_pqX5&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-3.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=Lo2XEUA_pHwBJY5IU7WgrQ&amp;oh=00_AfhmMI_pIlKfxTZ8823AHN0A2ik2ksG50Hp_0bJ4IpElcQ&amp;oe=69291F70</t>
         </is>
       </c>
       <c r="AC149" t="inlineStr"/>
@@ -15188,10 +15215,10 @@
         <v>0</v>
       </c>
       <c r="O150" t="n">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="P150" t="n">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="Q150" t="n">
         <v>65</v>
@@ -15218,7 +15245,7 @@
       <c r="AA150" t="inlineStr"/>
       <c r="AB150" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-2.cdninstagram.com/v/t51.29350-15/242064361_282642553386377_7175217547888794295_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiRkVFRC5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=94m9rLVPrw4Q7kNvwHQzbMR&amp;_nc_oc=AdmsmYYvc89QD4ubcvaKPbszVsNnjg8FXnXHtaDYja_OFRKN3lgIFt9d8suRTAbt8K5IiY1h1_hrreS7wMy91R8e&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-2.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=NMh7la5AfM9mywX1Im3YVQ&amp;oh=00_AffTeXeoZfptcXdRU_WgLkgNsor0EAgep0FyYlgZZyjInA&amp;oe=68FEEAAA</t>
+          <t>https://scontent-lga3-2.cdninstagram.com/v/t51.29350-15/242064361_282642553386377_7175217547888794295_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=107&amp;ccb=7-5&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiRkVFRC5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=zsY6PbYmoxsQ7kNvwGT3nIa&amp;_nc_oc=AdnzLs0r4tsyQtW2coWhKSvODT3SfH_0iRBH75G4bRSVZjTWK8EAOxyeZCFJdBrqyW57IqB4FfXrYc7J0XGFopvk&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-2.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=Lo2XEUA_pHwBJY5IU7WgrQ&amp;oh=00_AfhUBdJoZbsa-sHuwVPr65HdVdy94HE-05K95OI5Z4GyWw&amp;oe=69291AAA</t>
         </is>
       </c>
       <c r="AC150" t="inlineStr"/>
@@ -15288,10 +15315,10 @@
         <v>0</v>
       </c>
       <c r="O151" t="n">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="P151" t="n">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="Q151" t="n">
         <v>105</v>
@@ -15318,7 +15345,7 @@
       <c r="AA151" t="inlineStr"/>
       <c r="AB151" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-1.cdninstagram.com/v/t51.29350-15/237331548_854500308520290_3748477630448790563_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiRkVFRC5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=b-VfMccCrnMQ7kNvwEOvkHo&amp;_nc_oc=AdnACDTy_76tA98OaN_MV2OHYIf8UZCCwgSCVL_ljszwxxKvSbMcqYjqd0rW-oyn_WTSzntCk6MY6iaUZatdFto9&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-1.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=NMh7la5AfM9mywX1Im3YVQ&amp;oh=00_AfcvR7-TJkSyg3erfaA8VQF6b3v5lSf79QwnkmD8JuAxjw&amp;oe=68FEF78E</t>
+          <t>https://scontent-lga3-1.cdninstagram.com/v/t51.29350-15/237331548_854500308520290_3748477630448790563_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=103&amp;ccb=7-5&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiRkVFRC5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=yJHG3DJHLSgQ7kNvwEeyFRo&amp;_nc_oc=AdnZ-KirVktOVAoUBxBl9YVmZiG79oBwZGl4zY1vh-x1vQeQXYePlMZ0jnvZ8N_xkiKCDK2f9dfwOQC505eSot8W&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-1.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=Lo2XEUA_pHwBJY5IU7WgrQ&amp;oh=00_AfjGf9XEGAxZOwsHEz-nBatxg9BFkx-rPoUFHmbS4_DCMg&amp;oe=6929278E</t>
         </is>
       </c>
       <c r="AC151" t="inlineStr"/>
@@ -15390,10 +15417,10 @@
         <v>0</v>
       </c>
       <c r="O152" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P152" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Q152" t="n">
         <v>24</v>
@@ -15420,7 +15447,7 @@
       <c r="AA152" t="inlineStr"/>
       <c r="AB152" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-1.cdninstagram.com/v/t51.29350-15/185795867_766735837369782_133224250234416598_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiRkVFRC5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=9NOWBDP215wQ7kNvwFWTfQr&amp;_nc_oc=Adm5_zfldyK9xjDAVBjRftKuFz9TmkjWD7H2NyO9jYwvz6ZBAiQumbt3y8JzplUteIwDq6oZ0fByf_4UfzuN-84a&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-1.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=NMh7la5AfM9mywX1Im3YVQ&amp;oh=00_Afeh1Xe50im7P3e5R0mslSgootaXLboERclScrFmvmB9Ig&amp;oe=68FEEBCC</t>
+          <t>https://scontent-lga3-1.cdninstagram.com/v/t51.29350-15/185795867_766735837369782_133224250234416598_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=102&amp;ccb=7-5&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiRkVFRC5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=8Y2ulB4doGkQ7kNvwFs70ed&amp;_nc_oc=Admq5BKFNjK6NkpztVNHJ8KdRPk6J7pfA1l06T9GP8HcZGAAHV9NAzNYNUjD_OVd7TH-5LxxAkX4rqOLAC-4sxPH&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-1.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=Lo2XEUA_pHwBJY5IU7WgrQ&amp;oh=00_AfiMS85_oFp19o58AL3NbUVH35Niia_fFNuVoASNgjVhfw&amp;oe=69291BCC</t>
         </is>
       </c>
       <c r="AC152" t="inlineStr"/>
@@ -15491,10 +15518,10 @@
         <v>0</v>
       </c>
       <c r="O153" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="P153" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Q153" t="n">
         <v>18</v>
@@ -15521,7 +15548,7 @@
       <c r="AA153" t="inlineStr"/>
       <c r="AB153" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-2.cdninstagram.com/v/t51.29350-15/185291549_2896744083899150_5126009987102405823_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiRkVFRC5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=lEQcxM2sB5sQ7kNvwFthRLl&amp;_nc_oc=Adn5f-PIkAoYG9F3Fte_PcHh7x8GuWpqMEmD9-3y5QV4bj7ap4FDM69k0GBKd8yzZ3SFZQjQC5aPto_niA1hwrEU&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-2.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=NMh7la5AfM9mywX1Im3YVQ&amp;oh=00_AffZVos8Klp1wxVuSmjbooNcBDzyXczZ99S3QdlWArwV8w&amp;oe=68FF106D</t>
+          <t>https://scontent-lga3-2.cdninstagram.com/v/t51.29350-15/185291549_2896744083899150_5126009987102405823_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=101&amp;ccb=7-5&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiRkVFRC5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=jCyEvd_t8soQ7kNvwGA_RTa&amp;_nc_oc=AdkiwwIhK6DFZym5nkwekpv9jBQZWcMuUd8vTANZe_1EYMI2OoIVIBiu4_LYn0P2HBW7U2q0mp3EVsdQc74dHlVN&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-2.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=Lo2XEUA_pHwBJY5IU7WgrQ&amp;oh=00_AfghNRYHwPy_fW5ACxeBkyrxrV6Lr4WQ98hJNY9U6J_sLw&amp;oe=6929406D</t>
         </is>
       </c>
       <c r="AC153" t="inlineStr"/>
@@ -15593,7 +15620,7 @@
         <v>0</v>
       </c>
       <c r="O154" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P154" t="inlineStr"/>
       <c r="Q154" t="n">
@@ -15621,12 +15648,12 @@
       <c r="AA154" t="inlineStr"/>
       <c r="AB154" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-2.cdninstagram.com/o1/v/t2/f2/m86/AQOygouBFTgC8D8x2u4HuX7XcR1QIZMjp9otQ8yoeZy-MqPN_F2zCkLxeIj5a_5hXoyaiW_3BFb22-dfMTGNlfr-cd0Y1Mh7PGiSaHo.mp4?_nc_cat=101&amp;_nc_sid=5e9851&amp;_nc_ht=scontent-lga3-2.cdninstagram.com&amp;_nc_ohc=3yP8EXzZQxYQ7kNvwHGAvNR&amp;efg=eyJ2ZW5jb2RlX3RhZyI6Inhwdl9wcm9ncmVzc2l2ZS5JTlNUQUdSQU0uQ0xJUFMuQzMuNzIwLmRhc2hfYmFzZWxpbmVfMV92MSIsInhwdl9hc3NldF9pZCI6MTA1NzM3MjUxNTg0NDI5NywiYXNzZXRfYWdlX2RheXMiOjE2MzIsInZpX3VzZWNhc2VfaWQiOjEwMTAxLCJkdXJhdGlvbl9zIjoxMywidXJsZ2VuX3NvdXJjZSI6Ind3dyJ9&amp;ccb=17-1&amp;vs=658955feca672c94&amp;_nc_vs=HBksFQIYUmlnX3hwdl9yZWVsc19wZXJtYW5lbnRfc3JfcHJvZC81RDQ2MTc4ODlGMjlGMTZDMzEwN0U5NjlCQzczQTY5RV92aWRlb19kYXNoaW5pdC5tcDQVAALIARIAFQIYOnBhc3N0aHJvdWdoX2V2ZXJzdG9yZS9HSVc1aWh2VUxuMnFRSnNCQUJNcTRCanJZY0JEYnBrd0FBQUYVAgLIARIAKAAYABsCiAd1c2Vfb2lsATEScHJvZ3Jlc3NpdmVfcmVjaXBlATEVAAAmkoOek5fr4AMVAigCQzMsF0AqmZmZmZmaGBJkYXNoX2Jhc2VsaW5lXzFfdjERAHX-B2XqnQEA&amp;_nc_gid=NMh7la5AfM9mywX1Im3YVQ&amp;edm=AM6HXa8EAAAA&amp;_nc_zt=28&amp;oh=00_AfcC5nKKXXucRfCj8w6ZRaUhmRFHzzuO2f8CHwqYKv0JNg&amp;oe=68FB17A2</t>
+          <t>https://scontent-lga3-2.cdninstagram.com/o1/v/t2/f2/m86/AQOygouBFTgC8D8x2u4HuX7XcR1QIZMjp9otQ8yoeZy-MqPN_F2zCkLxeIj5a_5hXoyaiW_3BFb22-dfMTGNlfr-cd0Y1Mh7PGiSaHo.mp4?_nc_cat=101&amp;_nc_sid=5e9851&amp;_nc_ht=scontent-lga3-2.cdninstagram.com&amp;_nc_ohc=tDmSZhvWiH8Q7kNvwHdrIW8&amp;efg=eyJ2ZW5jb2RlX3RhZyI6Inhwdl9wcm9ncmVzc2l2ZS5JTlNUQUdSQU0uQ0xJUFMuQzMuNzIwLmRhc2hfYmFzZWxpbmVfMV92MSIsInhwdl9hc3NldF9pZCI6MTA1NzM3MjUxNTg0NDI5NywiYXNzZXRfYWdlX2RheXMiOjE2NjQsInZpX3VzZWNhc2VfaWQiOjEwMTAxLCJkdXJhdGlvbl9zIjoxMywidXJsZ2VuX3NvdXJjZSI6Ind3dyJ9&amp;ccb=17-1&amp;vs=658955feca672c94&amp;_nc_vs=HBksFQIYUmlnX3hwdl9yZWVsc19wZXJtYW5lbnRfc3JfcHJvZC81RDQ2MTc4ODlGMjlGMTZDMzEwN0U5NjlCQzczQTY5RV92aWRlb19kYXNoaW5pdC5tcDQVAALIARIAFQIYOnBhc3N0aHJvdWdoX2V2ZXJzdG9yZS9HSVc1aWh2VUxuMnFRSnNCQUJNcTRCanJZY0JEYnBrd0FBQUYVAgLIARIAKAAYABsCiAd1c2Vfb2lsATEScHJvZ3Jlc3NpdmVfcmVjaXBlATEVAAAmkoOek5fr4AMVAigCQzMsF0AqmZmZmZmaGBJkYXNoX2Jhc2VsaW5lXzFfdjERAHX-B2XqnQEA&amp;_nc_gid=Lo2XEUA_pHwBJY5IU7WgrQ&amp;edm=AM6HXa8EAAAA&amp;_nc_zt=28&amp;oh=00_Afh811_wA2chB5ENhyYRLuW3ZeakoTl3qQtt8DzsUGEORA&amp;oe=692547A2</t>
         </is>
       </c>
       <c r="AC154" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-1.cdninstagram.com/v/t51.71878-15/491428022_1208543907393823_5623635911369523534_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0xJUFMuYmVzdF9pbWFnZV91cmxnZW4uQzMifQ%3D%3D&amp;_nc_ohc=2ZAZQ8eWvUQQ7kNvwENu0_t&amp;_nc_oc=AdnqoWVuBoBYK_nmb2caPpA6aj0f_jv6fa-Qe5juSTjwBmSJGDW5qWYvTksuygd3wRWIfEAGGwm6uOJmtZh6zpUY&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-1.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=NMh7la5AfM9mywX1Im3YVQ&amp;oh=00_AfdeYtyJrxpeskrLlxUxPDWUpo2MIaVm2mJStAdrWhhb0g&amp;oe=68FEFF47</t>
+          <t>https://scontent-lga3-3.cdninstagram.com/v/t51.71878-15/491428022_1208543907393823_5623635911369523534_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=108&amp;ccb=7-5&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0xJUFMuYmVzdF9pbWFnZV91cmxnZW4uQzMifQ%3D%3D&amp;_nc_ohc=IVNxDQ8N4BsQ7kNvwGC-m5-&amp;_nc_oc=AdkNuLPHHHyFch8dfcxs84B6VYnKE118kqM-5g_H7PKmEQTUlv3hMT8QtgXwzim6APiDsg7OmvgWGSecz2CDQgXS&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-3.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=Lo2XEUA_pHwBJY5IU7WgrQ&amp;oh=00_AfgZVtBxIJgvROlf37j0tdAzYBjSfrRTImUunOB1xlyVvQ&amp;oe=69292F47</t>
         </is>
       </c>
     </row>
@@ -15699,7 +15726,7 @@
         <v>0</v>
       </c>
       <c r="O155" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P155" t="inlineStr"/>
       <c r="Q155" t="n">
@@ -15727,12 +15754,12 @@
       <c r="AA155" t="inlineStr"/>
       <c r="AB155" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-1.cdninstagram.com/o1/v/t2/f2/m86/AQN0JxOUkDkOu1VOOBKNiUh4ga42_BHN-vfP70EUMhJxrx9sF2s9vc2Cg25_npdNoCy55FRhhY6Bei8PoIbx6_7YwrQK3Xe_88UIMLo.mp4?_nc_cat=111&amp;_nc_sid=5e9851&amp;_nc_ht=scontent-lga3-1.cdninstagram.com&amp;_nc_ohc=rn6pWegCn7cQ7kNvwGL21oF&amp;efg=eyJ2ZW5jb2RlX3RhZyI6Inhwdl9wcm9ncmVzc2l2ZS5JTlNUQUdSQU0uQ0xJUFMuQzMuNzIwLmRhc2hfYmFzZWxpbmVfMV92MSIsInhwdl9hc3NldF9pZCI6NTE0MTAwNDI4MDUzNzg2LCJhc3NldF9hZ2VfZGF5cyI6MTY3MSwidmlfdXNlY2FzZV9pZCI6MTAxMDEsImR1cmF0aW9uX3MiOjE0LCJ1cmxnZW5fc291cmNlIjoid3d3In0%3D&amp;ccb=17-1&amp;vs=5601be7131c5489a&amp;_nc_vs=HBksFQIYUmlnX3hwdl9yZWVsc19wZXJtYW5lbnRfc3JfcHJvZC84NTQ5NzVEOEVEQkE3MTUzNjQ4RjA4REY5MDg2MjBCRV92aWRlb19kYXNoaW5pdC5tcDQVAALIARIAFQIYOnBhc3N0aHJvdWdoX2V2ZXJzdG9yZS9HSjl0aXh2WkdLWnR5a3dFQUE5dWxHXzZRMUZlYnBrd0FBQUYVAgLIARIAKAAYABsCiAd1c2Vfb2lsATEScHJvZ3Jlc3NpdmVfcmVjaXBlATEVAAAmtPSk1srk6QEVAigCQzMsF0AsRBiTdLxqGBJkYXNoX2Jhc2VsaW5lXzFfdjERAHX-B2XqnQEA&amp;_nc_gid=NMh7la5AfM9mywX1Im3YVQ&amp;edm=AM6HXa8EAAAA&amp;_nc_zt=28&amp;oh=00_AfeF0bd-YXwTKPJbo8WiMzZaxeENpRQqzKp-K7xUe_WxAQ&amp;oe=68FB0754</t>
+          <t>https://scontent-lga3-1.cdninstagram.com/o1/v/t2/f2/m86/AQN0JxOUkDkOu1VOOBKNiUh4ga42_BHN-vfP70EUMhJxrx9sF2s9vc2Cg25_npdNoCy55FRhhY6Bei8PoIbx6_7YwrQK3Xe_88UIMLo.mp4?_nc_cat=111&amp;_nc_sid=5e9851&amp;_nc_ht=scontent-lga3-1.cdninstagram.com&amp;_nc_ohc=kx-et-SVOMIQ7kNvwHKJgFJ&amp;efg=eyJ2ZW5jb2RlX3RhZyI6Inhwdl9wcm9ncmVzc2l2ZS5JTlNUQUdSQU0uQ0xJUFMuQzMuNzIwLmRhc2hfYmFzZWxpbmVfMV92MSIsInhwdl9hc3NldF9pZCI6NTE0MTAwNDI4MDUzNzg2LCJhc3NldF9hZ2VfZGF5cyI6MTcwMywidmlfdXNlY2FzZV9pZCI6MTAxMDEsImR1cmF0aW9uX3MiOjE0LCJ1cmxnZW5fc291cmNlIjoid3d3In0%3D&amp;ccb=17-1&amp;vs=5601be7131c5489a&amp;_nc_vs=HBksFQIYUmlnX3hwdl9yZWVsc19wZXJtYW5lbnRfc3JfcHJvZC84NTQ5NzVEOEVEQkE3MTUzNjQ4RjA4REY5MDg2MjBCRV92aWRlb19kYXNoaW5pdC5tcDQVAALIARIAFQIYOnBhc3N0aHJvdWdoX2V2ZXJzdG9yZS9HSjl0aXh2WkdLWnR5a3dFQUE5dWxHXzZRMUZlYnBrd0FBQUYVAgLIARIAKAAYABsCiAd1c2Vfb2lsATEScHJvZ3Jlc3NpdmVfcmVjaXBlATEVAAAmtPSk1srk6QEVAigCQzMsF0AsRBiTdLxqGBJkYXNoX2Jhc2VsaW5lXzFfdjERAHX-B2XqnQEA&amp;_nc_gid=Lo2XEUA_pHwBJY5IU7WgrQ&amp;edm=AM6HXa8EAAAA&amp;_nc_zt=28&amp;oh=00_Afhy6UaS1_42UqFIpmvx6Ta-FCOSJCOOXHvBYQ2iFLvd9w&amp;oe=69253754</t>
         </is>
       </c>
       <c r="AC155" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-2.cdninstagram.com/v/t51.71878-15/491444405_667162889414205_6133453065354612382_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0xJUFMuYmVzdF9pbWFnZV91cmxnZW4uQzMifQ%3D%3D&amp;_nc_ohc=e-YamyUofCMQ7kNvwFEId-e&amp;_nc_oc=AdlUQ-FBsS0LeGtQwwKBatFtj7iNufTKIuJwgQJooYCTjjqegO1_Vn-fase0GBtJjhq-oB_9ULSICOwNq9IKSDF7&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-2.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=NMh7la5AfM9mywX1Im3YVQ&amp;oh=00_Affd9cGwRBFydOGin-9154wnQlhaxawh4lSfVQJHHnAyYg&amp;oe=68FEF688</t>
+          <t>https://scontent-lga3-2.cdninstagram.com/v/t51.71878-15/491444405_667162889414205_6133453065354612382_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=107&amp;ccb=7-5&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0xJUFMuYmVzdF9pbWFnZV91cmxnZW4uQzMifQ%3D%3D&amp;_nc_ohc=57zhxhmJyhMQ7kNvwGZ8sw7&amp;_nc_oc=Adkahk0zQLYThiI6vTlBGhX0Rb0nj7WPFHncM-beolCFpV2L5K1Hnohnu_3N9QiN0NeikM-7fHUNbpuSXfQ3Hiad&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-2.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=Lo2XEUA_pHwBJY5IU7WgrQ&amp;oh=00_AfhcQUgq34o_SbFv1EFn9q1_Perol6LHIRRkl9WBKhFOCg&amp;oe=69292688</t>
         </is>
       </c>
     </row>
@@ -15808,10 +15835,10 @@
         <v>0</v>
       </c>
       <c r="O156" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="P156" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="Q156" t="n">
         <v>33</v>
@@ -15838,12 +15865,12 @@
       <c r="AA156" t="inlineStr"/>
       <c r="AB156" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-3.cdninstagram.com/o1/v/t16/f2/m84/AQNQzKrRRSgRGUtE_AVxCFTx1kKyBKWPjYadxJ58QPgVhtKiVQ9ml-iSgDq_o0ELkx-QpAajR2jInaFmTSm5lAOhXi-j5mhY4YfrWQs.mp4?_nc_cat=110&amp;_nc_sid=5e9851&amp;_nc_ht=scontent-lga3-3.cdninstagram.com&amp;_nc_ohc=mKbjkaRUvfIQ7kNvwH744Qb&amp;efg=eyJ2ZW5jb2RlX3RhZyI6Inhwdl9wcm9ncmVzc2l2ZS5JTlNUQUdSQU0uRkVFRC5DMy43MjAuZGFzaF9iYXNlbGluZV8xX3YxIiwieHB2X2Fzc2V0X2lkIjo2NzcwOTAyODE2NTAwOTUsImFzc2V0X2FnZV9kYXlzIjoxNjcyLCJ2aV91c2VjYXNlX2lkIjoxMDE0NiwiZHVyYXRpb25fcyI6NiwidXJsZ2VuX3NvdXJjZSI6Ind3dyJ9&amp;ccb=17-1&amp;vs=52dfdfa1d89ac1b9&amp;_nc_vs=HBkcFQIYTGlnX2JhY2tmaWxsX3RpbWVsaW5lX3ZvZC80OTRGM0E5NUY4MTM4RDE1MURFM0NGMUUzMzcxRUI4NF92aWRlb19kYXNoaW5pdC5tcDQVAALIARIAKAAYABsCiAd1c2Vfb2lsATEScHJvZ3Jlc3NpdmVfcmVjaXBlATEVAAAm3t6_2-vzswIVAigCQzMsF0AYAAAAAAAAGBJkYXNoX2Jhc2VsaW5lXzFfdjERAHXqB2XEngEA&amp;_nc_gid=NMh7la5AfM9mywX1Im3YVQ&amp;edm=AM6HXa8EAAAA&amp;_nc_zt=28&amp;oh=00_Afd5Hra-pGTDBxcAIZ7O8_jEq3HTKqx_VDzog8YNZJq-4A&amp;oe=68FAF506</t>
+          <t>https://scontent-lga3-3.cdninstagram.com/o1/v/t16/f2/m84/AQNQzKrRRSgRGUtE_AVxCFTx1kKyBKWPjYadxJ58QPgVhtKiVQ9ml-iSgDq_o0ELkx-QpAajR2jInaFmTSm5lAOhXi-j5mhY4YfrWQs.mp4?_nc_cat=110&amp;_nc_sid=5e9851&amp;_nc_ht=scontent-lga3-3.cdninstagram.com&amp;_nc_ohc=O1oT7etwUZAQ7kNvwFoJxqD&amp;efg=eyJ2ZW5jb2RlX3RhZyI6Inhwdl9wcm9ncmVzc2l2ZS5JTlNUQUdSQU0uRkVFRC5DMy43MjAuZGFzaF9iYXNlbGluZV8xX3YxIiwieHB2X2Fzc2V0X2lkIjo2NzcwOTAyODE2NTAwOTUsImFzc2V0X2FnZV9kYXlzIjoxNzA0LCJ2aV91c2VjYXNlX2lkIjoxMDE0NiwiZHVyYXRpb25fcyI6NiwidXJsZ2VuX3NvdXJjZSI6Ind3dyJ9&amp;ccb=17-1&amp;vs=52dfdfa1d89ac1b9&amp;_nc_vs=HBkcFQIYTGlnX2JhY2tmaWxsX3RpbWVsaW5lX3ZvZC80OTRGM0E5NUY4MTM4RDE1MURFM0NGMUUzMzcxRUI4NF92aWRlb19kYXNoaW5pdC5tcDQVAALIARIAKAAYABsCiAd1c2Vfb2lsATEScHJvZ3Jlc3NpdmVfcmVjaXBlATEVAAAm3t6_2-vzswIVAigCQzMsF0AYAAAAAAAAGBJkYXNoX2Jhc2VsaW5lXzFfdjERAHXqB2XEngEA&amp;_nc_gid=Lo2XEUA_pHwBJY5IU7WgrQ&amp;edm=AM6HXa8EAAAA&amp;_nc_zt=28&amp;oh=00_AfgkJRhTFNxoAsQduHJ9n0yUeeQaW2six7z5WbnFncGeXw&amp;oe=69252506</t>
         </is>
       </c>
       <c r="AC156" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-2.cdninstagram.com/v/t51.71878-15/532339160_1130671342958651_7657356499605477134_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiRkVFRC5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=qP7i0_USFtoQ7kNvwEu4tE6&amp;_nc_oc=AdnmRr-7VRxzj1h0iCe7wL0sgBp7dU3FsKw-PXlGqjv96usBb9aTANi6RSQlryaD9iPB9aX6C571bbBrc44TiyWk&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-2.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=NMh7la5AfM9mywX1Im3YVQ&amp;oh=00_Afe4h_Ug4THESUF8FQ73vkohMMxpHJ2cFqmaf0f9cV25JQ&amp;oe=68FEE309</t>
+          <t>https://scontent-lga3-2.cdninstagram.com/v/t51.71878-15/532339160_1130671342958651_7657356499605477134_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=109&amp;ccb=7-5&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiRkVFRC5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=Xcs6NW7n_kkQ7kNvwEXdLt9&amp;_nc_oc=Adlx50PSWmQJrcVw0zhUf2iSPc3Q6zP0IBWYKUgeIfNeAQoyQpEHDf8Y08oKDFCJQXcIB4T9zxRhsnTUe0-9KDqf&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-2.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=Lo2XEUA_pHwBJY5IU7WgrQ&amp;oh=00_Afizqcl2tH8281v_f9fnBARrQCTdVnHqK77H56cnT-Z_nA&amp;oe=69294B49</t>
         </is>
       </c>
     </row>
@@ -15920,7 +15947,7 @@
         <v>0</v>
       </c>
       <c r="O157" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="P157" t="inlineStr"/>
       <c r="Q157" t="n">
@@ -15948,7 +15975,7 @@
       <c r="AA157" t="inlineStr"/>
       <c r="AB157" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-2.cdninstagram.com/o1/v/t2/f2/m86/AQOc1XTCiMyo-3xCdf1_t5XaG9ozQLE-atYQKkmfPcATjOlUZEKxj4zmPdqEJh0Js7IbFX3bHQlEZWCQRma_xJbLx4wGtmcZt6AfCVY.mp4?_nc_cat=107&amp;_nc_sid=5e9851&amp;_nc_ht=scontent-lga3-2.cdninstagram.com&amp;_nc_ohc=qfIipK52Uf0Q7kNvwEksSg1&amp;efg=eyJ2ZW5jb2RlX3RhZyI6Inhwdl9wcm9ncmVzc2l2ZS5JTlNUQUdSQU0uQ0xJUFMuQzMuNzIwLmRhc2hfYmFzZWxpbmVfMV92MSIsInhwdl9hc3NldF9pZCI6MTAxOTQwNjk4MTc5ODQ1MiwiYXNzZXRfYWdlX2RheXMiOjE2NzUsInZpX3VzZWNhc2VfaWQiOjEwMDk5LCJkdXJhdGlvbl9zIjo2LCJ1cmxnZW5fc291cmNlIjoid3d3In0%3D&amp;ccb=17-1&amp;vs=83adc443b395ec63&amp;_nc_vs=HBkcFQIYUmlnX3hwdl9yZWVsc19wZXJtYW5lbnRfc3JfcHJvZC81ODQxQUFERDMzQzdGRjdBQTBCRDQ5RTIzMzYyNkE5Rl92aWRlb19kYXNoaW5pdC5tcDQVAALIARIAKAAYABsCiAd1c2Vfb2lsATEScHJvZ3Jlc3NpdmVfcmVjaXBlATEVAAAm6OjA8KXJzwMVAigCQzMsF0AYAAAAAAAAGBJkYXNoX2Jhc2VsaW5lXzFfdjERAHX-B2XmnQEA&amp;_nc_gid=NMh7la5AfM9mywX1Im3YVQ&amp;edm=AM6HXa8EAAAA&amp;_nc_zt=28&amp;oh=00_AfdRgwXQGcbfuIF2nY-uMiEEEf0KWBvhpYdhV17q9UJvQw&amp;oe=68FB018C</t>
+          <t>https://scontent-lga3-2.cdninstagram.com/o1/v/t2/f2/m86/AQOc1XTCiMyo-3xCdf1_t5XaG9ozQLE-atYQKkmfPcATjOlUZEKxj4zmPdqEJh0Js7IbFX3bHQlEZWCQRma_xJbLx4wGtmcZt6AfCVY.mp4?_nc_cat=107&amp;_nc_sid=5e9851&amp;_nc_ht=scontent-lga3-2.cdninstagram.com&amp;_nc_ohc=QeLk8X_bBWgQ7kNvwFx6GuD&amp;efg=eyJ2ZW5jb2RlX3RhZyI6Inhwdl9wcm9ncmVzc2l2ZS5JTlNUQUdSQU0uQ0xJUFMuQzMuNzIwLmRhc2hfYmFzZWxpbmVfMV92MSIsInhwdl9hc3NldF9pZCI6MTAxOTQwNjk4MTc5ODQ1MiwiYXNzZXRfYWdlX2RheXMiOjE3MDcsInZpX3VzZWNhc2VfaWQiOjEwMDk5LCJkdXJhdGlvbl9zIjo2LCJ1cmxnZW5fc291cmNlIjoid3d3In0%3D&amp;ccb=17-1&amp;vs=83adc443b395ec63&amp;_nc_vs=HBkcFQIYUmlnX3hwdl9yZWVsc19wZXJtYW5lbnRfc3JfcHJvZC81ODQxQUFERDMzQzdGRjdBQTBCRDQ5RTIzMzYyNkE5Rl92aWRlb19kYXNoaW5pdC5tcDQVAALIARIAKAAYABsCiAd1c2Vfb2lsATEScHJvZ3Jlc3NpdmVfcmVjaXBlATEVAAAm6OjA8KXJzwMVAigCQzMsF0AYAAAAAAAAGBJkYXNoX2Jhc2VsaW5lXzFfdjERAHX-B2XmnQEA&amp;_nc_gid=Lo2XEUA_pHwBJY5IU7WgrQ&amp;edm=AM6HXa8EAAAA&amp;_nc_zt=28&amp;oh=00_AfiHKHHXi9ByZlpn1q8e4AMmgyjV4q8Qk_Ri4Os1Plx3Fw&amp;oe=6925318C</t>
         </is>
       </c>
       <c r="AC157" t="inlineStr"/>
@@ -16026,7 +16053,7 @@
         <v>0</v>
       </c>
       <c r="O158" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="P158" t="inlineStr"/>
       <c r="Q158" t="n">
@@ -16054,12 +16081,12 @@
       <c r="AA158" t="inlineStr"/>
       <c r="AB158" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-3.cdninstagram.com/o1/v/t2/f2/m86/AQOFUa68j2VQDBFg-fqNCox7Xq1EIarZ5fXgFiqMdpXMwLiHIlSqNrqBpL6eDKEemlof7pVlS2123xbpV-Tangj1oMc92Dw_QxfhF9U.mp4?_nc_cat=110&amp;_nc_sid=5e9851&amp;_nc_ht=scontent-lga3-3.cdninstagram.com&amp;_nc_ohc=EwoJqXBU-aUQ7kNvwE0VbJ7&amp;efg=eyJ2ZW5jb2RlX3RhZyI6Inhwdl9wcm9ncmVzc2l2ZS5JTlNUQUdSQU0uQ0xJUFMuQzMuNzIwLmRhc2hfYmFzZWxpbmVfMV92MSIsInhwdl9hc3NldF9pZCI6MTA1NjU3MTM4MjI0MTQ4MCwiYXNzZXRfYWdlX2RheXMiOjE2NzgsInZpX3VzZWNhc2VfaWQiOjEwMTAxLCJkdXJhdGlvbl9zIjozMCwidXJsZ2VuX3NvdXJjZSI6Ind3dyJ9&amp;ccb=17-1&amp;vs=49bf9a4c28dc183c&amp;_nc_vs=HBksFQIYUmlnX3hwdl9yZWVsc19wZXJtYW5lbnRfc3JfcHJvZC9CODRDMTY2NDVGNTM4OUZDNkEwNENDNUQ0MzM1NzJBRl92aWRlb19kYXNoaW5pdC5tcDQVAALIARIAFQIYOnBhc3N0aHJvdWdoX2V2ZXJzdG9yZS9HSDVIWnh1dkI3OWsyX0VRQU5SMkdIeGpZVm9lYnBrd0FBQUYVAgLIARIAKAAYABsCiAd1c2Vfb2lsATEScHJvZ3Jlc3NpdmVfcmVjaXBlATEVAAAmkOPYnsa84AMVAigCQzMsF0A-AAAAAAAAGBJkYXNoX2Jhc2VsaW5lXzFfdjERAHX-B2XqnQEA&amp;_nc_gid=NMh7la5AfM9mywX1Im3YVQ&amp;edm=AM6HXa8EAAAA&amp;_nc_zt=28&amp;oh=00_Afd13JbGW5jIq1VZTSEEUfV39DHsE25BqkSODcfuozQHwg&amp;oe=68FB0357</t>
+          <t>https://scontent-lga3-3.cdninstagram.com/o1/v/t2/f2/m86/AQOFUa68j2VQDBFg-fqNCox7Xq1EIarZ5fXgFiqMdpXMwLiHIlSqNrqBpL6eDKEemlof7pVlS2123xbpV-Tangj1oMc92Dw_QxfhF9U.mp4?_nc_cat=110&amp;_nc_sid=5e9851&amp;_nc_ht=scontent-lga3-3.cdninstagram.com&amp;_nc_ohc=MSsC7u3mrt4Q7kNvwF60rB-&amp;efg=eyJ2ZW5jb2RlX3RhZyI6Inhwdl9wcm9ncmVzc2l2ZS5JTlNUQUdSQU0uQ0xJUFMuQzMuNzIwLmRhc2hfYmFzZWxpbmVfMV92MSIsInhwdl9hc3NldF9pZCI6MTA1NjU3MTM4MjI0MTQ4MCwiYXNzZXRfYWdlX2RheXMiOjE3MTAsInZpX3VzZWNhc2VfaWQiOjEwMTAxLCJkdXJhdGlvbl9zIjozMCwidXJsZ2VuX3NvdXJjZSI6Ind3dyJ9&amp;ccb=17-1&amp;vs=49bf9a4c28dc183c&amp;_nc_vs=HBksFQIYUmlnX3hwdl9yZWVsc19wZXJtYW5lbnRfc3JfcHJvZC9CODRDMTY2NDVGNTM4OUZDNkEwNENDNUQ0MzM1NzJBRl92aWRlb19kYXNoaW5pdC5tcDQVAALIARIAFQIYOnBhc3N0aHJvdWdoX2V2ZXJzdG9yZS9HSDVIWnh1dkI3OWsyX0VRQU5SMkdIeGpZVm9lYnBrd0FBQUYVAgLIARIAKAAYABsCiAd1c2Vfb2lsATEScHJvZ3Jlc3NpdmVfcmVjaXBlATEVAAAmkOPYnsa84AMVAigCQzMsF0A-AAAAAAAAGBJkYXNoX2Jhc2VsaW5lXzFfdjERAHX-B2XqnQEA&amp;_nc_gid=Lo2XEUA_pHwBJY5IU7WgrQ&amp;edm=AM6HXa8EAAAA&amp;_nc_zt=28&amp;oh=00_Afg_woiuzyvZCc3U9pwiypsUH6SzgUD568R1Ho_SKY5NMg&amp;oe=69253357</t>
         </is>
       </c>
       <c r="AC158" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-3.cdninstagram.com/v/t51.71878-15/499202942_1201273211104629_6842416402616923526_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0xJUFMuYmVzdF9pbWFnZV91cmxnZW4uQzMifQ%3D%3D&amp;_nc_ohc=PUbEc-5TTtwQ7kNvwGIoTV3&amp;_nc_oc=AdlUGtQAQAtGYyMadMLaeCj-hySCI7xcTe3LBJxqcm-c65fkFyR9JIzHa9ehdiiTmkrvbwcjBO2K1qDkiBdJ2qU1&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-3.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=NMh7la5AfM9mywX1Im3YVQ&amp;oh=00_AfcISpw6xn62AwIdK2T2GBodmu6jVvNsOITysQu44uFv_w&amp;oe=68FEF740</t>
+          <t>https://scontent-lga3-3.cdninstagram.com/v/t51.71878-15/499202942_1201273211104629_6842416402616923526_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=104&amp;ccb=7-5&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0xJUFMuYmVzdF9pbWFnZV91cmxnZW4uQzMifQ%3D%3D&amp;_nc_ohc=OjywabH5pzgQ7kNvwF46MFq&amp;_nc_oc=AdlwTxcMlV6_OHBCFsim-OrVAd7hJCmN7yMrvN_u0W8lWLx8Ov5gsqeQ4i2Y8uPqJUFzScPCCPVsdyhggV7X_fVp&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-3.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=Lo2XEUA_pHwBJY5IU7WgrQ&amp;oh=00_AfgBJRR_g0GqTjHXbEN0giPL2ZPq-gYRltwQDVJadj5RKg&amp;oe=69292740</t>
         </is>
       </c>
     </row>
@@ -16130,10 +16157,10 @@
         <v>0</v>
       </c>
       <c r="O159" t="n">
+        <v>23</v>
+      </c>
+      <c r="P159" t="n">
         <v>25</v>
-      </c>
-      <c r="P159" t="n">
-        <v>27</v>
       </c>
       <c r="Q159" t="n">
         <v>0</v>
@@ -16160,12 +16187,12 @@
       <c r="AA159" t="inlineStr"/>
       <c r="AB159" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-2.cdninstagram.com/o1/v/t16/f2/m84/AQP1Hk5XW99uEtZ2sOL0RkBslPf2dWv2t3DGH-gWt5Sr4qpAoBOo19DrQ3CyLDe-p0VRTrBFmJC_BV3am2mlgQ7uZY0jizfHz7XqAoQ.mp4?_nc_cat=105&amp;_nc_sid=5e9851&amp;_nc_ht=scontent-lga3-2.cdninstagram.com&amp;_nc_ohc=faZSidfzdp8Q7kNvwHfPVbu&amp;efg=eyJ2ZW5jb2RlX3RhZyI6Inhwdl9wcm9ncmVzc2l2ZS5JTlNUQUdSQU0uSUdUVi5DMy4xMjgwLmRhc2hfYmFzZWxpbmVfMV92MSIsInhwdl9hc3NldF9pZCI6MTAyNDI3MjkxODgyNDY2OCwiYXNzZXRfYWdlX2RheXMiOjE2ODgsInZpX3VzZWNhc2VfaWQiOjEwMTQ1LCJkdXJhdGlvbl9zIjoxOTAsInVybGdlbl9zb3VyY2UiOiJ3d3cifQ%3D%3D&amp;ccb=17-1&amp;vs=597d86b7f96cddb2&amp;_nc_vs=HBksFQIYTGlnX2JhY2tmaWxsX3RpbWVsaW5lX3ZvZC82RDRGNkJEODM5NDdGREJBOUU0RDIyOEJDNjZCNzA4Ml92aWRlb19kYXNoaW5pdC5tcDQVAALIARIAFQIYOnBhc3N0aHJvdWdoX2V2ZXJzdG9yZS9HSl9JSFJmdEgyYnV0TjBHQU1XbDNhNEhES2hPYnBrd0FBQUYVAgLIARIAKAAYABsCiAd1c2Vfb2lsATEScHJvZ3Jlc3NpdmVfcmVjaXBlATEVAAAmuJvW98Pk0QMVAigCQzMsF0Bn0hysCDEnGBJkYXNoX2Jhc2VsaW5lXzFfdjERAHXsB2XCngEA&amp;_nc_gid=NMh7la5AfM9mywX1Im3YVQ&amp;edm=AM6HXa8EAAAA&amp;_nc_zt=28&amp;oh=00_AfeI1lwmF3D5p963yY3jZqIMDfvS7jm-k20P5lJnh8DUiA&amp;oe=68FAF6AF</t>
+          <t>https://scontent-lga3-2.cdninstagram.com/o1/v/t16/f2/m84/AQP1Hk5XW99uEtZ2sOL0RkBslPf2dWv2t3DGH-gWt5Sr4qpAoBOo19DrQ3CyLDe-p0VRTrBFmJC_BV3am2mlgQ7uZY0jizfHz7XqAoQ.mp4?_nc_cat=105&amp;_nc_sid=5e9851&amp;_nc_ht=scontent-lga3-2.cdninstagram.com&amp;_nc_ohc=EZS0xFwDJB8Q7kNvwHtAMrz&amp;efg=eyJ2ZW5jb2RlX3RhZyI6Inhwdl9wcm9ncmVzc2l2ZS5JTlNUQUdSQU0uSUdUVi5DMy4xMjgwLmRhc2hfYmFzZWxpbmVfMV92MSIsInhwdl9hc3NldF9pZCI6MTAyNDI3MjkxODgyNDY2OCwiYXNzZXRfYWdlX2RheXMiOjE3MjAsInZpX3VzZWNhc2VfaWQiOjEwMTQ1LCJkdXJhdGlvbl9zIjoxOTAsInVybGdlbl9zb3VyY2UiOiJ3d3cifQ%3D%3D&amp;ccb=17-1&amp;vs=597d86b7f96cddb2&amp;_nc_vs=HBksFQIYTGlnX2JhY2tmaWxsX3RpbWVsaW5lX3ZvZC82RDRGNkJEODM5NDdGREJBOUU0RDIyOEJDNjZCNzA4Ml92aWRlb19kYXNoaW5pdC5tcDQVAALIARIAFQIYOnBhc3N0aHJvdWdoX2V2ZXJzdG9yZS9HSl9JSFJmdEgyYnV0TjBHQU1XbDNhNEhES2hPYnBrd0FBQUYVAgLIARIAKAAYABsCiAd1c2Vfb2lsATEScHJvZ3Jlc3NpdmVfcmVjaXBlATEVAAAmuJvW98Pk0QMVAigCQzMsF0Bn0hysCDEnGBJkYXNoX2Jhc2VsaW5lXzFfdjERAHXsB2XCngEA&amp;_nc_gid=Lo2XEUA_pHwBJY5IU7WgrQ&amp;edm=AM6HXa8EAAAA&amp;_nc_zt=28&amp;oh=00_AfjVfTkSzFMbVeEN7B1P8tFTqMNL6BazUsB4i6h44TJKIw&amp;oe=692526AF</t>
         </is>
       </c>
       <c r="AC159" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-1.cdninstagram.com/v/t51.29350-15/157783574_1822577421252561_1207452292263387152_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiSUdUVi5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=FqfIhj1Rg5gQ7kNvwG7erDD&amp;_nc_oc=Adl4bBec0SqfMfq5VHm99bYHIsn8HsGQLEDMHETe0WNQnqJ7xjxMXnEKkZ7ptTHI7c1AHCSSLP8t-1mUzrJsk8AI&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-1.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=NMh7la5AfM9mywX1Im3YVQ&amp;oh=00_AfdznPjmViEaH5o-rolUneLggokkNpzqxiEAu5T1nQCDNA&amp;oe=68FEE4EA</t>
+          <t>https://scontent-lga3-1.cdninstagram.com/v/t51.29350-15/157783574_1822577421252561_1207452292263387152_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=103&amp;ccb=7-5&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiSUdUVi5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=APbO03Ax_T4Q7kNvwEFsAnZ&amp;_nc_oc=AdloKWB_fqKJ2mwgH-j64Tq2eLBdfR8H4W55s2pIe2uQAvMZWqbEL_CK6mUjpukrSq12sv_BqzwqbdBfbLIDY7N8&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-1.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=Lo2XEUA_pHwBJY5IU7WgrQ&amp;oh=00_AfhftkPlxRdtQJ_QxElR_L-o3Sj-Gp1VmQQoDkE2MESimg&amp;oe=692914EA</t>
         </is>
       </c>
     </row>
@@ -16242,10 +16269,10 @@
         <v>0</v>
       </c>
       <c r="O160" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="P160" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="Q160" t="n">
         <v>21</v>
@@ -16272,7 +16299,7 @@
       <c r="AA160" t="inlineStr"/>
       <c r="AB160" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-1.cdninstagram.com/v/t51.29350-15/136428056_822935695222274_5774173260658038750_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiRkVFRC5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=InvIkmsGaCAQ7kNvwFAPaV_&amp;_nc_oc=AdlwSzwEWbSXkDOqUVOH739wpzqYld9MkJCgKWWG32kHpBgDx3yxaYgNFRnJPYM2RPbD0WTa-VFwt2HEP_CFL4Kr&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-1.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=NMh7la5AfM9mywX1Im3YVQ&amp;oh=00_AfcjzhRi2QKp_SYCWVGjfo35Wde43kssQqKn3WLUmKsomw&amp;oe=68FEFBCC</t>
+          <t>https://scontent-lga3-1.cdninstagram.com/v/t51.29350-15/136428056_822935695222274_5774173260658038750_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=111&amp;ccb=7-5&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiRkVFRC5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=COJN2LmohLwQ7kNvwFwaZen&amp;_nc_oc=AdklYJGegIUNoTS78Tv7tktbhWz78yCZh2Y2BVBXzJXSlYJqdIOqV1eROwmIvT7ZD_JzaZFSgE_qG3AUAya6aK98&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-1.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=Lo2XEUA_pHwBJY5IU7WgrQ&amp;oh=00_AfjA90SvVAFfhaI6VcrbLNEbUtH9cIPkSrD8qvnfyN-Caw&amp;oe=69292BCC</t>
         </is>
       </c>
       <c r="AC160" t="inlineStr"/>
@@ -16345,10 +16372,10 @@
         <v>0</v>
       </c>
       <c r="O161" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="P161" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Q161" t="n">
         <v>48</v>
@@ -16375,7 +16402,7 @@
       <c r="AA161" t="inlineStr"/>
       <c r="AB161" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-1.cdninstagram.com/v/t51.29350-15/125467862_364951554597766_8002878128669001551_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiRkVFRC5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=VhJYubFHuU0Q7kNvwGB22ID&amp;_nc_oc=Adlc_aslnLFdeU9-mi0DJVUh_ZmTHmgGHyFGatE1HwBoHRNqzxmzzDoqp2Po1KeNdYcmsZ8GklCVEY_Q2yeN_mGD&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-1.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=NMh7la5AfM9mywX1Im3YVQ&amp;oh=00_Affltnx1aAzkWF3UtmJk7U5B-1E3Ki-b_2I04UFoBpCouw&amp;oe=68FF18F2</t>
+          <t>https://scontent-lga3-3.cdninstagram.com/v/t51.29350-15/125467862_364951554597766_8002878128669001551_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=108&amp;ccb=7-5&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiRkVFRC5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=IywgDohhCk8Q7kNvwEJnpNU&amp;_nc_oc=AdmbuNFdElL5U9oHwYAP8bG_yhWmt3HbhY-wkS0_6PhIFyWnblhe9Fk58O7NoqxrNkK_-mmK2TKlvRc-asE_Znug&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-3.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=Lo2XEUA_pHwBJY5IU7WgrQ&amp;oh=00_AfggS99RAqPk_lfHqt-1E2YFbiwWOLSchAWGLXlw2FjMwg&amp;oe=692948F2</t>
         </is>
       </c>
       <c r="AC161" t="inlineStr"/>
@@ -16448,10 +16475,10 @@
         <v>0</v>
       </c>
       <c r="O162" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="P162" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="Q162" t="n">
         <v>26</v>
@@ -16478,12 +16505,12 @@
       <c r="AA162" t="inlineStr"/>
       <c r="AB162" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-2.cdninstagram.com/o1/v/t16/f2/m84/AQNpCSNPr6BWr4pHVmlfd6msuu9cpkzUD7w-q9y8erfJ3lXpl-4AXaey7eAVu_lW3ftjcRfMM4OwJd-vG7j7MbuU_c30aGuNbEjzksg.mp4?_nc_cat=109&amp;_nc_sid=5e9851&amp;_nc_ht=scontent-lga3-2.cdninstagram.com&amp;_nc_ohc=e4Fadoio-WQQ7kNvwE7raBZ&amp;efg=eyJ2ZW5jb2RlX3RhZyI6Inhwdl9wcm9ncmVzc2l2ZS5JTlNUQUdSQU0uRkVFRC5DMy40ODAuZGFzaF9iYXNlbGluZV8xX3YxIiwieHB2X2Fzc2V0X2lkIjoxNzQ3ODg2MTg1NjE1OTE5LCJhc3NldF9hZ2VfZGF5cyI6MTgzMywidmlfdXNlY2FzZV9pZCI6MTAxNDYsImR1cmF0aW9uX3MiOjQsInVybGdlbl9zb3VyY2UiOiJ3d3cifQ%3D%3D&amp;ccb=17-1&amp;vs=8dcab7651e766c0e&amp;_nc_vs=HBkcFQIYTGlnX2JhY2tmaWxsX3RpbWVsaW5lX3ZvZC80NjRENzE0RkU0NTc5RUM4QkY1NjA2OUFGRTU5MzNCMV92aWRlb19kYXNoaW5pdC5tcDQVAALIARIAKAAYABsCiAd1c2Vfb2lsATEScHJvZ3Jlc3NpdmVfcmVjaXBlATEVAAAm3sic867smgYVAigCQzMsF0ATu2RaHKwIGBJkYXNoX2Jhc2VsaW5lXzFfdjERAHXqB2XEngEA&amp;_nc_gid=NMh7la5AfM9mywX1Im3YVQ&amp;edm=AM6HXa8EAAAA&amp;_nc_zt=28&amp;oh=00_AfcVlR6ht5wJ0o6s3wRJqWq4-vmSo3EGOk9KwYB9kjS94A&amp;oe=68FAF87F</t>
+          <t>https://scontent-lga3-2.cdninstagram.com/o1/v/t16/f2/m84/AQNpCSNPr6BWr4pHVmlfd6msuu9cpkzUD7w-q9y8erfJ3lXpl-4AXaey7eAVu_lW3ftjcRfMM4OwJd-vG7j7MbuU_c30aGuNbEjzksg.mp4?_nc_cat=109&amp;_nc_sid=5e9851&amp;_nc_ht=scontent-lga3-2.cdninstagram.com&amp;_nc_ohc=UfktfJwprwAQ7kNvwEWym6-&amp;efg=eyJ2ZW5jb2RlX3RhZyI6Inhwdl9wcm9ncmVzc2l2ZS5JTlNUQUdSQU0uRkVFRC5DMy40ODAuZGFzaF9iYXNlbGluZV8xX3YxIiwieHB2X2Fzc2V0X2lkIjoxNzQ3ODg2MTg1NjE1OTE5LCJhc3NldF9hZ2VfZGF5cyI6MTg2NSwidmlfdXNlY2FzZV9pZCI6MTAxNDYsImR1cmF0aW9uX3MiOjQsInVybGdlbl9zb3VyY2UiOiJ3d3cifQ%3D%3D&amp;ccb=17-1&amp;vs=8dcab7651e766c0e&amp;_nc_vs=HBkcFQIYTGlnX2JhY2tmaWxsX3RpbWVsaW5lX3ZvZC80NjRENzE0RkU0NTc5RUM4QkY1NjA2OUFGRTU5MzNCMV92aWRlb19kYXNoaW5pdC5tcDQVAALIARIAKAAYABsCiAd1c2Vfb2lsATEScHJvZ3Jlc3NpdmVfcmVjaXBlATEVAAAm3sic867smgYVAigCQzMsF0ATu2RaHKwIGBJkYXNoX2Jhc2VsaW5lXzFfdjERAHXqB2XEngEA&amp;_nc_gid=Lo2XEUA_pHwBJY5IU7WgrQ&amp;edm=AM6HXa8EAAAA&amp;_nc_zt=28&amp;oh=00_AfjPl5iQ4M99aXkt1yl-Cp-aoFthCcx6qBh1YMunp6zU6Q&amp;oe=6925287F</t>
         </is>
       </c>
       <c r="AC162" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-1.cdninstagram.com/v/t51.71878-15/527503045_1982672005470668_3400866840591347047_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiRkVFRC5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=lMXwGoQYSUQQ7kNvwFnfr_6&amp;_nc_oc=AdmSEwHuiGi0nW1iLgx6JYydN_tSaTfNteWTulK3Uygvh2cq6WHF9TXJA5EgprI9P97kPzOS9r2NM2YJRwcyJzFU&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-1.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=NMh7la5AfM9mywX1Im3YVQ&amp;oh=00_AfdhVU0StXnXZ34l-jRPF6bOKCa2C8_Xb5GZupaSH04hlQ&amp;oe=68FF0BBA</t>
+          <t>https://scontent-lga3-3.cdninstagram.com/v/t51.71878-15/527503045_1982672005470668_3400866840591347047_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=108&amp;ccb=7-5&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiRkVFRC5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=M5bEHQceueEQ7kNvwEihbMy&amp;_nc_oc=AdkwlkI_2VfiZ-z6VWthAi_CsnzUsSci5pqcQFf7OLLTI81PjQc4K6ihDeXns1IOFEn4jEUJ3Zo-sOuzAX9VsH2a&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-3.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=Lo2XEUA_pHwBJY5IU7WgrQ&amp;oh=00_AfioXzQTaa2Vdd5fDSTUMWJru19921wiyegUU94ThLbBRw&amp;oe=69293BBA</t>
         </is>
       </c>
     </row>
@@ -16555,10 +16582,10 @@
         <v>0</v>
       </c>
       <c r="O163" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="P163" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="Q163" t="n">
         <v>35</v>
@@ -16585,12 +16612,12 @@
       <c r="AA163" t="inlineStr"/>
       <c r="AB163" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-1.cdninstagram.com/o1/v/t16/f2/m84/AQNIAYzrhyYi7hG7Zs-NbB6gX47pomm23IyVyX-C556FQKAouW81bzgXxeRaJTMksx-9LcobhfPFZrMqpeapFZ4QNTTB-wHOr24uYew.mp4?_nc_cat=111&amp;_nc_sid=5e9851&amp;_nc_ht=scontent-lga3-1.cdninstagram.com&amp;_nc_ohc=OiUJNfE5CpAQ7kNvwHJNxRl&amp;efg=eyJ2ZW5jb2RlX3RhZyI6Inhwdl9wcm9ncmVzc2l2ZS5JTlNUQUdSQU0uRkVFRC5DMy40ODAuZGFzaF9iYXNlbGluZV8xX3YxIiwieHB2X2Fzc2V0X2lkIjoxMTgwNDQ2NzQzMDA3ODUwLCJhc3NldF9hZ2VfZGF5cyI6MTgzOCwidmlfdXNlY2FzZV9pZCI6MTAxNDYsImR1cmF0aW9uX3MiOjUsInVybGdlbl9zb3VyY2UiOiJ3d3cifQ%3D%3D&amp;ccb=17-1&amp;vs=fb71f30ed3c9e3f6&amp;_nc_vs=HBkcFQIYTGlnX2JhY2tmaWxsX3RpbWVsaW5lX3ZvZC8zQzQwRTM3QjgwNjdDRkU3QTA3NzYyMDQwQjY1MjRBNV92aWRlb19kYXNoaW5pdC5tcDQVAALIARIAKAAYABsCiAd1c2Vfb2lsATEScHJvZ3Jlc3NpdmVfcmVjaXBlATEVAAAm1MnYzIXnmAQVAigCQzMsF0AUAAAAAAAAGBJkYXNoX2Jhc2VsaW5lXzFfdjERAHXqB2XEngEA&amp;_nc_gid=NMh7la5AfM9mywX1Im3YVQ&amp;edm=AM6HXa8EAAAA&amp;_nc_zt=28&amp;oh=00_Aff_G4N6wvda2JdWOQoq2FOZPU29nfgjIE21fIx-3R_Imw&amp;oe=68FB1BC9</t>
+          <t>https://scontent-lga3-1.cdninstagram.com/o1/v/t16/f2/m84/AQNIAYzrhyYi7hG7Zs-NbB6gX47pomm23IyVyX-C556FQKAouW81bzgXxeRaJTMksx-9LcobhfPFZrMqpeapFZ4QNTTB-wHOr24uYew.mp4?_nc_cat=111&amp;_nc_sid=5e9851&amp;_nc_ht=scontent-lga3-1.cdninstagram.com&amp;_nc_ohc=T1gFQNbrYDwQ7kNvwGNfkeV&amp;efg=eyJ2ZW5jb2RlX3RhZyI6Inhwdl9wcm9ncmVzc2l2ZS5JTlNUQUdSQU0uRkVFRC5DMy40ODAuZGFzaF9iYXNlbGluZV8xX3YxIiwieHB2X2Fzc2V0X2lkIjoxMTgwNDQ2NzQzMDA3ODUwLCJhc3NldF9hZ2VfZGF5cyI6MTg3MCwidmlfdXNlY2FzZV9pZCI6MTAxNDYsImR1cmF0aW9uX3MiOjUsInVybGdlbl9zb3VyY2UiOiJ3d3cifQ%3D%3D&amp;ccb=17-1&amp;_nc_gid=Lo2XEUA_pHwBJY5IU7WgrQ&amp;edm=AM6HXa8EAAAA&amp;_nc_zt=28&amp;vs=fb71f30ed3c9e3f6&amp;_nc_vs=HBkcFQIYTGlnX2JhY2tmaWxsX3RpbWVsaW5lX3ZvZC8zQzQwRTM3QjgwNjdDRkU3QTA3NzYyMDQwQjY1MjRBNV92aWRlb19kYXNoaW5pdC5tcDQVAALIARIAKAAYABsCiAd1c2Vfb2lsATEScHJvZ3Jlc3NpdmVfcmVjaXBlATEVAAAm1MnYzIXnmAQVAigCQzMsF0AUAAAAAAAAGBJkYXNoX2Jhc2VsaW5lXzFfdjERAHXqB2XEngEA&amp;oh=00_AfhgLhcRwr1C_IQ0eYLumHTllIcAvcG-SPtT_u1QJqMe_A&amp;oe=69254BC9</t>
         </is>
       </c>
       <c r="AC163" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-3.cdninstagram.com/v/t51.71878-15/529012859_1417496749302847_2850210584353838703_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiRkVFRC5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=ek2fHZy2KrsQ7kNvwHt6DTv&amp;_nc_oc=Adm-dJ1-fpzdW0era_8nbhY2EFf67ZRujjl29eefdmS9s-KUZgkdWpTNLMO4gXyVfzVjqRvcsuP7369uFozbFQCi&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-3.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=NMh7la5AfM9mywX1Im3YVQ&amp;oh=00_AfdCBoCyLtZfSPZgivMahEa_ldVgrLEdPSRbF2gJN921_Q&amp;oe=68FEF26A</t>
+          <t>https://scontent-lga3-3.cdninstagram.com/v/t51.71878-15/529012859_1417496749302847_2850210584353838703_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=106&amp;ccb=7-5&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiRkVFRC5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=M-DA_xKB6tEQ7kNvwEuxLUv&amp;_nc_oc=Adm0n9kJ933lpuXlUtcKDXIQ5vmY2WioFa8hyFzHpPzriCa-Ty8viflDDAmjcG-8R9K5Qo5EpQ5eLOE-bbIZQmL8&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-3.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=Lo2XEUA_pHwBJY5IU7WgrQ&amp;oh=00_Afg7nzaD1UawTSL4LMvS2lnZTazapocWROeRruUvHM6-lw&amp;oe=6929226A</t>
         </is>
       </c>
     </row>
@@ -16694,7 +16721,7 @@
       <c r="AA164" t="inlineStr"/>
       <c r="AB164" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-1.cdninstagram.com/v/t51.29350-15/120750987_180742236882947_4468697049906104422_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiRkVFRC5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=UsUbZIpfoX8Q7kNvwE_5yu2&amp;_nc_oc=Adn2EyPknVZKSq8aHTTtKzdZMdYVYCxQtr-0Phy4TdrxL0S4zItVXuNmJyw7VCH66Uyta37eaMIKwWddL735TuS-&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-1.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=NMh7la5AfM9mywX1Im3YVQ&amp;oh=00_Afd5Y7961y1r9YHlwUxkTLwKR4q-JiiCM2NyQYMfaJIb5g&amp;oe=68FEFE58</t>
+          <t>https://scontent-lga3-1.cdninstagram.com/v/t51.29350-15/120750987_180742236882947_4468697049906104422_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=111&amp;ccb=7-5&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiRkVFRC5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=Z_OU72ePfmwQ7kNvwGQebRQ&amp;_nc_oc=Adk1vCqgR3c0S03M8B5LyBef4PUPxVUcT427czUdQoTWfQMmGV3RDxPAKPo30aYykyLe0EAZDkhWZtWFP7nsn7vT&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-1.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=Lo2XEUA_pHwBJY5IU7WgrQ&amp;oh=00_AfhUkQltsbn7ErlvTSykBTsSiA5ut1TBGM7fcWjEZfF0dA&amp;oe=69292E58</t>
         </is>
       </c>
       <c r="AC164" t="inlineStr"/>
@@ -16777,13 +16804,13 @@
         <v>0</v>
       </c>
       <c r="O165" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="P165" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q165" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="R165" t="n">
         <v>3</v>
@@ -16798,7 +16825,7 @@
         <v>0</v>
       </c>
       <c r="V165" t="n">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="W165" t="inlineStr"/>
       <c r="X165" t="inlineStr"/>
@@ -16807,7 +16834,7 @@
       <c r="AA165" t="inlineStr"/>
       <c r="AB165" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-1.cdninstagram.com/v/t51.29350-15/120452875_213112506822191_6051626230480565578_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiRkVFRC5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=WOY1-9HZCcoQ7kNvwGUVJXD&amp;_nc_oc=Adl6J_N_NES_A6LyZAvPHGsoz80Jl5t8Ov0kr5OFuo2H1wbnxy5ybJUwY1lLK1KIy4DmWLIlFnxbh9R7nckmnq7Q&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-1.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=NMh7la5AfM9mywX1Im3YVQ&amp;oh=00_AfeqkAviBcFiPr04LVnbbOxwzbayXS0WKrJvXisQ8i2VpQ&amp;oe=68FF0AB6</t>
+          <t>https://scontent-lga3-1.cdninstagram.com/v/t51.29350-15/120452875_213112506822191_6051626230480565578_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=103&amp;ccb=7-5&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiRkVFRC5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=BMN94tlNCsAQ7kNvwEmmL3l&amp;_nc_oc=AdnlJP9s4hN5tXd1earAVg1buAMfItLGg5JDDrEYQ-Ct0uOXLZonX3nbjgnXRLarlw1S7dnvFVTr8VznYqY8nzUp&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-1.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=Lo2XEUA_pHwBJY5IU7WgrQ&amp;oh=00_AfiJ3C6MWXD52vT-YdBNj2ure97UmSPVs1mq956IyKSo0Q&amp;oe=69293AB6</t>
         </is>
       </c>
       <c r="AC165" t="inlineStr"/>
@@ -16882,10 +16909,10 @@
         <v>0</v>
       </c>
       <c r="O166" t="n">
+        <v>22</v>
+      </c>
+      <c r="P166" t="n">
         <v>23</v>
-      </c>
-      <c r="P166" t="n">
-        <v>24</v>
       </c>
       <c r="Q166" t="n">
         <v>36</v>
@@ -16912,7 +16939,7 @@
       <c r="AA166" t="inlineStr"/>
       <c r="AB166" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-1.cdninstagram.com/v/t51.29350-15/120605738_808553753248372_3115531385695930411_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiRkVFRC5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=a2w_y5pDjloQ7kNvwH5d0Dy&amp;_nc_oc=AdlXtSMop1Oirc0BqR333R-STZMoAek3hBvqY2C3_cTbIljZUo_pmD6ZPjF_IY0Klm6ak2hO-ZTKUYqlSd9JoRVD&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-1.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=NMh7la5AfM9mywX1Im3YVQ&amp;oh=00_Afe8TF0sBnHh353aPfuMn-UBp_nyMgdFCFgt6Z5vNt-J6A&amp;oe=68FEEDA6</t>
+          <t>https://scontent-lga3-1.cdninstagram.com/v/t51.29350-15/120605738_808553753248372_3115531385695930411_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=111&amp;ccb=7-5&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiRkVFRC5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=efI_Ta0TYZ0Q7kNvwEKlYdn&amp;_nc_oc=AdkW7nZ9IsjkxouBcECEACmVjZpB-TjUAL8f-Zcx7ATPgQYkMSW2P3m_P2R-55yf2EM5gtOUILeZrO58Rnb1iqaZ&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-1.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=Lo2XEUA_pHwBJY5IU7WgrQ&amp;oh=00_AfiaMawWAFR9sBh6PAnzYE50L3KHJlHo-fWXfnwgdvvLVw&amp;oe=69291DA6</t>
         </is>
       </c>
       <c r="AC166" t="inlineStr"/>
@@ -16985,10 +17012,10 @@
         <v>0</v>
       </c>
       <c r="O167" t="n">
+        <v>12</v>
+      </c>
+      <c r="P167" t="n">
         <v>13</v>
-      </c>
-      <c r="P167" t="n">
-        <v>14</v>
       </c>
       <c r="Q167" t="n">
         <v>31</v>
@@ -17015,12 +17042,12 @@
       <c r="AA167" t="inlineStr"/>
       <c r="AB167" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-1.cdninstagram.com/o1/v/t16/f2/m84/AQPZUNpRirRmRxENxr_PvuSzqAXhHJ6HwsVi7i_xmKmafH1mD0Ppo3qcML7TSQkF0z7l53yXi4wBSnDp6n7ypjT9wkzC8nkA1erktYs.mp4?_nc_cat=102&amp;_nc_sid=5e9851&amp;_nc_ht=scontent-lga3-1.cdninstagram.com&amp;_nc_ohc=3uts_cSCMpEQ7kNvwHB7qL4&amp;efg=eyJ2ZW5jb2RlX3RhZyI6Inhwdl9wcm9ncmVzc2l2ZS5JTlNUQUdSQU0uRkVFRC5DMy40ODAuZGFzaF9iYXNlbGluZV8xX3YxIiwieHB2X2Fzc2V0X2lkIjozMzk2NTY4NjUxNjkzNDYsImFzc2V0X2FnZV9kYXlzIjoxODQ3LCJ2aV91c2VjYXNlX2lkIjoxMDE0NiwiZHVyYXRpb25fcyI6NCwidXJsZ2VuX3NvdXJjZSI6Ind3dyJ9&amp;ccb=17-1&amp;vs=5701970d74fd1844&amp;_nc_vs=HBkcFQIYTGlnX2JhY2tmaWxsX3RpbWVsaW5lX3ZvZC9ENDQxMzUzRTUyNjg2N0ExMTg0OEZCQzE2MTM0MDA5NV92aWRlb19kYXNoaW5pdC5tcDQVAALIARIAKAAYABsCiAd1c2Vfb2lsATEScHJvZ3Jlc3NpdmVfcmVjaXBlATEVAAAmhP_Z7NC6mgEVAigCQzMsF0AQAAAAAAAAGBJkYXNoX2Jhc2VsaW5lXzFfdjERAHXqB2XEngEA&amp;_nc_gid=NMh7la5AfM9mywX1Im3YVQ&amp;edm=AM6HXa8EAAAA&amp;_nc_zt=28&amp;oh=00_AfcOaLLTrnAm78ACgXIcLFnuTcITCBrC3r-OC9_Rg8OgdA&amp;oe=68FB157E</t>
+          <t>https://scontent-lga3-1.cdninstagram.com/o1/v/t16/f2/m84/AQPZUNpRirRmRxENxr_PvuSzqAXhHJ6HwsVi7i_xmKmafH1mD0Ppo3qcML7TSQkF0z7l53yXi4wBSnDp6n7ypjT9wkzC8nkA1erktYs.mp4?_nc_cat=102&amp;_nc_sid=5e9851&amp;_nc_ht=scontent-lga3-1.cdninstagram.com&amp;_nc_ohc=3xu8dTJlBOIQ7kNvwEg1WZd&amp;efg=eyJ2ZW5jb2RlX3RhZyI6Inhwdl9wcm9ncmVzc2l2ZS5JTlNUQUdSQU0uRkVFRC5DMy40ODAuZGFzaF9iYXNlbGluZV8xX3YxIiwieHB2X2Fzc2V0X2lkIjozMzk2NTY4NjUxNjkzNDYsImFzc2V0X2FnZV9kYXlzIjoxODc5LCJ2aV91c2VjYXNlX2lkIjoxMDE0NiwiZHVyYXRpb25fcyI6NCwidXJsZ2VuX3NvdXJjZSI6Ind3dyJ9&amp;ccb=17-1&amp;vs=5701970d74fd1844&amp;_nc_vs=HBkcFQIYTGlnX2JhY2tmaWxsX3RpbWVsaW5lX3ZvZC9ENDQxMzUzRTUyNjg2N0ExMTg0OEZCQzE2MTM0MDA5NV92aWRlb19kYXNoaW5pdC5tcDQVAALIARIAKAAYABsCiAd1c2Vfb2lsATEScHJvZ3Jlc3NpdmVfcmVjaXBlATEVAAAmhP_Z7NC6mgEVAigCQzMsF0AQAAAAAAAAGBJkYXNoX2Jhc2VsaW5lXzFfdjERAHXqB2XEngEA&amp;_nc_gid=Lo2XEUA_pHwBJY5IU7WgrQ&amp;edm=AM6HXa8EAAAA&amp;_nc_zt=28&amp;oh=00_Afgfir-xcChSoGtzuTQL6-KinimwQEVGOrSOdAL-s06Tng&amp;oe=6925457E</t>
         </is>
       </c>
       <c r="AC167" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-2.cdninstagram.com/v/t51.71878-15/527685639_771844081950620_7827109459305901267_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiRkVFRC5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=dK_VCKrPlzMQ7kNvwGNhHqC&amp;_nc_oc=Adny1JEyE75IqyxCa8irUfwk32TsS38FoBr4VwAiwB4ak5eMPL9D4zJ_PsyJO_LgFjXd8mBoRxevEfUt6m_5FMsg&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-2.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=NMh7la5AfM9mywX1Im3YVQ&amp;oh=00_AffYoIOJlmaAQgUt_QvI6KJdHdiN12Potq7zknrn7YF7og&amp;oe=68FF0694</t>
+          <t>https://scontent-lga3-2.cdninstagram.com/v/t51.71878-15/527685639_771844081950620_7827109459305901267_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=100&amp;ccb=7-5&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiRkVFRC5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=GFy_ASy8HWYQ7kNvwHZad6t&amp;_nc_oc=Adne4Xwh8phxkbCKxst5OTRjAQ3NmpnFt0gPziKX25C5W7T5pKTzj8gDVTXIDxrf0fH_mxw7L0Wa5PiFhJyiQrDp&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-2.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=Lo2XEUA_pHwBJY5IU7WgrQ&amp;oh=00_AfixyJ_fzOjGiKtXHxe9ykFzHlnd49wYTLN_oXXXF6z_8w&amp;oe=69293694</t>
         </is>
       </c>
     </row>
@@ -17095,10 +17122,10 @@
         <v>0</v>
       </c>
       <c r="O168" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P168" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q168" t="n">
         <v>59</v>
@@ -17125,7 +17152,7 @@
       <c r="AA168" t="inlineStr"/>
       <c r="AB168" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-1.cdninstagram.com/v/t51.29350-15/120349965_1779310762207959_8191199831352352661_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiRkVFRC5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=XUaATasMDyMQ7kNvwEFLDxu&amp;_nc_oc=AdlclZV9Ak03EfBk6F2GE2wAtgI69_jdzFw_YobTeF9UTHXBFqrMV6dpoVFnnlq3KPHeOstZWrhw5imoonwGt1I_&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-1.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=NMh7la5AfM9mywX1Im3YVQ&amp;oh=00_AfeSpVfR1pV-uJ86ecBH6l5cqXUyrH_IAO_HtxmTPeCi1Q&amp;oe=68FF0D77</t>
+          <t>https://scontent-lga3-1.cdninstagram.com/v/t51.29350-15/120349965_1779310762207959_8191199831352352661_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=111&amp;ccb=7-5&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiRkVFRC5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=hIgaduwjOckQ7kNvwFPeYwZ&amp;_nc_oc=AdkUhiEfrCMFtx5F3mmIu2GdFBJmlo7pTIDxMtib0HjcBR5o3zQIgMyndXvfu2PoF5LQ59UOhK5XOXtGgHdBS2hu&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-1.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=Lo2XEUA_pHwBJY5IU7WgrQ&amp;oh=00_Afj8ilAcVUDDcKKkl3MIKNrHp7eDO6gAQIeaSpcD3q843g&amp;oe=69293D77</t>
         </is>
       </c>
       <c r="AC168" t="inlineStr"/>
@@ -17197,10 +17224,10 @@
         <v>0</v>
       </c>
       <c r="O169" t="n">
+        <v>9</v>
+      </c>
+      <c r="P169" t="n">
         <v>10</v>
-      </c>
-      <c r="P169" t="n">
-        <v>11</v>
       </c>
       <c r="Q169" t="n">
         <v>69</v>
@@ -17227,7 +17254,7 @@
       <c r="AA169" t="inlineStr"/>
       <c r="AB169" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-2.cdninstagram.com/v/t51.29350-15/119067051_204657467674356_9004349400767322824_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0FST1VTRUxfSVRFTS5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=dHtv2srMGKYQ7kNvwFRYPpp&amp;_nc_oc=AdkLqoF_5_3DoAMjkDOa1oy2cA-dj2SFOtuEQ9XOaqSLtZReVu25JC0WFWk9yhk6ogyyVIcrm_5tG44JpJo73Pcd&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-2.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=NMh7la5AfM9mywX1Im3YVQ&amp;oh=00_Aff_v-PfwZDzUDKQ6zpdRgk9U-LcwX_4rJbILNf_F5AU1w&amp;oe=68FEF4E5</t>
+          <t>https://scontent-lga3-2.cdninstagram.com/v/t51.29350-15/119067051_204657467674356_9004349400767322824_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=100&amp;ccb=7-5&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0FST1VTRUxfSVRFTS5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=5djLwHBuk_8Q7kNvwFFExeP&amp;_nc_oc=AdmezhG3NlkdwKlRif237LNVqgVQ2M8HYKHan40EBb5jMbm1PHBEtHto9Jhh_LFyhyP5qFdrcETRgxW1PJmXh_ds&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-2.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=Lo2XEUA_pHwBJY5IU7WgrQ&amp;oh=00_AfguyfrujLtIydIzIkyPkwYducqWG87IIbLAHTMvEgucRA&amp;oe=692924E5</t>
         </is>
       </c>
       <c r="AC169" t="inlineStr"/>
@@ -17300,13 +17327,13 @@
         <v>0</v>
       </c>
       <c r="O170" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="P170" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Q170" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R170" t="n">
         <v>0</v>
@@ -17321,7 +17348,7 @@
         <v>0</v>
       </c>
       <c r="V170" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="W170" t="inlineStr"/>
       <c r="X170" t="inlineStr"/>
@@ -17330,7 +17357,7 @@
       <c r="AA170" t="inlineStr"/>
       <c r="AB170" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-3.cdninstagram.com/v/t51.29350-15/118694592_952917135189712_4797531478647671037_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiRkVFRC5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=zSc6v-2t4IQQ7kNvwG3E9x_&amp;_nc_oc=Adlyiy2yxCgM0SpjT6l4bP2q7Rtr0B22Wti0pXG5VEmoMR8QvhAt5968tRj0NSoHZ0bKcEs62e2mCgcRytPkzZNw&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-3.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=NMh7la5AfM9mywX1Im3YVQ&amp;oh=00_AffEAHHSPWHBjEBAd66pbtXotFqk9q9j7pzIv3zxBMui9Q&amp;oe=68FF0329</t>
+          <t>https://scontent-lga3-3.cdninstagram.com/v/t51.29350-15/118694592_952917135189712_4797531478647671037_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=110&amp;ccb=7-5&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiRkVFRC5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=POYe5hMRYwIQ7kNvwGnf-0T&amp;_nc_oc=Admp4-ScGQT0uYUWlMbUWO4SQkvAD1PEyMGzZpQHQTYo2HWhO803SmC5vd3o8r2fbNVmqFMCYFiQZvJzhnaUCaUy&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-3.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=Lo2XEUA_pHwBJY5IU7WgrQ&amp;oh=00_AfhvxJSfId5906AkSSt4q3Lm3HDmtxp8tbixjkqiDserUg&amp;oe=69293329</t>
         </is>
       </c>
       <c r="AC170" t="inlineStr"/>
@@ -17395,10 +17422,10 @@
         <v>0</v>
       </c>
       <c r="O171" t="n">
+        <v>7</v>
+      </c>
+      <c r="P171" t="n">
         <v>8</v>
-      </c>
-      <c r="P171" t="n">
-        <v>9</v>
       </c>
       <c r="Q171" t="n">
         <v>0</v>
@@ -17425,12 +17452,12 @@
       <c r="AA171" t="inlineStr"/>
       <c r="AB171" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-2.cdninstagram.com/o1/v/t16/f2/m69/AQP7MlrXQ5oPjkCWECv0XN70tFtsBoXQzjXPQMoRVd0DxDwGe2V-9zHnKH-CJg3MUd8dtNSl4kno3ppKX3MKYy6h.mp4?strext=1&amp;_nc_cat=101&amp;_nc_sid=5e9851&amp;_nc_ht=scontent-lga3-2.cdninstagram.com&amp;_nc_ohc=m3EbJX_IpA4Q7kNvwFmngx6&amp;efg=eyJ2ZW5jb2RlX3RhZyI6Inhwdl9wcm9ncmVzc2l2ZS5JTlNUQUdSQU0uSUdUVi5DMy40MzIuZGFzaF9iYXNlbGluZV8yX3YxIiwieHB2X2Fzc2V0X2lkIjoxMzc3ODgyMzI5NTM0OTMxLCJhc3NldF9hZ2VfZGF5cyI6MTg3NiwidmlfdXNlY2FzZV9pZCI6MTAxMDIsImR1cmF0aW9uX3MiOjUyMywidXJsZ2VuX3NvdXJjZSI6Ind3dyJ9&amp;ccb=17-1&amp;vs=7e1e9976fca207a1&amp;_nc_vs=HBksFQIYOnBhc3N0aHJvdWdoX2V2ZXJzdG9yZS9HSUNXbUFDRUNiOFFubGNEQU5TMUFIVngzTU1WYnFDQkFBQUYVAALIARIAFQIYOnBhc3N0aHJvdWdoX2V2ZXJzdG9yZS9HTHlidkJqTmdPQjk1SGdIQUJicW9fOTJtSGs1YnFDQkFBQUYVAgLIARIAKAAYABsCiAd1c2Vfb2lsATEScHJvZ3Jlc3NpdmVfcmVjaXBlATEVAAAmpsfarKfL8gQVAigCQzMsF0CAXMzMzMzNGBJkYXNoX2Jhc2VsaW5lXzJfdjERAHXsB2XsnQEA&amp;_nc_gid=NMh7la5AfM9mywX1Im3YVQ&amp;edm=AM6HXa8EAAAA&amp;_nc_zt=28&amp;oh=00_AffRgm2Hg_SrjwPLwl4GxXQFQyNwDMAoXeymJq07DNS75w&amp;oe=68FF0B93</t>
+          <t>https://scontent-lga3-2.cdninstagram.com/o1/v/t16/f2/m69/AQP7MlrXQ5oPjkCWECv0XN70tFtsBoXQzjXPQMoRVd0DxDwGe2V-9zHnKH-CJg3MUd8dtNSl4kno3ppKX3MKYy6h.mp4?strext=1&amp;_nc_cat=101&amp;_nc_sid=5e9851&amp;_nc_ht=scontent-lga3-2.cdninstagram.com&amp;_nc_ohc=G8c3I6db4IYQ7kNvwG3_Lca&amp;efg=eyJ2ZW5jb2RlX3RhZyI6Inhwdl9wcm9ncmVzc2l2ZS5JTlNUQUdSQU0uSUdUVi5DMy40MzIuZGFzaF9iYXNlbGluZV8yX3YxIiwieHB2X2Fzc2V0X2lkIjoxMzc3ODgyMzI5NTM0OTMxLCJhc3NldF9hZ2VfZGF5cyI6MTkwOCwidmlfdXNlY2FzZV9pZCI6MTAxMDIsImR1cmF0aW9uX3MiOjUyMywidXJsZ2VuX3NvdXJjZSI6Ind3dyJ9&amp;ccb=17-1&amp;vs=7e1e9976fca207a1&amp;_nc_vs=HBksFQIYOnBhc3N0aHJvdWdoX2V2ZXJzdG9yZS9HSUNXbUFDRUNiOFFubGNEQU5TMUFIVngzTU1WYnFDQkFBQUYVAALIARIAFQIYOnBhc3N0aHJvdWdoX2V2ZXJzdG9yZS9HTHlidkJqTmdPQjk1SGdIQUJicW9fOTJtSGs1YnFDQkFBQUYVAgLIARIAKAAYABsCiAd1c2Vfb2lsATEScHJvZ3Jlc3NpdmVfcmVjaXBlATEVAAAmpsfarKfL8gQVAigCQzMsF0CAXMzMzMzNGBJkYXNoX2Jhc2VsaW5lXzJfdjERAHXsB2XsnQEA&amp;_nc_gid=Lo2XEUA_pHwBJY5IU7WgrQ&amp;edm=AM6HXa8EAAAA&amp;_nc_zt=28&amp;oh=00_AfhkkWso6T8RqV_rc10aszSY-wp3VmHXtyaAnJZH93S8fQ&amp;oe=69293B93</t>
         </is>
       </c>
       <c r="AC171" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-2.cdninstagram.com/v/t51.29350-15/118656706_168280934893291_7816847165036727783_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiSUdUVi5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=pyYwWmy_2jIQ7kNvwGac6rY&amp;_nc_oc=AdnD7MhSmF2EW6ve0Vn5BjcHdKpEI_9DEhi9IgNWHgE_zWUl0Xw57C8wTlsZrZc8UjECiakxKcrN8vZYlKaMDeYi&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-2.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=NMh7la5AfM9mywX1Im3YVQ&amp;oh=00_Afe1ZZVIWkV9ygBq1u4x0DZQcaNzt2oHjlYcLt8FKFiT8g&amp;oe=68FEE9C8</t>
+          <t>https://scontent-lga3-2.cdninstagram.com/v/t51.29350-15/118656706_168280934893291_7816847165036727783_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=109&amp;ccb=7-5&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiSUdUVi5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=CRu1X8LUWugQ7kNvwHh4HRA&amp;_nc_oc=Adk2jwqXXrqHTF0Gy79GEhMx2ponB54mdfDivB_emlyAvN9LSg2Yhj-32MFezLlyiYSUUQfo568VP31P5PsIs9ka&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-2.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=Lo2XEUA_pHwBJY5IU7WgrQ&amp;oh=00_AfgQP_WsxiO-E1SuJ0y51jMR00cwx_BBZoa6wCWYCB-eQA&amp;oe=692919C8</t>
         </is>
       </c>
     </row>
@@ -17502,7 +17529,7 @@
         <v>0</v>
       </c>
       <c r="O172" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P172" t="n">
         <v>29</v>
@@ -17532,7 +17559,7 @@
       <c r="AA172" t="inlineStr"/>
       <c r="AB172" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-3.cdninstagram.com/v/t51.29350-15/116877373_629084991126817_7488472650216390182_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiRkVFRC5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=chjS6vWemc4Q7kNvwFy-4Lg&amp;_nc_oc=AdkHE8Jzg8IT-qUtLcJn6doOTXkaV42BBOjr2toQpmZqZrHmTi-na5-DkptDgO8OfuS3yAxyfuBXAdRb4RvWFkYn&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-3.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=NMh7la5AfM9mywX1Im3YVQ&amp;oh=00_Afc-WN-SwPKpy3Jw7Kd2I9c7jDAf0g0Q0sUHlpfC3LDaFQ&amp;oe=68FEF319</t>
+          <t>https://scontent-lga3-3.cdninstagram.com/v/t51.29350-15/116877373_629084991126817_7488472650216390182_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=110&amp;ccb=7-5&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiRkVFRC5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=xQH73h8qDzIQ7kNvwGqq1NM&amp;_nc_oc=AdlQcKlOyl482t1umJTQWUv_U4Mi-_4kkTg0xgjb-xApeTlqQX-ypUL6vueQl1qq04bT4QcdrzV0db-BeOTxAquz&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-3.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=Lo2XEUA_pHwBJY5IU7WgrQ&amp;oh=00_AfhD5Y2SIrFCvRcTvozip8dVrodQ73iUvQX0zCMwaK0SFQ&amp;oe=69292319</t>
         </is>
       </c>
       <c r="AC172" t="inlineStr"/>
@@ -17608,10 +17635,10 @@
         <v>0</v>
       </c>
       <c r="O173" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P173" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q173" t="n">
         <v>45</v>
@@ -17638,7 +17665,7 @@
       <c r="AA173" t="inlineStr"/>
       <c r="AB173" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-1.cdninstagram.com/v/t51.29350-15/106249834_364948651136593_7720360499316857771_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0FST1VTRUxfSVRFTS5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=fwxVlrDg8VMQ7kNvwEz_I90&amp;_nc_oc=AdlTPeRzrrIlVfiCeOTxO_q30yQE4Fj40H9ypz87SemMG-4RqSwN9QNiJI8uZCwTLorgY2-My-Fxn1gt_U_S7vSq&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-1.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=NMh7la5AfM9mywX1Im3YVQ&amp;oh=00_AffkCO3_5st0aGwypv1Qyq_OdAAcI4JZXxJ-anvLnYpeyg&amp;oe=68FF18DD</t>
+          <t>https://scontent-lga3-1.cdninstagram.com/v/t51.29350-15/106249834_364948651136593_7720360499316857771_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=111&amp;ccb=7-5&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0FST1VTRUxfSVRFTS5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=xS0LhUOrYDsQ7kNvwE-_MnO&amp;_nc_oc=Adkl0AtenYUTnvvavMTz6H4h1nWuwOwYEj3uv8XUL2H0BqnzolI0jQs-xs4XIhvXkMiZmXsws_aLCr6ChaGBJgEJ&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-1.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=Lo2XEUA_pHwBJY5IU7WgrQ&amp;oh=00_Afgtc4dOv6aL7RpUWblTdBKv2t53pRrTAZ-Sj-4m27mr7w&amp;oe=692948DD</t>
         </is>
       </c>
       <c r="AC173" t="inlineStr"/>
@@ -17708,10 +17735,10 @@
         <v>0</v>
       </c>
       <c r="O174" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P174" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q174" t="n">
         <v>34</v>
@@ -17738,12 +17765,12 @@
       <c r="AA174" t="inlineStr"/>
       <c r="AB174" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-1.cdninstagram.com/o1/v/t16/f2/m84/AQOE-COFZz_BThhfQf5grwXIy8-gqB8XacrK8pmhYvwsB8wvcp7YEVqBVEZK_q3LBpsx0TPtLIbn3lc_BnBf_hEwW3qjeQwp_UTb244.mp4?_nc_cat=108&amp;_nc_sid=5e9851&amp;_nc_ht=scontent-lga3-1.cdninstagram.com&amp;_nc_ohc=TeiaDCNEozsQ7kNvwHfSu1g&amp;efg=eyJ2ZW5jb2RlX3RhZyI6Inhwdl9wcm9ncmVzc2l2ZS5JTlNUQUdSQU0uRkVFRC5DMy43MjAuZGFzaF9iYXNlbGluZV8xX3YxIiwieHB2X2Fzc2V0X2lkIjoxMzYxOTczMjY0NjczNjg5LCJhc3NldF9hZ2VfZGF5cyI6MjA3MywidmlfdXNlY2FzZV9pZCI6MTAxNDYsImR1cmF0aW9uX3MiOjMxLCJ1cmxnZW5fc291cmNlIjoid3d3In0%3D&amp;ccb=17-1&amp;vs=dd7d0b28bd7f64c7&amp;_nc_vs=HBksFQIYTGlnX2JhY2tmaWxsX3RpbWVsaW5lX3ZvZC9BRDQzMzVDRDAwOUE1OTU5NzcyRDVBNEI5RTVFMjZBOF92aWRlb19kYXNoaW5pdC5tcDQVAALIARIAFQIYOnBhc3N0aHJvdWdoX2V2ZXJzdG9yZS9HSDJGQUJkdXNJdE1TUG9BQUg2NWttMGhNSE5tYnBrd0FBQUYVAgLIARIAKAAYABsCiAd1c2Vfb2lsATEScHJvZ3Jlc3NpdmVfcmVjaXBlATEVAAAmsq6TyqOt6wQVAigCQzMsF0A_ogxJul41GBJkYXNoX2Jhc2VsaW5lXzFfdjERAHXqB2XEngEA&amp;_nc_gid=NMh7la5AfM9mywX1Im3YVQ&amp;edm=AM6HXa8EAAAA&amp;_nc_zt=28&amp;oh=00_Afdkr9BLvdYmpq0CDzyDakZnMxHAOenDtaA3TCWY6esFxA&amp;oe=68FB0C38</t>
+          <t>https://scontent-lga3-3.cdninstagram.com/o1/v/t16/f2/m84/AQOE-COFZz_BThhfQf5grwXIy8-gqB8XacrK8pmhYvwsB8wvcp7YEVqBVEZK_q3LBpsx0TPtLIbn3lc_BnBf_hEwW3qjeQwp_UTb244.mp4?_nc_cat=108&amp;_nc_sid=5e9851&amp;_nc_ht=scontent-lga3-3.cdninstagram.com&amp;_nc_ohc=l0EoQdhj3SgQ7kNvwGQSeBv&amp;efg=eyJ2ZW5jb2RlX3RhZyI6Inhwdl9wcm9ncmVzc2l2ZS5JTlNUQUdSQU0uRkVFRC5DMy43MjAuZGFzaF9iYXNlbGluZV8xX3YxIiwieHB2X2Fzc2V0X2lkIjoxMzYxOTczMjY0NjczNjg5LCJhc3NldF9hZ2VfZGF5cyI6MjEwNSwidmlfdXNlY2FzZV9pZCI6MTAxNDYsImR1cmF0aW9uX3MiOjMxLCJ1cmxnZW5fc291cmNlIjoid3d3In0%3D&amp;ccb=17-1&amp;vs=dd7d0b28bd7f64c7&amp;_nc_vs=HBksFQIYTGlnX2JhY2tmaWxsX3RpbWVsaW5lX3ZvZC9BRDQzMzVDRDAwOUE1OTU5NzcyRDVBNEI5RTVFMjZBOF92aWRlb19kYXNoaW5pdC5tcDQVAALIARIAFQIYOnBhc3N0aHJvdWdoX2V2ZXJzdG9yZS9HSDJGQUJkdXNJdE1TUG9BQUg2NWttMGhNSE5tYnBrd0FBQUYVAgLIARIAKAAYABsCiAd1c2Vfb2lsATEScHJvZ3Jlc3NpdmVfcmVjaXBlATEVAAAmsq6TyqOt6wQVAigCQzMsF0A_ogxJul41GBJkYXNoX2Jhc2VsaW5lXzFfdjERAHXqB2XEngEA&amp;_nc_gid=Lo2XEUA_pHwBJY5IU7WgrQ&amp;edm=AM6HXa8EAAAA&amp;_nc_zt=28&amp;oh=00_AfjDVFjJEDIeEPyNsQSEU61ddn5uRx8zihY6JNTZluyI0g&amp;oe=69253C38</t>
         </is>
       </c>
       <c r="AC174" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-1.cdninstagram.com/v/t51.71878-15/527983203_1793693791501632_9014837860366430773_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiRkVFRC5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=T8Uo_4RwfjAQ7kNvwEGxpfJ&amp;_nc_oc=AdleN57ZvkNYhYGA1eu884BLXBRvxr9khIKZgTFI9oFhsFAVrp7KH6JjLynglpzNSdAm5FHbPf6FH-gku7asl5Rz&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-1.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=NMh7la5AfM9mywX1Im3YVQ&amp;oh=00_AfdzotIi9dHJXUBLFTvGGY8okyBtlGd6x1VXet_hYQDrnA&amp;oe=68FF0DAA</t>
+          <t>https://scontent-lga3-1.cdninstagram.com/v/t51.71878-15/527983203_1793693791501632_9014837860366430773_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=102&amp;ccb=7-5&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiRkVFRC5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=MqIg7lCIJP8Q7kNvwEFlTBu&amp;_nc_oc=Adk7RqbLoKTdXFjRpAJ1poLimOniUwel5Wkjokxj9Pq4Y7k_cdh20-AoghX1oDOxPxs15isLVb57mNkRIbx4_0lh&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-1.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;_nc_gid=Lo2XEUA_pHwBJY5IU7WgrQ&amp;oh=00_AfhqtjK9-Zo_ijXOjL0606V2AzROR1xIGRmWeeHx1meCxw&amp;oe=69293DAA</t>
         </is>
       </c>
     </row>
@@ -17813,13 +17840,13 @@
         <v>0</v>
       </c>
       <c r="O175" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P175" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q175" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R175" t="n">
         <v>0</v>
@@ -17834,7 +17861,7 @@
         <v>0</v>
       </c>
       <c r="V175" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="W175" t="inlineStr"/>
       <c r="X175" t="inlineStr"/>
@@ -17843,7 +17870,7 @@
       <c r="AA175" t="inlineStr"/>
       <c r="AB175" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-2.cdninstagram.com/v/t51.2885-15/80807270_150233083077108_5524907561290935528_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiRkVFRC5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=D7NvTe5HRL8Q7kNvwEc9POw&amp;_nc_oc=AdkD7O3He_gv_Q87SlIgPO-0dvJeNkFkti3902yh_Aexzdvq4FyXZ8iO-31kMs_wAfjrK5ErU1wJKo9Vu_mEjYaK&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-2.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;oh=00_Afe6axFV46bSX7tMbkNd5odIt6dGkJu6FcupEZJx7pwAMw&amp;oe=68FF124E</t>
+          <t>https://scontent-lga3-2.cdninstagram.com/v/t51.2885-15/80807270_150233083077108_5524907561290935528_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=107&amp;ccb=7-5&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiRkVFRC5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=e9UiAXDFydQQ7kNvwGcgCbB&amp;_nc_oc=AdkqlLlfuBI2ZYgzXmzAg7DcrY0w0JN_pXY6hgL6ozsBoISblXdws2nFSIFkv9q4YGld_lv9ys7MK5A4ScsZwoBI&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-2.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;oh=00_Afhw9UOeWsue-v-rpSSVAUUNW6V0kGDJDRuF7AmpRsYMhA&amp;oe=6929424E</t>
         </is>
       </c>
       <c r="AC175" t="inlineStr"/>
@@ -17939,7 +17966,7 @@
         <v>41</v>
       </c>
       <c r="P176" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Q176" t="n">
         <v>108</v>
@@ -17966,7 +17993,7 @@
       <c r="AA176" t="inlineStr"/>
       <c r="AB176" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-2.cdninstagram.com/v/t51.2885-15/82048911_172079574003360_7639532719604418353_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiRkVFRC5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=KGsNwQF-XyAQ7kNvwFF912i&amp;_nc_oc=AdlJcN64e1-FvxJBUM1UK8fF_VFyDrJYcp-2SrB1IGtmeqh-MXlRG5DYHsOVs3xy8Y6tkpJJE02ewVzvdqpt6ARD&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-2.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;oh=00_Afdw391enD1wVhoERGqppHdmJjUl8FLCf9M5DJTFpY0v9g&amp;oe=68FF0319</t>
+          <t>https://scontent-lga3-2.cdninstagram.com/v/t51.2885-15/82048911_172079574003360_7639532719604418353_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=100&amp;ccb=7-5&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiRkVFRC5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=c4_CBTxAi-8Q7kNvwHklSg0&amp;_nc_oc=AdljngyMeH4WDKyXrRkXES8vqcwqdjNGnDMeuAF_09DjRB9vSUCQ9LCf1_9d5qVwhIwD8_kgtIiOpkKFKuFBHa_r&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-2.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;oh=00_AfhwWisVn23Rky3HNmGHFrXShLTT2p4XECPplgpPTzat5w&amp;oe=69293319</t>
         </is>
       </c>
       <c r="AC176" t="inlineStr"/>
@@ -18037,10 +18064,10 @@
         <v>0</v>
       </c>
       <c r="O177" t="n">
+        <v>21</v>
+      </c>
+      <c r="P177" t="n">
         <v>23</v>
-      </c>
-      <c r="P177" t="n">
-        <v>25</v>
       </c>
       <c r="Q177" t="n">
         <v>61</v>
@@ -18067,7 +18094,7 @@
       <c r="AA177" t="inlineStr"/>
       <c r="AB177" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-3.cdninstagram.com/v/t51.2885-15/73002924_432406434125240_2690069018487219697_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiRkVFRC5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=AbLB4XB5ErsQ7kNvwEdno5A&amp;_nc_oc=Adk5OOeaWAl8Q2h0RCsoFjLBDu4iktush-hgaBPR-WXBSCu1Bg34_B5Nq6n1yUd0pngMeQJ9yX5VC1J-VfqdJmwo&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-3.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;oh=00_AfdqJCoqZ8S7VAMbYNCCI89bT-kkYJUPX2O7yxBcXu9rLg&amp;oe=68FEFAEA</t>
+          <t>https://scontent-lga3-3.cdninstagram.com/v/t51.2885-15/73002924_432406434125240_2690069018487219697_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=106&amp;ccb=7-5&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiRkVFRC5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=_5m_9PGtCPUQ7kNvwHN67kT&amp;_nc_oc=AdnL73cKDopqprVQHo7en3iwitfZKEbM0CqpgK1f_bXKjV45e-KSNryHfXwgYO9v_qCuYip6QnrITGfky4jkMJz1&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-3.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;oh=00_AfiqU7amBfAxpve8TWpm-lOkn_eFSpwvAVslfYzJCUflUA&amp;oe=69292AEA</t>
         </is>
       </c>
       <c r="AC177" t="inlineStr"/>
@@ -18144,10 +18171,10 @@
         <v>0</v>
       </c>
       <c r="O178" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P178" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q178" t="n">
         <v>21</v>
@@ -18174,7 +18201,7 @@
       <c r="AA178" t="inlineStr"/>
       <c r="AB178" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-2.cdninstagram.com/v/t51.2885-15/71189783_759125071175446_7687937119058746638_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiRkVFRC5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=AIEPi7fy2GQQ7kNvwGwCCVi&amp;_nc_oc=AdmkBgXYrwJML6RWF8jLD7QrNvn1sCAOPZSIjVnGLJhazI6bClzpuXGEIbi5JjrXcH1C3wRteGetXFQYWLnjXA7n&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-2.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;oh=00_AfdWr5D3MdHvloqHsFANGLVgSIPYd6aYvXdYvrOovoCb1Q&amp;oe=68FEFAC9</t>
+          <t>https://scontent-lga3-2.cdninstagram.com/v/t51.2885-15/71189783_759125071175446_7687937119058746638_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=100&amp;ccb=7-5&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiRkVFRC5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=cnPhPHSd918Q7kNvwHZRHlG&amp;_nc_oc=AdlvSu5G8Yhbvbl187xvn64VceRM4oJxG65sJu0gXjHplZQwlGSYRJ5CZfCULBpEYZFTI-xjPOP54sDa2IS6pdM2&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-2.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;oh=00_AfhSGJZUBUwbqaKaIvB047SX5z7DECyNm8pAFO3JAoHHeg&amp;oe=69292AC9</t>
         </is>
       </c>
       <c r="AC178" t="inlineStr"/>
@@ -18251,10 +18278,10 @@
         <v>0</v>
       </c>
       <c r="O179" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="P179" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="Q179" t="n">
         <v>109</v>
@@ -18281,7 +18308,7 @@
       <c r="AA179" t="inlineStr"/>
       <c r="AB179" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-1.cdninstagram.com/v/t51.2885-15/67400816_483192942470413_823183398164445983_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiRkVFRC5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=k3toCLPutDcQ7kNvwGVsWMl&amp;_nc_oc=Adm9-Tqu9clSPdJhmUojR-FgWoTMWHFpD7rGOmejiF4MBTDOD4hR3ohQ0jB5FnXrKwKeudma-aL9Fq55cxblbie5&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-1.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;oh=00_Afd0RapMJNZuHblYmiTS2hVNyR546DIuxGY3UxfRV3Aeug&amp;oe=68FF0D80</t>
+          <t>https://scontent-lga3-3.cdninstagram.com/v/t51.2885-15/67400816_483192942470413_823183398164445983_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=108&amp;ccb=7-5&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiRkVFRC5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=7_IBQ-vsygoQ7kNvwG5xszN&amp;_nc_oc=AdmnbzNX7_tlIehtSA6JJPyVcsUr9ad07kUyT2HrQFQrbbR-R4hWsWIXzMSF6n6LRra6Hc2OlxVOXt95-mW1XFvw&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-3.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;oh=00_Afj21FYNWYgz8m6sn1XP2L1FqNY6sy0sEvteQUs-Aq4TEw&amp;oe=69293D80</t>
         </is>
       </c>
       <c r="AC179" t="inlineStr"/>
@@ -18354,10 +18381,10 @@
         <v>0</v>
       </c>
       <c r="O180" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P180" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q180" t="n">
         <v>66</v>
@@ -18384,7 +18411,7 @@
       <c r="AA180" t="inlineStr"/>
       <c r="AB180" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-1.cdninstagram.com/v/t51.2885-15/66838217_763503874047818_1860131692303193240_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiRkVFRC5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=KD7lc1XdWQQQ7kNvwFi62xs&amp;_nc_oc=AdlaDrrIt6NB2FnjTX7r3PlN1y-HmM8NIZ2QHZsUf7wC1Xw7JuPhiS45NHCyKY3UObybTLyTEC5EKvW9nHGjybil&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-1.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;oh=00_Aff8Nmj_WQRcDBPnTNbi9jfEVMpyc3uqtrmeyI0WO14PJg&amp;oe=68FEEAE6</t>
+          <t>https://scontent-lga3-3.cdninstagram.com/v/t51.2885-15/66838217_763503874047818_1860131692303193240_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=108&amp;ccb=7-5&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiRkVFRC5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=ya-RYSZ9REsQ7kNvwEZbCVF&amp;_nc_oc=AdlTgeG8M0-LdmYBeoM83IcMiMAJIZ0P-DtYthpWK5mDiNsyk6cEBXFm4QpvwayaBhNa7IL0Jl7hd5by3nuOBE-l&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-3.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;oh=00_AfgPFxaFPQjYcEFQr1OZnXK4QerNUGTv7hi17lMl-VS-Rw&amp;oe=69291AE6</t>
         </is>
       </c>
       <c r="AC180" t="inlineStr"/>
@@ -18459,10 +18486,10 @@
         <v>0</v>
       </c>
       <c r="O181" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="P181" t="n">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="Q181" t="n">
         <v>80</v>
@@ -18489,7 +18516,7 @@
       <c r="AA181" t="inlineStr"/>
       <c r="AB181" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-3.cdninstagram.com/v/t51.2885-15/51872750_250148672538275_943277697217511133_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiRkVFRC5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=-TAA9BZqk_4Q7kNvwGXxN1J&amp;_nc_oc=AdmMUi6meimTSLbYXZyDu3mvf-MaIlVpL4fukvge-vgnphu5pkG22PVhDO7F8OSMTXQAPxtoF9h79wucutSnb3VQ&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-3.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;oh=00_Afc05z1rt3WLdTHJQYkbwevKKs7SITqTKbGgTcLWDZ6bjw&amp;oe=68FF0423</t>
+          <t>https://scontent-lga3-3.cdninstagram.com/v/t51.2885-15/51872750_250148672538275_943277697217511133_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=106&amp;ccb=7-5&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiRkVFRC5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=ttYcbJ2hIWwQ7kNvwEygbop&amp;_nc_oc=AdkSUQFU5n9YjAqwfszQAxJs5TRRo0eLmD08P3YooT97TCieCtYeedcZCLB_nYKkl1zc1RaZjD1XBmFFyuRxCe0J&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-3.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;oh=00_AfgMIWX4IELvNHXevPgHYTg_Jlpd5GP11ywwo-5tBXOpvw&amp;oe=69293423</t>
         </is>
       </c>
       <c r="AC181" t="inlineStr"/>
@@ -18565,10 +18592,10 @@
         <v>0</v>
       </c>
       <c r="O182" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P182" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Q182" t="n">
         <v>35</v>
@@ -18595,7 +18622,7 @@
       <c r="AA182" t="inlineStr"/>
       <c r="AB182" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-2.cdninstagram.com/v/t51.2885-15/50895328_341909056664986_520551747371969605_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiRkVFRC5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=vh5s4QvCqoUQ7kNvwG8G5gn&amp;_nc_oc=Admj7G8A9_AmwXY1olMtrg4p_t_0dzTbCah0wB7vgJrfpdu9yQpYlePwbkyYiDrTVsdDACWWiG3Fm2yeW5Po3uF8&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-2.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;oh=00_AfdJJCe4nJLQHMvR9EenjelCibSfQ-HQg527_sfbvBkMUA&amp;oe=68FF12BB</t>
+          <t>https://scontent-lga3-2.cdninstagram.com/v/t51.2885-15/50895328_341909056664986_520551747371969605_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=101&amp;ccb=7-5&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiRkVFRC5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=COPUxjuyiLYQ7kNvwFkD5RO&amp;_nc_oc=AdmS_-tGSqn0Kklf3OnOUsc1Kq9oXPO7xOOQq5js2cL6L3TmeiM4aCNCK77MUfVVLMRpEcCiOoyBgvpKJx-aKR0Y&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-2.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;oh=00_AfgbcVA2mz2_15S9sT1OwbaB06yzd3Z2IMGmHErnzPBOBQ&amp;oe=692942BB</t>
         </is>
       </c>
       <c r="AC182" t="inlineStr"/>
@@ -18677,10 +18704,10 @@
         <v>0</v>
       </c>
       <c r="O183" t="n">
+        <v>24</v>
+      </c>
+      <c r="P183" t="n">
         <v>25</v>
-      </c>
-      <c r="P183" t="n">
-        <v>26</v>
       </c>
       <c r="Q183" t="n">
         <v>80</v>
@@ -18707,7 +18734,7 @@
       <c r="AA183" t="inlineStr"/>
       <c r="AB183" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-3.cdninstagram.com/v/t51.2885-15/49618681_2251636188188068_2941289566752864856_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiRkVFRC5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=hGaCjHLIx38Q7kNvwG-yzKl&amp;_nc_oc=Adna4m3dBXR5QhyE53ABfxw84AkYZ9RE5PDFf5M6YHb_hYb7FU7mO9rXeSujYjuuk7kGOjxnkMU49AN3RUNAE5OO&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-3.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;oh=00_Afdeqi2YLAtKbDUZJtky0hi8HT5Y0yEJmCgMn4LWDPFr1w&amp;oe=68FF0E78</t>
+          <t>https://scontent-lga3-3.cdninstagram.com/v/t51.2885-15/49618681_2251636188188068_2941289566752864856_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=110&amp;ccb=7-5&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiRkVFRC5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=PvJkCGvX73wQ7kNvwEIxWSk&amp;_nc_oc=AdntGuQcuqdbQiAI9ATnXdC4Dh_hdFD17-XpRFn2YJIUaM2dTCul1NHTgPdm2mqPwamvPgOyOjhgWSSAWKmF0PQt&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-3.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;oh=00_Afj_2N6uSKOleJXcX52Hy-kcapJ3z15Uzl6EykKtFqIIfQ&amp;oe=69293E78</t>
         </is>
       </c>
       <c r="AC183" t="inlineStr"/>
@@ -18772,10 +18799,10 @@
         <v>0</v>
       </c>
       <c r="O184" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P184" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q184" t="n">
         <v>66</v>
@@ -18802,7 +18829,7 @@
       <c r="AA184" t="inlineStr"/>
       <c r="AB184" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-1.cdninstagram.com/v/t51.2885-15/47691991_297079284341167_6134487208437312776_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiRkVFRC5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=pL5iN5a0GFgQ7kNvwFIYs0X&amp;_nc_oc=AdkL-tv_4mfCZeC70TeLANkJJPm_vT_i8DD6MwY6A2cTBaO0MnR8N6XTL2Hmm5bwRaW03ynqePVZZsrEbqDAnSQy&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-1.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;oh=00_Aff49SZg-ZBj7nmkP36UzsAikDp3FRB1SsakqtWcS2Ro-g&amp;oe=68FEE3B0</t>
+          <t>https://scontent-lga3-1.cdninstagram.com/v/t51.2885-15/47691991_297079284341167_6134487208437312776_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=102&amp;ccb=7-5&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiRkVFRC5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=R3atA2B5QoMQ7kNvwFXAU1V&amp;_nc_oc=AdlgiMmNwQxcoBOJLd-saafnmI9X5oTzH0a255svcp6Uv2O4brjAuGkf_K_nXNoTNQq53KGsoJJYNh1MZq9-0gf6&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-1.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;oh=00_Afiml43PPjhZ1c0OKlKB0gn-BQi_OZQwiTWhKg8mpOhkng&amp;oe=692913B0</t>
         </is>
       </c>
       <c r="AC184" t="inlineStr"/>
@@ -18873,10 +18900,10 @@
         <v>0</v>
       </c>
       <c r="O185" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P185" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q185" t="n">
         <v>44</v>
@@ -18903,7 +18930,7 @@
       <c r="AA185" t="inlineStr"/>
       <c r="AB185" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-2.cdninstagram.com/v/t51.2885-15/42749825_334287803789786_1502126762883637098_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiRkVFRC5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=wIyLDUNfSu8Q7kNvwG_oXTQ&amp;_nc_oc=Adl-IsIcaxaSowHEWnux4lqMUAp0wUB3ybmK1Anh3-X0UQ3rvZBAD_lf-Ka0cLC_EU5qvs8dkDfgFo1Vzxd0LjM_&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-2.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;oh=00_Aff4R2IiPODGZ74gu1bqIAPRoQksbqX8mBCMaWjW0Jk2KA&amp;oe=68FF0C27</t>
+          <t>https://scontent-lga3-2.cdninstagram.com/v/t51.2885-15/42749825_334287803789786_1502126762883637098_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=109&amp;ccb=7-5&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiRkVFRC5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=5op1WOq1dN0Q7kNvwGX0KKQ&amp;_nc_oc=AdkyKbik7MhkhI0zT7VoRbCg8pybENN7iCioM4SOtZqc67YfvjHltdg7lEK7EJbR72sl3Yr8aZ0Wf7NRBkYXqpzX&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-2.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;oh=00_Afjd2buEvspG4l2pCw8ktN9l_TaGMjdT_nLVQqlmiMNf1A&amp;oe=69293C27</t>
         </is>
       </c>
       <c r="AC185" t="inlineStr"/>
@@ -18974,10 +19001,10 @@
         <v>0</v>
       </c>
       <c r="O186" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P186" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q186" t="n">
         <v>78</v>
@@ -19004,7 +19031,7 @@
       <c r="AA186" t="inlineStr"/>
       <c r="AB186" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-2.cdninstagram.com/v/t51.2885-15/44575992_499252097259440_3860552525880411253_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiRkVFRC5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=TmZ_nkB5zaUQ7kNvwEnfbez&amp;_nc_oc=AdlLVjAeQSucJHmCfxbijqYiRBI-UHEqXKljpgAESspiUlnnXTocQ75rm_7PFcqa1s3M6QAMaa4SGIJi1PTSJFby&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-2.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;oh=00_AfeLU_9bSy-1GTdGWeldiccMqETMMP6ru_onqgOOW3cLkw&amp;oe=68FEF989</t>
+          <t>https://scontent-lga3-2.cdninstagram.com/v/t51.2885-15/44575992_499252097259440_3860552525880411253_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=105&amp;ccb=7-5&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiRkVFRC5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=gcZo8in_cD4Q7kNvwFyF8LV&amp;_nc_oc=AdnDq8cc8JgXY6SFycAhh9XdBR5ZhR9EBYlnG67vJ8RuclPFq2OckDgotc3WBRp0OA_YOyHXh65LMGbIiYXBT2U7&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-2.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;oh=00_AfiiVS_Xwq5PYRhbamVdoff7Hd_s5Mnn1VapM6InJURJrA&amp;oe=69292989</t>
         </is>
       </c>
       <c r="AC186" t="inlineStr"/>
@@ -19077,10 +19104,10 @@
         <v>0</v>
       </c>
       <c r="O187" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P187" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="Q187" t="n">
         <v>51</v>
@@ -19107,7 +19134,7 @@
       <c r="AA187" t="inlineStr"/>
       <c r="AB187" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-2.cdninstagram.com/v/t51.2885-15/44445752_362719077605148_278800054925753130_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiRkVFRC5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=Q5xM1CebcK0Q7kNvwE2gUXv&amp;_nc_oc=AdkG9M1NsqD-uV3pEq4YjsaINKHF1Z0xcqsNLBYoJCfo7-kNna0XCPkYcc-XjAaKNpm0mGKbFMuj_Vk7M6i9EWu5&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-2.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;oh=00_AffD-LMniLoxlAu8viDm-Xx3MKHBV39_tTSq4TazFkJTvA&amp;oe=68FF11CC</t>
+          <t>https://scontent-lga3-2.cdninstagram.com/v/t51.2885-15/44445752_362719077605148_278800054925753130_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=100&amp;ccb=7-5&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiRkVFRC5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=khHWdW8HcWUQ7kNvwEQLwh3&amp;_nc_oc=AdmZVNpZTgQWemPoDHbpqjH2rsm2R3Rob3O-3VnK5UjkWeHkhNERWJgPSV2xY5RI5NP8XwxiJCO1yQPKdT8aSLmT&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-2.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;oh=00_Afi9Wp665PK8nLvNQg1ciMbdyKt6SbQgA0wJCE-akmaaCw&amp;oe=692941CC</t>
         </is>
       </c>
       <c r="AC187" t="inlineStr"/>
@@ -19178,10 +19205,10 @@
         <v>0</v>
       </c>
       <c r="O188" t="n">
+        <v>17</v>
+      </c>
+      <c r="P188" t="n">
         <v>18</v>
-      </c>
-      <c r="P188" t="n">
-        <v>19</v>
       </c>
       <c r="Q188" t="n">
         <v>43</v>
@@ -19208,7 +19235,7 @@
       <c r="AA188" t="inlineStr"/>
       <c r="AB188" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-2.cdninstagram.com/v/t51.2885-15/42848494_282422492612519_7298588516853349114_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiRkVFRC5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=uTlvK5zPvPkQ7kNvwG1lqyt&amp;_nc_oc=AdnbbvWw_cBsFACycNUdnRuGq_FYFeqyNEA8TZg4cyTf_Qd2L_5EJq_2P1Ol-sMm-jP4LuFrosI6ZyP5FVm2wVrX&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-2.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;oh=00_AfcNNQJ1T_W9LwMvYA1tM4dLzmDqcJX2G3FEZbd_ahLAuw&amp;oe=68FEECFB</t>
+          <t>https://scontent-lga3-2.cdninstagram.com/v/t51.2885-15/42848494_282422492612519_7298588516853349114_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=109&amp;ccb=7-5&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiRkVFRC5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=NvVTKiGIL0gQ7kNvwEkBlAA&amp;_nc_oc=AdnNMmKpKxsoYlesEkubcDckJXQPUAVzSfY5y2qNUxD72a0D8RV7CV3aJnDnGrjPNQpCB9i9pZKc-JVQ0aS1Gm3U&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-2.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;oh=00_Afhm6PFBY0TF19c4xxFheijCsHTO1TiLJsI313pk5G5l1w&amp;oe=69291CFB</t>
         </is>
       </c>
       <c r="AC188" t="inlineStr"/>
@@ -19280,10 +19307,10 @@
         <v>0</v>
       </c>
       <c r="O189" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P189" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q189" t="n">
         <v>46</v>
@@ -19310,7 +19337,7 @@
       <c r="AA189" t="inlineStr"/>
       <c r="AB189" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-1.cdninstagram.com/v/t51.2885-15/36675764_269528717114272_7496332010294607872_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiRkVFRC5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=dIFd5cWlxScQ7kNvwENpiaS&amp;_nc_oc=AdmvB2NCD6sjt18YCAJDybZxwK_47Ya3poQZSa5wEE84jULeHLfpeAkWUbgaQw-ZCL7xDBUGu4_2bFXaxr054-RA&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-1.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;oh=00_Aff6VV6TzH58E5x5BnWTponCVave_P6MOT23AODIQAkwxQ&amp;oe=68FF0686</t>
+          <t>https://scontent-lga3-1.cdninstagram.com/v/t51.2885-15/36675764_269528717114272_7496332010294607872_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=103&amp;ccb=7-5&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiRkVFRC5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=KrCxzU_zYeMQ7kNvwFE_GDI&amp;_nc_oc=Adne2Sd3vZyBdKaJLQXAwtyYAmNvE3ndip2yzw-OVbzo_PYXMrS-qif30aJhr_TSmEgdw3tBnITzvFBjOmj0OsXC&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-1.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;oh=00_AfgEH5v9sGWVJOSNAe3URuaC--NQz8UGamqdAk48WrnVIw&amp;oe=69293686</t>
         </is>
       </c>
       <c r="AC189" t="inlineStr"/>
@@ -19382,10 +19409,10 @@
         <v>0</v>
       </c>
       <c r="O190" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P190" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q190" t="n">
         <v>44</v>
@@ -19412,7 +19439,7 @@
       <c r="AA190" t="inlineStr"/>
       <c r="AB190" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-3.cdninstagram.com/v/t51.2885-15/34357187_184548145584726_6678306753777500160_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiRkVFRC5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=ZBM4bK2imMAQ7kNvwG-OOqF&amp;_nc_oc=AdmYMpRUeYBdGiLJasG4Z8QquuX2uXEH43zOM1DI5Y6AVF_0TZ2M4JVIwCBrnN3qQWOv0O3D-jiDZsrfvu8vlF94&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-3.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;oh=00_AfdGOefv1scIDq3d9czs-mkIo_ivGuj4Fiau5aeqCl_yOQ&amp;oe=68FEFC10</t>
+          <t>https://scontent-lga3-3.cdninstagram.com/v/t51.2885-15/34357187_184548145584726_6678306753777500160_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=110&amp;ccb=7-5&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiRkVFRC5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=ZJxZqHWKZl0Q7kNvwERHWhn&amp;_nc_oc=AdlD2G4_k5udqvce6Vn-V32huWFRD0hbqskPkdsNDy7uH8xpkuX8AH8d9Zl1U1bF3Mp4xQ5ohyzRitkhCUSFHkPs&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-3.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;oh=00_AfgUstpnSgf1SyBCRmbbWzt_s2whqqibrUy-h8PW_mnnVg&amp;oe=69292C10</t>
         </is>
       </c>
       <c r="AC190" t="inlineStr"/>
@@ -19485,10 +19512,10 @@
         <v>0</v>
       </c>
       <c r="O191" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="P191" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q191" t="n">
         <v>65</v>
@@ -19515,7 +19542,7 @@
       <c r="AA191" t="inlineStr"/>
       <c r="AB191" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-2.cdninstagram.com/v/t51.2885-15/33210439_292290221309428_5936014655590760448_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiRkVFRC5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=UpLdu20-lZoQ7kNvwFjE6S1&amp;_nc_oc=AdlYEIy57y5k57M0UN_4wt5sr7riywfVbe965WIxEdFlIlHxsMiDxitPty8fR8iyGlZpFsYdv9Ndxo_ZZdnE3HWL&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-2.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;oh=00_Afe8MiUVqO9Slfdzb81Y6vjoTcNM_vLK2ekfTdWDctz8fg&amp;oe=68FEF306</t>
+          <t>https://scontent-lga3-2.cdninstagram.com/v/t51.2885-15/33210439_292290221309428_5936014655590760448_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=107&amp;ccb=7-5&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiRkVFRC5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=6OJblNrdLocQ7kNvwHoPcW9&amp;_nc_oc=AdkbTjvTh4hktF7emawzveC4-iOGzCM9w_9zS_zCoMMF4ckhttPNCrWyyJ2KE1acOFu5MMMr5eVRY4TTPZYAqDmu&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-2.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;oh=00_AfgAVwSURLFF5eagB2u_EZj8DmQ1-FejThcYsFXVVImkGQ&amp;oe=69292306</t>
         </is>
       </c>
       <c r="AC191" t="inlineStr"/>
@@ -19617,7 +19644,7 @@
       <c r="AA192" t="inlineStr"/>
       <c r="AB192" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-1.cdninstagram.com/v/t51.2885-15/29737811_1618766681570608_6845490211200172032_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiRkVFRC5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=FHv05-t4bU0Q7kNvwFN91cc&amp;_nc_oc=AdkXDDDheS5KISeeMknJGj4vVJ78iIf4EMycYiCNrDhhjSnm7yjl9dEt8W0GDym3sefLUf4UK7UwdChoqESjdWGg&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-1.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;oh=00_Afda-WMkY2uqmScqJ42G9H3PzDg3aYGUceGSzl2bS09E6w&amp;oe=68FF070C</t>
+          <t>https://scontent-lga3-3.cdninstagram.com/v/t51.2885-15/29737811_1618766681570608_6845490211200172032_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=108&amp;ccb=7-5&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiRkVFRC5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=_pjj3s6waPUQ7kNvwE6wnPg&amp;_nc_oc=AdlDeZ8yRAX7qX_UhoIlCDP0-9bivZPLrxhAfFXYDWDtGn_pFYu6to2rcw7n8q-58wA31HLkokY7Gz3SpIHq1ZWM&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-3.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;oh=00_AfjdqOlaD9jJW0GEtOeiq7CJeaT37EPeKE3CpdSe6cdMxA&amp;oe=6929370C</t>
         </is>
       </c>
       <c r="AC192" t="inlineStr"/>
@@ -19712,7 +19739,7 @@
       <c r="AA193" t="inlineStr"/>
       <c r="AB193" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-3.cdninstagram.com/v/t51.2885-15/28432863_589795581412935_9064235943690502144_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiRkVFRC5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=hvCIQBj7cL4Q7kNvwHIE7Nr&amp;_nc_oc=AdlzYC_1TdqhJzYa6a2bwtxNSt_9Asuqhp7SIywoMiUckPvT2adPSC2QDtiKzWh_T48ITak0pD8zzeBAZjlx1gCn&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-3.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;oh=00_AffFNZnGtRCe3SXX5FQc7NzcuIotXrfK8rXwZc4K0p0rpw&amp;oe=68FEF87A</t>
+          <t>https://scontent-lga3-3.cdninstagram.com/v/t51.2885-15/28432863_589795581412935_9064235943690502144_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=106&amp;ccb=7-5&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiRkVFRC5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=zyWyq9UtZXMQ7kNvwEmqQlO&amp;_nc_oc=Adlz9ixylUaXUv1JDoFWQwe17YtVWsiLwKL_BzQ3c0X9vGFKzhjpQX5HgeIJjDuXiYujslWyh2P6zRHQ5D7mgpKV&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-3.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;oh=00_AfjFJ1k0w1NHVPiE-g07gl9VzJ5dLSblS3FEhiQAkwt9dA&amp;oe=6929287A</t>
         </is>
       </c>
       <c r="AC193" t="inlineStr"/>
@@ -19812,7 +19839,7 @@
       <c r="AA194" t="inlineStr"/>
       <c r="AB194" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-3.cdninstagram.com/v/t51.2885-15/27893316_146004279421355_3235236149240791040_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiRkVFRC5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=TD-GsFu4bhEQ7kNvwFo2NIx&amp;_nc_oc=AdnKmPf3jNJYwnTFvybKN12H-HyZr2vf3KGRoOTHCMOEqnGfsxctMHo3cYeblnO6-8H3GNGjuQheFqcI_B_w2Pvk&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-3.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;oh=00_AffjeElkCw5DjsHwc7wOPhtooVnarvMjLUtEX7fFLRUEug&amp;oe=68FF179C</t>
+          <t>https://scontent-lga3-3.cdninstagram.com/v/t51.2885-15/27893316_146004279421355_3235236149240791040_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=104&amp;ccb=7-5&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiRkVFRC5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=C-O5UUW3H9sQ7kNvwETmp-6&amp;_nc_oc=Adl9oli0zWiym9_fOsmn9dUK44Fg0KOJ2ERrGFChQI67AcdDFiM2km3RNCyLSGIivfTMEfM2VbxAlY0VKFAF_teq&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-3.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;oh=00_Afh-3titMT6NGfQtGXazLVGQAVG5mF5j7vQo-M9GeKIyTQ&amp;oe=6929479C</t>
         </is>
       </c>
       <c r="AC194" t="inlineStr"/>
@@ -19884,10 +19911,10 @@
         <v>0</v>
       </c>
       <c r="O195" t="n">
+        <v>17</v>
+      </c>
+      <c r="P195" t="n">
         <v>18</v>
-      </c>
-      <c r="P195" t="n">
-        <v>20</v>
       </c>
       <c r="Q195" t="n">
         <v>37</v>
@@ -19914,7 +19941,7 @@
       <c r="AA195" t="inlineStr"/>
       <c r="AB195" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-2.cdninstagram.com/v/t51.2885-15/27578854_344834679367441_219208464998596608_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiRkVFRC5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=zMYeIZuLJDkQ7kNvwHkQc6l&amp;_nc_oc=AdlR5FXbAf0JkGH_CDUHk1MFRWp2KKRdankZrPCliT7aTlKPFtvnOx6yDDnhq3PbXH2WvMyc90t3I9am1Pa_rT60&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-2.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;oh=00_Afdc46gexHbv7gs0PTIqKaZ_Y-Uhy3wbGhx7yXaUpJiQrA&amp;oe=68FF162C</t>
+          <t>https://scontent-lga3-2.cdninstagram.com/v/t51.2885-15/27578854_344834679367441_219208464998596608_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=101&amp;ccb=7-5&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiRkVFRC5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=EZurF9XIKYMQ7kNvwFLy63v&amp;_nc_oc=AdkhjDurCXLkf6jZQXYval3_MXAzadSsFtbD_ZhPNKiQJ9lQOfNTQCKTeOR7z4w9oEQsjgmPbzxTE_a99q_oFll3&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-2.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;oh=00_AfjiNrq4CwS8qwfLl2VmfhDQ5Ky0s2U3M2kml2L51Evy3A&amp;oe=6929462C</t>
         </is>
       </c>
       <c r="AC195" t="inlineStr"/>
@@ -19987,10 +20014,10 @@
         <v>0</v>
       </c>
       <c r="O196" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P196" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q196" t="n">
         <v>52</v>
@@ -20017,7 +20044,7 @@
       <c r="AA196" t="inlineStr"/>
       <c r="AB196" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-3.cdninstagram.com/v/t51.2885-15/26869435_179854736118606_6847582087906590720_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiRkVFRC5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=ykT60yv8WzoQ7kNvwEMvJDF&amp;_nc_oc=AdkwFwPq-42eqT5vR2AHb07WVu6dnBLj0YI-HxUmTA0lDc2mvqxMzmkSuCXPDzjxPnKEqIB2JOqE5z5t4EhsFeSf&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-3.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;oh=00_Afeenwstgxwl3CaJ_ZdN0SSBPakBuR9mr1mgR2S1HQXUTA&amp;oe=68FEE5D4</t>
+          <t>https://scontent-lga3-3.cdninstagram.com/v/t51.2885-15/26869435_179854736118606_6847582087906590720_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=104&amp;ccb=7-5&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiRkVFRC5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=8Z1sFf8KjZ8Q7kNvwHDfJCN&amp;_nc_oc=AdllvmkFmIIOuZOh4inhEFT69IQAycxdotRUBUUcozKcqZ5NRUE1lGlkL5rYi2wFm_AM6T7FvHdo_5SWMcq1ueva&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-3.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;oh=00_AfhOnOo2KsCUixSsOGqyp31o7rk3vnoybA5VQHj-za3K_g&amp;oe=692915D4</t>
         </is>
       </c>
       <c r="AC196" t="inlineStr"/>
@@ -20093,7 +20120,7 @@
         <v>28</v>
       </c>
       <c r="P197" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q197" t="n">
         <v>38</v>
@@ -20120,7 +20147,7 @@
       <c r="AA197" t="inlineStr"/>
       <c r="AB197" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-2.cdninstagram.com/v/t51.2885-15/25014975_567168056954263_6394599957441019904_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiRkVFRC5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=4phNng4HcdYQ7kNvwHezhVc&amp;_nc_oc=AdmBRIhfVIqMLrPgxrFvcX8hFKcY8abV_7jy4lI_PYGcHl0q1oLpXhC-5CSrWSr5AXAY07uj_89VcZ6RWJQuhhn2&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-2.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;oh=00_AffjeJH3EzjgjZSWg6oJ3wRQSByele0gkbpwf0w_5WDGRw&amp;oe=68FEFE94</t>
+          <t>https://scontent-lga3-2.cdninstagram.com/v/t51.2885-15/25014975_567168056954263_6394599957441019904_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=101&amp;ccb=7-5&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiRkVFRC5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=46YmzLYyPvoQ7kNvwHkNNd_&amp;_nc_oc=Adn5-9SyQ0HGTBdjQGTl8idV7pauyt27QGqfI6SRLmToFwKOYyINmWTxGJmSCwSLqMfQGMMp4oJKqJZSJQFh3szb&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-2.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;oh=00_AfjcLkbK-ZmV3kuagNQl2NGYqnCqn_1QuHCP0Bn1ouRyJw&amp;oe=69292E94</t>
         </is>
       </c>
       <c r="AC197" t="inlineStr"/>
@@ -20222,7 +20249,7 @@
       <c r="AA198" t="inlineStr"/>
       <c r="AB198" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-1.cdninstagram.com/v/t51.2885-15/24274318_151037338867722_5040771595103109120_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiRkVFRC5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=WC_A3dZDIeoQ7kNvwFmdhGd&amp;_nc_oc=AdmcZO3qIPa48I98fnDWvU4ae0psKzp43C095QLGXNsCN4qUKRanTfWZtqTz6iD4ofPaQNyzDsRK9dL2yZbi0uKN&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-1.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;oh=00_AfcJ9HpiqPdh_CPsQgapGO2t6vvuTAwfY2bGi52NNHrH0Q&amp;oe=68FEFE45</t>
+          <t>https://scontent-lga3-1.cdninstagram.com/v/t51.2885-15/24274318_151037338867722_5040771595103109120_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=103&amp;ccb=7-5&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiRkVFRC5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=WEUeLUR8HzsQ7kNvwErT0tw&amp;_nc_oc=AdkHxwbVpnmDhlf8sgj0piZ-_FtlckjDkEe0y0nqTWEy0wepYDcRTWdhN4QKpFrSl6F5FMBvVP3kuO1wLsI05t2p&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-1.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;oh=00_AfgAlO5LfNdpt9bmYWduAFsh1amF0zNjmjczNu6B3jhj5A&amp;oe=69292E45</t>
         </is>
       </c>
       <c r="AC198" t="inlineStr"/>
@@ -20293,10 +20320,10 @@
         <v>0</v>
       </c>
       <c r="O199" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P199" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Q199" t="n">
         <v>38</v>
@@ -20323,7 +20350,7 @@
       <c r="AA199" t="inlineStr"/>
       <c r="AB199" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-2.cdninstagram.com/v/t51.2885-15/23416821_188662881704092_161718094358642688_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiRkVFRC5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=eNxvRBU0nLQQ7kNvwF5ou97&amp;_nc_oc=AdkG5rwmZ-B7U9zFs8f1ygfOmnrEkkRR_k9938g1ePay5s5KXNwHhmKn2_cLt1GBKJeVEqnaHrNJ2_085esKOif2&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-2.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;oh=00_AfcUeptm5KhkwQA0eNRyK5GeTtM29gW4C4GjhgPYPq2U4g&amp;oe=68FEF7E1</t>
+          <t>https://scontent-lga3-2.cdninstagram.com/v/t51.2885-15/23416821_188662881704092_161718094358642688_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=105&amp;ccb=7-5&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiRkVFRC5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=OSICcdtFhHMQ7kNvwGBm4qo&amp;_nc_oc=AdnltQ_0TNk0DNvxiRlLNQUUB0YslSYD8OdBdMdYI9oYdTz-V-iRu9FpAaKqzqKNf_yQ2FROeuB5pO9p_srI83u2&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-2.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;oh=00_Afhv8OqU_JIiRjI2c1q-52oRIks2xO54nSGCGz1PVQDXOw&amp;oe=692927E1</t>
         </is>
       </c>
       <c r="AC199" t="inlineStr"/>
@@ -20394,10 +20421,10 @@
         <v>0</v>
       </c>
       <c r="O200" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="P200" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q200" t="n">
         <v>21</v>
@@ -20424,7 +20451,7 @@
       <c r="AA200" t="inlineStr"/>
       <c r="AB200" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-3.cdninstagram.com/v/t51.2885-15/22710989_1853861088277648_8879356194511126528_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiRkVFRC5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=M-MNvGnk4jEQ7kNvwGRK7be&amp;_nc_oc=AdnTUQKJOywRHu9ul16PVlnsKi1xRTRmRkM_eAZD3cx0CiaFfbzaI8E9INKN-1OXxlD2sL0oK2C8NlBy6k3BHgTk&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-3.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;oh=00_Affu94jd-W4MfceURA-Qs9AIPGwGMhyTaWGgi_gaiPR0Gg&amp;oe=68FF00E2</t>
+          <t>https://scontent-lga3-3.cdninstagram.com/v/t51.2885-15/22710989_1853861088277648_8879356194511126528_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=110&amp;ccb=7-5&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiRkVFRC5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=KTzKzZ1V6EwQ7kNvwEsva8y&amp;_nc_oc=Adne9CRM-T246oeWDsGzNix5ZJOY7fYgvRH-xncht7e71-PosXI05iEO4iLItcz4Q0ndl3qKGJcgCOjSs0hgdq9Y&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-3.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;oh=00_AfjkM2ZhR2IozmztOZKA3xmggV2wNjWsQmyFNoubc7luZw&amp;oe=692930E2</t>
         </is>
       </c>
       <c r="AC200" t="inlineStr"/>
@@ -20498,10 +20525,10 @@
         <v>0</v>
       </c>
       <c r="O201" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="P201" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q201" t="n">
         <v>48</v>
@@ -20528,7 +20555,7 @@
       <c r="AA201" t="inlineStr"/>
       <c r="AB201" t="inlineStr">
         <is>
-          <t>https://scontent-lga3-3.cdninstagram.com/v/t51.2885-15/22580710_538990723102818_3532620599643865088_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiRkVFRC5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=HMUfME7dApAQ7kNvwHAB2Ua&amp;_nc_oc=Admzj7uDdsxMHfs1ptQJvG8S9BIOKblrdRve1OpBTmnKBuVhg5EtZWUTwTFJubAoXxlcsF1zncRuGH4phZBEo1zz&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-3.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;oh=00_AfeKV8WLiqxs_OQTFdLXG6e-_c8TGD27IRxXmLHETbnwEw&amp;oe=68FEFAEE</t>
+          <t>https://scontent-lga3-3.cdninstagram.com/v/t51.2885-15/22580710_538990723102818_3532620599643865088_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=106&amp;ccb=7-5&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiRkVFRC5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=Dmcr4Wy4Mo4Q7kNvwHFcB1l&amp;_nc_oc=AdltdZGMwP-hqigqKc52itK1QAoBobhaIUFx8sa3TD93sIOIIUs_MLuGXaeMTEsqm1KRfYbTmDi9KXBsWcvEbzTb&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-3.cdninstagram.com&amp;edm=AM6HXa8EAAAA&amp;oh=00_AfjIMePmkwXDypINdaKJyzj8ksLVzpvyo-duYwJLMgQXyQ&amp;oe=69292AEE</t>
         </is>
       </c>
       <c r="AC201" t="inlineStr"/>
